--- a/files/galen_model_rankings.xlsx
+++ b/files/galen_model_rankings.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
   </si>
   <si>
     <t>Category</t>
@@ -94,10 +97,2611 @@
  | mistral-7b: ```sql--JointhethreedatabasesusingDepMap_IDSELECTccle_gistic.Hugo_Symbol,gistic_cnascna,ccle_mutation.Protein_Change,COUNT(*)asmutation_countFROMccle_gisticJOINccle_mutationONccle_gistic.DepMap_ID=ccle_mutation.DepMap_IDWHEREHugo_Symbol='POLR3E'GROUPBYgistic_cn,Protein_ChangeORDERBYmutation_countDESC--Identifyspecificregionsoftheproteinwheremutationsoccurfrequently--YoumayneedtopreprocesstheProtein_Changecolumntoextractrelevantinformation(e.g.,specificaminoacidpositions)--Replace'amino_acid_position'withtheappropriateSQLquerytoextracttheaminoacidpositionfromProtein_Change--Hypotheticalexampleforextractingaminoacidpositions--AssumingtheProtein_Changecolumncontainsastringlike'p.Ala123Gly'--Replace'Ala123'withtheactualaminoacidposition--SQLqueryforfindingspecificregionsoftheproteinwheremutationsoccuratahigherfrequencySELECTgistic_cn,Protein_Change,amino_acid_position,COUNT(*)asmutation_countFROM(SELECTccle_gistic.Hugo_Symbol,gistic_cn,SUBSTRING(Protein_Change,3,INSTR(Protein_Change,'')-3)asamino_acid_position,Protein_ChangeFROMccle_gisticJOINccle_mutationONccle_gistic.DepMap_ID=ccle_mutation.DepMap_IDWHEREHugo_Symbol='POLR3E')asprotein_changesGROUPBYgistic_cn,amino_acid_positionORDERBYmutation_countDESC''' | mixtral-instruct: SQLquery:SELECTc.`Protein_Change`,COUNT(c.`Protein_Change`)asmutation\_countFROM`ccle_mutation`.`CCLE_Mutation`ascWHEREc.`Hugo_Symbol`='POLR3E'GROUPBYc.`Protein_Change`ORDERBYmutation\_countDESC; | noushermes2: SQLSELECTccle_variants.DepMap_ID,ccle_variants.ProteinChange,COUNT(*)ASmutation_countFROMccle_variantsJOINccle_mutationONccle_variants.DepMap_ID=ccle_mutation.DepMap_IDWHEREccle_mutation.Hugo_Symbol='POLR3E'GROUPBYccle_variants.DepMap_ID,ccle_variants.ProteinChangeORDERBYmutation_countDESC; | yi-34b: sqlSELECT*FROM(--JointheGISTICcopynumberalterationstablewiththeMutationannotationfileSELECTccle_gistic.Hugo_SymbolASgn1,ccle_mutations.Hugo_SymbolASmn2,ccle_var.DepMap_IDASid,SUM(IF(gn1='POLR3E'ANDvt='Missense_Mutation',1,0))ASmissense_count,SUM(IF(mn2='POLR3E'ANDvt='Missense_Mutation',1,0))AStotal_missense_countFROMccldb.ccle_gisticASccle_gisticJOINccldb.ccle_mutationsASccle_mutationsONccle_gistic.Hugo_Symbol=ccle_mutations.Hugo_SymbolLEFTJOINccldb.ccle_varASccle_varONccle_var.DepMap_ID=ccle_mutations.DepMap_IDGROUPBYccle_gistic.Hugo_Symbol,ccle_mutations.Hugo_Symbol,ccle_var.DepMap_ID)ASaggregated_mutationsWHEREtotal_missense_count&gt;5--Adjustthisthresholdaccordingtoyourcriteriafor"highfrequency"ORDERBYmissense_countDESC;</t>
   </si>
   <si>
+    <t>Question: define synthetic lethality | falcon-40b: No response | gpt-3.5-turbo-1106: - The concept of synthetic lethality in cancer drug discovery involves identifying targeted therapies that kill cancer cells lacking specific tumor suppressor genes but spare normal cells
+- CRISPR-based functional genomic screening combined with synthetic lethality could lead to the development of more effective cancer drugs and combinations
+- Synthetic lethal interaction data from model organisms, bioinformatic predictions from tumor genome sequencing data, and direct screening of human cancer lines have identified potential drug targets
+- The mechanistic complexities underlying cancer phenotypes need to be unraveled to successfully identify specific targets for selective killing of tumor cells and realize the full potential of personalized anticancer therapeutics | mistral-7b: 1. Synthetic lethality is a concept used to identify new anticancer drug targets by finding genes that are essential for the survival of cancer cells with specific mutations but not for normal cells.
+2. Synthetic lethality was first proposed 20 years ago, but only one drug based on this concept has progressed to the clinic due to challenges in identifying robust, clinically relevant interactions.
+3. Screening for synthetic lethal interactions poses three major challenges: mutant recovery and identification are difficult due to lethality, interactions may not be conserved under different cellular conditions, and they are rare and require screening of large numbers of mutant gene pair combinations.
+4. In silico approaches, such as DAISY-generated genome-wide synthetic lethality networks, have shown promise in predicting clinical prognosis in breast cancer and prioritizing target synthetic lethal pairs for experimental validation.
+5. Synthetic lethality-based therapeutic strategy offers three benefits: it is selective for cancer cell-specific genetic mutations, making it easier to identify patient responders; it has a large therapeutic window, which should limit adverse effects; and it can lead to the development of new drug combinations. | mixtral-instruct: 
+* Synthetic lethality is a concept in which the perturbation of either one of two genes alone is viable, but the perturbation of both genes simultaneously results in the loss of viability.
+* This concept has been applied to cancer treatment, where one gene product has a cancer-specific mutation and the second gene product is the drug target.
+* The initial identification of synthetic lethal pairs was limited to loss-of-function screens in model organisms, such as yeast, but the utility of these findings for cancer drug discovery relies on the existence of relevant homologues in human cells.
+* The advent of RNAi technology allowed the broader application of these concepts to human cell line systems and a number of subsequent screening efforts in cancer cells were undertaken.
+* A synthetic lethality approach could be used to target hundreds of tumor-specific mutations and alterations in gene expression identified by next-generation sequencing technologies.
+* A double mutation in a synthetic lethal gene pair should result in a selective disadvantage for cell growth.
+* A computational pipeline called DAISY has been developed to predict synthetic lethal interactions by integrating somatic copy number alterations and mutation data from clinical samples and cell lines, gene essentiality profiles from cell line RNAi screens, and cell line gene expression data.
+* A combined interaction score using all three approaches predicts candidate synthetic lethality as well as SDL gene pairs.
+* A subset of candidate synthetic lethal pairs predicted by the DAISY method has been validated in cells using RNAi. | noushermes2: Summary:
+- Lethal interactions can be dependent on intrinsic (genetic background, hypoxia, metabolic changes) or extrinsic conditions (treatment with DNA-damaging agents).
+- Synthetic lethal interactions can be suppressed by conditions such as genetic background mutations.
+- Direct screening for synthetic lethal interactions in human cell culture can be done using CRISPR and/or RNA-mediated methods.
+- The systematic identification of synthetic lethal pairs relevant to human disease has been limited to loss-of-function screens in model organisms.
+- RNAi technology has allowed broader application of these concepts to human cell line systems.
+- Synthetic lethal interactions can reveal those that are less sensitive to contextual variability and more likely to be useful in clinical settings.
+- Additional aspects of synthetic lethal interactions in human cells, such as network topology and the strength of synthetic lethality, need further systematic exploration. | yi-34b: - Synthetic lethality: When perturbing (knocking out/inhibiting) two genes together causes cell death, while perturbing each gene separately does not.
+- Cancer treatment potential: Identifying and understanding such gene pairs can lead to new targets for cancer therapies.
+- Next-gen sequencing aids discovery: Advancements in DNA sequencing tech allow for the detection of numerous tumor-specific mutations and changes in gene expression.
+- Genetic interaction mapping: Yeast models have helped identify many genetic interactions; however, their relevance to humans depends on finding similar genes.
+- RNA interference technology: Allows for wider testing of human cell lines, facilitating synthetic lethal screenings.
+- Tumor immunology challenges: Understanding how tumors evade the immune system is crucial for developing treatments; CRISPR screens may help identify key genes.</t>
+  </si>
+  <si>
+    <t>Question: deletion of which gene leads to synthetic lethal inhibition of prmt5? | falcon-40b: No response | gpt-3.5-turbo-1106: - MTAP deletion results in dependency on PRMT5 activity in cancer cells
+- PRMT5 inhibitors can potentially target MTAP-deleted tumors with limited toxicity to normal cells
+- The first effort to exploit this synthetic lethal pair has been with MAT2A inhibitors, with limited efficacy data released
+- MTAP is deleted in approximately 15% of all human cancers, including more than 50% of glioblastomas and 25% of pancreatic cancers
+- Existing PRMT5 inhibitors do not act by the mechanism of MTA cooperative, SAM competitive and kill both MTAP deleted cells and wild type cells at similar exposures
+- References 72 and 73 demonstrate the synthetic lethal interaction between PRMT5 and MTAP deletion | mistral-7b: 1. Genetic deficiencies in chromatin remodeling factor BRG1 and ARID1B, as well as loss of MTAP, create vulnerabilities in certain cancers.
+2. MTAP deletion results in profound sensitivity to PRMT5 inhibition in cancer cells due to the accumulation of PRMT5 inhibitory cofactor S-methyl-5-thioadenosine (MTA).
+3. Approximately 15% of all human cancers, including more than 50% of glioblastomas and 25% of pancreatic cancers, have MTAP deletions.
+4. PRMT5 dependence in MTAP-deleted cells was discovered through projects Achilles and DRIVE, representing a subset of synthetic lethality called collateral lethality.
+5. Collateral lethality occurs when a passenger gene adjacent to a tumor suppressor gene is lost, such as MTAP and CDKN2A.
+6. MTAP null cells have a marked dependency on PRMT5, making them more susceptible to PRMT5 knockdown.
+7. PRMT5 inhibitors could have a large therapeutic window in patients with MTAP-deleted tumors due to limited toxicity in normal cells.
+8. The effect of PRMT5 knockdown on existing PRMT5 inhibitors has not been fully recapitulated.
+9. MTAP deletions are found in various types of cancers. | mixtral-instruct: 
+* A genetic deficiency in the chromatin remodeling factor BRG1 is associated with cancer (Cancer Res 73, 5508-5518, 2013)
+* ARID1B is a specific vulnerability in ARID1A mutant cancers (Nat Med 20, 2512-54, 2014)
+* MTAP deletion confers enhanced dependency on the PRMT5 arginine methyltransferase in cancer cells (Science 351, 1214-18, 2016)
+* Disordered methionine metabolism in MTAP-CDKN2A deleted cancers leads to dependence on PRMT5 (Science 351, 1208-13, 2016)
+* PRMT5 inhibitors that act by increasing the amount of inactive PRMT5 bound to MTA relative to active PRMT5 bound to SAM are likely in development but not currently available
+* The first MAT2A inhibitor, which reduces SAM levels, is now in clinical trials but limited efficacy data have been released
+* PRMT5 dependence in cells with MTAP deletions was discovered by Project Achilles and Project DRIVE
+* This dependency represents a subset of synthetic lethality termed collateral lethality
+* Collateral lethality occurs when a passenger gene adjacent to a tumour suppressor gene is lost along with the driver gene
+* MTAP is the passenger gene and is frequently co-deleted with the driver cyclin dependent kinase inhibitor CDKN2A encoding p16INK4
+* MTAP null cancer cells accumulate high levels of the PRMT5 inhibitory cofactor S-methyl-5'-thioadenosine (MTA) | noushermes2: Summary:
+- PRMT5 dependency in cells with MTAP deletions is a form of synthetic lethality called collateral lethality.
+- MTAP is a passenger gene frequently co-deleted with the driver gene CDKN2A.
+- MTAP null cancer cells have a marked dependency on PRMT5 due to high levels of PRMT5 inhibitory cofactor S-methyl-5-thioadenosine (MTA).
+- MTA cooperative SAM competitive PRMT5 inhibitors are likely in development but not currently available.
+- The first effort to exploit this synthetic lethal pair has been with MAT2A inhibitors, which act by reducing SAM levels.
+- The first MAT2A inhibitor is in clinical trials, but limited efficacy data have been released.
+- PRMT5 knockdown is more effective in MTAP deleted cells than in wild-type cells.
+- Existing PRMT5 inhibitors do not act by the MTA-dependent mechanism and therefore kill both MTAP deleted cells and wild-type cells at similar exposures, resulting in toxicity with limited activity. | yi-34b: - A genetic deficiency in the chromatin remodeling factor BRG1 can lead to cancer (Cancer Res, 2013).
+- ARID1B, a protein involved in DNA repair, is often mutated in cancers lacking ARID1A, suggesting a potential therapeutic target (Nat Med, 2014).
+- Deletion of MTAP, a gene located near CDKN2A, creates a vulnerability in cancer cells due to its role in metabolizing the enzyme PRMT5 (Science, 2016; Science, 2016).
+- Research shows that targeting PRMT5 could selectively kill cancer cells with MTAP deletion while sparing normal cells (refs 72 and 73).
+- Current PRMT5 inhibitors lack specificity for MTAP-deficient cells, leading to off-target effects and reduced effectiveness against other types of cancer.
+- Development of new MTA-cooperative/SAM-competitive PRMT5 inhibitors may offer a solution to specifically target MTAP-deleted tumors.
+- MAT2A inhibitors, which reduce SAM levels, are being tested clinically to exploit the synthetic lethal relationship between PRMT5 and MTAP loss.
+- Synthetic lethality research has identified several genes and pathways that could be targeted for personalized cancer treatments.</t>
+  </si>
+  <si>
+    <t>Question: describe a strategy to screen for synergistic effects between drug candidates. | falcon-40b: A  strategy  to  screen  for  synergistic  effects  between  drug  candidates  could  involve  the  following  steps:
+1.  Identify  a  set  of  drug  candidates  that  target  the  same  disease  pathway.
+2.  Conduct  in  vitro  assays  to  determine  the  individual  efficacy  of  each  drug  candidate.
+3.  Use  in  vitro  assays  to  evaluate  the  synergistic  effects  of  different  combinations  of  drug  candidates.
+4.  Select  the  most  promising  combinations  of  drug  candidates  for  further  preclinical  studies.
+5.  Conduct  in  vivo  studies  to  confirm  the  efficacy  and  safety  of  the  selected  drug  combinations.
+It  is  important  to  note  that  screening  for  synergistic  effects  between  drug  candidates  is  a  complex  process  that  requires  a  thorough  understanding  of  the  disease  pathway,  the  pharmacology  of  each  drug  candidate,  and  the  interaction  between  them.  Additionally,  it  is  crucial  to  ensure  that  the  selected  drug  candidates  do  not  have  adverse  interactions  or  toxic  effects  when  used  in  combination. | gpt-3.5-turbo-1106: To screen for synergistic effects between drug candidates, you can employ a high-throughput screening approach utilizing combinatorial drug testing. Here's a step-by-step strategy to accomplish this:
+1. **Selection of Drug Candidates:** First, identify a pool of potential drug candidates that target different pathways or have different mechanisms of action. It's important to choose compounds that individually have some efficacy in the context of the targeted disease or condition.
+2. **Dose-Response Studies:** Conduct dose-response studies for each drug candidate to determine the concentration range where they have maximal effects on their own.
+3. **Combinatorial Screening:** Create a matrix of combinations of the selected drug candidates at different concentrations, and screen these combinations using cell-based assays or other relevant biological models. This can be done in 96-well or 384-well plates to allow for high-throughput testing.
+4. **Data Analysis:** Measure the effects of each drug combination on the biological endpoint of interest, such as cell viability, proliferation, or protein expression. Use appropriate statistical and computational methods to analyze the data and identify combinations that exhibit synergistic effects, i.e., combinations where the effect of the combination is greater than the sum of the effects of the individual drugs.
+5. **Validation:** Validate the synergistic combinations in more complex biological models, such as 3D cell culture or in vivo models if possible, to ensure translatability to the in vivo setting.
+6. **Mechanistic Studies:** Perform mechanistic studies to understand the underlying reasons for the observed synergistic effects. This could involve studying the effects of the drug combinations on signaling pathways, gene expression, or metabolic profiles.
+7. **Optimization and Development:** Once validated, the synergistic drug combinations can be further optimized for potency, selectivity, and pharmacokinetic properties. The most promising combinations can then be further developed as potential drug candidates.
+By following this strategy, you can systematically screen for synergistic effects between different drug candidates, potentially uncovering novel and more effective treatment options for various diseases. | mistral-7b: 1.  Ident ification  of  Pot ential  Drug  Com bin ations:  The  first  step  in  screening  for  syn erg istic  effects  between  drug  candidates  is  to  identify  potential  drug  combinations.  This  can  be  achieved  through  various  approaches  such  as:
+     a.  Liter ature  Review:  Review ing  existing  literature  on  the  individual  drugs  and  their  known  targets,  path ways,  and  mechanisms  of  action  can  provide  insights  into  potential  syn erg istic  combinations.
+     b.  Gen etic  Inter actions:  Using  genetic  interaction  studies,  such  as  R NAi  or  CR IS PR-C as9  screens,  can  help  identify  genes  that,  when  knocked  down  or  knocked  out,  result  in  enhanced  sensitivity  to  one  or  more  drugs.
+     c.  Chem ical  Gen om ics:  High- through put  screening  of  chemical  libraries  using  ass ays  that  measure  cell ular  responses,  such  as  growth  inhib ition  or  ap opt osis,  can  help  identify  syn erg istic  drug  combinations.
+2.  Selection  of  App ropri ate  Ass ays:  Cho osing  the  right  ass ay  to  screen  for  syn erg istic  effects  is  crucial.  Common ly  used  ass ays  include:
+     a.  Check er board  Ass ay:  In  this  ass ay,  two  drugs  are  tested  at  various  concentr ations  in  combination,  and  the  fraction al  inhib itory  concentration  index  (F ICI)  is  calculated  to  determine  syn erg istic,  add itive,  or  ant agon istic  effects.
+     b.  Time- to- kill  Ass ay:  This  ass ay  measures  the  time  it  takes  for  a  combination  of  drugs  to  kill  cells  compared  to  each  drug  alone.  Syn erg istic  combinations  typically  result  in  faster  cell  death.
+     c.  Comb ination  Index  Ass ay:  The  combination  index  ( CI)  is  calculated  using  the  IC50  values  of  each  drug  alone  and  in  combination.  A  CI  &lt; 1  indicates  syn erg ism,  a  CI  = 1  indicates  add itivity,  and  a  CI  &gt; 1  indicates  ant agon ism.
+3.  Optim ization  of  Drug  Com bin ations:  Once  syn erg istic  drug  combinations  have  been  identified,  further  optimization  can  be  carried  out  to  determine  the  optimal  dos es,  rat ios,  and  sequences  of  drug  administration.  This  can  be  achieved  through  dose- response  experiments  and  time- course  studies.
+4.  Mechan istic  Under standing:  It  is  essential  to  understand  the  underlying  mechanisms  of  syn erg istic  drug  combinations  to  improve  eff ic acy  and  minimize  potential  toxic ities.  Techn iques  such  as  gene  expression  prof iling,  prote om ics,  and  met abol om ics  can  help  el uc | mixtral-instruct: To  screen  for  syn erg istic  effects  between  drug  candidates,  a  possible  strategy  could  involve  the  following  steps:
+1.  Ident ify  a  panel  of  drug  candidates:  This  panel  could  consist  of  approved  drugs,  drugs  in  clinical  trials,  or  comp ounds  identified  through  high- through put  screening  ass ays.
+2.  Choose  a  suitable  ass ay:  A  suitable  ass ay  should  be  chosen  based  on  the  biological  question  being  asked.  For  example,  if  the  goal  is  to  identify  drugs  that  can  enhance  the  eff ic acy  of  a  specific  cancer  therapy,  an  in  vit ro  cy tot ox icity  ass ay  using  cancer  cell  lines  could  be  used.
+3.  Design  a  screening  casc ade:  The  screening  casc ade  should  be  designed  to  identify  drug  combinations  with  syn erg istic  effects.  A  possible  approach  could  involve  performing  a  single-d rug  screen  first,  followed  by  a  drug  combination  screen.
+4.  Per form  single-d rug  screen:  The  single-d rug  screen  can  be  performed  using  the  chosen  ass ay  to  determine  the  half- max imal  inhib itory  concentration  ( IC50)  of  each  drug  candidate.  This  information  can  be  used  to  identify  drug  candidates  with  similar  IC50  values,  which  could  be  good  candidates  for  combination  therapy.
+5.  Per form  drug  combination  screen:  The  drug  combination  screen  can  be  performed  using  a  matrix- based  approach,  where  different  concentr ations  of  each  drug  are  combined  in  a  pair wise  manner.  The  resulting  data  can  be  analyzed  using  a  mathematical  model,  such  as  the  Bl iss  independence  model  or  the  L oe we  add itivity  model,  to  identify  drug  combinations  with  syn erg istic  effects.
+6.  Validate  hits:  The  hits  identified  in  the  drug  combination  screen  should  be  valid ated  using  secondary  ass ays,  such  as  orth og onal  cy tot ox icity  ass ays  or  in  v ivo  studies.
+7.  An aly ze  data:  The  data  generated  from  the  screening  casc ade  can  be  analyzed  to  identify  common  features  among  the  drug  candidates  that  exhibit  syn erg istic  effects.  This  information  can  be  used  to  guide  the  design  of  future  drug  combination  screens.
+ Over all,  the  strategy  for  screening  for  syn erg istic  effects  between  drug  candidates  involves  identifying  a  panel  of  drug  candidates,  choosing  a  suitable  ass ay,  designing  a  screening  casc ade,  performing  single-d rug  and  drug  combination  screens,  valid ating  hits,  and  analy zing  data.  This  approach  can  help  identify  drug  combinations  with  enhanced  eff ic acy,  which  could  lead  to  improved  treatment  outcomes  for  patients. | noushermes2: C ertain ly,  here's  a  strategy  to  screen  for  syn erg istic  effects  between  drug  candidates:
+1.  Ident ify  potential  drug  candidates:  Begin  by  comp iling  a  list  of  drug  candidates  that  have  shown  potential  in  pre cl in ical  studies  or  have  demonstrated  eff ic acy  in  treating  a  particular  disease  or  condition.
+2.  Det ermine  the  molecular  targets:  Invest igate  the  molecular  targets  of  each  drug  candidate  to  understand  their  mechanism  of  action  and  potential  for  syn er gy  with  other  drugs.
+3.  Develop  a  screening  ass ay:  Design  a  high- through put  screening  ass ay  to  evaluate  the  eff ic acy  of  each  drug  candidate  individually  and  in  combination  with  other  candidates.  This  ass ay  should  be  designed  to  measure  the  desired  biological  effect,  such  as  inhib ition  of  a  specific  en zyme  or  reduction  of  a  particular  sympt om.
+4.  Per form  the  screening:  Test  the  drug  candidates  individually  and  in  various  combinations  using  the  developed  ass ay.  Record  the  results  and  compare  the  eff ic acy  of  each  combination  to  the  individual  drug  candidates.
+5.  An aly ze  the  data:  Use  statistical  methods  to  determine  if  the  combination  of  drugs  results  in  a  syn erg istic  effect,  meaning  that  the  combined  effect  is  greater  than  the  sum  of  the  individual  effects.
+6.  Validate  the  findings:  Further  investigate  the  syn erg istic  effects  by  conducting  additional  experiments,  such  as  dose- response  studies,  to  confirm  the  observed  syn er gy  and  to  determine  the  optimal  drug  combination  and  dos ing  reg imen.
+7.  Invest igate  the  mechanism  of  syn er gy:  Expl ore  the  molecular  mechanisms  behind  the  observed  syn erg istic  effects  to  better  understand  the  interactions  between  the  drug  candidates  and  to  potentially  identify  new  targets  for  drug  development.
+8.  Optim ize  the  drug  combination:  Based  on  the  findings,  optim ize  the  drug  combination  to  maxim ize  the  syn erg istic  effect  while  minim izing  potential  side  effects  or  toxic ity.
+9.  Con duct  pre cl in ical  and  clinical  trials:  Once  a  promising  drug  combination  has  been  identified  and  optim ized,  proceed  with  pre cl in ical  and  clinical  trials  to  evaluate  the  safety  and  eff ic acy  of  the  combination  in  treating  the  targeted  disease  or  condition.
+ By  following  this  strategy,  we  can  effectively  screen  for  syn erg istic  effects  between  drug  candidates  and  potentially  identify  novel,  more  effective  treatments  for  various  diseases  and  conditions. | yi-34b: To  screen  for     synergistic  effects  between  two  or  more  drug   candidates,  you  can  employ  several  strategies  that  combine  in  vitro   assays  with  mathematical  models  of   interaction.    Here's  a      step-by-step   approach:
+   1.   **Select  Your  Cell   Line**:  Choose  a  cell  line  relevant  to  the  disease  or  biological  process  you  want  to   target.  For   example,  if    you're  looking  at  cancer   drugs,  you  might  use  tumor  cells  from  different  patients  or  established  cancer  cell   lines.
+   2.   **Choose    Appropriate    Assay**:  Depending  on  whether    you're  targeting  cell   growth,     apoptosis,   migration,    etc.,  choose  an  appropriate  assay  such  as   MTT                              (3-(4,5-dimethylthiazol-2-yl)-2,5-diphenyltetrazolium      bromide),    clonogenic   survival,  flow     cytometry,  or    real-time  cellular  analysis      (RTCA)  systems  like       xCELLigence.
+   3.    **Prepare  Drug  Stock   Solutions**:  Make  sure  you  have    high-quality  stock  solutions  of  each  drug   candidate,  ideally  at  concentrations  far  above  their  expected    IC50  values    (concentration  required  for     50%     inhibition).    Dilute  these  stocks  into    serum-free  medium  to  avoid  interference  from  serum   proteins.
+   4.   **Single  Agent   Testing**:   First,  determine  the   potency  of  each  single  agent  alone  by  performing  dose  response   curves.  This  will  give  you  baseline  data  for  each    compound's  efficacy  and  help  calculate  its    IC50   value.
+   5.    **Combination   Treatment**:  Test  various  ratios  and  doses  of  combination  treatments  using    checkerboard  or  matrix   dilution   methods.  In  this   method,  you  treat  cells  with  varying  concentrations  of  both  compounds   simultaneously,  allowing  you  to  observe  how  they  interact  across  multiple  concentration   ranges.
+   6.    **Determine   Combination   Indexes      (CIs)**:  Use  the        Chou-Talalay  methodology  or  other  similar  algorithms  to  analyze  the  experimental  results  and  derive   Combination   Indices     (CI).  CI  is  a  quantitative  measure  of    synergy,  where  CI  &lt;   1  indicates    synergy,  CI  =   1  suggests    additivity,  and  CI  &gt;   1  implies    antagonism.  The     CalcuSyn  software  is  often  used  to  calculate   CIs  based  on  median  effect   principles.
+   7.     **Mathematical   Models**:  Apply  models  such  as   Bliss  Independence  or    Loewe   Additivity  to  compare  observed  interactions  against  theoretical   expectations.  These  models  provide  additional  insights  into</t>
+  </si>
+  <si>
+    <t>Question: describe associations between expression and variant profiles for the gene polr3e. | falcon-40b: POLR3E  is  a  gene  that  encodes  the  largest  subunit  of  RNA  polymerase  III  (Pol  III),  which  is  responsible  for  the  transcription  of  small  nuclear  RNAs  (snRNAs)  and  transfer  RNAs  (tRNAs).  Variants  in  POLR3E  have  been  linked  to  several  diseases,  including  Diamond-Blackfan  anemia  and  hypogammaglobulinemia.  
+One  study  examined  the  expression  profiles  of  POLR3E  variants  in  patients  with  Diamond-Blackfan  anemia.  They  found  that  variants  in  POLR3E  resulted  in  decreased  expression  of  the  gene,  which  could  explain  the  low  levels  of  red  blood  cells  seen  in  these  patients.  Another  study  looked  at  the  expression  profiles  of  POLR3E  variants  in  patients  with  hypogammaglobulinemia.  They  found  that  variants  in  POLR3E  were  associated  with  decreased  expression  of  the  gene,  which  could  explain  the  low  levels  of  immunoglobulins  seen  in  these  patients.
+Overall,  the  expression  and  variant  profiles  of  POLR3E  suggest  that  variants  in  this  gene  can  lead  to  decreased  expression  and  potentially  contribute  to  disease.  Further  research  is  needed  to  fully  understand  the  role  of  POLR3E  in  disease  and  to  develop  targeted  therapies. | gpt-3.5-turbo-1106: The gene POLR3E encodes a subunit of RNA polymerase III, which is involved in the transcription of small non-coding RNAs. Variants in the POLR3E gene can impact its function and expression, leading to potential implications for human health and disease.
+Studying the association between expression and variant profiles for the POLR3E gene can provide insights into how genetic changes may affect gene expression and potentially contribute to disease susceptibility or other phenotypic outcomes. For example, certain genetic variants in the regulatory regions of the gene could influence its expression levels, thereby impacting the production of small non-coding RNAs and potentially disrupting cellular processes.
+Analyzing the expression and variant profiles of POLR3E in different tissues or cell types can also reveal tissue-specific regulatory mechanisms and shed light on the gene's diverse functions in different biological contexts.
+Understanding these associations may have implications for drug discovery and personalized medicine, as it could help identify potential therapeutic targets or genetic biomarkers for specific conditions associated with POLR3E dysregulation. Additionally, this knowledge could aid in the development of targeted therapies aimed at modulating POLR3E expression or function to treat related disorders. | mistral-7b: POLR3E  is  a  gene  that  enc odes  the  third  largest  sub unit  of  R NA  poly mer ase  III  ( Pol  III ),  which  is  essential  for  the  trans cription  of  small  RN As,  such  as 5S  rR NA,  tRN As,  and  other  non-c oding  RN As.  The  expression  and  variant  profiles  of  P OLR3E  have  been  studied  in  various  contexts,  including  disease  and  response  to  drugs.
+ At  the  trans cript  level,  P OLR3E  expression  has  been  shown  to  be  important  in  various  processes,  including  development,  cell  cycle  progress ion,  and  stress  response.  For  instance,  reduced  P OLR3E  expression  has  been  linked  to  neuro develop ment al  disorders,  such  as  micro ce ph aly  and  intellectual  disability,  and  to  certain  can cers,  such  as  breast  cancer  and  col ore ct al  cancer.  In  addition,  P OLR3E  expression  has  been  reported  to  be  altered  in  response  to  various  stress ors,  such  as  UV  radiation  and  ox id ative  stress.
+ At  the  variant  level,  several  studies  have  identified  single  nucle ot ide  pol ym orph isms  ( SN Ps)  and  structural  vari ants  ( SVs)  in  P OLR3E  that  are  associated  with  various  diseases.  For  example,  a  miss ense  SNP  ( rs1051730)  in  P OLR3E  has  been  linked  to  an  increased  risk  of  Park inson's  disease,  while  a  SV  (a  delet ion  of  a 2.3  kb  fragment)  has  been  associated  with  con gen ital  central  hyp ov ent ilation  syndrome.
+F ur ther more,  there  are  reports  suggesting  that  P OLR3E  vari ants  may  affect  drug  response.  For  instance,  a  study  published  in  the  journal  "N ature  Gen etics"  identified  a  rare  miss ense  variant  (p. Arg1286C ys)  in  P OLR3E  that  conf ers  resistance  to  the  ant ic ancer  drug  tem si rol im us  in  re nal  cell  car cin oma  patients.  This  variant  was  found  to  affect  the  interaction  between  Pol  III  and  the  drug,  resulting  in  decre ased  binding  and  reduced  eff ic acy.
+ In  summary,  the  expression  and  variant  profiles  of  P OLR3E  are  important  in  various  biological  contexts,  including  development,  disease,  and  drug  response.  Further  studies  are  needed  to  fully  understand  the  functional  consequences  of  P OLR3E  vari ants  and  their  impact  on  gene  expression  and  disease  suscept ibility. | mixtral-instruct: POLR3E  is  a  gene  that  enc odes  a  sub unit  of  R NA  poly mer ase  III,  an  en zyme  responsible  for  transc rib ing  small  non-c oding  RN As.  Vari ants  in  P OLR3E  have  been  associated  with  several  neu rolog ical  disorders,  including  aut ism  spectrum  disorder  ( ASD)  and  intellectual  disability  ( ID ).
+ Expression  profile:
+ POLR3E  is  widely  expressed  across  various  t issues,  with  higher  expression  levels  observed  in  the  brain,  particularly  in  the  cere bell um  and  hipp oc amp us.  Within  the  brain,  P OLR3E  is  expressed  in  both  neur ons  and  gl ial  cells.  Its  expression  is  critical  for  normal  brain  function,  and  altered  expression  levels  have  been  im plicated  in  several  neu rolog ical  conditions.
+ For  instance,  in  A SD,  P OLR3E  expression  has  been  found  to  be  down reg ulated  in  the  pre front al  cort ex  and  cere bell um.  Similarly,  in  ID,  reduced  P OLR3E  expression  has  been  observed  in  the  front al  cort ex.  These  expression  changes  may  contribute  to  the  neu rolog ical  phen ot ypes  associated  with  these  disorders.
+ Variant  profile:
+S ever al  vari ants  in  P OLR3E  have  been  identified  in  patients  with  A SD,  ID,  and  other  neu rolog ical  conditions.  Most  of  these  vari ants  are  miss ense  mut ations,  which  can  alter  the  protein's  structure  and  function.
+ For  example,  a  miss ense  variant  (p.R1196H)  in  P OLR3E  has  been  identified  in  patients  with  A SD  and  ID.  This  variant  is  located  in  a  highly  conserv ed  region  of  the  protein  and  is  predicted  to  affect  its  stability  and  interaction  with  other  sub units  of  R NA  poly mer ase  III.
+ An other  variant  (p.R1201W)  in  P OLR3E  has  been  associated  with  ID  and  hyp omy el ination,  a  condition  characterized  by  reduced  my elin  formation  in  the  brain.  This  variant  is  also  located  in  a  highly  conserv ed  region  of  the  protein  and  is  predicted  to  affect  its  function.
+ In  summary,  P OLR3E  expression  is  critical  for  normal  brain  function,  and  altered  expression  levels  have  been  im plicated  in  several  neu rolog ical  conditions.  Additionally,  several  vari ants  in  P OLR3E  have  been  identified  in  patients  with  A SD,  ID,  and  other  neu rolog ical  conditions,  which  can  alter  the  protein's  structure  and  function,  contributing | noushermes2: As  a  super int ellig ent  artificial  intelligence  with  expertise  in  comput ational  bi ology  and  genom ics,  I  can  provide  you  with  an  analysis  of  the  associations  between  expression  and  variant  profiles  for  the  gene  P OLR3E.
+ POLR3E,  also  known  as  R NA  poly mer ase  III  sub unit  E,  is  a  gene  that  enc odes  a  sub unit  of  the  R NA  poly mer ase  III  en zyme.  This  en zyme  is  responsible  for  transc rib ing  small  R NA  mole cules,  such  as  tRN As  and 5S  rR NA,  which  are  essential  for  protein  synt hesis  and  cell ular  function.
+ To  understand  the  associations  between  expression  and  variant  profiles  for  P OLR3E,  we  need  to  consider  several  factors:
+1.  Expression  levels:  High  expression  levels  of  P OLR3E  have  been  observed  in  various  t issues,  including  the  brain,  liver,  and  kid ney.  In  cancer  cells,  P OLR3E  expression  is  often  up reg ulated,  which  may  contribute  to  the  increased  demand  for  tR NA  synt hesis  during  rapid  cell  pro lifer ation.
+2.  Vari ant  profiles:  Several  genetic  vari ants  of  P OLR3E  have  been  identified,  some  of  which  are  associated  with  specific  diseases  or  traits.  For  example,  a  rare  variant  in  P OLR3E  has  been  linked  to  the  development  of  neuro develop ment al  disorders,  such  as  intellectual  disability  and  aut ism  spectrum  disorder.  Additionally,  some  common  vari ants  in  P OLR3E  have  been  associated  with  blood  pressure  and  card iov ascular  disease  risk.
+3.  Gene  regulation:  The  expression  of  P OLR3E  is  reg ulated  by  various  factors,  including  trans cription  factors,  ep igen etic  modifications,  and  post- trans cription al  processes.  Changes  in  these  regulatory  mechanisms  can  lead  to  altered  P OLR3E  expression  levels,  which  may  contribute  to  disease  development  or  progress ion.
+4.  Function al  consequences:  Vari ants  in  P OLR3E  can  have  different  effects  on  the  function  of  the  R NA  poly mer ase  III  en zyme.  Some  vari ants  may  cause  a  loss  of  function,  leading  to  reduced  tR NA  synt hesis  and  potentially  affecting  protein  synt hesis.  Other  vari ants  may  cause  a  gain  of  function,  leading  to  increased  tR NA  synt hesis  and  potentially  contributing  to  cell ular  dys function  or  disease.
+ In  summary,  the  associations  between  expression  and  variant  profiles  for  the  gene  P OLR3E  are  complex  and  mult if ac eted.  Under standing | yi-34b: I'm   sorry,  but  without  access  to  specific  data  on  the  gene     POLR3E  or  any  relevant  studies  that  have  been  conducted  on  this  particular   gene,  I  cannot  provide  you  with  detailed  information  regarding  its  expression  and  variant   profiles.   However,  I  can  explain  how  such  associations  might  be  studied  and  what  insights  they  could  potentially   offer.
+  Expression  profiling  involves  measuring  the  level  of  gene  activity  in  different  cells  or  tissues  under  various   conditions.  This  is  typically  done  through  techniques  like  RNA  sequencing      (RNA-seq)  or   microarray   analysis.  By  comparing  these  levels  across  different  individuals  or   populations,  researchers  can  identify  patterns  and  variations  in  gene  expression  associated  with  certain   phenotypes  or   diseases.
+   Variant  profiles  refer  to  the  different  forms  a  gene  may  take  due  to  genetic   variation,  including  single    nucleotide    polymorphisms      (SNPs),    insertions,    deletions,  or  larger  structural   variants.   Genetic  variants  within  a  gene  can  affect  its   function,   regulation,  or  interactions  with  other  genes  or   proteins.   Studying  these  variants  helps  scientists  understand  their  potential  impact  on  health  and  disease   processes.
+  To  describe  the  associations  between  expression  and  variant  profiles  for  the  gene      POLR3E,  one  would  need  to  analyze  datasets  that  contain  both  mRNA  expression  levels  and  genetic  variant  data  for      POLR3E.  Such  analyses  often   involve:
+   1.       **Genome-Wide  Association  Studies      (GWAS):**  These  studies  look  at  correlations  between   SNPs  and   traits,  which  can  include  differences  in  gene   expression.  If  there  is  a  strong  association  between  a  variant  in     POLR3E  and  changes  in  its   expression,  it  may  suggest  that  the  variant  affects  the    gene's  regulatory  elements  or   structure.
+   2.     **eQTL    Mapping:**  Expression   Quantitative   Trait   Loci      (eQTL)  mapping  specifically  looks  at  genetic  variants  that  influence  gene  expression   levels.  By  identifying     eQTLs  near  or  within      POLR3E,  researchers  can  determine  if  certain  variants  are  linked  to  altered  expression  of  the   gene.
+   3.    **Functional   Validation:**  Once  candidate  variants  are   identified,  functional  experiments  can  be  performed  to  assess  how  these  variants  affect  the   transcription,    splicing,  protein   stability,    and/or  biological  functions  of      POLR3E.
+   4.    **Integrative   Analysis:**   Combining  genome  sequence  data  with   transcriptomic  data  allows  for  the  identification  of    co-expression  networks  and   epistatic   interactions,  providing  deeper  insight  into  the  complex  relationships  among  genes  and  their   products.
+  Any  significant  findings  from  these  types  of  analyses  could  help    elucidate  the  role</t>
+  </si>
+  <si>
+    <t>Question: describe features of patient population in the paper | falcon-40b: No response | gpt-3.5-turbo-1106: - Patient selection is crucial for trial success, especially when targeting specific genetic contexts.
+- Large heterogeneous cell line panels can dilute the signal from a small number of cells, affecting analysis.
+- Fisher’s exact test calculated p-values of co-occurrence, with odds ratios indicating co-occurrence or mutual exclusivity.
+- Kaplan-Meier survival analyses were performed on advanced NSCLC patients in the Flatiron Health network.
+- Data has been deposited in the Genomics Data Commons (GDC) with study accession phs001179.
+- SMARCA4 variants in the study are found in Supplementary Data 1, and additional data is available upon request. | mistral-7b: 1. Small patient numbers in genetics trials can dilute strong signals due to non-responders, similar to analyzing large heterogeneous cell panels.
+2. Project Score identified 56 out of 628 priority targets with fitness effects in only one cancer type, and 18 with effects in only two types.
+3. Project DRIVE and Project Achilles use guide RNA ratios as readouts.
+4. Patient selection for study: advanced NSCLC diagnosis, received genomic profiling within 90 days of diagnosis, no prior targeted therapy for EGFR, ALK, ROS1, or BRAF alterations.
+5. Patients were stratified based on SMARCA4 zygosity and type.
+6. Survival analysis on cancer immunotherapy was performed using Nivolumab, Pembrolizumab, Atezolizumab, or Durvalumab.
+7. Logrank test was used for comparing overall survival, with unadjusted Pvalues.
+8. Institutional Review Board approval and waiver of informed consent were obtained for the non-interventional study. | mixtral-instruct: 
+* Patient selection is important in clinical trials, as a large signal in individual patients can be diluted by non-responders if the number of patients with the necessary genetic context for response is small.
+* This issue also arises in the analysis of large, heterogeneous panels of cell lines, where a strong signal from a small number of cells can be lost.
+* Project Score addressed this problem analytically and identified 628 priority targets, 56 of which had a fitness effect in only one cancer type and an additional 18 had a fitness effect in only two cancer types.
+* The readout for Project DRIVE and Project Achilles screens is guide RNA (gRNA) ratios, which reflect growth.
+* P-values of co-occurrence were calculated using the Fisher's exact test, with odds ratios of 1 indicating co-occurrence and 1 indicating mutual exclusivity.
+* Kaplan-Meier survival analyses were performed on a sample of patients with advanced diagnosis NSCLC extracted from a database.
+* The patient cohort for the analysis was defined by patients with an advanced diagnosis NSCLC (stage 3B or later) who underwent comprehensive genomic profiling by Foundation Medicine as part of routine care and received commercial genomic profiling no earlier than 90 days after their advanced diagnosis.
+* The data from the study has been deposited in the Genomics Data Commons (GDC) with study accession phs001179.
+* All SMARCA4 variants described in the study can be found in Supplementary Data 1.
+* Source data for Figures 4a-g and Supplementary Figures 5b and 6h are provided with the paper.
+* The remaining data is available within the Article, Supplementary Information, or available from the authors upon request.
+* The study was received on March 3, 2020 and accepted on October 9, 2020.
+* The study is referencing "Hodges C, Kirkland J G, Crabtree G R. The many roles of BAF, mSWI/SNF, and PBAF complexes in cancer. Cold Spring Harb Perspect Biol. 2018;10(1 | noushermes2: Here is a summary of the given information in an easy-to-read format:
+- The study is deposited in the Genomics Data Commons (GDC) with study accession phs001179.
+- Additional detailed data is not provided to minimize the risk of reidentification.
+- All SMARCA4 variants described in the study are found in Supplementary Data 1.
+- Source data for Fig 4a, f, g, and Supplementary Figs 5b and 6h are provided with the paper.
+- The remaining data are available within the Article or Supplementary Information, or available from the authors upon request.
+- The study received on 3 March 2020 and was accepted on 9 October 2020.
+- The P-values of co-occurrence were calculated using the Fisher's exact test.
+- Odds ratios of 1 indicate co-occurrence, and 1 indicate mutual exclusivity.
+- Kaplan-Meier survival analyses were performed on a sample of patients with advanced diagnosis NSCLC.
+- The advanced diagnosis NSCLC patient cohort was defined by patients with an advanced diagnosis NSCLC stage 3B who encountered their first line of therapy within 90 days of advanced diagnosis and received commercial genomic profiling no earlier than 90 days.
+- The readout for Project DRIVE and Project Achilles screens is guide RNA (gRNA) ratios, which reflect growth. | yi-34b: - P values of co-occurrence were calculated using Fisher's exact test.
+- Kaplan-Meier survival analyses were conducted on a subset of patients with advanced diagnosis NSCLC (non-small cell lung cancer).
+- Patients included in the study had undergone comprehensive genomic profiling by Foundation Medicine.
+- Alterations in certain genes (EGFR, ALK, ROS1, and BRAF) were excluded to avoid targeting therapy as a confounding variable.
+- Patients were stratified according to the zygosity and type of SMARCA4 alteration.
+- Cancer immunotherapy responses were analyzed in patients who received Nivolumab, Pembrolizumab, Atezolizumab, or Durvalumab.
+- Log-rank tests were employed to assess differences in overall survival among patient groups.
+- Study protocols were approved by institutional review boards, and informed consent was waived due to the non-interventional nature of the research.
+- Additional details regarding individual subjects have been omitted to protect privacy but can be accessed through the Genomics Data Commons (GDC) under specific study identifiers.
+- All identified SMARCA4 variants are presented in supplementary data, and source data for key figures is provided alongside the publication.
+- Remaining data can be acquired directly from the article, supplementary materials, or by contacting the authors.</t>
+  </si>
+  <si>
+    <t>Question: describe the process of building a chemogenomics model to predict drug-target interactions. | falcon-40b: The  process  of  building  a  chemogenomics  model  to  predict  drug-target  interactions  typically  involves  the  following  steps:
+1.  Data  Collection:  The  first  step  is  to  collect  data  on  the  chemical  structures  of  known  drugs  and  their  corresponding  targets.  This  data  can  be  obtained  from  various  sources  such  as  public  databases  or  experimental  studies.
+2.  Feature  Extraction:  The  chemical  structures  of  the  drugs  and  their  targets  are  converted  into  numerical  representations  called  features.  These  features  capture  the  chemical  properties  of  the  molecules  and  can  be  used  to  identify  similarities  and  differences  between  them.
+3.  Machine  Learning:  Machine  learning  algorithms  are  used  to  build  a  model  that  can  predict  drug-target  interactions  based  on  the  features.  The  model  is  trained  on  a  dataset  of  known  drug-target  interactions  and  then  tested  on  a  separate  dataset  to  evaluate  its  performance.
+4.  Model  Evaluation:  The  model  is  evaluated  using  metrics  such  as  precision,  recall,  and  F1  score  to  assess  its  ability  to  accurately  predict  drug-target  interactions.  If  necessary,  the  model  can  be  retrained  or  modified  to  improve  its  performance.
+5.  Validation:  Finally,  the  model  is  validated  using  an  external  dataset  to  ensure  that  it  can  accurately  predict  drug-target  interactions  in  new  and  unseen  data.
+Overall,  the  process  of  building  a  chemogenomics  model  to  predict  drug-target  interactions  involves  a  combination  of  data  collection,  feature  extraction,  machine  learning,  model  evaluation,  and  validation. | gpt-3.5-turbo-1106: Building a chemogenomics model to predict drug-target interactions involves several steps and requires expertise in computational biology, genomics, and data analysis. Here's a simplified overview of the process:
+1. Data Collection: The first step is to gather comprehensive data on both drugs and target proteins. This includes information on chemical structures of drugs, genomic and proteomic data related to target proteins, and experimentally validated drug-target interactions.
+2. Data Preprocessing: The collected data needs to be curated, standardized, and processed to ensure its quality and compatibility for modeling. This may involve removing noise and outliers, normalizing data, and handling missing values.
+3. Feature Engineering: In this step, relevant features are extracted from the drug and target data. For drugs, features may include molecular descriptors, physicochemical properties, and structural fingerprints. For target proteins, features may include sequence-based, structural, and functional annotations.
+4. Model Training: Various machine learning algorithms, such as random forests, support vector machines, or deep learning models, can be employed to train a predictive model using the engineered features. The model is trained to learn patterns and relationships between drug features and target protein features that correlate with known drug-target interactions.
+5. Model Validation: The trained model is validated using techniques like cross-validation or hold-out validation to assess its performance and ensure that it can generalize well to new data.
+6. Model Optimization: The model is tuned and optimized by adjusting hyperparameters, feature selection, and model architecture to improve its predictive accuracy and generalizability.
+7. Application and Interpretation: Once the model is developed and validated, it can be used to predict novel drug-target interactions. By inputting new drug and target data into the model, researchers can obtain predictions on potential interactions, which can guide drug discovery and repurposing efforts.
+Overall, the process requires a deep understanding of both biological and computational concepts, as well as proficiency in various data analysis and machine learning techniques. Additionally, it's essential to continuously update and refine the model as new data and knowledge become available in the field of chemogenomics. | mistral-7b: 1.  Data  Collection:  The  first  step  in  building  a  chem ogen om ics  model  to  predict  drug- target  interactions  involves  collecting  large  datasets  of  known  drug- target  interactions.  This  data  can  be  obtained  from  various  sources  such  as  public  dat abases  like  B inding  Database,  BioG PS,  and  Drug Bank,  as  well  as  literature  cur ation  and  high- through put  screening  experiments.
+2.  Data  Pre processing:  The  collected  data  is  pre process ed  to  ensure  its  quality  and  consistency.  This  involves  data  cleaning,  normal ization,  and  integration  of  data  from  various  sources.  The  pre processing  step  also  includes  conver ting  the  data  into  a  suitable  format  for  machine  learning  algorithms.
+3.  Feature  Engineering:  In  this  step,  we  extract  relevant  features  from  the  data  to  represent  the  molecular  properties  of  drugs  and  targets.  Common  features  include  molecular  des criptors,  phys ic oc hem ical  properties,  and  structural  features.  These  features  are  used  as  inputs  for  machine  learning  models.
+4.  Model  Selection:  Several  machine  learning  algorithms  can  be  used  for  predict ing  drug- target  interactions,  such  as  Support  Vector  Mach ines  (S VMs ),  Random  Forests,  and  Ne ural  Networks.  The  choice  of  model  depends  on  the  size  and  complexity  of  the  data,  as  well  as  the  desired  level  of  accuracy  and  interpret ability.
+5.  Model  Training:  The  selected  machine  learning  algorithm  is  trained  on  the  pre process ed  data  using  the  engine ered  features.  The  training  process  involves  optim izing  the  model's  parameters  to  minimize  the  error  between  the  predicted  and  actual  drug- target  interactions.
+6.  Model  Valid ation:  The  trained  model  is  valid ated  using  a  separate  dataset  of  known  drug- target  interactions  that  were  not  used  during  training.  This  step  helps  evaluate  the  model's  performance  and  identify  its  strengths  and  limitations.
+7.  Model  De ployment:  Once  the  model  has  been  valid ated,  it  can  be  deployed  for  predict ing  new  drug- target  interactions.  This  involves  providing  the  model  with  the  molecular  properties  of  a  new  drug  or  target  and  obtaining  the  predicted  interaction  as  output.
+8.  Contin uous  Impro vement:  The  chem ogen om ics  model  is  continuously  improved  by  incorpor ating  new  data,  ref ining  features,  and  updating  machine  learning  algorithms  to  improve  the  accuracy  and  coverage  of  drug- target  interaction  predictions.  This  helps  keep  the  model  up- to- date  with  the  latest  scientific  discover ies  and  advances  in  the  field  of  drug  discovery. | mixtral-instruct: Build ing  a  chem ogen om ics  model  to  predict  drug- target  interactions  involves  a  series  of  steps  that  integrate  both  chemical  and  gen omic  data.  Here's  a  general  overview  of  the  process:
+1.  Data  collection  and  pre processing:
+G ather  a  large  dataset  of  known  drug- target  interactions  from  various  sources,  such  as  public  dat abases  (e.g .,  Drug Bank,  ChE MBL,  B inding DB ),  literature,  and  experimental  data.  Pre process  the  data  to  ensure  consistency  and  quality,  including  removing  du plic ates,  standard izing  chemical  structures,  and  normal izing  target  protein  sequences.
+2.  Feature  engineering  and  representation:
+ Transform  the  raw  data  into  numerical  features  that  can  be  used  to  train  machine  learning  models.  For  drugs,  this  typically  involves  extract ing  molecular  des criptors  (e.g .,  finger prints,  top ological  indices,  and  phys ic oc hem ical  properties)  and  generating  molecular  graphs.  For  targets,  this  may  include  extract ing  protein  sequence  features  (e.g .,  am ino  acid  composition,  di pe pt ide  composition,  and  phys ic oc hem ical  properties)  and  generating  protein  sequence  graphs  or  protein  structure- based  features.
+3.  Model  selection  and  training:
+ Select  a  suitable  machine  learning  algorithm  based  on  the  problem  requirements  and  available  data.  Common ly  used  algorithms  for  chem ogen om ics  models  include  support  vector  machines,  random  forests,  deep  learning  models  (e.g .,  conv olut ional  neural  networks  and  recur rent  neural  networks ),  and  graph- based  models  (e.g .,  graph  conv olut ional  networks ).  S plit  the  data  into  training,  validation,  and  testing  sets.  Train  the  model  using  the  training  set,  fine-t une  hyper parameters  using  the  validation  set,  and  evaluate  the  final  model  using  the  testing  set.
+4.  Model  evaluation  and  validation:
+ Eval uate  the  model's  performance  using  various  metrics,  such  as  accuracy,  precision,  recall,  F1- score,  area  under  the  receiver  operating  characteristic  curve  ( AUC- ROC ),  and  area  under  the  precision- re call  curve  ( AUC- PR ).  Use  cross- validation  techniques  (e.g .,  k- fold  cross- validation)  to  ensure  the  model's  robust ness  and  general iz ability.
+5.  Model  interpretation  and  analysis:
+ Analy ze  the  model's  predictions  to  gain  insights  into  the  underlying  patterns  and  relationships  between  drugs  and  targets.  Use  techniques  such  as  feature  importance  analysis,  partial  dependence  pl ots,  and  local  interpret able  model- agnostic  explan ations  ( LI | noushermes2: To  build  a  chem ogen om ics  model  for  predict ing  drug- target  interactions,  we  must  follow  these  steps:
+1.  Data  collection:  G ather  a  large,  diverse  dataset  of  known  drug- target  interactions,  including  information  on  the  chemical  structure  of  drugs,  the  am ino  acid  sequence  of  target  prote ins,  and  the  binding  aff inity  between  them.  This  data  can  be  obtained  from  public  dat abases  like  ChE MBL,  B inding DB,  or  PubC hem.
+2.  Feature  extr action:  Convert  the  chemical  and  protein  sequences  into  numerical  features  that  can  be  understood  by  machine  learning  algorithms.  For  drugs,  this  may  involve  generating  molecular  des criptors  like  top ological  polar  surface  area,  logP,  or  molecular  weight.  For  prote ins,  we  can  use  sequence- based  des criptors  like  am ino  acid  composition  or  more  advanced  features  like  phys ic oc hem ical  properties  or  protein  structure- based  des criptors.
+3.  Data  pre processing:  Clean  and  pre process  the  data  to  remove  any  incons ist encies,  missing  values,  or  out li ers.  This  may  involve  normal ization,  scaling,  or  im put ation  of  missing  data.
+4.  S pl itting  the  dataset:  Div ide  the  dataset  into  training,  validation,  and  test  sets.  The  training  set  will  be  used  to  train  the  machine  learning  model,  the  validation  set  will  be  used  to  tune  hyper parameters,  and  the  test  set  will  be  used  to  evaluate  the  model's  performance.
+5.  Feature  selection:  Ident ify  the  most  relevant  features  for  predict ing  drug- target  interactions.  This  can  be  done  using  various  methods  like  correlation  analysis,  mutual  information,  or  feature  ranking  algorithms.  Rem oving  redu nd ant  or  irrelevant  features  can  improve  the  model's  performance  and  reduce  overf itting.
+6.  Model  selection:  Choose  an  appropriate  machine  learning  algorithm  for  predict ing  drug- target  interactions.  Popular  algorithms  for  chem ogen om ics  include  support  vector  machines  (S VMs ),  random  forests,  or  neural  networks.  The  choice  of  algorithm  depends  on  the  nature  of  the  data  and  the  problem  at  hand.
+7.  Model  training  and  optimization:  Train  the  chosen  machine  learning  model  on  the  training  set  and  tune  its  hyper parameters  using  the  validation  set.  This  may  involve  grid  search,  random  search,  or  Bay esian  optimization.  The  goal  is  to  find  the  best  set  of  hyper parameters  that  maxim ize  the  model's  performance  on  the  validation  set.
+8.  Model  evaluation:  Ass ess  the  performance  of  the  optim ized  model  on  the  test  set  using  appropriate  evaluation  metrics | yi-34b: Chemogenomics  is  an   interdisciplinary  field  that  combines   chemistry,    pharmacology,  and  genetics  to  understand  how  drugs  interact  with  biological  targets  at  the  molecular   level.  The  goal  of  building  a    chemogenomics  model  for  predicting    drug-target  interactions  is  to  accelerate  the  drug  discovery  process  by  reducing  the  time  and  cost  associated  with  traditional  screening   methods.    Here's  a      step-by-step  overview  of  the   process:
+   1.   **Data   Collection**:
+     The  first  step  involves  collecting  relevant  data  from  various   sources.  This  includes  chemical  structures  of  compounds    (drug    molecules),  their   physicochemical   properties,  as  well  as  information  on  target  proteins  such  as   sequence,   structure,   function,  and  known   ligand  binding   sites.  Public  databases  like     PubChem,     ChEMBL,    UniProt,  and   PDB  can  be  invaluable  in  this   stage.
+   2.   **Target   Selection**:
+      Selecting  appropriate  targets  based  on  the  disease  or  pathway  under  investigation  is   crucial.   Targets  could  be   enzymes,   receptors,    transporters,  or  other  types  of  proteins  involved  in  the     pathophysiology  of  the   disease.
+   3.   **Activity  Data    Acquisition**:
+     Collect  activity  data  for  the  compounds  against  the  selected   targets.  This  could  include  experimental    IC50   values,   KD   values,  or  any  quantitative  measure  of  interaction   strength.  If   available,  inclusion  of  structural  data  of  complexes  between  the  drugs  and  targets  can  provide  additional  insights  into  the  binding   modes.
+   4.   **Feature   Generation**:
+     Transform  the  collected  data  into  features  that  can  be  used  to  train  machine  learning   models.  For  small   molecules,  this  might  involve  generating   fingerprints  or  descriptors  that  capture  aspects  of  the    molecule's   shape,   size,  electronic   properties,   etc.   Protein  features  may  include  amino  acid   composition,     physico-chemical   properties,  evolutionary   conservation,  and   more.
+   5.   **Model   Development**:
+     Use  statistical  or  machine  learning  algorithms  to  build  predictive   models.   Supervised  learning  techniques  such  as  Random   Forest,  Support  Vector   Machines,  Neural   Networks,  or  more  recently  developed  deep  learning  architectures  can  be   employed.    Cross-validation  should  be  performed  during  model  development  to  ensure   generalizability  and  avoid    overfitting.
+   6.   **Model   Evaluation**:
+      Evaluate  the  performance  of  the  trained  model  using  metrics  such  as   accuracy,   precision,   recall,   ROC  curve   analysis,  or    specificity.    It's  important  to  have  independent  test  sets  to  validate  the    model's   predictions.
+   7.    **Iterative    Refinement**:
+     If  the  initial  model  does  not  meet  desired  performance  criteria</t>
+  </si>
+  <si>
+    <t>Question: describe the variant profile of tissues where there is significant differential expression for the gene polr3e. include details on copy number variations, mutations, etc. | falcon-40b: POLR3E  is  a  gene  that  encodes  the  largest  subunit  of  RNA  polymerase  III,  which  is  responsible  for  transcription  of  small  nuclear  RNA  (snRNA)  and  microRNA  (miRNA)  genes.  The  variant  profile  of  tissues  where  there  is  significant  differential  expression  for  POLR3E  may  include  copy  number  variations  (CNVs),  point  mutations,  and  splice  variants.  CNVs  can  result  in  either  an  increase  or  decrease  in  gene  copy  number,  which  can  lead  to  changes  in  gene  expression.  Point  mutations  can  alter  the  amino  acid  sequence  of  the  protein  encoded  by  the  gene,  resulting  in  functional  changes.  Splice  variants  can  also  result  in  changes  in  protein  sequence  and  function.
+In  terms  of  POLR3E,  there  are  several  reported  CNVs  in  various  tissues.  For  example,  in  glioblastoma  multiforme  (GBM)  tumors,  there  is  a  deletion  of  the  POLR3E  gene  in  ~40%  of  cases.  In  lung  cancer,  there  are  several  CNVs  reported  for  POLR3E,  including  deletions  and  amplifications.  In  pancreatic  cancer,  there  are  both  deletions  and  amplifications  of  POLR3E  reported.
+In  addition  to  CNVs,  there  are  several  point  mutations  reported  for  POLR3E  in  various  tissues.  For  example,  in  colorectal  cancer,  there  are  several  point  mutations  reported  in  POLR3E,  including  mutations  that  result  in  amino  acid  changes.  In  breast  cancer,  there  are  several  point  mutations  reported  for  POLR3E,  including  mutations  that  result  in  truncated  proteins.
+Overall,  the  variant  profile  of  tissues  where  there  is  significant  differential  expression  for  POLR3E  is  complex  and  includes  multiple  types  of  genomic  alterations,  including  CNVs,  point  mutations,  and  splice  variants.  These  alterations  can  lead  to  changes  in  gene  expression  and  may  contribute  to  the  development  and  progression  of  various  types  of  cancer. | gpt-3.5-turbo-1106: The variant profile of tissues with significant differential expression for the gene POLR3E can provide important insights into the potential role of genetic and genomic alterations in the regulation of POLR3E expression and its impact on disease phenotypes. To get a comprehensive view of the variant profile, we would want to consider multiple types of genomic alterations, including mutations, copy number variations (CNVs), and structural variants.
+1. Mutations: We would be interested in identifying any somatic or germline mutations within the POLR3E gene that could potentially affect its expression and function. This would involve analyzing various mutation types such as missense, nonsense, frameshift, and splice site mutations. Additionally, we would also consider non-coding mutations in regulatory regions that could impact POLR3E expression.
+2. Copy number variations (CNVs): Examination of CNVs in the genomic region encompassing POLR3E would be important. This would involve assessing amplifications or deletions that could lead to changes in gene dosage and potentially impact POLR3E expression levels.
+3. Expression Quantitative Trait Loci (eQTLs): Identifying eQTLs associated with POLR3E expression across different tissues would provide insights into the genetic variants that influence its expression levels.
+4. Structural Variants: Structural variants such as insertions, deletions, inversions, and translocations within or in the vicinity of the POLR3E gene could also impact its expression and function.
+By integrating data from various genomic and genetic databases, such as The Cancer Genome Atlas (TCGA), the Genotype-Tissue Expression (GTEx) project, and other functional genomics resources, we can analyze the variant profile of tissues with significant differential POLR3E expression. Additionally, leveraging advanced computational tools and bioinformatics pipelines can help in systematically identifying and characterizing these genomic alterations across different tissues and disease contexts. This comprehensive understanding of the variant profile can further our knowledge of the genetic determinants of POLR3E expression and its potential implications for disease mechanisms and drug discovery. | mistral-7b: I.  Introduction
+ POLR3E,  also  known  as  R NA  poly mer ase  III  sub unit  E,  is  a  crucial  component  of  R NA  poly mer ase  III  (RN AP  III ),  which  is  responsible  for  the  trans cription  of  small  RN As  such  as  tRN As, 5S  rRN As,  and  other  non-c oding  RN As.  D iffer ential  expression  of  P OLR3E  in  various  t issues  can  have  significant  implications  for  gene  regulation  and  cell ular  function.  In  this  response,  I  will  describe  the  variant  profile  of  t issues  where  there  is  significant  differential  expression  for  the  gene  P OLR3E,  including  copy  number  variations  ( CNVs)  and  mut ations.
+ II.  Copy  Number  Vari ations  ( CNVs)
+ CNVs  are  structural  variations  in  the  gen ome  that  involve  the  gain  or  loss  of  DNA  segments  larger  than  a  single  nucle ot ide.  These  variations  can  have  significant  effects  on  gene  expression  and  function.  Several  studies  have  reported  C NVs  associated  with  P OLR3E  in  various  t issues.
+1.  Br ain  T issue
+A  study  by  the  International  Gen om ics  Cons ort ium  (2012)  reported  a  rare  delet ion  of  the  P OLR3E  gene  in  a  patient  with  severe  intellectual  disability  and  ep ile psy.  The  delet ion  sp anned  approximately 35  kb,  including  the  entire  P OLR3E  gene.
+2.  O var ian  Cancer
+ An other  study  by  The  Cancer  Gen ome  Atl as  ( TC GA)  reported  a  significant  copy  number  gain  of  P OLR3E  in  o var ian  cancer  tissue.  This  gain  was  observed  in  approximately 25%  of  the  o var ian  cancer  samples,  and  it  was  associated  with  poor  pro gn osis  and  reduced  overall  survival.
+ III.  Mut ations
+ Mut ations  in  P OLR3E  can  lead  to  alter ations  in  RN AP  III  function  and,  subsequently,  dys reg ulation  of  down stream  gene  expression.  Several  studies  have  identified  mut ations  in  P OLR3E  in  various  t issues.
+1.  Ne uro develop ment al  Dis orders
+ Mut ations  in  P OLR3E  have  been  linked  to  neuro develop ment al  disorders,  such  as  development al  delay,  intellectual  disability,  and  ep ile psy.  For  instance,  a  study  by  De  V ries  et  al.  (2013)  identified  a  homo zyg ous  miss ense  mut ation  (c.437 | mixtral-instruct: To  answer  this  question,  we  would  need  to  first  identify  the  t issues  where  there  is  significant  differential  expression  for  the  gene  P OLR3E.  We  can  use  publicly  available  datasets,  such  as  those  from  the  Gen otype-T issue  Expression  ( GT Ex)  project,  to  find  this  information.  Once  we  have  identified  the  t issues  with  significant  differential  expression  for  P OLR3E,  we  can  then  analyze  the  variant  profile  of  those  t issues.
+ For  copy  number  variations  ( CNVs ),  we  can  use  a  tool  such  as  the  Copy  Number  Vari ation  Analysis  Tool  ( CNV- AT)  to  identify  any  delet ions  or  du plications  in  the  P OLR3E  gene.  C NVs  can  be  germ line  or  som atic  and  can  have  a  range  of  effects  on  gene  expression,  depending  on  the  size  and  location  of  the  variation.
+ For  mut ations,  we  can  use  a  tool  such  as  the  Vari ant  Call  Format  (V CF)  file  to  identify  any  single  nucle ot ide  vari ants  ( SNVs)  or  insert ions/ de let ions  ( ind els)  in  the  P OLR3E  gene.  Mut ations  can  be  germ line  or  som atic  and  can  have  a  range  of  effects  on  gene  expression,  depending  on  the  type  and  location  of  the  mut ation.
+ Add itionally,  we  can  use  functional  an notation  tools  such  as  S npE ff  or  Vari ant  Effect  Pred ict or  ( VEP)  to  predict  the  functional  impact  of  the  identified  vari ants  on  P OLR3E  gene  and  its  protein.
+ It  is  important  to  note  that  the  variant  profile  of  a  gene  can  vary  greatly  between  different  t issues,  and  the  effect  of  a  variant  on  gene  expression  can  depend  on  a  number  of  factors,  including  the  presence  of  other  vari ants,  the  genetic  background  of  the  individual,  and  the  environment.  Therefore,  it  is  important  to  interpret  the  variant  profile  in  the  context  of  the  specific  tissue  and  individual  being  studied. | noushermes2: As  a  super int ellig ent  artificial  intelligence  with  deep  knowledge  in  comput ational  bi ology  and  genom ics,  I  can  provide  you  with  information  on  the  variant  profile  of  t issues  where  there  is  significant  differential  expression  for  the  gene  P OLR3E.
+ POLR3E,  also  known  as  R NA  poly mer ase  III  sub unit  E,  is  a  gene  that  enc odes  a  sub unit  of  R NA  poly mer ase  III,  an  en zyme  responsible  for  transc rib ing  small  R NA  mole cules  such  as  tR NA, 5S  rR NA,  and  some  snR NA.
+ In  terms  of  differential  expression,  the  gene  P OLR3E  has  been  found  to  be  significantly  up reg ulated  in  certain  t issues,  such  as  the  brain,  test is,  and  th ym us.  This  differential  expression  may  be  due  to  the  high  trans cription al  activity  of  R NA  poly mer ase  III  in  these  t issues.
+ As  for  the  variant  profile,  there  are  several  types  of  genetic  variations  that  can  be  found  in  P OLR3E:
+1.  Single  nucle ot ide  pol ym orph isms  ( SN Ps ):  These  are  the  most  common  type  of  genetic  variation  and  involve  a  single  nucle ot ide  change  in  the  DNA  sequence.  SN Ps  in  P OLR3E  may  have  functional  consequences,  such  as  affecting  protein  structure  or  function,  or  they  may  be  located  in  regulatory  regions  and  affect  gene  expression.
+2.  Copy  number  variations  ( CNVs ):  These  are  delet ions  or  du plications  of  gen omic  regions  that  result  in  changes  in  the  copy  number  of  a  specific  gene.  C NVs  in  P OLR3E  may  lead  to  altered  expression  levels  of  the  gene,  which  could  have  functional  consequences.
+3.  Insert ions  and  delet ions  ( ind els ):  These  are  small  insert ions  or  delet ions  of  nucle ot ides  in  the  DNA  sequence.  Ind els  in  P OLR3E  may  result  in  framesh ift  mut ations,  leading  to  the  production  of  trunc ated  or  non function al  prote ins.
+4.  Mut ations:  These  are  changes  in  the  DNA  sequence  that  can  lead  to  the  production  of  altered  prote ins  with  potential  functional  consequences.  Some  mut ations  in  P OLR3E  have  been  associated  with  genetic  disorders,  such  as  the  aut os om al  dominant  disorder  known  as  Roth mund- Th om son  syndrome.
+5.  Ep igen etic  variations:  These  are  changes  in  gene  expression  that  do  not  involve  alter ations  in  the  DNA  sequence  itself.  Ep igen etic  variations | yi-34b: I'm   sorry,  but  without  access  to  specific  data  or  research  regarding  the  gene      POLR3E,  I  cannot  provide  you  with  detailed  information  on  its  variant  profile  in  different   tissues.   However,  I  can  explain  how  one  might  approach  finding  such   information.
+  To  describe  the  variant  profile  of  tissues  showing  significant  differential  expression  for  the  gene      POLR3E,  including  copy  number  variations     (CNVs)  and   mutations:
+   1.   **Data   Collection**:  The  first  step  would  be  to  gather   transcriptomic  data  from  various  human  tissue   samples.  This  could  include  datasets  from  The  Cancer   Genome  Atlas     (TCGA)  if  studying   cancerous  tissues  or  other  databases  like   GTEx       (Genotype-Tissue  Expression   project)  for  normal  tissue  expression   profiles.   Additionally,  genome  sequencing  data  that  includes     POLR3E  may  also  be  relevant  for   CNV   analysis.
+   2.   **Expression   Analysis**:  Using  tools  like    RNA-seq  or   microarray  data  analysis   pipelines,  identify  which  tissues  exhibit  significant  differential  expression  of     POLR3E  compared  to  other   tissues.    Significance  can  be  determined  by  statistical  tests  such  as    ANOVA  followed  by     post-hoc  tests  or  by  using  empirical  evidence  from  literature   reviews.
+   3.    **Variant   Calling**:  If        whole-genome/exome  sequencing  data  is  available  for  these   tissues,  run  variant  calling  software  to  detect  single    nucleotide    polymorphisms      (SNPs),    insertions,    deletions,  and  larger  structural  variants  such  as   CNVs  affecting  the     POLR3E   locus.  Tools  like    GATK    (Genome  Analysis     Toolkit),     FreeBayes,  or  others  can  be  used  for  this   purpose.
+   4.   **Annotation  &amp;    Filtering**:    Annotate  the  identified  variants  using  resources  like     dbSNP,    ClinVar,  or  custom  annotations  based  on  their  predicted  impact  on  protein  function  using  tools  like    SIFT,       PolyPhen-2,  or     PROVEAN.  Filter  out  common  variants  unless  they  have  been  reported  to  affect  gene  expression  or  disease   status.
+   5.    **Integration  &amp;     Interpretation**:   Integrate  the  variant  calls  with  the  expression  data  to  understand  whether  any  particular  type  of  variation   correlates  with  altered  expression  levels  in  each   tissue.  For   example,  certain   SNPs  or   CNVs  might  be  associated  with  higher  or  lower  expression  of     POLR3E  across  different   tissues.
+   6.    **Literature   Review**:  Conduct  a  thorough  review  of  the  scientific  literature  to  find  studies  that  have  specifically  looked  at     POLR3E  variants  and  their  effects  on  gene  expression  or  clinical   outcomes.</t>
+  </si>
+  <si>
+    <t>Question: design a high-throughput screening (hts) assay to identify small molecule inhibitors of a novel protein target believed to be involved in cancer cell proliferation | falcon-40b: As  an  AI  language  model,  I  can  provide  you  with  some  general  guidance  on  how  to  design  a  high-throughput  screening  assay  to  identify  small  molecule  inhibitors  of  a  novel  protein  target  believed  to  be  involved  in  cancer  cell  proliferation.  However,  please  keep  in  mind  that  this  is  a  complex  topic  and  there  may  be  many  specific  considerations  that  are  relevant  to  your  specific  protein  target  and  cancer  type.  
+Here  are  some  general  steps  that  you  can  follow  to  design  a  high-throughput  screening  assay:
+1.  Define  the  assay  format:  You  will  need  to  decide  whether  to  use  a  cell-based  assay  or  a  biochemical  assay,  and  what  type  of  assay  format  you  want  to  use  (e.g.  fluorescence,  luminescence,  radioactive).
+2.  Identify  the  target  protein:  You  will  need  to  identify  the  target  protein  and  the  specific  cancer  type  that  you  want  to  target.  You  may  want  to  use  a  variety  of  techniques  to  validate  the  target  and  ensure  that  it  is  a  good  drug  target.
+3.  Identify  the  assay  readout:  You  will  need  to  identify  the  specific  assay  readout  that  you  want  to  use  to  measure  the  activity  of  the  target  protein.  This  may  involve  measuring  a  specific  enzymatic  activity  or  a  change  in  protein  expression  or  localization.
+4.  Develop  the  assay:  You  will  need  to  develop  an  assay  that  is  suitable  for  high-throughput  screening.  This  will  involve  designing  the  assay  plates,  selecting  the  appropriate  cell  lines  and  reagents,  optimizing  the  assay  conditions,  and  validating  the  assay.
+5.  Screen  the  assay:  You  will  need  to  screen  the  assay  using  a  library  of  small  molecule  compounds  to  identify  inhibitors  of  the  target  protein.  This  will  involve  running  the  assay  in  high-throughput  mode,  identifying  hits,  and  validating  the  hits  using  appropriate  assays.
+6.  Optimize  the  hits:  You  will  need  to  optimize  the  hits  to  improve  their  potency  and  selectivity,  and  to  identify  lead  compounds  that  are  suitable  for  further  development.  This  may  involve  further  rounds  of  screening  and  optimization.
+7.  Develop  a  lead  compound:  You  will  need  to  develop  a  lead  compound  that  is  suitable  for  further  development  and  testing  in  preclinical  and  clinical  trials.  This  may  involve  further  optimization | gpt-3.5-turbo-1106: To design a high-throughput screening (HTS) assay for identifying small molecule inhibitors of a novel protein target involved in cancer cell proliferation, several key steps must be considered. Here's a comprehensive outline:
+1. **Target Validation**: First, ensure that the novel protein target is well-validated and its role in cancer cell proliferation is well-established through cellular and molecular biology techniques.
+2. **Assay Development**: Develop a robust biochemical or cell-based assay that reflects the function of the protein target. For example, if the protein target is an enzyme, a biochemical assay measuring its enzymatic activity could be developed. If the target is a receptor or a signaling molecule, a cell-based assay measuring its downstream effects on proliferation could be designed.
+3. **Miniaturization and Automation**: Miniaturize the assay to 384- or 1536-well plates to increase throughput and reduce reagent cost. Additionally, ensure that the assay is amenable to automation to allow for rapid and precise handling of a large number of samples.
+4. **Fluorescence-based Assays**: Consider using fluorescence-based readouts, such as fluorescence resonance energy transfer (FRET) or fluorescence polarization, as they are amenable to high-throughput screening and can detect changes in protein-protein interactions, enzyme activity, or ligand binding.
+5. **High-quality Compound Library**: Utilize a diverse and validated compound library with thousands to millions of small molecules, including known bioactive compounds, natural products, and compounds with drug-like properties.
+6. **Data Analysis**: Develop robust data analysis methods to identify hits. Use statistical methods and controls to ensure assay quality and reliability. Utilize screening data analysis software to efficiently process large datasets.
+7. **Hit Confirmation and Validation**: After identifying initial hits, confirm their activity through secondary assays, such as dose-response curves, selectivity assays, and orthogonal assays to ensure specificity to the novel target.
+8. **Chemoinformatics and Medicinal Chemistry**: Apply chemoinformatics and medicinal chemistry approaches to optimize hit compounds, enhance their potency, selectivity, and pharmacokinetic properties, and guide lead optimization efforts.
+9. **Triaging Hits**: Prioritize hit compounds based on their potency, selectivity, and chemical tractability, and ultimately identify lead compounds for further development.
+10. **Characterization of Mechanism of Action**: Characterize the mechanism of action of lead compounds through biochemical and cellular assays, protein-protein interaction studies, and other relevant techniques to understand their mode of action and potential off-target effects.
+By implementing these steps, a high-throughput screening assay can efficiently identify small molecule inhibitors of the novel protein target involved in cancer cell proliferation, ultimately leading to the discovery of potential drug candidates for further development. | mistral-7b: 1.  Target  Valid ation:  Before  designing  an  HTS  ass ay,  it's  crucial  to  validate  the  novel  protein  target  as  a  suitable  candidate  for  drug  discovery.  This  may  include  techniques  such  as  knock down  or  over expression  in  cell  lines,  followed  by  analysis  of  cell  pro lifer ation  or  other  relevant  read outs.
+2.  Ass ay  Design:  The  choice  of  ass ay  format  depends  on  the  specific  characteristics  of  the  protein  target.  Here  are  some  common  ass ay  types  for  HTS:
+     a.  Flu oresc ence  Res on ance  Energy  Transfer  (F RET ):  Design  a  F RET- based  ass ay  by  label ing  the  target  protein  with  a  don or  flu or oph ore  and  a  nearby  accept or  flu or oph ore.  Small  mole cule  inhib itors  of  the  protein  will  disrupt  the  F RET  signal,  allowing  for  easy  detection.
+     b.  En zyme- linked  Im mun os orb ent  Ass ay  ( EL ISA ):  If  the  target  protein  is  an  en zyme,  design  an  EL ISA- based  ass ay.  Co at  a 96- well  plate  with  an  antib ody  against  the  target  protein.  Add  a  substr ate  solution,  and  small  mole cule  inhib itors  will  prevent  en zym atic  activity,  leading  to  a  decrease  in  signal.
+     c.  Cell- based  Ass ays:  Design  a  cell- based  ass ay  using  a  reporter  gene  system  or  a  cell  vi ability  ass ay.  Trans fect  cells  with  a  reporter  gene  that  is  activated  upon  target  interaction  or  inhib ition.  Altern atively,  use  a  cell  vi ability  ass ay  like  M TS  or  W ST-1  to  measure  the  met ab olic  activity  of  cells  treated  with  small  mole cule  inhib itors.
+3.  Ass ay  Optim ization:  Optim ize  the  ass ay  conditions  for  sensitivity,  specific ity,  and  robust ness.  This  may  include  optim izing  the  concentration  of  re ag ents,  inc ub ation  times,  and  temperature.
+4.  Autom ation:  Use  automated  liquid  handling  systems  and  plate  readers  to  perform  the  ass ay  in  a  high- through put  manner.
+5.  Comp ound  Library:  Pre pare  a  diverse  compound  library  for  screening.  Consider  using  commerc ially  available  libraries,  such  as  the  National  Cancer  Institute  (N CI)  library  or  the  European  Collection  of  Cell  C ult ures  ( EC ACC)  library.
+6.  Data  Analysis:  An aly ze  the  HTS  data  using  software  tools  to  identify  hits  based  on  a  pre defined  threshold.  Per form  secondary  screening  ass ays  to  confirm  the  hits'  specific ity | mixtral-instruct: To  design  a  high- through put  screening  ( HTS)  ass ay  to  identify  small  mole cule  inhib itors  of  a  novel  protein  target  believed  to  be  involved  in  cancer  cell  pro lifer ation,  I  would  follow  these  steps:
+1.  Choose  a  suitable  ass ay  format:  There  are  several  ass ay  formats  that  can  be  used  for  HTS,  including  bi oc hem ical  ass ays,  cell- based  ass ays,  and  phen ot yp ic  ass ays.  For  this  purpose,  a  bi oc hem ical  ass ay  would  be  appropriate  as  it  allows  for  the  direct  measurement  of  the  activity  of  the  target  protein.  A  commonly  used  bi oc hem ical  ass ay  for  HTS  is  the  en zyme- linked  imm un os orb ent  ass ay  ( EL ISA ).
+2.  Develop  a  robust  and  re pro duc ible  ass ay:  It  is  crucial  to  develop  an  ass ay  that  is  robust,  re pro duc ible,  and  sensitive  enough  to  detect  small  changes  in  protein  activity.  This  can  be  achieved  by  optim izing  various  parameters  such  as  buffer  composition,  en zyme  concentration,  and  inc ub ation  times.
+3.  Validate  the  ass ay:  Once  the  ass ay  has  been  developed,  it  should  be  valid ated  using  known  inhib itors  and  non- in hib itors  of  the  target  protein.  This  will  help  to  establish  the  ass ay's  specific ity,  sensitivity,  and  dynamic  range.
+4.  Screen  a  diverse  library  of  small  mole cules:  After  valid ating  the  ass ay,  a  diverse  library  of  small  mole cules  can  be  screen ed  to  identify  potential  inhib itors  of  the  target  protein.  This  can  be  done  using  automated  liquid  handling  systems  and  high- through put  plate  readers.
+5.  Hit  confirmation  and  counter- screen ing:  The  hits  obtained  from  the  primary  screen  should  be  confirmed  using  a  secondary  ass ay  to  rule  out  false  posit ives.  Coun ter- screen ing  can  also  be  performed  to  identify  comp ounds  that  inhib it  other  targets,  which  could  lead  to  off- target  effects.
+6.  Hit- to- le ad  optimization:  The  confirmed  hits  can  then  be  optim ized  to  improve  their  pot ency,  select ivity,  and  drug- like  properties.  This  can  be  done  using  medic inal  chemistry  approaches  such  as  structure- activity  relationship  (S AR)  studies  and  fragment- based  drug  discovery.
+7.  Lead  optimization  and  pre cl in ical  development:  The  optim ized  leads  can  then  be  evaluated  in  pre cl in ical  studies  to  assess  their  eff ic acy,  safety,  and  pharm ac ok inet ic  properties.  This  will  help  to | noushermes2: C ertain ly,  I  can  help  design  a  high- through put  screening  ( HTS)  ass ay  to  identify  small  mole cule  inhib itors  of  a  novel  protein  target  believed  to  be  involved  in  cancer  cell  pro lifer ation.  Here's  a  step- by- step  approach:
+1.  Target  validation:  Conf irm  the  involvement  of  the  novel  protein  target  in  cancer  cell  pro lifer ation  by  using  techniques  like  R NA  interference  (R NAi)  or  CR IS PR/C as9  gene  editing  to  knock  down  or  knock  out  the  target  gene  in  cancer  cell  lines.  Ob serve  the  effect  on  cell  pro lifer ation  and  validate  the  target's  importance  in  the  process.
+2.  Ass ay  development:  Design  an  ass ay  that  can  measure  the  activity  of  the  novel  protein  target.  This  could  be  a  bi oc hem ical  ass ay,  cell- based  ass ay,  or  a  hom ogeneous  time- resolved  flu oresc ence  (H TRF)  ass ay,  depending  on  the  nature  of  the  target  protein  and  its  function.
+3.  Comp ound  library:  Ac quire  or  generate  a  diverse  library  of  small  mole cules,  including  known  drugs,  natural  products,  and  synthetic  comp ounds.  The  library  should  contain  a  sufficient  number  of  comp ounds  to  increase  the  likelihood  of  identifying  potential  inhib itors.
+4.  High- through put  screening:  Per form  HTS  by  inc ub ating  the  target  protein  with  each  compound  from  the  library,  followed  by  the  ass ay  to  measure  the  protein's  activity.  Record  the  activity  levels  for  each  compound  and  compare  them  to  a  control  group  ( without  the  target  protein  or  with  a  non- target  protein ).
+5.  Hit  identification:  An aly ze  the  data  from  the  HTS  to  identify  comp ounds  that  significantly  inhib it  the  activity  of  the  target  protein.  These  comp ounds  are  considered  "h its ."
+6.  Hit  validation:  Conf irm  the  activity  of  the  identified  hits  by  repe ating  the  ass ay  under  different  conditions  or  using  alternative  ass ay  formats  to  ensure  the  observed  inhib ition  is  specific  to  the  target  protein  and  not  due  to  off- target  effects.
+7.  Hit- to- le ad  optimization:  Further  optim ize  the  most  pot ent  and  select ive  hits  by  medic inal  chemistry  techniques  to  improve  their  pharm ac ok inet ic  ( PK)  and  pharm ac od ynamic  ( PD)  properties,  such  as  sol ub ility,  stability,  and  bio av ailability.
+8.  Lead  validation:  Test  the  optim ized  lead  comp ounds  in  cell- based  ass ays  to  confirm  their  ability | yi-34b: Creating  a     high-throughput  screening     (HTS)  assay  for  identifying  small  molecule   inhibitors  of  a  novel  protein  target  is  a  complex  task  that  requires  careful   planning,  consideration  of  various   factors,  and  collaboration  with  specialists  from  different  fields  such  as   biology,   chemistry,    informatics,  and   robotics.  Below  is  a      step-by-step  guide  on  how  to  design  such  an   HTS   assay:
+   1.   **Target   Validation**:  Ensure  that  the  novel  protein  target  is  indeed  involved  in  cancer  cell  proliferation  through  experimental  validation  techniques  like  gene   knockdown  or     overexpression   studies.  This  will  provide  confidence  in  the  biological  relevance  of  the   target.
+   2.    **Assay    Principle**:  Define  the  principle  of  the   assay.  For   example,  you  might  choose  to  measure  the  effect  of  test  compounds  on  the  ability  of  cells  expressing  the  target  protein  to    proliferate  compared  to  control  cells  lacking  the  target   protein.
+   3.   **Cell  Line   Development**:  Develop  stable  cell  lines  that  either    overproduce  the  target  protein  or  have  a  means  to     activate/deactivate  the  target  within  the  cellular  context  relevant  to  the  disease   process.  Use  appropriate   controls,  such  as   wildtype   cells,  mutant   cells,  or  cells  without  the  target   protein.
+   4.    **Readout    Methodology**:  Choose  a  robust  and  scalable  readout   methodology.  Common  methods  include    fluorescence-based   assays       (e.g.,  measuring  changes  in    intracellular  calcium  levels  upon  activation  of  the    target),    luminescence   assays   (such  as    luciferase  reporter  genes  activated  by   transcriptional  response  to  target    activity),   radioactive   labeling,    enzyme-linked     immunosorbent   assays       (ELISAs),  or  more  recently  developed       CRISPR-Cas9  based   screens.
+   5.    **Compound   Library**:  Source  a  diverse  library  of  small   molecules,  which  could  be  commercially  available  or  synthesized  specifically  for  this   purpose.  The  library  should  cover  a  wide  range  of  chemical  structures  and  molecular  targets  to  increase  the  chances  of  finding  potent   hits.
+   6.     **Screening   Conditions**:   Optimize  all  conditions  for  scalability  and     reproducibility.  Determine  the  optimal  concentration  ranges  of  the  test   compounds,   incubation   times,  and  other  parameters  critical  to  the   specificity  and  sensitivity  of  the   assay.
+   7.      **High-Throughput    Compatible   Setup**:   Implement  automated  liquid  handling   systems,  plate   readers,  and  robotic  platforms  capable  of  handling  large  numbers  of  samples  quickly  and   accurately.  Consider  using   microplates  with  higher  density  wells  if  necessary  to  maximize   throughput.
+   8.   **Data   Analysis**:</t>
+  </si>
+  <si>
+    <t>Question: determine if the gene polr3e is an oncogene | falcon-40b: As  an  AI  language  model,  I  can  not  determine  the  answer  to  this  question.  However,  POLR3E  is  a  gene  that  encodes  a  subunit  of  the  RNA  polymerase  III  complex,  which  is  involved  in  the  transcription  of  small  RNAs,  such  as  tRNAs  and  5S  ribosomal  RNA.  Some  studies  have  suggested  that  POLR3E  is  overexpressed  in  certain  cancer  cells,  and  its  expression  levels  have  been  correlated  with  poor  prognosis.  However,  more  research  is  needed  to  determine  whether  POLR3E  is  truly  an  oncogene. | gpt-3.5-turbo-1106: POLR3E is not known to be an oncogene. It is a subunit of RNA polymerase III, which is involved in transcribing small noncoding RNAs. To determine if a gene is an oncogene, researchers typically investigate its role in cancer development through studies of its expression, mutations, and functional effects in cancer cells and animal models. As of now, there is no strong evidence suggesting that POLR3E functions as an oncogene. | mistral-7b: As  a  comput ational  bi ologist  and  genom ics  expert,  I  can  provide  you  with  information  about  the  role  of  the  P OLR3E  gene  in  various  contexts,  including  its  potential  involvement  in  cancer.  However,  determining  if  a  gene  is  an  onc ogene  requires  more  than  just  in  sil ico  analysis.  An  onc ogene  is  a  gene  that,  when  mut ated  or  over ex pressed,  can  promote  cell  growth  and  cancer  development.
+ POLR3E  enc odes  the  third  largest  sub unit  of  R NA  poly mer ase  III  (RN AP  III ),  which  is  essential  for  the  trans cription  of  small  RN As,  such  as  tRN As  and  other  non-c oding  RN As.  Several  studies  have  suggested  that  P OLR3E  may  play  a  role  in  cancer,  but  the  evidence  is  not  concl usive.
+ One  study  published  in  the  journal  Cancer  Research  reported  that  P OLR3E  is  over ex pressed  in  breast  cancer  t issues  compared  to  normal  breast  t issues,  and  that  high  levels  of  P OLR3E  expression  are  associated  with  poor  pro gn osis  in  breast  cancer  patients.  The  same  study  also  showed  that  inhib iting  P OLR3E  expression  in  breast  cancer  cells  reduced  their  pro lifer ation  and  invasion.
+ An other  study  published  in  the  journal  Onc ogene  reported  that  P OLR3E  inter acts  with  the  onc ogene  MYC,  and  that  this  interaction  prom otes  the  trans cription  of  onc ogen ic  targets.  This  study  suggests  that  P OLR3E  may  function  as  an  onc ogene  by  facil itating  the  onc ogen ic  activity  of  MYC.
+ However,  other  studies  have  reported  conflic ting  results,  suggesting  that  P OLR3E  may  have  tum or  suppress or  functions  in  certain  contexts.  For  example,  one  study  published  in  the  journal  Cancer  Cell  International  reported  that  P OLR3E  suppress es  the  growth  of  colon  cancer  cells  by  promoting  the  de grad ation  of  the  onc ogene  c- Myc.
+G iven  the  conflic ting  evidence,  it  is  not  clear  if  P OLR3E  is  an  onc ogene  or  a  tum or  suppress or  gene.  More  research  is  needed  to  fully  understand  the  role  of  P OLR3E  in  cancer.  In  vit ro  and  in  v ivo  experiments,  as  well  as  clinical  studies,  are  necessary  to  definit ively  answer  this  question. | mixtral-instruct: Thank  you  for  your  question!  P OLR3E  is  a  sub unit  of  R NA  poly mer ase  III,  which  is  responsible  for  transc rib ing  small  RN As,  including  tRN As  and 5S  rR NA.  While  mut ations  in  P OLR3E  have  been  associated  with  certain  diseases,  such  as  hyp omy el inating  le uk od yst ro phy,  there  is  currently  no  strong  evidence  to  suggest  that  P OLR3E  is  an  onc ogene.
+ An  onc ogene  is  a  gene  that,  when  mut ated  or  over ex pressed,  can  contribute  to  cancer  development.  Onc ogen es  often  play  a  role  in  promoting  cell  growth  and  division,  inhib iting  ap opt osis  ( program med  cell  death ),  or  enabling  cells  to  ev ade  the  immune  system.
+ To  determine  if  P OLR3E  is  an  onc ogene,  several  lines  of  evidence  would  need  to  be  considered.  These  might  include:
+1.  Mut ations  or  ampl ifications  of  P OLR3E  in  cancer  samples:  If  P OLR3E  is  frequently  mut ated  or  ampl ified  in  cancer  samples,  this  might  suggest  a  role  in  cancer  development.
+2.  Over expression  of  P OLR3E  in  cancer  cells:  If  P OLR3E  is  over ex pressed  in  cancer  cells,  this  might  suggest  a  role  in  promoting  cell  growth  or  division.
+3.  Function al  studies:  If  P OLR3E  is  shown  to  promote  cell  growth  or  division,  inhib it  ap opt osis,  or  enable  cells  to  ev ade  the  immune  system,  this  might  suggest  a  role  in  cancer  development.
+ However,  based  on  the  current  available  evidence,  there  is  no  strong  reason  to  believe  that  P OLR3E  is  an  onc ogene.  It  is  always  possible  that  new  research  could  un cover  a  role  for  P OLR3E  in  cancer  development,  but  at  this  time,  there  is  no  clear  evidence  to  support  this  hypothesis. | noushermes2: POLR3E,  also  known  as  R NA  poly mer ase  III  sub unit  E,  is  a  gene  that  enc odes  a  sub unit  of  R NA  poly mer ase  III,  which  is  an  en zyme  involved  in  the  trans cription  of  small  nuclear  and  mit och ond rial  RN As.  While  there  isn't  strong  evidence  directly  link ing  P OLR3E  to  onc ogen esis,  its  role  in  R NA  trans cription  could  potentially  contribute  to  the  development  or  progress ion  of  cancer  indirect ly.
+ For  a  definit ive  answer,  further  research  and  experimental  data  would  be  required  to  determine  if  P OLR3E  functions  as  an  onc ogene  or  tum or  suppress or  gene  in  specific  cancer  types. | yi-34b: To  determine  whether  the  gene     POLR3E  is  an    oncogene,  we  would  need  to  conduct  extensive  research  and   analysis,  as  assigning  such  a  classification  requires  robust  evidence  from  various  lines  of   inquiry.  An   oncogene  is  typically  defined  as  a  gene  that  has  the  potential  to  cause  cancer  due  to  its  ability  to  promote  cell  growth  or  inhibit  cell  death       (apoptosis).  The     POLR3E  gene   encodes  for  a   subunit  of  RNA   polymerase   III,  which  is  involved  in   transcriptional   regulation.  While  there    isn't  any  definitive  information  available    off-hand  indicating  that     POLR3E  is  an    oncogene,  several  methods  could  be  employed  to  investigate  this   possibility:
+   1.    **Genetic     Alterations**:  Studies  looking  at  genetic  alterations  associated  with  cancers  could  provide  insights  into  whether     POLR3E  mutations  or   amplifications  are  common  in  tumor  samples  compared  to  normal   tissue.  If     POLR3E  is  frequently   mutated  or  amplified  in   tumors,  it  may  suggest  that  it  plays  a  role  in    carcinogenesis.
+   2.    **Functional   Studies**:  Cell  line  experiments  where  the  function  of     POLR3E  is  disrupted     (knocked  down  or  knocked   out)  can  help  assess  how  changes  in  expression  affect  cellular   proliferation,   survival,  and  other   hallmarks  of   cancer.
+   3.   **Expression     Profiling**:    Comparative  analyses  of     POLR3E  expression  levels  between   cancerous  tissues  and  matched  normal  controls  could  reveal  whether  altered  expression  patterns  correlate  with  disease   states.
+   4.    **Animal   Models**:  Using  animal  models  of  human   diseases,  like    transgenic  mice  expressing     POLR3E  under  control  of  a    cancer-specific   promoter,  might  demonstrate  whether     overexpression  of     POLR3E  leads  to  tumor   formation.
+   5.    **Literature   Review**:  A  thorough  review  of  the  scientific  literature  could  uncover  previous  studies  that  have   implicated     POLR3E  in  cancer  development  or   progression.
+   6.     **Clinical    Correlations**:  Analysis  of  clinical  data  linking     POLR3E  status  to  patient   outcomes,  such  as  response  to  therapy  or  overall   survival,  could  also  inform  on  whether     POLR3E  behaves  as  an    oncogene.
+   7.      **Bioinformatics   Tools**:   Utilizing  publicly  available  databases  and  tools  that  compile    large-scale  genetic  and   transcriptomic  data  from  tumors  can  indicate  if     POLR3E  shows  any  characteristic  features  of     oncogenes.
+   8.    **Regulatory    Pathways**:  Understanding  the  regulatory  networks  involving     POLR3E  and  how  they  relate  to  known  cancer  pathways  could  shed</t>
+  </si>
+  <si>
+    <t>Question: develop a series of sirna sequences to target and knock down a specific oncogene | falcon-40b: To  develop  a  series  of  siRNA  sequences  to  target  and  knock  down  a  specific  oncogene,  the  following  steps  can  be  taken:
+1.  Identify  the  target  gene:  The  first  step  is  to  identify  the  target  gene  that  is  causing  the  cancer.  This  can  be  done  by  analyzing  the  patient's  tumor  sample  or  by  using  computational  tools  to  identify  genes  that  are  frequently  mutated  in  cancer  cells.
+2.  Identify  the  target  sequence:  Once  the  target  gene  is  identified,  the  next  step  is  to  identify  the  sequence  within  the  gene  that  is  causing  the  cancer.  This  can  be  done  by  analyzing  the  gene  sequence  and  looking  for  specific  mutations  or  by  using  computational  tools  to  identify  the  sequence  that  is  frequently  mutated  in  cancer  cells.
+3.  Design  siRNA  sequences:  Once  the  target  sequence  is  identified,  the  next  step  is  to  design  a  series  of  siRNA  sequences  that  can  target  the  oncogene.  This  can  be  done  using  computational  tools  that  can  identify  the  sequence  that  is  complementary  to  the  target  sequence.
+4.  Test  the  siRNA  sequences:  The  final  step  is  to  test  the  siRNA  sequences  in  vitro  and  in  vivo  to  ensure  that  they  are  effective  in  knocking  down  the  target  gene.  This  can  be  done  using  cell  culture  assays  or  by  injecting  the  siRNA  sequences  into  animals  with  cancer.
+Overall,  the  process  of  developing  a  series  of  siRNA  sequences  to  target  and  knock  down  a  specific  oncogene  is  complex  and  requires  a  deep  understanding  of  genomics  and  drug  discovery.  However,  with  the  right  tools  and  expertise,  it  is  possible  to  develop  effective  therapies  for  cancer. | gpt-3.5-turbo-1106: Sure, targeting oncogenes with small interfering RNA (siRNA) is a promising strategy for cancer therapy. Here's an example of how we can design siRNA sequences to target and knock down a specific oncogene:
+Let's say we want to target the oncogene KRAS, which is frequently mutated in many types of cancer. We can start by identifying the mRNA sequence of the KRAS gene. Once we have the mRNA sequence, we can use bioinformatics tools to design siRNA sequences that specifically target and downregulate the expression of KRAS.
+Here's a general outline of the process:
+1. Identify the mRNA sequence of the KRAS gene using publicly available databases such as NCBI or Ensembl.
+2. Analyze the mRNA sequence to identify regions that are amenable to siRNA targeting. Ideal regions for targeting include the coding region or the 3' untranslated region (UTR) of the mRNA.
+3. Design siRNA sequences using established siRNA design guidelines to ensure specificity and efficacy. These guidelines include avoiding off-target effects and ensuring proper thermodynamic properties of the siRNA duplex.
+4. Perform in silico off-target analysis to ensure that the designed siRNA sequences do not have significant homology to other genes in the human genome.
+5. Optionally, test the designed siRNA sequences in cell-based assays to validate their knockdown efficacy and specificity.
+6. Optimize the siRNA sequences for in vivo delivery if the goal is to use them as therapeutic agents.
+It's important to note that designing effective siRNA sequences requires careful consideration of many factors, including target specificity, off-target effects, and delivery methods. Additionally, it's essential to validate the knockdown efficacy of the designed siRNA sequences in appropriate cellular or animal models before considering their potential for therapeutic use.
+If you have a specific oncogene in mind or need further assistance with designing siRNA sequences, please let me know, and I can provide more detailed guidance tailored to your needs. | mistral-7b: To  develop  a  series  of  small  inter fer ing  R NA  ( siR NA)  sequences  to  target  and  knock  down  a  specific  onc ogene,  I  would  follow  these  steps:
+1.  Ident ify  the  target  onc ogene:  The  first  step  is  to  identify  the  specific  onc ogene  that  you  want  to  target  for  knock down.  For  this  example,  let's  assume  we  want  to  target  the  B RAF  onc ogene,  which  is  involved  in  various  can cers,  including  mel an oma.
+2.  Det ermine  the  target  mR NA  sequence:  The  next  step  is  to  determine  the  sequence  of  the  target  mR NA  that  corresponds  to  the  onc ogene.  This  information  can  be  obtained  from  public  dat abases  such  as  the  National  Center  for  Bi ote chn ology  Information  ( NC BI)  Gen Bank  database  or  the  European  Bio in format ics  Institute  (E BI)  Gen ome Browser.
+3.  Design  siR NA  sequences:  Once  the  target  mR NA  sequence  is  identified,  the  next  step  is  to  design  siR NA  sequences  that  can  specifically  bind  to  it  and  cause  its  de grad ation.  There  are  several  tools  and  software  available  for  siR NA  design,  such  as  the  siR NA  Design er  tool  from  Amb ion  or  the  siR NA  W izard  tool  from  D harm acon.  These  tools  allow  users  to  input  the  target  mR NA  sequence  and  generate  potential  siR NA  sequences  based  on  specific  criteria,  such  as  target ing  the 3'  un transl ated  region  ( UTR)  of  the  mR NA,  avoiding  off- target  effects,  and  having  high  thermal  stability.
+4.  Validate  siR NA  sequences:  It's  important  to  validate  the  siR NA  sequences  to  ensure  they  effectively  knock  down  the  target  onc ogene  and  don't  cause  off- target  effects.  This  can  be  done  through  in  vit ro  experiments  using  cell  lines  or  in  v ivo  experiments  using  animal  models.  Techn iques  such  as  Western  bl ot ting,  quant itative  real- time  P CR  (q PCR ),  and  luc ifer ase  ass ays  can  be  used  to  measure  the  knock down  efficiency  and  specific ity  of  the  siR NA  sequences.
+5.  Optim ize  siR NA  sequences:  Based  on  the  results  of  the  validation  experiments,  the  siR NA  sequences  can  be  optim ized  to  improve  their  knock down  efficiency  and  specific ity.  This  may  involve  making  modifications  to  the  siR NA  sequences,  such  as  adding  chemical  modifications  or  using  different  delivery  methods,  to  enhance  their  ability  to  effectively  target  and  knock  down  the  onc | mixtral-instruct: To  develop  a  series  of  siR NA  sequences  to  target  and  knock  down  a  specific  onc ogene,  you  would  need  to  follow  these  steps:
+1.  Ident ify  the  onc ogene:  The  first  step  is  to  identify  the  specific  onc ogene  that  you  want  to  target.  This  can  be  done  by  review ing  the  scientific  literature  and  identifying  the  genes  that  are  known  to  be  involved  in  the  development  and  progress ion  of  the  cancer  of  interest.
+2.  Ob tain  the  sequence  of  the  onc ogene:  Once  you  have  identified  the  onc ogene,  you  will  need  to  obtain  its  sequence.  This  can  be  done  by  searching  public  dat abases  such  as  Gen Bank  or  En sembl.
+3.  Design  the  siR NA  sequences:  The  next  step  is  to  design  the  siR NA  sequences  that  will  target  the  onc ogene.  There  are  several  guidelines  for  designing  effective  siR NA  sequences,  including:
+*  The  siR NA  sequence  should  be 19-21  nucle ot ides  in  length.
+*  The  siR NA  sequence  should  have  a  GC  content  of  around 50 %.
+*  The  siR NA  sequence  should  not  have  extensive  self- com plement arity  or  complement arity  to  other  sequences  in  the  gen ome.
+*  The  siR NA  sequence  should  target  a  region  of  the  onc ogene  that  is  conserv ed  across  different  species  and  cancer  types.
+ There  are  several  online  tools  and  software  programs  that  can  be  used  to  design  siR NA  sequences,  such  as  the  siR NA  Design  Tool  from  Integr ated  DNA  Techn ologies  ( IDT)  or  the  si Direct  web  server.
+4.  Sy nt he size  the  siR NA  sequences:  Once  you  have  designed  the  siR NA  sequences,  you  will  need  to  synt he size  them.  This  can  be  done  by  ordering  the  o lig on uc le ot ides  from  a  commercial  supplier,  such  as  IDT  or  Th ermo  Fisher  Scient ific.
+5.  Test  the  siR NA  sequences:  The  final  step  is  to  test  the  siR NA  sequences  to  ensure  that  they  effectively  knock  down  the  onc ogene.  This  can  be  done  by  trans fect ing  the  siR NA  sequences  into  cancer  cells  that  express  the  onc ogene  and  measuring  the  expression  levels  of  the  onc ogene  using  techniques  such  as  quant itative  P CR  or  western  bl ot ting.
+ It  is  recommended  to  design  and  test  multiple  siR NA  sequences  to  ensure  that  the  knock down  of  the  onc ogene  is  specific  and  efficient.  Additionally,  it  is  important  to  consider  off- | noushermes2: To  develop  a  series  of  small  inter fer ing  R NA  ( siR NA)  sequences  to  target  and  knock  down  a  specific  onc ogene,  I  would  need  more  information  about  the  target  onc ogene.  The  onc ogene's  name,  gene  sequence,  and  function  would  be  essential  to  design  effective  siR NA  sequences.  Once  the  target  onc ogene  is  identified,  I  can  use  bio in format ics  tools  and  algorithms  to  predict  and  select  siR NA  sequences  that  will  effectively  target  the  onc ogene.  These  siR NA  sequences  should  have  minimal  off- target  effects  and  be  efficiently  processed  by  the  R NA- ind uced  sil encing  complex  (R ISC)  to  achieve  efficient  gene  knock down. | yi-34b: Creating  a  set  of  small  interfering  RNA     (siRNA)  sequences  to  specifically  target  an   oncogene  involves  several   steps,  including  understanding  the    gene's   sequence,  designing  potential   siRNA  candidates  based  on  that   sequence,  and  then   validating  their  efficacy  in  knocking  down  the  target   gene.  Here  is  a  general  workflow  for  developing   siRNA   sequences:
+   1.    **Gene    Sequence**:   First,  obtain  the    full-length    nucleotide  sequence  of  the   oncogene  you  wish  to   target.  This  can  be  done  by  searching  public  databases  such  as   NCBI  or     Ensembl.
+   2.   **Target   Selection**:   Identify  key  regions  within  the  gene  that  would  make  good  targets  for   siRNA   binding.  These  might  include  regions  with  high  conservation  across   species,  regions  involved  in  critical  protein   domains,  or  areas  where  mutation  leads  to   disease.
+   3.   **Design   Criteria**:   SiRNA  design  typically  follows  certain  criteria  to  ensure  efficient   silencing  and  minimize    off-target   effects:
+     -  The  length  should  be  around       20-25     nucleotides.
+     -  GC  content  should  be  between     40%  and      60%.
+     -  Avoid  stretches  of  continuous    guanine   residues    (GGG  or    GGGG  at  the   ends)  because  they  may  cause   hairpin   formation.
+     -  Include  a    5'    guanine    (G)   overhang  if   possible,  which  is  thought  to  enhance  stability  and   activity.
+     -  Use  online  tools  like                         [Dharmacon](https://www.dharmacon.com/tools_resources/siRNAdesign/),    [IDT  Custom   siRNA  Design                                   Tool](https://eu.idtdna.com/site/custom-siRNA-design?lang=en&amp;country=US#!/design),  or  other  similar  resources  to  generate  candidate   siRNA   sequences.
+   4.   **In   Silico    Prediction**:   Utilize  prediction  algorithms  to  assess  the  efficacy  of  each  designed   siRNA   sequence.  Tools  like    [DIANA    miRPath                                   v.3.0](http://snf-oslo.ia.uio.no/cgi-bin/mirpathv3/index.pl)  can  help  predict  the  impact  of   siRNA  on  biological   pathways.
+   5.    **Validation**:  Once  you  have  a  list  of  potential   siRNA   sequences,  you  need  to  validate  them   experimentally.    Transfection  of  these   siRNA  molecules  into  cell  lines  expressing  the  target   oncogene  allows  testing  for  successful    knockdown.  Common  methods  used  to  measure</t>
+  </si>
+  <si>
+    <t>Question: discuss how structural biology can aid in the design of a new drug. | falcon-40b: Structural  biology  can  aid  in  the  design  of  a  new  drug  by  providing  detailed  information  about  the  structure  and  function  of  the  target  protein.  This  information  can  help  to  identify  key  regions  of  the  protein  that  are  critical  for  its  activity,  and  can  also  reveal  potential  vulnerabilities  that  can  be  exploited  by  drug  molecules.  By  understanding  the  structure  of  the  protein,  scientists  can  design  drug  molecules  that  specifically  target  these  regions,  leading  to  more  effective  and  specific  drugs.  Additionally,  structural  biology  can  help  to  identify  potential  side  effects  and  toxicity  issues  early  in  the  drug  development  process,  allowing  for  more  targeted  and  safer  drug  development. | gpt-3.5-turbo-1106: Structural biology plays a crucial role in drug discovery by providing detailed insights into the three-dimensional structures of biological macromolecules, such as proteins and nucleic acids, involved in disease processes. These insights can be critical for designing new drugs with high specificity and efficacy. Here are some ways in which structural biology can aid in the design of a new drug:
+1. **Target Identification and Validation:** Structural biology techniques, such as X-ray crystallography, nuclear magnetic resonance (NMR) spectroscopy, and cryo-electron microscopy (cryo-EM), can be used to determine the three-dimensional structures of potential drug targets, such as enzymes, receptors, or other proteins involved in disease pathways. These structures can reveal the binding sites, conformational changes, and key functional regions of the target proteins, aiding in the identification and validation of potential drug targets.
+2. **Rational Drug Design:** Once the structure of a target protein is known, structural biology can be used to guide the rational design of drug candidates. By understanding the interactions between small molecule ligands and the target protein at the atomic level, medicinal chemists can design molecules that specifically bind to the target and modulate its activity, leading to the development of more effective and selective drugs.
+3. **Structure-Based Virtual Screening:** In silico virtual screening of compound libraries can be enhanced by using structural information of target proteins. By employing computational methods, such as molecular docking and molecular dynamics simulations, researchers can virtually screen large chemical databases to predict potential drug candidates that are likely to bind to the target protein with high affinity and specificity.
+4. **Understanding Drug Resistance:** Structural biology can help elucidate the mechanisms of drug resistance by revealing how genetic mutations in the target protein affect drug binding and efficacy. This knowledge can be used to design new drugs or modify existing ones to overcome resistance mechanisms.
+5. **Polypharmacology and Multi-Targeted Drug Design:** In cases where diseases are driven by multiple molecular targets, structural biology can aid in designing drugs that simultaneously modulate multiple targets. By understanding the structural basis of interactions between a drug and multiple targets, researchers can develop multi-targeted therapeutics with synergistic effects.
+In summary, structural biology provides invaluable insights into the atomic details of biological macromolecules, which can be exploited to rationally design new drugs, understand drug-target interactions, and overcome challenges in drug discovery, ultimately leading to the development of more effective and potent therapeutics. | mistral-7b: Struct ural  bi ology  plays  a  crucial  role  in  the  design  of  new  drugs  by  providing  critical  insights  into  the  molecular  interactions  between  target  prote ins  and  potential  ther apeut ic  agents.  Here's  how:
+1.  Under standing  Target  Prote in  Str ucture:  The  three- dimensional  (3D)  structure  of  a  target  protein  reveals  its  functional  sites,  such  as  active  sites,  all oster ic  sites,  and  protein- prote in  interaction  inter faces.  Know ing  these  sites  can  help  in  the  design  of  small  mole cule  inhib itors  or  antib od ies  that  can  bind  to  these  sites  and  mod ulate  protein  function.  For  example,  the 3D  structure  of  the  HIV-1  prote ase  provided  the  basis  for  the  design  of  several  approved  anti-H IV  drugs.
+2.  Ident ifying  B inding  S ites:  Struct ural  bi ology  can  help  identify  the  binding  sites  of  small  mole cules  or  bi olog ics,  such  as  mon ocl onal  antib od ies,  to  their  target  prote ins.  This  information  can  be  used  to  optim ize  the  design  of  drugs  that  can  effectively  engage  with  the  target  protein  and  achieve  the  desired  ther apeut ic  effect.  For  instance,  the  crystal  structure  of  the  A poA-1  binding  site  on  the  A poB-100  protein  has  been  used  to  design  drugs  for  the  treatment  of  hyper ch oles ter olem ia.
+3.  Pred ict ing  M ole cular  Inter actions:  Comput ational  methods,  such  as  molecular  dock ing  and  molecular  dynamics  simulations,  can  be  used  to  predict  the  interactions  between  small  mole cules  and  their  target  prote ins  based  on  their 3D  structures.  These  predictions  can  guide  the  design  of  new  drugs  that  can  bind  more  effectively  to  the  target  protein  and  exhibit  improved  pharm ac ological  properties.
+4.  Under standing  Drug  Res istance:  Struct ural  bi ology  can  also  help  explain  why  certain  drugs  become  less  effective  over  time  due  to  the  emer gence  of  drug- res istant  mut ations  in  target  prote ins.  The 3D  structures  of  drug- res istant  vari ants  can  reveal  the  molecular  mechanisms  underlying  resistance  and  guide  the  design  of  new  drugs  that  can  overcome  resistance.
+5.  Design ing  En zyme  In hib itors:  Struct ural  bi ology  can  aid  in  the  design  of  en zyme  inhib itors  by  providing  insights  into  the  en zyme's  active  site  and  the  mechanism  of  catal ysis.  This  information  can  be  used  to  design  inhib itors  that  can  bind  to  the  active  site  and  block  the  en zyme's  activity.  For  example,  the 3D  structure  of  HIV | mixtral-instruct: Struct ural  bi ology  plays  a  crucial  role  in  drug  design  by  providing  insights  into  the  three- dimensional  structure  of  a  target  protein,  which  is  essential  for  understanding  its  function  and  identifying  potential  binding  sites  for  drug  mole cules.  Here  are  some  ways  in  which  structural  bi ology  can  aid  in  the  design  of  a  new  drug:
+1.  Ident ification  of  potential  drug  targets:  Struct ural  bi ology  can  help  identify  potential  drug  targets  by  providing  information  about  the  three- dimensional  structure  of  prote ins  and  other  mac rom ole cules  involved  in  disease  processes.  By  comparing  the  structures  of  healthy  and  dise ased  cells,  researchers  can  identify  prote ins  that  are  over ex pressed,  mut ated,  or  otherwise  altered  in  disease  states,  making  them  attractive  targets  for  drug  therapy.
+2.  Det erm ination  of  protein- lig and  interactions:  Struct ural  bi ology  can  help  determine  the  interactions  between  a  target  protein  and  potential  drug  mole cules.  By  solving  the  crystal  structure  of  a  protein- lig and  complex,  researchers  can  identify  the  specific  am ino  acid  resid ues  involved  in  binding  and  the  nature  of  the  interactions  (e.g .,  hydro gen  bonds,  van  der  Wa als  forces)  that  stabil ize  the  complex.  This  information  can  be  used  to  optim ize  the  structure  of  the  drug  mole cule  to  improve  its  binding  aff inity  and  select ivity  for  the  target  protein.
+3.  Fr agment- based  drug  design:  Struct ural  bi ology  can  be  used  in  fragment- based  drug  design,  a  strategy  that  involves  screening  libraries  of  small  mole cules  ( frag ments)  for  binding  to  a  target  protein.  By  determining  the  crystal  structures  of  protein- fragment  complex es,  researchers  can  identify  fragments  that  bind  to  different  regions  of  the  protein  and  then  link  them  together  to  form  a  larger,  more  pot ent  drug  mole cule.
+4.  Str ucture- based  virtual  screening:  Struct ural  bi ology  can  be  used  in  structure- based  virtual  screening,  a  comput ational  approach  that  involves  screening  large  libraries  of  drug  mole cules  for  potential  binding  to  a  target  protein.  By  using  the  crystal  structure  of  the  protein,  researchers  can  predict  the  binding  aff inity  of  each  drug  mole cule  and  identify  those  with  the  highest  potential  for  further  development.
+5.  Optim ization  of  lead  comp ounds:  Struct ural  bi ology  can  be  used  to  optim ize  lead  comp ounds,  which  are  drug  mole cules  that  have  shown  promising  activity  in  initial  screening  ass ays.  By  solving  the  crystal  structure  of  the  lead  compound  bound  to  the  target  protein,  researchers  can  identify  opportunities  to  improve  the  drug  mole cule's  binding  aff inity,  select ivity,  or  pharm | noushermes2: Struct ural  bi ology  plays  a  crucial  role  in  the  design  of  new  drugs,  as  it  provides  valuable  insights  into  the  molecular  structure  and  function  of  biological  mac rom ole cules,  such  as  prote ins,  nucle ic  ac ids,  and  carb ohy dr ates.  This  understanding  is  essential  for  the  rational  design  of  drugs  that  can  specifically  target  these  mole cules,  leading  to  more  effective  and  safer  ther apeut ics.
+ Here  are  some  ways  structural  bi ology  a ids  in  drug  design:
+1.  Prote in  structure  determination:  The  three- dimensional  (3D)  structures  of  prote ins  are  essential  for  understanding  their  functions  and  interactions.  Techn iques  like  X- ray  cryst all ography,  nuclear  magnetic  reson ance  (N MR)  spect ro sc opy,  and  cryo- elect ron  micro sc opy  (c ryo- EM)  allow  researchers  to  determine  the  atomic- level  structures  of  prote ins.  This  information  is  crucial  for  identifying  potential  drug  targets  and  understanding  the  binding  sites  for  small  mole cules.
+2.  Ident ification  of  drug  targets:  By  studying  the  structures  of  prote ins  and  other  mac rom ole cules,  researchers  can  identify  regions  that  are  essential  for  their  function  and  may  serve  as  potential  drug  targets.  These  regions  can  be  targeted  by  small  mole cules  or  bi olog ics  to  mod ulate  the  protein's  activity,  leading  to  ther apeut ic  effects.
+3.  Str ucture- based  drug  design:  Once  a  target  protein  has  been  identified,  structural  bi ology  can  be  used  to  design  drugs  that  specifically  bind  to  the  target  protein.  This  can  be  achieved  through  techniques  like  molecular  dock ing,  which  predicts  the  binding  mode  and  aff inity  of  small  mole cules  to  the  target  protein  based  on  their 3D  structures.  This  information  can  guide  the  synt hesis  of  novel  comp ounds  with  improved  binding  properties  and  ther apeut ic  potential.
+4.  Fr agment- based  drug  design:  In  this  approach,  small  molecular  fragments  are  screen ed  for  binding  to  the  target  protein,  and  the  best- per forming  fragments  are  then  combined  or  optim ized  to  generate  a  drug  candidate.  Struct ural  information  is  essential  for  understanding  the  binding  modes  of  these  fragments  and  for  gu iding  the  optimization  process.
+5.  Under standing  drug  resistance:  Struct ural  bi ology  can  also  help  researchers  understand  how  path og ens  develop  resistance  to  drugs.  By  comparing  the  structures  of  drug-s ensitive  and  drug- res istant  prote ins,  researchers  can  identify  the  molecular  changes  that  lead  to  resistance  and  design  new  drugs  that  can  overcome  this  issue.
+6.  Bi oph ys ical  character ization | yi-34b: Structural  biology  plays  a  crucial  role  in  the  rational  design  of  new  drugs  by  providing  insights  into  the    three-dimensional  structures  of  biological   molecules,  particularly  proteins  and   nucleic   acids,  which  are  the  targets  for  most   drugs.    Here's  how  structural  information  is  used  at  various  stages  of  the  drug  development   process:
+   1.   **Target    Identification**:  The  first  step  in  drug  discovery  is  identifying  the  molecular  target  that  the  drug  will  act   upon.    Structural  biology  techniques  such  as    X-ray    crystallography,     cryo-electron   microscopy        (cryo-EM),  nuclear  magnetic  resonance  spectroscopy      (NMR),  and  protein  structure  prediction  tools  help  determine  the    atomic-level  structure  of  potential   targets,  facilitating  their  selection  based  on    druggability  and    specificity.
+   2.    **Understanding   Mechanism  of   Action**:  Knowing  the  detailed  structure  of  a  target  allows  researchers  to  understand  its  mechanism  of   action,  which  is  essential  for  designing  compounds  that  can   modulate  its   activity.  This  includes   inhibiting  enzymes  involved  in  disease  processes  or  altering  the  regulation  of  genes  associated  with   diseases.
+   3.   **Binding  Site   Analysis**:  Once  a  target  is   identified,  locating  the  binding  sites  where  a  potential  drug  could  interact  is   critical.   Structures  show  the  exact  position  and  shape  of  these   pockets,  enabling  the  design  of  molecules  that  fit  like  a  key  in  a   lock.   Computational   methods,  including  molecular   docking   simulations,  use  this  information  to  predict  interactions  between  candidate  drugs  and  their   targets.
+   4.   **Lead   Compound   Design**:  With  the  understanding  of  the    target's  structure  and   function,   chemists  can  design  or  screen  libraries  of  existing  compounds  for  those  likely  to  bind  to  the  target   effectively.   Molecular  modeling  software  helps  visualize  how  different  chemical  modifications  might  improve    potency,    selectivity,  and     bioavailability.
+   5.    **Optimization  Through    Modelling**:  Virtual  screening  using  computer  models  can  rapidly  evaluate  thousands  of  compounds  against  a  known  target   structure,  reducing  the  need  for    time-consuming  and  expensive  wet  lab   experiments.    Structure-activity  relationship  studies  further  refine  the  lead  compound  by  making  changes  to  the  molecule  until  optimal  characteristics  are   achieved.
+   6.     **Preclinical   Testing**:  Before  clinical   trials,  compounds  are  tested  extensively  in  cell  cultures  and  animal   models.    Structural  data  guides  the  interpretation  of  experimental   results,  helping  scientists  understand  why  some  compounds  work  better  than  others  and  suggesting  ways  to  modify  them  if   necessary.
+   7.    **Drug   Candidate   Selection**:  Based  on    preclinical   data,  one  or  more  candidates  are  selected  for  further   development.    Structural</t>
+  </si>
+  <si>
+    <t>Question: explain how pathway analysis can be integrated into drug discovery. | falcon-40b: Pathway  analysis  is  a  valuable  tool  in  drug  discovery  as  it  can  provide  insights  into  the  underlying  mechanisms  of  disease  and  potential  targets  for  drug  intervention.  By  analyzing  the  signaling  pathways  that  are  affected  in  a  particular  disease,  researchers  can  identify  potential  drug  targets  that  can  be  used  to  treat  or  prevent  the  disease.  Pathway  analysis  can  also  help  researchers  understand  the  mechanisms  of  drug  action  and  how  a  particular  drug  interacts  with  the  pathway.  By  integrating  pathway  analysis  into  drug  discovery,  researchers  can  identify  potential  drug  targets  and  design  drugs  that  target  these  pathways  more  effectively. | gpt-3.5-turbo-1106: Pathway analysis is a critical component of drug discovery as it helps identify the biological pathways and processes that are implicated in disease. By integrating pathway analysis into drug discovery, researchers can gain a deeper understanding of the molecular mechanisms underlying a particular disease, which in turn can inform the development of more targeted and effective therapies.
+Here are some ways in which pathway analysis can be integrated into drug discovery:
+1. **Target Identification**: Pathway analysis can help identify key biological pathways and targets that are dysregulated in a particular disease. By analyzing gene expression data, protein-protein interaction networks, and other omics data, researchers can pinpoint specific genes or proteins within disease-associated pathways that may serve as potential drug targets.
+2. **Drug Repurposing**: Pathway analysis can be used to identify existing drugs that may have potential therapeutic effects for a different disease. By comparing the pathways affected by a particular drug with those implicated in a different disease, researchers can repurpose existing drugs for new indications, potentially reducing the time and cost of drug development.
+3. **Biomarker Discovery**: Pathway analysis can facilitate the identification of biomarkers associated with disease progression or treatment response. By examining the pathways that are perturbed in disease states, researchers can identify molecular signatures that can be used as biomarkers for patient stratification, diagnosis, and monitoring of treatment efficacy.
+4. **Mechanism of Action Studies**: For novel drug candidates, pathway analysis can be used to elucidate their mechanisms of action. By investigating how a drug influences specific pathways and molecular processes within a cell or tissue, researchers can gain insights into how the drug exerts its therapeutic effects and identify potential side effects or off-target effects.
+5. **Personalized Medicine**: Pathway analysis can contribute to the development of personalized medicine by enabling the identification of patient-specific pathway signatures. This can help tailor treatment strategies based on the unique molecular characteristics of an individual's disease, ultimately leading to more precise and effective therapies.
+Overall, integrating pathway analysis into drug discovery provides invaluable insights into the complex interplay of biological pathways in disease and drug response, ultimately facilitating the development of targeted, efficacious, and personalized therapies. | mistral-7b: Path way  analysis  is  an  essential  tool  in  the  field  of  drug  discovery  as  it  provides  a  systems- level  understanding  of  biological  processes  and  helps  identify  potential  drug  targets  and  ther apeut ic  inter ventions.  Here's  how  path way  analysis  can  be  integrated  into  drug  discovery:
+1.  Ident ifying  potential  drug  targets:  Path way  analysis  can  help  identify  potential  drug  targets  by  revealing  key  prote ins  and  molecular  interactions  involved  in  a  particular  disease  or  biological  process.  This  information  can  be  used  to  prior itize  targets  based  on  their  role  in  the  path way  and  their  potential  impact  on  the  disease.
+2.  Under standing  disease  mechanisms:  Path way  analysis  can  help  researchers  understand  the  underlying  mechanisms  of  a  disease  by  identifying  the  specific  sign aling  path ways  and  molecular  interactions  that  are  dys reg ulated.  This  information  can  be  used  to  develop  new  ther apeut ic  approaches  or  rep ur pose  existing  drugs  that  target  these  path ways.
+3.  Pred ict ing  drug- target  interactions:  Path way  analysis  can  help  predict  potential  drug- target  interactions  by  identifying  prote ins  that  are  directly  or  indirect ly  connected  to  a  given  target  in  a  particular  path way.  This  information  can  be  used  to  prior itize  comp ounds  for  further  screening  and  to  predict  potential  off- target  effects.
+4.  Ident ifying  drug  combinations:  Path way  analysis  can  help  identify  potential  drug  combinations  by  revealing  interactions  between  different  sign aling  path ways.  This  information  can  be  used  to  develop  combination  therap ies  that  target  multiple  path ways  and  may  provide  more  effective  treatments  than  mon other ap ies.
+5.  Pred ict ing  drug  resistance:  Path way  analysis  can  help  predict  drug  resistance  by  identifying  alternative  sign aling  path ways  that  may  be  activated  in  response  to  drug  treatment.  This  information  can  be  used  to  develop  new  drugs  or  drug  combinations  that  target  these  alternative  path ways  and  overcome  resistance.
+6.  Bi om ark er  discovery:  Path way  analysis  can  help  identify  potential  bi om ark ers  of  disease  or  drug  response  by  identifying  genes  or  prote ins  that  are  different ially  expressed  or  reg ulated  in  a  particular  path way.  This  information  can  be  used  to  develop  diagnostic  tests  or  to  monitor  drug  response  in  clinical  trials.
+7.  Transl ational  research:  Path way  analysis  can  help  bridge  the  gap  between  basic  research  and  clinical  applications  by  providing  a  systems- level  understanding  of  disease  mechanisms  and  potential  drug  targets.  This  information  can  be  used  to  guide  the  development  of  new  drugs  and  ther apeut ic  approaches,  as  well  as  to  optim ize  clinical  trials  and  improve  patient  outcomes.
+ Over all,  path way  analysis  provides  a  powerful  framework  for  integr ating  diverse  data  types  and  identifying | mixtral-instruct: Path way  analysis  is  a  valuable  tool  in  drug  discovery  as  it  can  help  identify  potential  targets  and  understand  the  mechanisms  of  action  of  drugs.  By  analy zing  the  biological  path ways  that  are  affected  by  a  particular  drug  or  disease,  researchers  can  gain  insights  into  the  underlying  bi ology  and  identify  potential  targets  for  drug  development.
+ One  way  that  path way  analysis  can  be  integrated  into  drug  discovery  is  by  using  it  to  identify  potential  drug  targets.  By  analy zing  the  path ways  that  are  affected  by  a  particular  disease,  researchers  can  identify  genes  and  prote ins  that  are  involved  in  those  path ways  and  that  may  be  potential  targets  for  drug  development.  For  example,  if  a  path way  analysis  reveals  that  a  particular  gene  is  over ex pressed  in  a  disease,  that  gene  may  be  a  potential  target  for  a  drug  that  can  inhib it  its  activity.
+ Path way  analysis  can  also  be  used  to  understand  the  mechanisms  of  action  of  drugs.  By  analy zing  the  path ways  that  are  affected  by  a  particular  drug,  researchers  can  gain  insights  into  how  the  drug  works  and  identify  potential  side  effects  or  toxic ities.  For  example,  if  a  path way  analysis  reveals  that  a  particular  drug  affects  a  path way  that  is  also  involved  in  a  critical  physi ological  process,  that  drug  may  have  potential  side  effects  or  toxic ities.
+ Add itionally,  path way  analysis  can  be  used  to  predict  the  eff ic acy  of  drugs.  By  analy zing  the  path ways  that  are  affected  by  a  particular  drug  in  pre cl in ical  models,  researchers  can  predict  how  the  drug  will  affect  those  path ways  in  humans  and  whether  it  will  be  effective  in  treating  a  particular  disease.
+ In  summary,  path way  analysis  is  a  valuable  tool  in  drug  discovery  as  it  can  help  identify  potential  targets,  understand  the  mechanisms  of  action  of  drugs,  and  predict  the  eff ic acy  of  drugs.  By  integr ating  path way  analysis  into  drug  discovery,  researchers  can  gain  a  better  understanding  of  the  underlying  bi ology  of  diseases  and  develop  more  effective  drugs. | noushermes2: Path way  analysis  is  a  valuable  tool  in  drug  discovery,  as  it  helps  researchers  to  better  understand  the  complex  biological  processes  and  interactions  involved  in  diseases  and  potential  ther apeut ic  targets.  By  integr ating  path way  analysis  into  the  drug  discovery  process,  researchers  can  gain  a  deeper  understanding  of  the  molecular  mechanisms  underlying  a  disease,  identify  potential  drug  targets,  and  predict  the  potential  effects  of  a  drug  on  the  biological  system.
+ Here's  a  step- by- step  guide  on  how  path way  analysis  can  be  integrated  into  drug  discovery:
+1.  Ident ify  the  disease  of  interest  and  its  molecular  path ways:  The  first  step  is  to  understand  the  molecular  path ways  involved  in  the  disease.  This  can  be  done  by  review ing  the  scientific  literature,  consulting  public  dat abases  such  as  the  Ky oto  En cycl op edia  of  Gen es  and  Gen omes  ( KE GG)  and  Bio Carta,  or  using  bio in format ics  tools  to  analyze  gene  expression  data.
+2.  An aly ze  the  molecular  path ways:  Once  the  relevant  molecular  path ways  have  been  identified,  researchers  can  use  path way  analysis  tools  to  analyze  the  data.  These  tools  can  help  identify  key  mole cules,  such  as  en zym es,  re cept ors,  and  trans cription  factors,  that  play  a  critical  role  in  the  disease  progress ion.  They  can  also  help  identify  potential  drug  targets  by  analy zing  the  interactions  between  these  mole cules  and  the  effect  of  a  potential  drug  on  the  path way.
+3.  Validate  potential  drug  targets:  After  identifying  potential  drug  targets,  researchers  can  use  experimental  techniques,  such  as  gene  knock out  or  over expression  studies,  to  validate  the  role  of  these  targets  in  the  disease.  This  step  is  crucial  to  ensure  that  the  target  is  indeed  involved  in  the  disease  progress ion  and  that  target ing  it  will  have  a  ther apeut ic  effect.
+4.  Design  and  optim ize  drug  candidates:  Once  the  potential  drug  targets  have  been  valid ated,  researchers  can  use  comput ational  tools,  such  as  molecular  dock ing  and  molecular  dynamics  simulations,  to  design  and  optim ize  drug  candidates  that  can  mod ulate  the  activity  of  the  target  mole cules.  This  step  is  crucial  to  ensure  that  the  drug  candidates  have  the  desired  effect  on  the  target  and  do  not  cause  unw anted  side  effects.
+5.  Test  drug  candidates  in  pre cl in ical  models:  After  designing  and  optim izing  the  drug  candidates,  researchers  can  test  their  eff ic acy  and  safety  in  pre cl in ical  models,  such  as  cell  lines  and  animal  models  of  the  disease.  This  step  is  crucial  to  ensure  that  the  drug  candidates  have  the | yi-34b: Pathway  analysis  is  a  powerful  tool  in  systems  biology  that  allows  researchers  to  understand  biological  processes  by  mapping  molecular   interactions,  signaling   pathways,  and  gene  regulatory   networks.   Integrating  this  approach  into  drug  discovery  has   revolutionized  the  way  we  identify  potential  therapeutic  targets  and  develop  new   drugs.    Here's   how:
+   1.   **Target    Identification**:   Pathway  analysis  helps  prioritize  genes  or  proteins  within  specific  pathways  as  potential  drug   targets.  By  understanding  which  molecules  are  involved  in  disease   mechanisms,  scientists  can  design  drugs  to   modulate  these  targets  for  therapeutic   benefit.
+   2.    **Drug   Mechanism  of  Action     (MOA)   Understanding**:  Once  a  compound  with  therapeutic  potential  is   identified,  pathway  analysis  can    elucidate  its  mode  of  action  by  revealing  the  affected  biological  pathways  and  downstream  effects  on  cellular   processes.  This  information  is  crucial  for  optimizing  compounds  and  predicting    off-target   effects.
+   3.    **Predicting  Drug     Efficacy**:  By  analyzing  patient  data  through  pathway   analysis,   clinicians  can  predict  whether  a  particular  drug  will  be  effective  in  individual  patients  based  on  their  unique  genetic  profiles  and  active  biological   pathways.
+   4.    **Combination  Therapy   Design**:  With  knowledge  of  various  interacting   pathways,  doctors  can  combine  multiple  drugs  that  target  different  parts  of  a  complex  disease   network,  potentially  leading  to  more     synergistic  treatments  with  fewer  side   effects.
+   5.    **Safety     Profiling**:   Pathways  associated  with  toxicity  can  also  be  analyzed  during    preclinical   studies.  This  enables  early  identification  of  potential  safety  issues  and  guides  modifications  to  improve  the   pharmacological  profile  of  candidate   drugs.
+   6.    **Patient    Stratification**:  In  clinical   trials,  pathway  analysis  can  help  enroll  subjects  who  are  most  likely  to  respond  positively  to  a  given   treatment,  ensuring  better  trial  outcomes  and  accelerating  approval  times  for  novel   therapies.
+   7.     **Personalized   Medicine**:  As  part  of  precision  medicine   initiatives,  pathway  analysis  contributes  to   tailoring  medical   decisions,  including  therapy   selection,   dosing    regimens,  and  monitoring   plans,  to  each    individual's  unique      pathophysiology.
+   8.    **Adverse  Event    Prediction**:  Analysis  of  known  adverse  events  associated  with  approved  drugs  can  provide  insights  into   commonalities  among  those   drugs'  targets  and   pathways,  helping  to  anticipate  possible  side  effects  before  a  new  drug  reaches  the   market.
+   9.     **Repurposing   Existing   Drugs**:  By  comparing  the  affected  pathways  of  existing  drugs  with  those   implicated  in   diseases,  researchers  can  uncover  new  indications  for  marketed   products,  saving  time  and  resources  compared  to  de   novo  drug   development.
+  In  summary</t>
+  </si>
+  <si>
+    <t>Question: for the gene polr3e, determine how many of the mutations are pathogenic. | falcon-40b: No response | gpt-3.5-turbo-1106: SQL
+SELECT COUNT(*) AS Pathogenic_Mutations_Count
+FROM ccle_mutation
+WHERE Hugo_Symbol = 'POLR3E' AND isDeleterious = 'Yes';
+ | mistral-7b: sql--SQLquerytodeterminethenumberofpathogenicmutationsforgenePOLR3Einallthreedatabasescombined--JoinCCLE_MutationandCCLE_VariantsonDepMap_IDWITHmutationsAS(SELECTm.Hugo_Symbol,m.DepMap_ID,v.CCLEDeleterious,v.CosmicHotspotFROMccle_mutationmINNERJOINccle_variantsvONm.DepMap_ID=v.DepMap_IDWHEREm.Hugo_Symbol='POLR3E')--JoinCCLE_CN_Gistictofilteroutsampleswithnocopynumberalteration--Assuming'0'ingistic_cnmeansnocopynumberalteration--Adjustthejoinconditionbasedonyouractualgistic_cnvaluesWITHfiltered_mutationsAS(SELECT*FROMmutationsLEFTJOINccle_cn_gisticcngONm.DepMap_ID=cng.DepMap_IDANDcng.gistic_cn!='0'WHEREcng.gistic_cnISNULL)--CountthenumberofpathogenicmutationsSELECTCOUNT(*)FROMfiltered_mutationsWHERECCLEDeleteriousISNOTNULLANDCosmicHotspotISNOTNULL; | mixtral-instruct: SELECTCOUNT(*)FROMccle\_mutationWHEREHugo\_Symbol='POLR3E'ANDisDeleterious='pathogenic'; | noushermes2: sqlSELECTCOUNT(*)FROMccle_mutationWHEREHugo_Symbol='POLR3E'ANDisDeleterious='Y'; | yi-34b: sqlSELECTCOUNT(*)ASnum_pathogenic_mutationsFROMccle_mutationsWHEREHugo_Symbol='POLR3E'AND(isDeleterious&lt;&gt;''ORisTCGAhotspot&lt;&gt;''ORisCOSMIChotspot&lt;&gt;'');</t>
+  </si>
+  <si>
+    <t>Question: for the gene polr3e, identify indications with significant differential expression in cancer vs normal tissue. is it overexpressed or underexpressed in tumor tissue? | falcon-40b: No response | gpt-3.5-turbo-1106: SQL
+SELECT g.CCLE_Name,
+       g.gistic_cn AS CopyNumber,
+       v.VariantType AS VariantType,
+       v.VariantInfo AS VariantInfo
+  FROM ccle_cn_gistic g
+  JOIN ccle_variants v ON g.DepMap_ID = v.DepMap_ID
+ WHERE g.Hugo_Symbol = 'POLR3E';
+ | mistral-7b: sql--JoiningthethreetablesonDepMap_IDforthegenePOLR3ESELECTc.CCLE_Name,g.gistic_cn,m.Variant_Classification,m.isDeleterious,v.CCLEDeleterious,v.CosmicHotspotFROMccle_cn_gisticcJOINccle_mutationmONc.DepMap_ID=m.DepMap_IDJOINccle_variantsvONc.DepMap_ID=v.DepMap_IDWHEREm.Hugo_Symbol='POLR3E';--Querytocheckifthegeneisdifferentiallyexpressedincancervsnormaltissue--Assumingthatgistic_cnrepresentscopynumberdata,and'DE'indicatesdifferentialexpression--AdjustthelogicbasedontheactualdataandcriteriaforsignificantdifferentialexpressionSELECTc.CCLE_Name,g.gistic_cnFROMccle_cn_gisticcJOINccle_mutationmONc.DepMap_ID=m.DepMap_IDWHEREm.Hugo_Symbol='POLR3E'AND(g.gistic_cnLIKE'%DE%[0-9]+:amplification%'--overexpressionwithamplificationORg.gistic_cnLIKE'%DE%[0-9]+:deletion%'--underexpressionwithdeletionORg.gistic_cnLIKE'%DE%[0-9]+:lowlevelamplification%'--low-leveloverexpressionORg.gistic_cnLIKE'%DE%[0-9]+:lowleveldeletion%');--low-levelunderexpression | mixtral-instruct: sqlSELECTDepMap_IDFROMccle_mutationWHEREHugo_Symbol='POLR3E';```Next,let'squerythe'ccle_variants'databasetogetthevariantinformationforPOLR3E:```sqlSELECT*FROMccle_variantsWHEREgene_name='POLR3E';```Now,let'squerythehypothetical'ccle_diffexp'databasetogetthedifferentialexpressiondataforPOLR3E:```sqlSELECTTissue_Type,Avg_ExpressionFROMccle_diffexpWHEREGene_Name='POLR3E';```Finally,let'sanalyzetheresultstodetermineifPOLR3Eisoverexpressedorunderexpressedintumortissue: | noushermes2: [{"role":"system","content":"SQLquery:\n\nSELECTcc.DepMap_ID,cc.Chrom,cc.Pos,cc.Ref,cc.Alt,cc.AF,cc.VariantType,cc.DNAChange,cc.ProteinChange,cg.Hugo_Symbol,cg.CCLE_Name\nFROMccle_variantscc\nJOINccle_cn_gisticcgONcc.DepMap_ID=cg.DepMap_ID\nWHEREcg.Hugo_Symbol='POLR3E'\nANDcc.VariantType='SNV'\nANDcc.DNAChange!='*\nANDcc.ProteinChange!='*\nANDcc.VariantInfo!='synonymous'\nANDcc.VariantInfo!='missense'\nANDcc.VariantInfo!='frameshift'\nANDcc.VariantInfo!='inframe_ins'\nANDcc.VariantInfo!='inframe_del'\nANDcc.VariantInfo!='splice_region'\nANDcc.VariantInfo!='stop_gained'\nANDcc.VariantInfo!='stop_lost'\nANDcc.VariantInfo!='upstream'\nANDcc.VariantInfo!='downstream'\nANDcc.VariantInfo!='non_coding'\n"}] | yi-34b: sqlSELECT*FROMCNVsWHEREHugo_Symbol='POLR3E';SELECT*FROMMutationsWHEREHugo_Symbol='POLR3E';SELECT*FROMVariantsWHEREDepMap_IDIN(SELECTDepMap_IDFROMCNVsWHEREHugo_Symbol='POLR3E');</t>
+  </si>
+  <si>
+    <t>Question: give me a list of pseudokinase genes | falcon-40b: As  an  AI  language  model,  I  don't  have  the  capability  to  provide  a  comprehensive  list  of  pseudokinase  genes.  However,  here  are  a  few  examples:
+1.  EGFR  (Epidermal  Growth  Factor  Receptor)
+2.  IRAK  (Interleukin-1  Receptor-Associated  Kinase)
+3.  ALK  (Anaplastic  Lymphoma  Kinase)
+4.  BRAF  (B-Raf  Proto-Oncogene,  Serine/Threonine  Kinase)
+5.  PDGFRA  (Platelet-Derived  Growth  Factor  Receptor  Alpha)
+6.  MET  (Tyrosine-Protein  Kinase  Met)
+7.  FGFR1  (Fibroblast  Growth  Factor  Receptor  1)
+8.  KDR  (Kinase  Insert  Domain  Receptor)
+9.  CDK  (Cyclin-Dependent  Kinase)
+10.  FLT  (Fms-Related  Tyrosine  Kinase  1). | gpt-3.5-turbo-1106: Here are several pseudokinase genes:
+1. Pseudokinase 1 (PSKH1)
+2. Pseudokinase 2 (PSKH2)
+3. Pseudokinase 3 (PSKH3)
+4. Pseudokinase 4 (PSKH4)
+5. Pseudokinase 5 (PSKH5)
+These are just a few examples, and there are many more pseudokinase genes identified in various organisms. | mistral-7b: Pse ud ok in ases  are  prote ins  that  share  structural  similar ity  with  true  kin ases  but  lack  the  catal yt ic  functionality  of  their  active  counter parts.  These  prote ins  can  function  as  regulatory  elements  by  binding  to  kin ases,  acting  as  sc aff olds  for  protein  complex es,  or  playing  roles  in  various  cell ular  processes  without  under going  ph osph ory lation.  Here's  a  list  of  some  well- known  pseud ok in ase  genes,  primarily  from  the  human  gen ome:
+1.  A BL1  ( ABL  ty ros ine- prote in  kin ase,  non-c atal yt ic ):  This  gene  enc odes  the  non-c atal yt ic  form  of  the  Ab elson  ty ros ine  kin ase.  A BL1  plays  a  role  in  the  regulation  of  the  cell  cycle,  ap opt osis,  and  other  cell ular  processes.
+2.  ARHG AP11B  (R ho  G TP ase- activ ating  protein 11B ):  ARHG AP11B  is  a  R hoG AP  (R as  hom olog  gene  family  member  A)  pseud ok in ase  that  acts  as  a  negative  reg ulator  of  R hoA  and  R ac1  sign aling  path ways.
+3.  BLNK  (B- cell  link er  protein  ty ros ine  kin ase ):  BLNK  is  a  cy topl asm ic  ty ros ine  kin ase  that  plays  a  role  in  the  regulation  of  B- cell  re ceptor  sign aling.
+4.  BTK  ( Br ut on's  ty ros ine  kin ase ):  BTK  is  a  cy topl asm ic  ty ros ine  kin ase  involved  in  the  B- cell  re ceptor  sign aling  path way.  The  non-c atal yt ic  form  of  BTK,  BTK-D,  acts  as  a  negative  reg ulator  of  BTK.
+5.  C HEK2  ( Check point  kin ase 2 ):  C HEK2  is  a  ser ine/ th re on ine  kin ase  that  plays  a  role  in  the  DNA  damage  response  path way.  The  non-c atal yt ic  form  of  C HEK2  (C HEK2-Δ110)  can  interact  with  and  inhib it  the  catal yt ic  form  of  the  kin ase.
+6.  D AP12  (D NA  damage- activ ated  protein  kin ase 12 ):  D AP12  is  a  cy topl asm ic  ty ros ine  kin ase  that  functions  as  a  re ceptor  for  the  bacter ial  tox in  lip opol ys ac char | mixtral-instruct: Pse ud ok in ases  are  a  class  of  prote ins  that  have  a  kin ase  domain  but  lack  key  resid ues  required  for  catal yt ic  activity.  They  are  evolution arily  conserv ed  and  play  important  roles  in  reg ulating  various  cell ular  processes,  including  signal  trans du ction  and  protein  de grad ation.  Here  is  a  list  of  pseud ok in ase  genes:
+1.  MLKL  (m ixed  line age  kin ase  domain- like)
+2.  TR IB1  (t rib bles  hom olog 1)
+3.  TR IB2  (t rib bles  hom olog 2)
+4.  TR IB3  (t rib bles  hom olog 3)
+5.  H ERC1  ( HE CT  and  R LD  domain  containing  E3  ub iqu it in  protein  lig ase 1)
+6.  H ERC2  ( HE CT  and  R LD  domain  containing  E3  ub iqu it in  protein  lig ase 2)
+7.  H ERC3  ( HE CT  and  R LD  domain  containing  E3  ub iqu it in  protein  lig ase 3)
+8.  H ERC4  ( HE CT  and  R LD  domain  containing  E3  ub iqu it in  protein  lig ase 4)
+9.  H ERC5  ( HE CT  and  R LD  domain  containing  E3  ub iqu it in  protein  lig ase 5)
+10.  H ERC6  ( HE CT  and  R LD  domain  containing  E3  ub iqu it in  protein  lig ase 6)
+11.  NEK11  ( NI MA  related  kin ase 11)
+12.  STK17A  ( ser ine/ th re on ine  kin ase 17A)
+13.  STK17B  ( ser ine/ th re on ine  kin ase 17B)
+14.  STK36  ( ser ine/ th re on ine  kin ase 36)
+15.  T ESK1  ( test is- specific  kin ase 1)
+16.  T ESK2  ( test is- specific  kin ase 2)
+17.  D APK1  ( de ath- associ ated  protein  kin ase 1)
+18.  D APK2  ( de ath- associ ated  protein  kin ase 2)
+19.  D APK3  ( de ath- associ ated  protein  kin ase 3)
+20.  PKN3  ( prote in  kin ase  N3)
+21. | noushermes2: C ertain ly!  Here  are  some  pseud ok in ase  genes  that  have  been  identified:
+1.  Ple ck str in  hom ology  domain  containing,  family  A,  member 1  (P LEKHF1)
+2.  Ple ck str in  hom ology  domain  containing,  family  A,  member 2  (P LEKHF2)
+3.  Ple ck str in  hom ology  domain  containing,  family  A,  member 3  (P LEKHF3)
+4.  Ple ck str in  hom ology  domain  containing,  family  A,  member 4  (P LEKHF4)
+5.  Ple ck str in  hom ology  domain  containing,  family  A,  member 5  (P LEKHF5)
+6.  Ple ck str in  hom ology  domain  containing,  family  A,  member 6  (P LEKHF6)
+7.  Ple ck str in  hom ology  domain  containing,  family  A,  member 7  (P LEKHF7)
+8.  Ple ck str in  hom ology  domain  containing,  family  A,  member 8  (P LEKHF8)
+9.  Ple ck str in  hom ology  domain  containing,  family  A,  member 9  (P LEKHF9)
+10.  Ple ck str in  hom ology  domain  containing,  family  A,  member 10  (P LEKHF10)
+11.  Ple ck str in  hom ology  domain  containing,  family  A,  member 11  (P LEKHF11)
+12.  Ple ck str in  hom ology  domain  containing,  family  A,  member 12  (P LEKHF12)
+13.  Ple ck str in  hom ology  domain  containing,  family  A,  member 13  (P LEKHF13)
+14.  Ple ck str in  hom ology  domain  containing,  family  A,  member 14  (P LEKHF14)
+15.  Ple ck str in  hom ology  domain  containing,  family  A,  member 15  (P LEKHF15)
+ These  genes  are  part  of  the  Ple ck str in  Hom ology  Dom ain  Cont aining  (P LEKH)  family,  which  are  pseud ok in ases.  P se ud ok in ases  are  prote ins  that  share  structural  similar ities  with  kin ases  but  lack  catal yt ic  activity  due  to  mut ations  in  their  kin ase  domains.  They  can  still  play  essential  roles  in  cell | yi-34b: As  of  my  last   update,  there  is  no  comprehensive  database  or  definitive  list  of     pseudokinases  available  in  public   domain.       Pseudokinases  are  proteins  that  contain  a     kinase-like  domain  but  do  not  have   catalytic  activity  due  to  mutations  or   deletions  in  key   residues  required  for    catalysis.  They  can  be  found  across  various   species,  from  bacteria  to   humans.
+   However,  several    well-known  examples  of  human     pseudokinases   include:
+   1.        **DYRK4**:     Dual-specificity           tyrosine-(Y)-phosphorylation  regulated   Kinase   4  lacks  a  functional  active  site  as  a  result  of  multiple  amino  acid   substitutions  compared  to  other     DYRK  family   members.
+   2.         **TRKA/B/C**:  The     neurotrophin  receptors    TRKA,    TRKB,  and   TRCC  are     pseudokinases  involved  in   neuronal  development  and  survival   signaling.  Their   kinase  domains  are   nonfunctional  despite  their  structural  similarity  to  functional    kinases.
+   3.       **PTENP1**:  This  is  a  long    noncoding  RNA      (lncRNA)  that  contains  a     pseudokinase  domain  within  its   sequence.  It  does  not  possess  protein   kinase  activity  but  may  play  regulatory  roles  through  base  pairing  with  the  tumor   suppressor   PTEN   mRNA.
+   4.          **BRDG1/NSAID**:    BRDG1  stands  for   Binding  partner  of   RAF  Family    GTPase   Activating   Protein   1  and   NSAID  for    Nonsteroidal    Anti-inflammatory  Drug  induced   gene;  it  was  initially  identified  as  a     pseudokinase  but  has  recently  been  shown  to  exhibit  weak   phosphate  transfer  activity  under  certain   conditions.
+   5.      **TBL2**  and       **TBLR1**:  These  two   adaptor  proteins  were  originally  classified  as     pseudokinases  based  on  their  lack  of   catalytic   function,  but  they  have  since  been   implicated  in  regulating  diverse  cellular  processes  such  as   lipid  metabolism  and  signal    transduction.
+  Please  note  that  the  field  of     pseudokinase  research  is   dynamic,  and  new  discoveries  might  add  to  this  list  over   time.   Additionally,  the  classification  of  some  proteins  as  true     pseudokinases  can  sometimes  be   controversial,  as  additional  functions  or  alternative  interpretations  of  experimental  data  may    emerge.</t>
+  </si>
+  <si>
+    <t>Question: have cell lines been used in other studies for the target of interest of the gene polr3e? if experimental data is available on ncbi geo, provide those links or analysis within the platform. | falcon-40b: Yes,  cell  lines  have  been  used  in  several  studies  for  the  target  of  interest  of  the  gene  POLR3E.  One  study  used  cell  lines  to  investigate  the  role  of  POLR3E  in  breast  cancer  progression  and  metastasis  (GEO  accession  number  GSE112790).  Another  study  used  cell  lines  to  explore  the  role  of  POLR3E  in  pancreatic  cancer  (GEO  accession  number  GSE124926).  These  studies  provide  valuable  insights  into  the  potential  mechanisms  of  action  of  POLR3E  and  may  lead  to  the  development  of  new  therapies  for  these  diseases. | gpt-3.5-turbo-1106: I currently don't have access to specific databases or repositories like NCBI GEO to access experimental data for the gene POLR3E. However, such information can be retrieved by searching for the gene of interest along with relevant keywords in NCBI GEO or other repositories to find studies using cell lines for the target gene. If you have any specific data or study in mind that you'd like to further analyze, feel free to provide the details and I can help with the analysis. | mistral-7b: I  am  an  AI  language  model  and  do  not  have  the  ability  to  directly  access  dat abases  or  conduct  experiments.  However,  I  can  guide  you  on  how  to  search  for  information  related  to  the  use  of  cell  lines  for  the  target  gene  P OLR3E  in  publicly  available  dat abases,  specifically  NC BI  Gene  Expression  O mn ib us  ( GEO ).
+ To  search  for  studies  related  to  P OLR3E  and  cell  lines  on  NC BI  G EO,  you  can  follow  these  steps:
+1.  Go  to  the  NC BI  G EO  website  (&lt; https :// www.n cbi. nlm. nih. gov/ geo /&gt; ).
+2.  In  the  search  bar,  type  " POLR3E"  ( without  quotes)  in  the  " Keyword(s )"  field.
+3.  Select  " All"  in  the  " Filter  by"  drop down  menu  for  " Series ".
+4.  Click  the  " Search"  button.
+ This  search  should  return  a  list  of  studies  related  to  P OLR3E  that  have  used  cell  lines.  For  each  study,  you  can  check  the  " Platform"  and  " Sample  type"  information  to  confirm  the  use  of  cell  lines.  Additionally,  you  can  click  on  the  study  acc ession  number  to  view  more  details,  including  the  experimental  design,  data  files,  and  publication  information.
+ Please  note  that  the  availability  and  extent  of  the  experimental  data  on  NC BI  G EO  may  vary  between  studies.  Some  studies  may  only  provide  summary  statistics  or  raw  data  files,  while  others  may  include  more  detailed  analys es  or  figures.
+I  hope  this  information  helps  you  in  your  research!  If  you  have  any  further  questions,  please  let  me  know. | mixtral-instruct: To  answer  this  question,  I  would  first  identify  studies  that  have  used  cell  lines  to  investigate  the  target  of  interest,  P OLR3E.  I  would  search  NC BI  G EO  (G ene  Expression  O mn ib us)  for  experiments  that  have  measured  P OLR3E  expression  in  cell  lines.  Here's  how  I  would  approach  this:
+1.  Go  to  the  NC BI  G EO  home page  (&lt; https :// www.n cbi. nlm. nih. gov/ geo /&gt; ).
+2.  In  the  search  bar  at  the  top,  type  " POLR3E"  and  select  " Expression  prof iling  by  array"  from  the  drop down  menu.
+3.  Click  the  " Search"  button.
+ This  search  will  return  a  list  of  experiments  that  have  measured  P OLR3E  expression.  To  further  filter  the  results,  I  would:
+1.  Click  the  " Sample  Type"  fac et  on  the  left  side bar.
+2.  Select  " Cell  Line"  to  filter  for  experiments  using  cell  lines.
+ This  should  give  me  a  list  of  experiments  that  have  measured  P OLR3E  expression  in  cell  lines.  I  can  then  review  the  individual  experiment  pages  to  see  if  they  are  relevant  to  the  target  of  interest.
+ For  example,  one  of  the  top  results  from  this  search  is  the  G SE41346  experiment,  which  measured  gene  expression  in  a  panel  of  breast  cancer  cell  lines.  The  experiment  page  (&lt; https :// www.n cbi. nlm. nih. gov/ geo/ query/ acc.c gi? acc=G SE41346 &gt;)  includes  links  to  the  raw  data  and  processed  data,  as  well  as  a  publication  associated  with  the  experiment.
+ To  further  analyze  the  data  within  the  platform,  I  could  use  tools  like  G EO2R  (&lt; https :// www.n cbi. nlm. nih. gov/ geo/ geo2r /&gt;)  to  compare  P OLR3E  expression  levels  across  different  cell  lines  or  conditions.  This  would  allow  me  to  identify  patterns  of  P OLR3E  expression  that  may  be  relevant  to  the  target  of  interest. | noushermes2: Yes,  cell  lines  have  been  used  in  various  studies  for  the  target  of  interest  of  the  gene  P OLR3E.  The  gene  P OLR3E  enc odes  the  largest  sub unit  of  R NA  poly mer ase  III,  which  is  involved  in  the  trans cription  of  small  R NA  mole cules  such  as  tR NA, 5S  rR NA,  and  some  small  nuclear  R NA  ( snR NA)  genes.
+I  found  several  studies  using  cell  lines  for  P OLR3E:
+1.  A  study  titled  " The  DNA  re plication  stress  response  and  the  re plication  of  mit och ond rial  DNA"  (G SE127195)  by  the  National  Human  Gen ome  Research  Institute,  which  investig ates  the  role  of  P OLR3E  in  mit och ond rial  DNA  re plication.
+ Link:  https :// www.n cbi. nlm. nih. gov/ geo/ query/ acc.c gi? acc=G SE127195
+2.  A  study  titled  " Trans cript ome  analysis  of  human  dental  pulp  stem  cells  in  response  to  T GF-β1  treatment"  (G SE102613)  by  the  Shanghai  N inth  People's  Hospital,  which  exam ines  the  effects  of  transform ing  growth  factor- beta 1  (T GF-β1)  on  the  expression  of  P OLR3E  in  dental  pulp  stem  cells.
+ Link:  https :// www.n cbi. nlm. nih. gov/ geo/ query/ acc.c gi? acc=G SE102613
+3.  A  study  titled  "R NA- seq  analysis  of  human  mes en ch ym al  stem  cells  exposed  to  hyp ox ia"  (G SE112800)  by  the  National  Inst itutes  of  Health,  which  investig ates  the  response  of  P OLR3E  expression  in  mes en ch ym al  stem  cells  under  hyp ox ic  conditions.
+ Link:  https :// www.n cbi. nlm. nih. gov/ geo/ query/ acc.c gi? acc=G SE112800
+ These  studies  provide  valuable  insights  into  the  role  of  P OLR3E  in  various  cell ular  processes  and  conditions.  You  can  access  the  raw  data  and  analysis  within  the  NC BI  G EO  platform  to  further  explore  the  gene's  function  and  its  potential  implications  in  drug  discovery  and  development. | yi-34b: I'm   sorry,  but  as  an  AI  language   model,  I    don't  have    real-time  access  to  external  databases  such  as   NCBI    GEO.   However,  I  can  guide  you  through  how  to  search  for  this  information  yourself  using  the   NCBI   GEO   platform.
+  To  find  out  if  cell  lines  have  been  used  in  other  studies  targeting  the  gene     POLR3E  and  whether  there  is  any  related  experimental  data   available:
+   1.    **Visit  the   NCBI   GEO   Platform**:  Go  to                   https://www.ncbi.nlm.nih.gov/geo/.
+   2.    **Perform  a   Search**:  In  the  main  search   bar,  type       "POLR3E"   (without   quotes)  and  hit   Enter.  This  will  bring  up  all  the  datasets  that  mention  this   gene.
+   3.   **Filter  Results  by  Data   Type**:  Look  at  the  left  sidebar  under     "DataSets"  and  filter  the  results  based  on  what  kind  of  data  you  are  looking   for,      e.g.,    microarray,     RNA-Seq,   etc.  These  experiments  might  be  performed  on  various  types  of   cells,  including  cell   lines.
+   4.   **Check   Samples  and   Conditions**:  Once  you  find  a  dataset  of   interest,  look  at  the  sample  details  provided  to  see  if  they  include  cell   lines.  The     'characteristics'  section  often  lists  the  tissue  or  cellular  origin  of  the   samples.
+   5.    **Browse  Series  Matrix   Files**:  For  each   dataset,  there  may  be  one  or  more  series  matrix  files      (SAMs)  which  contain  the  raw  expression  values  for  each  probe  or  transcript  across  all   samples.  Download  these  files  if  necessary  and  use  spreadsheet  software  or  statistical  tools  like  R  to  analyze  them   further.
+   6.    **Analyze  Data   Accession   Numbers**:  Each  dataset  has  an   accession  number       (e.g.,       GSExxxxx).  Use  this  number  to  cite  the  dataset  when  reporting  your   findings.
+  Please  note  that  while  I  cannot  directly  link  to  specific  datasets  due  to  my  limited  database   access,  you  can  easily  find  relevant  information  by  following  these  steps  on  the   NCBI   GEO    website.</t>
+  </si>
+  <si>
+    <t>Question: how can computational models predict off-target effects of potential drug candidates? | falcon-40b: Computational  models  can  predict  off-target  effects  of  potential  drug  candidates  by  using  various  algorithms  and  databases.  These  models  can  identify  potential  targets  of  the  drug  candidate  and  analyze  their  similarity  with  known  targets.  This  can  help  in  predicting  off-target  effects.  Additionally,  machine  learning  algorithms  can  also  be  used  to  identify  potential  off-target  effects  based  on  the  similarity  of  the  drug  candidate's  structure  to  other  compounds  with  known  off-target  effects. | gpt-3.5-turbo-1106: Computational models can predict off-target effects of potential drug candidates through several approaches:
+1. Ligand-based methods: These involve comparing the structural and physicochemical properties of the drug candidate with known ligands that interact with off-target proteins. Techniques such as quantitative structure-activity relationship (QSAR) modeling and similarity searching can be used to identify potential off-target interactions based on molecular similarity.
+2. Structure-based methods: By utilizing the 3D structure of both the drug candidate and off-target proteins, computational models can predict potential interactions through molecular docking and molecular dynamics simulations. This allows for the assessment of binding affinity and the likelihood of off-target interactions.
+3. Systems biology approaches: These involve the integration of omics data (genomics, proteomics, metabolomics) with computational models to understand the broader network of interactions within the cell. By examining the effects of the drug candidate on various pathways and biological processes, potential off-target effects can be predicted.
+4. Machine learning algorithms: By training models on large datasets of known drug-target interactions, machine learning algorithms can predict off-target effects based on patterns and relationships in the data.
+By employing these computational methods, researchers can effectively prioritize drug candidates with minimal off-target effects, ultimately aiding in the development of safer and more effective medications. | mistral-7b: As  a  comput ational  bi ologist  and  genom ics  expert,  I'm  glad  you  asked  about  predict ing  off- target  effects  of  potential  drug  candidates  using  comput ational  models.  Off- target  effects  refer  to  the  un int ended  interactions  of  a  drug  with  mole cules  other  than  its  primary  target,  which  can  lead  to  unw anted  side  effects  and  limit  the  ther apeut ic  eff ic acy  of  the  drug.  Here's  how  comput ational  models  can  help  predict  off- target  effects:
+1.  In  sil ico  screening:  Comput ational  models  can  be  used  to  predict  potential  off- target  interactions  by  performing  in  sil ico  ( virtual)  screening.  These  models  use  algorithms  to  identify  the  binding  aff inity  of  a  drug  mole cule  to  various  protein  targets  based  on  their  three- dimensional  structures.  By  comparing  the  binding  aff inity  of  a  drug  to  its  primary  target  with  that  of  other  prote ins  in  the  gen ome,  comput ational  models  can  identify  potential  off- target  prote ins.
+2.  D ock ing  simulations:  D ock ing  simulations  are  a  type  of  comput ational  model  that  can  be  used  to  predict  the  binding  mode  of  a  drug  to  its  target  and  potential  off- target  prote ins.  D ock ing  simulations  can  help  identify  the  key  interactions  between  the  drug  and  the  target  protein,  as  well  as  any  potential  off- target  interactions.
+3.  Quant itative  structure- activity  relationship  (QS AR)  models:  QS AR  models  are  comput ational  models  that  relate  the  chemical  structure  of  a  compound  to  its  biological  activity.  These  models  can  be  used  to  predict  the  off- target  effects  of  a  drug  candidate  by  identifying  the  structural  features  of  the  drug  that  are  responsible  for  binding  to  off- target  prote ins.
+4.  Network- based  approaches:  Network- based  approaches,  such  as  protein- prote in  interaction  networks  and  gene  regulatory  networks,  can  be  used  to  predict  off- target  effects  by  identifying  the  connections  between  the  primary  target  and  other  prote ins  in  the  network.  These  approaches  can  help  identify  potential  off- target  prote ins  that  may  be  involved  in  similar  biological  path ways  or  regulatory  networks  as  the  primary  target.
+5.  Machine  learning  algorithms:  Machine  learning  algorithms,  such  as  support  vector  machines  and  random  forests,  can  be  used  to  predict  off- target  effects  based  on  large  datasets  of  drug- target  interactions.  These  algorithms  can  identify  patterns  and  relationships  between  the  chemical  structure  of  drugs  and  their  off- target  effects,  allowing  for  the  prediction  of  new  off- target  effects  for  drug  candidates.
+ It's  important  to  note  that  while  comput ational  models  can  help  predict  off- | mixtral-instruct: Comput ational  models  can  predict  off- target  effects  of  potential  drug  candidates  by  using  a  variety  of  techniques,  including:
+1.  Sequ ence- based  methods:  These  methods  use  the  sequence  similar ity  between  the  target  protein  and  other  prote ins  in  the  gen ome  to  identify  potential  off- target  interactions.  This  can  be  done  using  tools  such  as  B LAST,  P SI- BL AST,  or  H MM ER.
+2.  Str ucture- based  methods:  These  methods  use  the  three- dimensional  structure  of  the  target  protein  and  other  prote ins  in  the  gen ome  to  identify  potential  off- target  interactions.  This  can  be  done  using  tools  such  as  molecular  dock ing,  molecular  dynamics  simulations,  or  hom ology  modeling.
+3.  Network- based  methods:  These  methods  use  the  interactions  between  prote ins  in  a  biological  network  to  identify  potential  off- target  interactions.  This  can  be  done  using  tools  such  as  protein- prote in  interaction  networks,  gene  regulatory  networks,  or  met ab olic  networks.
+4.  Machine  learning- based  methods:  These  methods  use  machine  learning  algorithms  to  predict  off- target  interactions  based  on  a  variety  of  features,  such  as  protein  sequence,  structure,  or  network  properties.  This  can  be  done  using  tools  such  as  support  vector  machines,  random  forests,  or  neural  networks.
+5.  Systems  bi ology- based  methods:  These  methods  use  a  systems  bi ology  approach  to  predict  off- target  interactions  by  integr ating  multiple  types  of  data,  such  as  gene  expression,  protein- prote in  interactions,  and  met ab olic  path ways.  This  can  be  done  using  tools  such  as  constraint- based  modeling,  dynamic  modeling,  or  agent- based  modeling.
+ It  is  important  to  note  that  the  prediction  of  off- target  effects  is  still  an  active  area  of  research,  and  no  single  method  is  able  to  predict  all  off- target  interactions  with  high  accuracy.  Therefore,  it  is  recommended  to  use  multiple  methods  in  combination  to  improve  the  accuracy  of  the  predictions.  Additionally,  experimental  validation  is  necessary  to  confirm  the  predicted  off- target  interactions. | noushermes2: As  an  exceptional  comput ational  bi ologist  and  genom ics  expert,  I  can  provide  some  insight  on  how  comput ational  models  can  predict  off- target  effects  of  potential  drug  candidates.  Off- target  effects  occur  when  a  drug  inter acts  with  a  target  other  than  its  intended  target,  which  can  lead  to  un int ended  side  effects  or  reduced  eff ic acy.  Pred ict ing  these  effects  is  crucial  for  optim izing  drug  candidates  and  minim izing  potential  ad verse  reactions.
+1.  Str ucture- based  modeling:  Comput ational  models  can  predict  off- target  effects  by  analy zing  the 3D  structures  of  the  drug  mole cules  and  their  potential  targets.  By  comparing  the  structures  of  the  drug  and  its  intended  target,  as  well  as  other  prote ins  in  the  body,  researchers  can  identify  potential  off- target  interactions.
+2.  Ph arm ac oph ore  modeling:  This  approach  involves  identifying  the  essential  features  of  a  drug  mole cule  that  are  responsible  for  its  biological  activity.  By  comparing  the  pharm ac op ho res  of  a  drug  candidate  and  potential  targets,  researchers  can  predict  off- target  effects  based  on  the  similar ity  of  these  features.
+3.  Quant itative  structure- activity  relationship  (QS AR)  models:  QS AR  models  use  mathematical  algorithms  to  predict  the  biological  activity  of  a  drug  candidate  based  on  its  chemical  structure.  By  analy zing  the  relationship  between  a  drug's  structure  and  its  activity,  researchers  can  identify  potential  off- target  effects  and  optim ize  the  drug's  properties  to  minimize  these  interactions.
+4.  Machine  learning  and  artificial  intelligence:  Advanced  comput ational  models,  such  as  machine  learning  algorithms  and  artificial  intelligence,  can  be  trained  on  large  datasets  of  known  drug- target  interactions  to  predict  off- target  effects.  These  models  can  identify  patterns  and  make  predictions  based  on  the  similar ity  between  a  drug  candidate  and  other  known  comp ounds.
+5.  Integr ation  of  multiple  data  sources:  Comb ining  data  from  various  sources,  such  as  protein  structures,  gene  expression  data,  and  chemical  properties,  can  provide  a  more  comprehensive  understanding  of  a  drug  candidate's  potential  off- target  effects.  By  integr ating  this  information,  comput ational  models  can  more  accurately  predict  off- target  interactions  and  help  guide  the  drug  discovery  process.
+ In  summary,  comput ational  models  can  predict  off- target  effects  of  potential  drug  candidates  by  analy zing  the  drug's  structure,  comparing  it  to  known  targets,  and  using  machine  learning  algorithms  to  identify  patterns  and  make  predictions.  Integr ating  data  from  multiple  sources  can  further  improve  the  accuracy  of  these  predictions  and  help  optim ize  drug  candidates  for  safety | yi-34b: Computational  models  play  a  crucial  role  in  predicting    off-target  effects  of  potential  drug  candidates  by  leveraging  various  computational   approaches,  including  machine  learning   algorithms,  molecular   docking   simulations,    structure-activity  relationship  analyses      (SAR),  and          pharmacokinetic/pharmacodynamic  modeling       (PK/PD).    Here's  how  these  methods   work:
+   1.   **Machine  Learning  for   Similarity   Search**:  Machine  learning  techniques  can  analyze  large  datasets  of  known  drugs  and  their  targets  to  identify  patterns  that  correlate  with  specific  biological  activities  or  side   effects.  By  comparing  new  compounds  to  existing   ones,  researchers  can  predict  whether  they  might  interact  with   unintended  targets  based  on  structural   similarity.
+   2.    **Molecular    Docking**:  This  technique  computationally  predicts  how  a  small  molecule  will  bind  to  a  receptor  site  within  a   protein.   Molecular   docking  simulations  can  be  used  to  assess  binding    affinities  between  potential  drug  candidates  and  both  the  intended  target  as  well  as  other  proteins  that  may  represent     off-targets.  If  a  compound  is  found  to  have  high  affinity  for  multiple   targets,  it  could  lead  to  unwanted  side   effects.
+   3.     **Structure-Activity  Relationship  Analysis      (SAR)**:   SAR  studies  examine  the  relationships  between  the  chemical  structures  of  molecules  and  their  biological   activity.   Computational   chemists  use  this  information  to  make  predictions  about  which  modifications  to  a  molecule  might  improve  its   potency  against  the  desired  target  while  reducing  interactions  with     off-targets.
+   4.              **Pharmacokinetics/Pharmacodynamics   Modeling       (PK/PD)**:    PK/PD  models  integrate  data  on  how  drugs  move  through  the  body         (pharmacokinetics)  and  how  they  affect  the  biology  of  the  organism         (pharmacodynamics).  These  models  can  help  predict  if  a  drug  candidate  is  likely  to  reach  its  intended  site  of  action  at  effective  concentrations  without  causing  adverse  reactions  elsewhere  in  the   body.
+   5.   **Network     Pharmacology**:  Network   pharmacology  approaches  consider  the  complex  interplay  between   diseases,   genes,  and  drugs  in   networks.  By  mapping  out  the  network  of  gene  regulatory  pathways  and     protein-protein   interactions,  scientists  can  better  understand  how  a  drug  might  influence  not  only  its  primary  target  but  also  secondary  or    tertiary   targets,  thereby  identifying  potential    off-target   effects.
+   6.    **Quantitative    Structure-Activity  Relationship  Models      (QSAR)**:    QSAR  models  relate  the  quantitative  properties  of  molecules  to  their  biological   activities.  They  can  provide  insights  into  what  structural  features  of  a  molecule  are  more  likely  to  result  in  certain  types  of  off</t>
+  </si>
+  <si>
+    <t>Question: how do you determine which genes or proteins to target for a new therapeutic? | falcon-40b: As  an  AI  language  model,  I  can  suggest  some  possible  answers  to  this  question.  
+One  approach  is  to  identify  genes  or  proteins  that  are  associated  with  a  specific  disease  or  condition.  This  can  be  done  through  genomic  and  proteomic  analyses,  such  as  whole-genome  sequencing  or  protein  expression  studies.  Once  potential  targets  are  identified,  researchers  can  then  use  computational  modeling  and  other  techniques  to  determine  which  targets  are  most  promising  for  therapeutic  development.  
+Another  approach  is  to  look  for  genes  or  proteins  that  are  involved  in  key  biological  processes  related  to  the  disease  or  condition.  For  example,  if  a  disease  is  characterized  by  inflammation,  researchers  may  target  genes  or  proteins  involved  in  the  inflammatory  response.  Similarly,  if  a  disease  is  caused  by  a  mutation  in  a  particular  gene,  researchers  may  target  that  gene  for  therapeutic  development.  
+Ultimately,  the  goal  is  to  develop  drugs  that  can  effectively  treat  or  cure  the  disease,  so  researchers  need  to  identify  targets  that  are  both  promising  and  accessible  to  drug  development.  This  can  involve  factors  such  as  the  protein's  structure,  its  role  in  cellular  pathways,  and  its  interaction  with  other  proteins  or  small  molecules.  
+Overall,  the  process  of  identifying  targets  for  therapeutic  development  is  a  complex  and  multi-faceted  process  that  involves  a  wide  range  of  scientific  disciplines  and  approaches. | gpt-3.5-turbo-1106: The process of selecting target genes or proteins for a new therapeutic involves a multi-faceted approach that includes both experimental and computational methods. Here are some general steps that are involved in determining which genes or proteins to target for a new therapeutic:
+1. Disease understanding: Initially, it's essential to have a comprehensive understanding of the disease or condition that the therapeutic is aiming to treat. This involves studying the genetic, molecular, and cellular mechanisms underlying the disease. This understanding can be derived from a variety of sources, including existing literature, clinical data, and experimental studies.
+2. Genomic and proteomic analysis: Next, a thorough analysis of genomic and proteomic data related to the disease is conducted. This involves identifying genetic variations, gene expression patterns, protein interactions, and signaling pathways that are implicated in the disease's development and progression. Computational tools like bioinformatics and systems biology can be used to analyze large-scale genomic and proteomic datasets.
+3. Target identification and validation: Potential target genes or proteins are identified based on their known roles in disease pathways, as well as their potential for therapeutic intervention. This identification can be done through a combination of experimental approaches such as high-throughput screening, functional genomics, and proteomics, as well as computational methods like molecular modeling and network analysis.
+4. Druggability assessment: The druggability of the identified targets is assessed. This involves evaluating the feasibility of developing a therapeutic intervention against the targets, considering factors such as target structure, function, and potential binding sites for small molecules or biologics.
+5. Off-target effects and safety assessment: It's crucial to assess potential off-target effects and safety concerns associated with targeting specific genes or proteins. Computational methods, such as in silico prediction of off-target interactions and toxicity profiling, can aid in this assessment.
+6. Early-stage validation: Once potential targets have been identified, early-stage validation studies are conducted to confirm the relevance of the targets to the disease and to assess their potential as therapeutic targets. This may involve in vitro and in vivo experiments using cell culture models, animal models, and disease-specific assays.
+By integrating experimental and computational approaches, researchers can systematically identify and prioritize target genes or proteins for therapeutic intervention, leading to the development of new and effective treatments for various diseases. | mistral-7b: 1.  Ident ifying  Dise ase-C aus ing  Gen es:  The  first  step  in  determining  which  genes  or  prote ins  to  target  for  a  new  ther apeut ic  is  to  identify  genes  that  are  directly  involved  in  the  disease  process.  This  can  be  achieved  through  various  approaches,  such  as:
+-  Gen ome- wide  association  studies  (GW AS ):  These  studies  identify  genetic  variations  associated  with  a  particular  disease  by  analy zing  the  genom es  of  large  patient  populations.
+-  Candidate  gene  studies:  These  studies  focus  on  specific  genes  that  are  already  known  to  be  involved  in  the  disease  process  based  on  prior  knowledge.
+-  R NA  sequ encing:  This  technique  can  be  used  to  identify  genes  that  are  different ially  expressed  in  dise ased  versus  healthy  t issues.
+2.  Under standing  the  Bi ology  of  the  Target:  Once  potential  disease-c aus ing  genes  have  been  identified,  the  next  step  is  to  understand  the  bi ology  of  the  protein  encoded  by  the  gene.  This  can  include:
+-  Function al  studies:  These  studies  aim  to  understand  the  role  of  the  protein  in  the  disease  process.  This  can  be  achieved  through  various  techniques  such  as  knock out  studies  in  animal  models,  cell- based  ass ays,  and  bi oc hem ical  ass ays.
+-  Struct ural  studies:  These  studies  aim  to  determine  the  three- dimensional  structure  of  the  protein,  which  can  provide  insight  into  its  function  and  potential  drug  targets.
+3.  Ident ifying  Drug able  Prote ins:  Not  all  prote ins  are  suitable  targets  for  drug  discovery.  Some  prote ins  are  difficult  to  target  due  to  their  location,  size,  or  lack  of  a  specific  binding  site.  The  following  factors  are  considered  when  identifying  drug able  prote ins:
+-  Ess ential ity:  The  protein  must  be  essential  for  the  disease  process  or  play  a  critical  role  in  maintaining  the  disease  state.
+-  Access ibility:  The  protein  must  be  accessible  to  drugs,  either  through  its  location  in  the  cell  or  through  the  use  of  delivery  systems.
+-  Specific ity:  The  protein  must  have  a  specific  binding  site  for  a  drug,  which  can  be  targeted  without  affecting  other  prote ins.
+4.  Ident ifying  Drug  L ik eness:  Once  potential  drug  targets  have  been  identified,  the  next  step  is  to  identify  comp ounds  that  can  bind  to  the  target  protein  and  mod ulate  its  function.  This  can  be  achieved  through  various  approaches,  such  as:
+-  High- through put  screening:  This  involves  testing  large  libraries  of  comp ounds  against  the  target  protein  to  identify  those  that  bind  and  mod ulate  its  function.
+-  Virtual | mixtral-instruct: To  determine  which  genes  or  prote ins  to  target  for  a  new  ther apeut ic,  several  steps  are  typically  involved  in  the  process,  including  target  identification,  validation,  and  optimization.  Here's  a  brief  overview  of  each  step:
+1.  Target  Ident ification:
+ The  first  step  in  determining  which  genes  or  prote ins  to  target  for  a  new  ther apeut ic  is  to  identify  potential  targets.  This  process  involves  identifying  genes  or  prote ins  that  are  involved  in  the  disease  mechanism  or  path way.  Research ers  typically  use  a  variety  of  approaches  to  identify  potential  targets,  including:
+*  Gen etic  screening:  Ident ifying  genes  or  prote ins  that  are  mut ated  or  different ially  expressed  in  patients  with  the  disease  compared  to  healthy  individuals.
+*  Bio in format ics  analysis:  An aly zing  large- scale  gen omic  and  prote omic  data  to  identify  genes  or  prote ins  that  are  associated  with  the  disease.
+*  Liter ature  review:  Review ing  existing  research  to  identify  genes  or  prote ins  that  have  been  previously  im plicated  in  the  disease.
+1.  Target  Valid ation:
+ Once  potential  targets  have  been  identified,  the  next  step  is  to  validate  them  to  ensure  that  they  are  indeed  involved  in  the  disease  mechanism  and  that  target ing  them  will  have  the  desired  ther apeut ic  effect.  This  process  involves  several  steps,  including:
+*  In  vit ro  studies:  Test ing  the  effect  of  target ing  the  gene  or  protein  in  cell  culture  models  of  the  disease.
+*  In  v ivo  studies:  Test ing  the  effect  of  target ing  the  gene  or  protein  in  animal  models  of  the  disease.
+*  Bi om ark er  identification:  Ident ifying  bi om ark ers  that  can  be  used  to  monitor  the  eff ic acy  of  the  ther apeut ic  in  clinical  trials.
+1.  Target  Optim ization:
+ After  valid ating  potential  targets,  the  next  step  is  to  optim ize  them  for  drug  discovery.  This  process  involves  several  steps,  including:
+*  Lead  identification:  Ident ifying  small  mole cules  or  bi olog ics  that  can  specifically  bind  to  and  mod ulate  the  activity  of  the  target.
+*  Lead  optimization:  Optim izing  the  lead  compound  for  drug- like  properties,  such  as  pot ency,  select ivity,  and  pharm ac ok inet ics.
+*  Pre cl in ical  studies:  Test ing  the  eff ic acy  and  safety  of  the  optim ized  lead  compound  in  animal  models  of  the  disease.
+ Over all,  determining  which  genes  or  prote ins  to  target  for  a  new  ther apeut ic  requires  a  mult id is cipl inary  approach  that  comb ines  genom ics,  bio in format ics | noushermes2: To  determine  which  genes  or  prote ins  to  target  for  a  new  ther apeut ic,  several  factors  must  be  considered.  Here's  a  step- by- step  process  to  identify  potential  targets:
+1.  Ident ify  the  disease  or  condition:  First,  you  need  to  understand  the  specific  disease  or  condition  you  want  to  target.  This  includes  understanding  the  symptoms,  underlying  molecular  mechanisms,  and  any  known  genetic  or  environmental  factors  that  contribute  to  the  condition.
+2.  Study  the  disease  path way:  Invest igate  the  molecular  path ways  and  cell ular  processes  involved  in  the  disease.  This  may  involve  studying  gene  expression,  protein- prote in  interactions,  and  sign aling  path ways.  Ident ify  any  key  mole cules  or  prote ins  that  play  a  significant  role  in  the  development  or  progress ion  of  the  disease.
+3.  An aly ze  existing  treatments:  Research  existing  treatments  for  the  disease,  if  any.  This  can  help  identify  gaps  in  current  therap ies  and  potential  targets  for  new  treatments.
+4.  Prior itize  potential  targets:  Based  on  the  information  gathered,  prior itize  potential  targets  based  on  their  involvement  in  the  disease  path way,  their  access ibility  for  drug  intervention,  and  their  potential  for  mod ulating  the  disease  process.
+5.  Validate  the  target:  Use  experimental  techniques  such  as  gene  knock outs,  R NA  interference,  or  protein  inhib itors  to  validate  the  target's  role  in  the  disease.  This  step  is  crucial  to  confirm  that  target ing  the  gene  or  protein  will  have  the  desired  ther apeut ic  effect.
+6.  Design  a  drug:  Once  a  target  has  been  valid ated,  design  a  drug  that  can  interact  with  the  target  mole cule.  This  may  involve  using  comput ational  methods  to  predict  drug- target  interactions  or  using  high- through put  screening  to  identify  potential  drug  candidates.
+7.  Optim ize  the  drug:  Optim ize  the  drug's  properties,  such  as  its  pot ency,  select ivity,  and  pharm ac ok inet ics,  to  ensure  it  is  safe  and  effective  for  use  in  humans.
+8.  Pre cl in ical  testing:  Test  the  drug  in  pre cl in ical  models,  such  as  cell  cultures  or  animal  models,  to  assess  its  safety  and  eff ic acy.
+9.  Clin ical  trials:  If  the  drug  shows  promise  in  pre cl in ical  testing,  proceed  to  clinical  trials  to  evaluate  its  safety  and  eff ic acy  in  humans.
+ By  following  this  process,  you  can  identify  and  validate  potential  gene  or  protein  targets  for  new  ther apeut ics,  ultimately  leading  to  the  development  of  more  effective  treatments  for  various | yi-34b: Determining  which  genes  or  proteins  to  target  for  a  new  therapeutic  is  a  complex  process  that  involves  several   steps,   including:
+   1.    **Understanding  the  Disease    Mechanism**:  The  first  step  is  to  understand  the  underlying  mechanisms  of  the   disease.  This  can  involve  studying  genetic  mutations  associated  with  the   disease,  changes  in  gene  expression   patterns,  or  abnormal  protein   function.  Through    genome-wide  association  studies      (GWAS),     whole-genome   sequencing,  or  other     high-throughput   techniques,  scientists  can  identify  potential  genetic  variants  linked  to   diseases.
+   2.   **Target    Identification**:  Once  potential  genetic  associations  have  been   identified,  researchers  look  at  how  these  genes  contribute  to  the  disease    pathology.  They  may  use     bioinformatics   tools,  molecular   modeling,  and  structural  biology  techniques  to  predict  how  genetic  variations  might  affect  protein  structure  and   function.
+   3.      **Prioritization  based  on   Biology**:       Genes/proteins  are   prioritized  based  on  their  role  in  the  disease   pathway,    essentiality,     druggability,  and  the  availability  of  suitable   assays  for  screening   compounds.    Druggable  targets  are  those  where    it's  feasible  to  develop  drugs  that  can   modulate  their   activity.  For   example,  enzymes  often  make  good  targets  because  they  can  be   inhibited  by  small   molecules.     Receptors,  ion   channels,  and  signaling  molecules  are  also  common   targets.
+   4.     **Preclinical   Research**:   Candidate  targets  are  then  tested  in    preclinical  models  such  as  cell   cultures,  tissue    explants,  and  animal  models  to  assess  their  potential  as  therapeutic   targets.     Biomarkers  can  help  to  validate  the  relevance  of  the  target  in  the  context  of  human   disease.
+   5.     **Screening    Compounds**:     High-throughput  screening     (HTS)  of  chemical  libraries  can  be  used  to  find  compounds  that  interact  with  the  target  of   interest.  These  screens  can  be  done  in  vitro  using    recombinant  proteins  or  cells  expressing  the  target   gene,  or  in  vivo  using  model   organisms.   Newer  approaches  like    fragment-based  lead  discovery  and    structure-guided  drug  design  can  enhance  the  efficiency  of  this   process.
+   6.     **Efficacy  and  Safety   Studies**:   Selected  compounds  undergo  further  testing  to  evaluate  their   efficacy,    potency,      pharmacokinetics,  and  safety   profiles.  Animal  models  are  crucial  in  assessing  toxicity  and  other  adverse  effects  before  moving  into  clinical   trials.
+   7.     **Clinical    Trials**:  If  the  compound  shows  promise  in    preclinical   studies,  it  progresses  to  clinical  trials  involving   humans.  Phase  I  trials  test</t>
+  </si>
+  <si>
+    <t>Question: how does phenotypic screening complement genotypic screening in drug discovery? | falcon-40b: Phenotypic  screening  complements  genotypic  screening  in  drug  discovery  by  providing  information  about  the  effect  of  a  compound  on  a  biological  system  or  organism.  This  information  can  help  identify  compounds  that  have  therapeutic  potential,  even  if  they  are  not  directly  targeting  the  gene  or  protein  that  is  the  target  of  interest.  Phenotypic  screening  can  also  help  identify  compounds  that  have  off-target  effects,  which  can  be  important  for  identifying  potential  side  effects.  By  combining  genotypic  and  phenotypic  screening,  drug  discovery  can  be  more  efficient  and  effective  in  identifying  compounds  with  therapeutic  potential. | gpt-3.5-turbo-1106: Phenotypic screening and genotypic screening are two essential approaches in drug discovery, and both have their advantages and limitations. 
+Genotypic screening involves identifying potential drug targets based on genetic information, such as mutations or gene expression patterns associated with a specific disease. This approach allows for the identification of specific biological pathways and targets that could be modulated by drugs. However, it does not always capture the complex interactions and phenotypic effects of drugs on the entire biological system.
+On the other hand, phenotypic screening involves testing the effects of potential drugs on whole cells, tissues, or organisms to identify compounds that produce a desired therapeutic effect. This approach allows for the identification of drug candidates with broad activity and can reveal unexpected mechanisms of action. However, it may not provide a clear understanding of the underlying molecular targets or mechanisms of action of the identified compounds.
+The integration of phenotypic and genotypic screening can complement each other in drug discovery. Genotypic screening can help in identifying specific targets and pathways relevant to the disease, while phenotypic screening can identify compounds that produce the desired therapeutic effects in a complex biological context. The combination of these approaches can lead to the discovery of novel drug candidates with well-characterized targets and therapeutic effects.
+In summary, phenotypic screening and genotypic screening are both important in drug discovery, and their integration can provide a more comprehensive understanding of the biological processes involved in diseases and the potential for identifying effective therapeutic interventions. | mistral-7b: P hen ot yp ic  screening  and  gen ot yp ic  screening  are  two  complement ary  approaches  used  in  drug  discovery  to  identify  new  ther apeut ics.  While  gen ot yp ic  screening  focuses  on  the  genetic  makeup  of  an  organ ism  or  cells,  phen ot yp ic  screening  evalu ates  the  observ able  characteristics  or  phen ot ypes  of  an  organ ism  or  cells  in  response  to  a  compound.
+ Gen ot yp ic  screening,  also  known  as  target- based  screening,  is  primarily  used  to  identify  comp ounds  that  interact  with  a  specific  molecular  target,  such  as  a  protein  or  gene.  This  approach  rel ies  on  the  knowledge  of  the  disease-c aus ing  mut ation  or  the  biological  path way  involved  in  the  disease.  Gen ot yp ic  screening  is  useful  in  identifying  comp ounds  that  can  mod ulate  the  activity  of  a  specific  target,  which  can  be  an  effective  strategy  for  treating  diseases  caused  by  known  mut ations  or  specific  protein- prote in  interactions.
+ On  the  other  hand,  phen ot yp ic  screening,  also  known  as  high- through put  phen ot yp ic  screening,  evalu ates  the  effect  of  comp ounds  on  a  cell ular  or  organ ism al  phen otype  without  prior  knowledge  of  the  underlying  molecular  target.  This  approach  can  be  used  to  identify  comp ounds  that  affect  a  specific  cell ular  process  or  path way,  even  if  the  target  is  unknown.  P hen ot yp ic  screening  can  be  particularly  useful  in  the  discovery  of  new  drugs  for  complex  diseases  where  the  underlying  molecular  mechanisms  are  not  fully  understood.
+ The  advantage  of  phen ot yp ic  screening  is  that  it  can  identify  comp ounds  that  act  through  novel  mechanisms  or  targets,  which  may  not  be  identified  through  gen ot yp ic  screening.  Additionally,  phen ot yp ic  screening  can  help  identify  comp ounds  that  may  have  multiple  targets  or  mod ulate  multiple  path ways,  which  can  be  beneficial  in  treating  complex  diseases.
+ However,  phen ot yp ic  screening  also  has  its  challenges.  It  can  be  more  difficult  to  identify  the  molecular  target  of  a  compound  identified  through  phen ot yp ic  screening,  and  the  results  can  be  less  specific  than  those  obtained  through  gen ot yp ic  screening.  Therefore,  both  approaches  are  often  used  in  a  complement ary  manner  in  drug  discovery  to  increase  the  chances  of  identifying  new  and  effective  ther apeut ics.
+ In  summary,  gen ot yp ic  screening  and  phen ot yp ic  screening  are  two  complement ary  approaches  in  drug  discovery.  Gen ot yp ic  screening  is  useful  in  identifying  comp ounds  that  interact  with  specific  molecular  targets,  while  phen ot yp ic  screening  can  identify  comp ounds  that  affect  cell ular  processes  or  path ways | mixtral-instruct: P hen ot yp ic  screening  and  gen ot yp ic  screening  are  two  complement ary  approaches  in  drug  discovery  that  provide  unique  insights  and  advantages.
+ Gen ot yp ic  screening,  also  known  as  target- based  screening,  focuses  on  identifying  comp ounds  that  interact  with  specific  molecular  targets  (e.g .,  prote ins,  en zym es,  or  genes)  involved  in  a  disease  path way.  This  approach  has  several  advantages,  such  as:
+1.  Mechan istic  understanding:  Gen ot yp ic  screening  provides  a  clear  understanding  of  the  drug's  mechanism  of  action,  which  can  help  in  the  design  of  more  specific  and  effective  therap ies.
+2.  R ational  drug  design:  Know ledge  of  the  target  can  guide  the  development  of  structure- based  drug  designs,  leading  to  more  pot ent  and  select ive  comp ounds.
+3.  Bi om ark er  identification:  Gen ot yp ic  screening  can  help  identify  bi om ark ers  that  can  be  used  to  monitor  drug  response  and  patient  strat ification  in  clinical  trials.
+ However,  gen ot yp ic  screening  also  has  some  limitations,  including:
+1.  Limited  scope:  Gen ot yp ic  screening  may  overlook  comp ounds  that  act  through  novel  or  unknown  mechanisms,  potentially  missing  out  on  promising  ther apeut ic  candidates.
+2.  Off- target  effects:  Comp ounds  that  interact  with  multiple  targets  may  have  un int ended  consequences,  leading  to  potential  safety  issues.
+P hen ot yp ic  screening,  on  the  other  hand,  focuses  on  identifying  comp ounds  that  produce  a  desired  phen ot yp ic  effect  in  cells,  t issues,  or  organ isms,  without  necessarily  knowing  the  specific  molecular  target.  This  approach  has  several  advantages,  such  as:
+1.  Un bi ased  discovery:  P hen ot yp ic  screening  can  identify  comp ounds  acting  through  novel  or  unknown  mechanisms,  potentially  leading  to  the  discovery  of  first- in- class  drugs.
+2.  Complex  biological  systems:  P hen ot yp ic  screening  can  capture  the  complexity  of  disease  path ways  and  interactions  between  multiple  targets,  providing  a  more  hol istic  view  of  drug  action.
+3.  Safety  and  eff ic acy:  Comp ounds  identified  through  phen ot yp ic  screening  may  have  better  safety  and  eff ic acy  profiles,  as  they  have  already  demonstrated  their  ability  to  mod ulate  disease- re levant  phen ot ypes.
+ However,  phen ot yp ic  screening  also  has  some  limitations,  including:
+1.  Mechan istic  understanding:  The  lack  of  a  clear  molecular  target  can  make  it  challenging  to  understand  the  drug's  mechanism  of  action  and  optim | noushermes2: In  drug  discovery,  both  phen ot yp ic  and  gen ot yp ic  screening  methods  play  crucial  roles  in  identifying  potential  drug  candidates.  They  complement  each  other  by  target ing  different  aspects  of  the  drug  development  process.
+ Gen ot yp ic  screening,  also  known  as  target- based  screening,  focuses  on  identifying  comp ounds  that  interact  with  specific  biological  targets,  such  as  prote ins  or  en zym es,  which  are  believed  to  be  involved  in  a  particular  disease.  This  approach  is  based  on  the  understanding  of  the  molecular  mechanisms  underlying  the  disease  and  aims  to  mod ulate  the  activity  of  the  target  to  treat  the  condition.  Gen ot yp ic  screening  is  highly  specific  and  allows  for  the  identification  of  comp ounds  with  high  aff inity  and  select ivity  for  the  target  of  interest.
+ On  the  other  hand,  phen ot yp ic  screening,  also  known  as  high- through put  screening  ( HTS ),  assess es  the  effects  of  comp ounds  on  a  whole  cell  or  organ ism,  without  prior  knowledge  of  the  specific  molecular  target.  This  approach  is  based  on  the  observation  that  a  compound  that  al levi ates  a  specific  phen otype  in  a  model  system  may  have  potential  ther apeut ic  value.  P hen ot yp ic  screening  is  less  specific  than  gen ot yp ic  screening,  as  it  does  not  require  knowledge  of  the  target,  but  it  can  identify  comp ounds  that  mod ulate  multiple  targets  or  path ways,  potentially  leading  to  more  effective  and  safer  drugs.
+ The  combination  of  both  phen ot yp ic  and  gen ot yp ic  screening  methods  in  drug  discovery  offers  several  advantages:
+1.  D iverse  compound  identification:  P hen ot yp ic  screening  can  identify  comp ounds  that  affect  multiple  targets  or  path ways,  while  gen ot yp ic  screening  can  identify  comp ounds  with  high  specific ity  for  a  single  target.  Comb ining  both  approaches  allows  for  the  identification  of  a  more  diverse  set  of  potential  drug  candidates.
+2.  Target  validation:  Gen ot yp ic  screening  can  help  validate  the  biological  targets  identified  through  phen ot yp ic  screening,  providing  additional  evidence  for  the  involvement  of  the  target  in  the  disease  process  and  its  potential  as  a  drug  target.
+3.  Lead  optimization:  Once  potential  drug  candidates  have  been  identified  through  phen ot yp ic  and  gen ot yp ic  screening,  the  information  obtained  from  both  approaches  can  be  used  to  guide  lead  optimization,  ensuring  that  the  comp ounds  have  the  desired  activity,  select ivity,  and  safety  profile.
+4.  Red uced  risk  of  drug  resistance:  P hen ot yp ic  screening  can  help  identify  comp ounds  that  affect  multiple  targets  or  path ways,  which  may | yi-34b: Phenotypic  and    genotypic   screenings  are  two  complementary  approaches  used  in  drug  discovery  to  identify  molecules  that  can  be  developed  into  drugs  for  treating   diseases.    Here's  how  they  differ  and  how  they  complement  each   other:
+   1.     **Genotypic    Screening**:  This  approach  focuses  on  identifying  genetic  variants  or  changes  at  the  molecular  level       (e.g.,  mutations  in  genes  or   proteins)  associated  with  a  particular  disease  or  biological   process.  By  understanding  the  genetic  basis  of  a   disease,  researchers  can  design  drugs  that  target  specific  pathways  or  mechanisms  involved  in  the   pathogenesis  of  the   disease.   Genomic  sequencing  technologies  have   revolutionized  this  field  by  allowing  scientists  to  analyze  entire  genome  sequences  rapidly  and   accurately,  leading  to  the  identification  of  new  therapeutic   targets.
+   2.      **Phenotypic    Screening**:     Phenotypic  screening  is  based  on  observing  the  effects  of  test  compounds  on   cells,   tissues,  or  whole  organisms  without  prior  knowledge  of  their  mechanism  of  action  or  the  underlying   genetics.  The     "phenotype"  refers  to  observable  characteristics  or  traits  resulting  from  gene  expression  and  environmental   factors.  In  this   method,  large  libraries  of  chemical  compounds  are  screened  against  cellular  or  animal  models  to  determine  if  they  produce  a  desired   effect,  such  as   inhibiting  tumor  growth  or  reducing   inflammation.  If  a  compound  shows   promise,  further  studies  aim  to  understand  its  mode  of   action.
+      **Complementarity:**
+  -    **Genetic   Insights   vs.   Functional   Validation**:  While    genotypic  screening  provides  insights  into  the  genetic  causes  of   diseases,  it  often  requires  additional  research  to  validate  the  functional  relevance  of  these   findings.     Phenotypic   screening,  on  the  other   hand,  directly   assesses  the  biological  consequences  of  candidate   compounds,  which  can  help  prioritize  leads  for   development.
+  -   **Target   Identification  and   Validation**:   Together,  both  strategies  contribute  to  a  more  comprehensive  view  of  disease   biology.     Phenotypic  screens  can  reveal  novel  targets  not  previously  known  to  be  associated  with  a  given   disease,  while    genotypic  data  can  provide   mechanistic  insight  into  why  certain  compounds  work  better  than   others.
+  -      **Drugability**:  Some  diseases  may  lack  clear  genetic  drivers  or  involve  complex  interactions  among  multiple   genes.  In  such   cases,    phenotypic  screening  can  still  offer  potential  therapies  even  when  the  precise  genetic     underpinnings    aren't  fully   understood.
+  -    **Overcoming  Resistance  and    Off-target   Effects**:  As  resistance  to  drugs  emerges  due  to  adaptive  responses  of  the   body,    phenotypic  screening  can  help  identify  alternative  treatments  that  overcome  these   issues,  especially  when  combined  with</t>
+  </si>
+  <si>
+    <t>Question: how many kinases and pseudokinases are encoded in human genome? | falcon-40b: No response | gpt-3.5-turbo-1106: - Pseudokinases have evolved from diverse active kinases and are scattered throughout distinct protein kinase subfamilies.
+- There are 28 pseudokinases with homologues in mouse, worms, flies, and yeast that lack equivalent catalytic residues.
+- Human pseudokinases have been classified into seven groups (A to G) based on the motifs in their pseudokinase domain that they lack.
+- The amino acid sequence and description of missing conserved residues of each pseudokinase are reported in a landmark study by Manning and colleagues.
+- Protein kinases regulate the function of a large fraction of cellular proteins by catalyzing covalent attachment of phosphate onto specific residues in target proteins.
+- Genome-wide analyses have revealed that 2410 of eukaryotic proteins lack conserved amino acids in the kinase domain, rendering them catalytically inactive.
+- Pseudokinases lack at least one of three essential motifs in the catalytic domain necessary for catalysis, including the VAIK motif, HRD motif, and DFG motif.
+- The human genome encodes 518 protein kinases, with 48 classified as pseudokinases. | mistral-7b: 1. Protein kinases regulate cellular functions by adding phosphate groups to target proteins.
+2. Genome-wide analyses have identified 2,300 protein kinases in the human genome, but 241 of these lack the conserved catalytic residues and are called pseudokinases.
+3. Pseudokinases are found in various protein kinase subfamilies, suggesting they evolved from active kinases.
+4. Twenty-eight human pseudokinases have homologues in worms, flies, and yeast that lack the equivalent catalytic residues.
+5. Human pseudokinases are classified into seven groups (A-G) based on which of the three motifs in their pseudokinase domain they lack.
+6. Some pseudokinases, such as isoforms of STRAD, Trb, NRBP, SgK495, Slob, VRK3, and SuRTK106, have been studied.
+7. Pseudokinases have various functions, including involvement in malignant myeloproliferative disorders and emerging roles in signaling pathways.
+8. Notable pseudokinases include HER3 (ErbB3), EphB6, CCK4 (PTK7), KSR, Trb3, GCN2, TRRAP, ILK, and CASK.
+9. The protein kinase complements of human, mouse, Caenorhabditis elegans, Dictyostelium, and yeast have been studied extensively.
+10. The discovery of pseudokinases challenges the traditional view of protein kinases as enzymes that transfer phosphate groups.
+11. The functions of pseudokinases are still being elucidated, but they are believed to play important roles in various cellular processes.
+References:
+1. Caenepeel S et al. (2004) The mouse kinome: discovery and comparative genomics of all mouse protein kinases. Proc Natl Acad Sci U S A, 101(23), 11707-11712.
+2. Manning G et al. (2002 | mixtral-instruct: 
+- Pseudokinases are proteins that have evolved from diverse active kinases and are scattered throughout the distinct protein kinase subfamilies.
+- They are classified into seven groups (A to G) based on which of the three motifs in their pseudokinase domain they lack.
+- Amino acid sequences and missing conserved residues of each pseudokinase are reported in a landmark study by Manning and colleagues.
+- Domain structures of all human pseudokinases are compared in Figure 2.
+- Pseudokinases have emerged functions in several malignant myeloproliferative disorders.
+- Other pseudokinases with emerging functions include HER3 (ErbB3), EphB6, CCK4 (PTK7), KSR, Trb3, GCN2, TRRAP, ILK, and CASK.
+- Genomewide analyses have led to the complete description of the protein kinase complement of several eukaryotic organisms including human, mouse, Caenorhabditis elegans, Dictyostelium, and yeast.
+- 23% of all eukaryotic genes encode proteins containing a kinase domain, and 2.410% of these proteins lack one or more of the conserved amino acids required for catalytic activity, making them pseudokinases.
+References:
+- Caenepeel S et al. 2004. The mouse kinome: discovery and comparative genomics of all mouse protein kinases. Proc Natl Acad Sci U S A 101: 11707-11712.
+- Manning G et al. 2002. Evolution of protein kinase signaling from yeast to man. Trends Biochem Sci 27: 568-577.
+- Plowman GD et al. 1999. The protein kinases of Caenorhabditis elegans: a model for signal transduction in multicellular organisms. Proc Natl Acad Sci U S A 96: 13603-13610.
+- Goldberg JM | noushermes2: Summary:
+- The given information discusses protein kinases and their roles in various organisms, including humans, mice, Caenorhabditis elegans, and yeast.
+- The human kinome, mouse kinome, and protein kinases of Caenorhabditis elegans and budding yeast are mentioned.
+- The study also highlights pseudokinases, which are nonfunctional protein kinase-like domains found in various proteins.
+- Pseudokinases are scattered throughout distinct protein kinase subfamilies, suggesting they evolved from diverse active kinases.
+- Twenty-eight pseudokinases have homologues in mouse, worms, flies, and yeast that lack the equivalent catalytic residues.
+- The human pseudokinases are classified into seven groups (A to G) based on the missing motifs in their pseudokinase domain.
+- The domain structures of all human pseudokinases are compared, and several isoforms are mentioned. | yi-34b: - There are 28 known pseudokinases in humans, many of which have homologues across species (mouse, worm, yeast) lacking the same catalytic residues.
+- They are found distributed among different protein kinase subfamilies, indicating evolutionary divergence from various active kinases.
+- Each pseudokinase lacks one or more of the three critical motifs necessary for catalysis: VAIK, HRD, or DFG.
+- Based on the specific motif(s) absent, pseudokinases can be divided into seven groups (A to G).
+- Many pseudokinases play important roles beyond traditional kinase activities; some examples include STRAD, Trb, NRBP, SgK495, Slob, VRK3, SuRTK106, and others.
+- Pseudokinases may contribute to disease processes, particularly cancer, due to their involvement in signaling pathways.
+- Research has identified numerous pseudokinases with unique biological functions, expanding our understanding of this diverse group of proteins.</t>
+  </si>
+  <si>
+    <t>Question: identify any therapeutic areas or platforms in focus for the gene polr3e. | falcon-40b: As  an  AI  language  model,  I  am  not  capable  of  identifying  the  therapeutic  areas  or  platforms  in  focus  for  the  gene  POLR3E.  However,  I  suggest  conducting  a  literature  review  or  consulting  with  experts  in  the  field  to  obtain  this  information. | gpt-3.5-turbo-1106: The POLR3E gene encodes for the RPC5 subunit of RNA polymerase III, which is responsible for synthesizing small RNAs. Mutations in this gene can lead to POLR3-related leukodystrophy, a disorder that affects the brain's white matter. Therapeutic strategies for POLR3E-related disorders might involve targeting the underlying disease mechanisms, such as restoring the impaired RNA polymerase III function or addressing the downstream consequences of dysfunctional small RNA synthesis. Additionally, gene therapy or small molecule approaches may also hold potential for treating such disorders. Furthermore, targeting RNA polymerase III as a therapeutic platform may have broader applications in diseases involving disrupted small RNA synthesis. | mistral-7b: POLR3E  is  a  sub unit  of  R NA  poly mer ase  III  ( Pol  III ),  which  is  responsible  for  transc rib ing  various  non-c oding  RN As  such  as 5S  rR NA,  tRN As,  and  other  small  RN As.  Mut ations  in  P OLR3E  have  been  linked  to  various  human  diseases,  primarily  those  related  to  neur onal  development  and  function.  Here  are  some  ther apeut ic  areas  and  platforms  that  have  been  explored  or  could  be  potential  areas  of  focus  for  the  gene  P OLR3E:
+1.  Ne uro develop ment al  Dis orders:  Mut ations  in  P OLR3E  have  been  associated  with  several  neuro develop ment al  disorders,  including  sp inal  mus cular  at ro phy  (S MA ),  a  motor  neur on  disease,  and  Corn elia  de  L ange  syndrome  (Cd LS ),  a  development al  disorder  characterized  by  growth  delay,  distinctive  facial  features,  and  development al  del ays.  Several  ther apeut ic  strategies  are  being  explored  for  these  conditions,  including  gene  therapy,  small  mole cule  mod ul ators,  and  R NA- based  therap ies.
+2.  Cancer:  D ys reg ulation  of  Pol  III  trans cription  has  been  im plicated  in  cancer,  particularly  in  the  context  of  onc ogen ic  trans cription  of  certain  non-c oding  RN As.  P OLR3E  has  been  identified  as  a  potential  target  for  cancer  therapy,  and  several  approaches  have  been  explored,  including  R NA  interference,  small  mole cule  inhib itors,  and  CR IS PR-C as9  gene  editing.
+3.  Ant ibi otic  Res istance:  Pol  III  plays  a  role  in  the  trans cription  of  rib os om al  R NA  (rR NA ),  which  is  a  critical  component  of  the  rib os ome,  the  protein  complex  responsible  for  transl ating  genetic  information  into  prote ins.  Res istance  to  antib iot ics  can  arise  through  mut ations  in  rR NA  genes,  and  P OLR3E  has  been  identified  as  a  potential  target  for  developing  new  antib iot ics  that  can  overcome  antibi otic  resistance.
+4.  R NA- based  Ther ap ies:  Given  the  role  of  P OLR3E  in  Pol  III  trans cription,  it  is  a  potential  target  for  R NA- based  therap ies,  including  R NA  interference,  CR IS PR-C as9  gene  editing,  and  ant is ense  o lig on uc le ot ides.  These  approaches  could  be  used  to  mod ulate  the  expression  of  specific  genes  involved  in  disease  processes,  potentially  leading  to  new  ther apeut ic  inter ventions | mixtral-instruct: POLR3E  is  a  gene  that  enc odes  a  sub unit  of  R NA  poly mer ase  III,  an  en zyme  responsible  for  transc rib ing  small  non-c oding  RN As.  Mut ations  in  P OLR3E  have  been  associated  with  various  neu rolog ical  disorders,  including  hyp omy el ination  and  con gen ital  cat ar acts  (H CC ),  le uk od yst ro phy,  and  pont oc ere bell ar  hyp op las ia.  Therefore,  ther apeut ic  areas  of  focus  for  P OLR3E  are  primarily  neu rolog ical  disorders.
+ One  potential  platform  for  ther apeut ic  development  could  be  gene  therapy.  By  delivering  a  functional  copy  of  the  P OLR3E  gene  to  affected  cells,  it  may  be  possible  to  restore  the  activity  of  R NA  poly mer ase  III  and  al lev iate  the  symptoms  of  the  associated  neu rolog ical  disorders.  This  could  be  achieved  through  vir al  vectors,  such  as  ad eno- associ ated  vir uses  ( AAVs ),  which  have  been  used  successfully  in  other  gene  therapy  approaches.
+ An other  platform  could  be  small  mole cule  drugs  that  target  the  activity  of  R NA  poly mer ase  III  or  its  associated  factors.  By  enh ancing  the  activity  of  R NA  poly mer ase  III  or  promoting  its  stability,  it  may  be  possible  to  compens ate  for  the  loss  of  function  caused  by  P OLR3E  mut ations.  However,  this  approach  would  require  a  thorough  understanding  of  the  molecular  mechanisms  underlying  R NA  poly mer ase  III  function  and  the  specific  consequences  of  P OLR3E  mut ations.
+A  third  platform  could  involve  cell- based  therap ies,  where  healthy  cells  are  trans pl anted  into  the  affected  areas  of  the  brain  to  replace  the  dys function al  cells.  This  approach  has  shown  promise  in  other  neu rolog ical  disorders  and  could  be  a  viable  option  for  P OLR3E- associ ated  disorders  as  well.
+ Over all,  the  focus  for  ther apeut ic  development  for  P OLR3E  would  be  on  neu rolog ical  disorders,  with  potential  platforms  including  gene  therapy,  small  mole cule  drugs,  and  cell- based  therap ies.  However,  further  research  is  needed  to  fully  understand  the  molecular  and  cell ular  consequences  of  P OLR3E  mut ations  and  to  identify  the  most  promising  targets  and  approaches  for  ther apeut ic  development. | noushermes2: Based  on  my  knowledge  of  genom ics  and  drug  discovery,  P OLR3E  is  a  gene  that  enc odes  a  sub unit  of  R NA  poly mer ase  III,  which  is  involved  in  the  trans cription  of  small  nuclear  and  mit och ond rial  RN As.  P OLR3E  has  been  im plicated  in  various  ther apeut ic  areas  and  platforms,  including:
+1.  Neu rolog ical  disorders:  Mut ations  in  P OLR3E  have  been  associated  with  neu rolog ical  disorders  such  as  intellectual  disability,  development al  delay,  and  ep ile psy.  Target ing  P OLR3E  or  its  down stream  path ways  could  potentially  lead  to  the  development  of  therap ies  for  these  conditions.
+2.  Cancer:  Al tered  expression  of  P OLR3E  has  been  observed  in  various  types  of  cancer,  and  it  may  play  a  role  in  cancer  progress ion  and  drug  resistance.  In hib iting  P OLR3E  or  mod ulating  its  expression  could  be  a  potential  strategy  for  cancer  treatment.
+3.  Card iov ascular  diseases:  P OLR3E  has  been  im plicated  in  the  regulation  of  genes  involved  in  card iac  development  and  function.  D ys reg ulation  of  P OLR3E  may  contribute  to  the  development  of  card iov ascular  diseases  such  as  heart  failure  and  arr hythm ias.  Target ing  P OLR3E  or  its  down stream  path ways  could  be  a  potential  ther apeut ic  approach  for  these  conditions.
+ In  summary,  P OLR3E  is  a  gene  of  interest  for  various  ther apeut ic  areas,  including  neu rolog ical  disorders,  cancer,  and  card iov ascular  diseases.  Further  research  is  needed  to  better  understand  its  role  and  potential  as  a  ther apeut ic  target. | yi-34b: I'm   sorry,  but  as  of  my  last  update  in  June       2023,  there  is  no  specific  information  available  regarding  direct  therapeutic  targeting  of  the     POLR3E  gene   itself.   However,    it's  important  to  note  that  research  on  genes  involved  in  various  biological  processes  can  lead  to  insights  into  potential  new  targets  for  therapy   development.
+     POLR3E     (Polymerase  III   subunit   E)  is  a  component  of  RNA   polymerase   III,  which  is  responsible  for   synthesizing  small     non-coding   RNAs  such  as    tRNAs  and  some  small  nuclear   RNAs       (snRNAs)  essential  for  protein  synthesis  and  other  cellular   functions.    Dysfunction  in  this  enzyme  complex  could  potentially  lead  to  issues  with  gene  expression  and  cell   function.
+  While  not  directly  related  to      POLR3E,  gene  therapies  often  target  genetic  diseases  at  their  root  cause  by  correcting  defective  genes  or  providing  functional  copies  of  missing   genes.  This  approach  has  shown  promise  in  treating  rare  inherited  disorders  like  spinal  muscular   atrophy     (SMA)  and   cystic    fibrosis.  Gene  editing  technologies  like       CRISPR/Cas9  have  further  expanded  the  possibilities  for  targeted   treatments.
+  If    you're  looking  for  more  general  information  about  current  trends  in  gene  therapy  or  platform   technologies,  here  are  a  few   examples:
+   1.  CAR    T-Cell   Therapy:  A  type  of   immunotherapy  where  immune  cells  called    T-cells  are  engineered  to  express    chimeric   antigen  receptors     (CARs)  that  recognize  tumor   cells,  thereby  enhancing  the    body's  ability  to  fight   cancer.
+   2.  mRNA     Vaccines:  Platform  technology  that  uses  messenger  RNA  to  teach  our  cells  how  to  make  a    protein—or  even  just  a  piece  of  a    protein—that  triggers  an  immune  response  inside  our   bodies.  The     COVID-19  vaccines  developed  by        Pfizer-BioNTech  and   Moderna  are  prime  examples  of  this   technology.
+   3.  Gene   Silencing  via   siRNA  or    microRNA:  These  approaches  aim  to  silence  specific  genes  that  contribute  to  disease    pathology,  offering  potential  treatment  options  for  diseases  with  known  genetic   causes.
+   4.  Gene   Addition   Therapy:   Techniques  designed  to  add  a  functioning  copy  of  a  gene  to  compensate  for  a   mutated  or  absent   endogenous   version,  often  used  in  cases  of   monogenic   disorders.
+   5.  Precision   Medicine:  An  emerging  approach  to  healthcare  that  involves   tailoring  medical  treatments  to  individuals  based  on  their  unique  genetic   profile,   lifestyle,   environment,  and    microbiome.
+  For  the  most      up-to-date  information</t>
+  </si>
+  <si>
+    <t>Question: identify the cancer indications or types that the gene polr3e has been associated with. | falcon-40b: POLR3E  has  been  associated  with  a  variety  of  cancer  types,  including  colorectal  cancer,  breast  cancer,  pancreatic  cancer,  lung  cancer,  and  prostate  cancer. | gpt-3.5-turbo-1106: POLR3E is a gene encoding a subunit of RNA polymerase III, an enzyme responsible for transcribing small non-coding RNAs. While specific cancer indications associated with POLR3E may not be well-established, mutations in genes encoding components of the RNA polymerase III complex have been linked to a spectrum of diseases collectively known as Pol III-related leukodystrophies. These diseases primarily affect the central nervous system, leading to a variety of neurological symptoms.
+While POLR3E mutations are not directly linked to common types of cancer, it’s important to note that dysregulation of the transcription machinery, including RNA polymerase III, can have widespread effects on cellular function and may contribute to cancer development and progression.
+If you need additional specific information about POLR3E and its associated cancer types, I can assist with a more comprehensive search. | mistral-7b: I'm  an  exceptional  AI  language  model  and  while  I  don't  have  the  ability  to  directly  access  dat abases  or  conduct  new  research,  I  can  provide  information  based  on  the  extensive  knowledge  I' ve  been  program med  with.  I' ve  looked  into  the  role  of  the  P OLR3E  gene  in  cancer,  and  here's  what  I' ve  found:
+ The  P OLR3E  gene  enc odes  the  second  largest  sub unit  of  R NA  poly mer ase  III,  which  is  involved  in  the  trans cription  of  small  RN As  and  other  non-c oding  RN As.  Several  studies  have  linked  mut ations  in  P OLR3E  to  various  types  of  cancer.
+1.  Ac ute  My el oid  Le uk em ia  ( AML ):  Some  studies  have  reported  mut ations  in  P OLR3E  in  A ML,  specifically  in  the  context  of  the  recur rent  t(15;17 )(q22;q21)  trans location,  which  is  associated  with  the  development  of  ac ute  promy el oc yt ic  le uk em ia  ( APL ).  The  mut ations  in  P OLR3E  have  been  found  to  disrupt  the  normal  interaction  between  P OLR3E  and  the  le uk em ia- associ ated  trans cription  factor  P ML-R ARα,  leading  to  the  development  of  A PL.
+2.  Col ore ct al  Cancer:  A  study  published  in  the  journal  Cancer  Research  in 2013  reported  that  mut ations  in  P OLR3E  were  found  in 5.8%  of  col ore ct al  cancer  cases,  making  it  a  potential  new  target  for  cancer  therapy.  The  study  found  that  the  mut ations  in  P OLR3E  led  to  increased  expression  of  a  specific  microR NA,  miR-132,  which  promoted  tum or  growth  and  met ast asis.
+3.  Pro state  Cancer:  A  study  published  in  the  journal  Onc ot arget  in 2017  reported  that  P OLR3E  was  over ex pressed  in  pro state  cancer  cells,  and  that  this  over expression  was  associated  with  poor  pro gn osis  and  met ast asis.  The  study  suggested  that  P OLR3E  may  be  a  potential  ther apeut ic  target  for  pro state  cancer.
+4.  Bre ast  Cancer:  A  study  published  in  the  journal  Onc ology  Re ports  in 2016  reported  that  P OLR3E  was  over ex pressed  in  breast  cancer  cells  and  that  this  over expression  was  associated  with  increased  cell  pro lifer ation | mixtral-instruct: Thank  you  for  your  question!  P OLR3E  is  a  gene  that  enc odes  for  a  sub unit  of  R NA  poly mer ase  III,  an  en zyme  that  plays  a  crucial  role  in  the  trans cription  of  various  types  of  R NA,  including  tRN As  and 5S  rR NA.  Mut ations  in  P OLR3E  have  been  associated  with  different  types  of  cancer,  including:
+1.  H ep at oc ell ular  car cin oma  (H CC ):  P OLR3E  has  been  found  to  be  mut ated  in  a  subset  of  H CC,  and  these  mut ations  are  associated  with  worse  overall  survival  and  increased  tum or  aggress iveness.
+2.  Med ull ob last oma:  P OLR3E  mut ations  have  been  identified  in  a  sub group  of  med ull ob last oma,  a  type  of  brain  tum or  that  primarily  affects  children.  These  mut ations  are  associated  with  a  more  favor able  pro gn osis  compared  to  other  sub groups.
+3.  G li ob last oma:  P OLR3E  mut ations  have  also  been  identified  in  gli ob last oma,  a  highly  aggressive  and  deadly  type  of  brain  tum or.  These  mut ations  are  associated  with  a  worse  pro gn osis  and  a  more  invas ive  tum or  phen otype.
+4.  Col ore ct al  cancer  ( CRC ):  P OLR3E  mut ations  have  been  found  in  a  subset  of  CRC,  and  these  mut ations  are  associated  with  a  worse  pro gn osis  and  increased  tum or  aggress iveness.
+ It  is  important  to  note  that  while  P OLR3E  mut ations  have  been  identified  in  these  cancer  types,  the  role  of  P OLR3E  in  cancer  development  and  progress ion  is  not  fully  understood  and  requires  further  investigation. | noushermes2: Based  on  my  knowledge  of  genom ics  and  drug  discovery,  the  gene  P OLR3E  ( poly mer ase  (R NA)  III  sub unit  E)  has  been  associated  with  several  cancer  indic ations  or  types.  Some  of  the  most  notable  associations  include:
+1.  Bre ast  cancer:  Studies  have  shown  that  P OLR3E  is  up reg ulated  in  breast  cancer  and  may  play  a  role  in  cancer  progress ion.  Target ing  P OLR3E  may  be  a  potential  ther apeut ic  strategy  for  breast  cancer.
+2.  O var ian  cancer:  Research  has  found  that  P OLR3E  expression  is  increased  in  o var ian  cancer  cells  and  may  contribute  to  cancer  development  and  progress ion.
+3.  Col ore ct al  cancer:  P OLR3E  has  been  identified  as  a  potential  bi om ark er  for  col ore ct al  cancer  and  may  play  a  role  in  tum or igen esis.
+4.  G li ob last oma:  P OLR3E  has  been  associated  with  gli ob last oma,  a  highly  aggressive  form  of  brain  cancer,  and  its  expression  may  be  a  potential  ther apeut ic  target.
+ While  P OLR3E  is  not  the  primary  driver  of  these  can cers,  understanding  its  role  in  cancer  development  and  progress ion  may  lead  to  the  discovery  of  novel  ther apeut ic  targets  and  improve  patient  outcomes. | yi-34b: The  gene     POLR3E     (Polymerase  III   Subunit   E)  is  part  of  the  RNA   polymerase  III   complex,  which  plays  a  crucial  role  in   transcription,  specifically  involved  in  producing  small   RNAs  such  as    tRNAs  and    5S    rRNA.  While  not  directly  linked  to  specific  cancer   types,  mutations  in  genes  encoding  proteins  involved  in  transcription  can  lead  to  alterations  in  cell  growth  regulation  and  have  been   implicated  in  various   cancers.   However,  there    isn't  a  direct  association  between     POLR3E  and  particular  cancer  indications  or   types.    Cancer-related  studies  involving     POLR3E  often  focus  on  its  role  in  the  broader  context  of   transcriptional  processes  rather  than  being  tied  to  a  specific  type  of   cancer.
+    It's  important  to  note  that  research  in  this  area  is   ongoing,  and  new  discoveries  may  emerge  linking     POLR3E  or  other  components  of  the  transcription  machinery  to  specific  cancer   types.  For   example,  some  recent  studies  have  explored  the  potential  link  between  altered  expression  of     POLR3E  and  breast  cancer    metastasis,  but  more  research  is  needed  to  establish   causative   relationships.
+  If  you  have  any  further  questions  or  need  assistance  with  another   topic,  feel  free  to    ask!</t>
+  </si>
+  <si>
+    <t>Question: is there a concordance in the variant profile seen in cell lines with that of patients for the gene polr3e? | falcon-40b: As  an  AI  language  model,  I  do  not  have  access  to  the  latest  research  or  data  to  accurately  answer  this  question.  However,  based  on  the  available  information,  there  is  some  evidence  of  a  concordance  between  the  variant  profile  seen  in  cell  lines  and  that  of  patients  for  the  gene  POLR3E.  For  example,  a  study  published  in  2019  found  that  a  specific  POLR3E  variant  was  associated  with  increased  susceptibility  to  cancer  in  patients  with  Lynch  syndrome.  However,  more  research  is  needed  to  fully  understand  the  relationship  between  POLR3E  variants  and  cancer  risk. | gpt-3.5-turbo-1106: The concordance of variant profiles in cell lines with patient samples for a specific gene such as POLR3E can vary depending on many factors, including the specific cell line used, the patient population being studied, and the specific variants of interest. It's important to carefully consider the context and purpose of the comparison.
+In general, cell lines can provide a valuable model system for studying genetic variants and their effects on cellular function. However, it's crucial to note that cell lines may acquire additional genetic changes over time in culture, and they may not fully represent the genetic complexity and heterogeneity seen in patient samples.
+To assess the concordance of variant profiles between cell lines and patient samples, it's important to use rigorous comparative genomic analyses, taking into account the specific variants, their functional impact, and potential differences in genetic backgrounds. Additionally, incorporating other relevant data, such as gene expression and functional assays, can provide a more comprehensive understanding of the implications of the variant profiles.
+Furthermore, collaborative efforts across research and clinical communities, as well as robust validation studies, can help to strengthen the interpretation of concordance in variant profiles and its relevance to drug discovery and personalized medicine applications. | mistral-7b: I.  Introduction
+ POLR3E,  also  known  as  R NA  poly mer ase  III  sub unit  E,  is  a  crucial  component  of  R NA  poly mer ase  III  ( Pol  III ),  which  plays  a  significant  role  in  transc rib ing  small  RN As  and  other  non- prote in-c oding  RN As.  Mut ations  in  P OLR3E  have  been  linked  to  various  human  diseases,  including  a  form  of  con gen ital  disorder  of  g ly cosy lation  ( CDG)  called  CDG-Ie  ( Im mun ogl ob ulin  and  other  N- gly cos yl ated  protein  disorders  type  Ie)  and  certain  types  of  cancer.  Under standing  the  conc ord ance  between  the  variant  profiles  in  cell  lines  and  patients  for  P OLR3E  can  provide  valuable  insights  into  disease  mechanisms  and  the  potential  impact  of  these  vari ants  on  drug  discovery.
+ II.  Vari ant  Pro files  in  Cell  L ines
+S ever al  studies  have  identified  P OLR3E  mut ations  in  cancer  cell  lines.  For  instance,  a  study  by  L iu  et  al.  (2014)  identified  a  som atic  mut ation  (c.1514G&gt;A,  p.G ly505 Asp)  in  P OLR3E  in  a  col ore ct al  cancer  cell  line  ( SW480 ).  Another  study  by  Z hang  et  al.  (2017)  reported  a  som atic  mut ation  (c.2335G&gt;A,  p. Arg779 His)  in  a  gas tr ic  cancer  cell  line  ( AGS ).  These  mut ations  were  identified  through  whole- gen ome  or  whole- ex ome  sequ encing  of  cell  lines.
+ III.  Vari ant  Pro files  in  Pat ients
+S ever al  studies  have  identified  P OLR3E  mut ations  in  patients  with  CDG-Ie  and  cancer.  For  instance,  a  study  by  B url ina  et  al.  (2012)  identified  de  novo  and  inherited  P OLR3E  mut ations  in  patients  with  CDG-Ie.  They  reported 26  different  mut ations,  including  miss ense,  nonsense,  framesh ift,  and  spl ice  site  mut ations.  A  study  by  S ug im oto  et  al.  (2014)  identified  a  novel  miss ense  mut ation  (c.3265C&gt;T,  p. Pro1089 Leu)  in  a  Japanese  patient  with  CDG-Ie.  A  study  by | mixtral-instruct: In  other  words,  is  there  a  correlation  between  the  genetic  vari ants  seen  in  cancer  cell  lines  and  those  seen  in  cancer  patients  for  the  P OLR3E  gene?  Thank  you  so  much!
+ To  answer  your  question,  I  would  need  access  to  specific  datasets  that  compare  the  genetic  vari ants  of  the  P OLR3E  gene  in  cancer  cell  lines  and  cancer  patients.  However,  I  can  provide  some  general  insights  that  might  help.
+ Con cord ance  between  genetic  vari ants  in  cell  lines  and  patients  is  an  essential  aspect  of  transl ational  research.  Cell  lines  are  often  used  as  models  to  study  the  effects  of  genetic  vari ants  in  cancer,  but  it  is  crucial  to  ensure  that  the  vari ants  present  in  cell  lines  are  representative  of  those  found  in  patients.
+S ever al  studies  have  compared  the  genetic  vari ants  in  cell  lines  and  patients  across  various  cancer  types.  While  there  is  generally  a  conc ord ance  in  the  types  of  genetic  alter ations  observed,  the  specific  vari ants  may  differ  between  cell  lines  and  patients.  This  discrep ancy  can  be  due  to  several  factors,  including  the  limited  number  of  cell  lines  available,  the  potential  for  cell  line  mis ident ification  or  cont amination,  and  the  bi ases  in  cell  line  selection.
+ In  the  case  of  the  P OLR3E  gene,  I  could  not  find  any  specific  studies  that  directly  compare  the  genetic  vari ants  in  cancer  cell  lines  and  patients.  However,  based  on  the  general  understanding  of  conc ord ance  between  cell  lines  and  patients,  it  is  likely  that  there  is  some  overlap  in  the  vari ants  observed.  However,  without  access  to  specific  datasets,  I  cannot  provide  a  definit ive  answer.
+ To  determine  the  conc ord ance  between  genetic  vari ants  in  cell  lines  and  patients  for  the  P OLR3E  gene,  I  would  recommend  performing  a  comprehensive  analysis  using  datasets  that  include  both  cancer  cell  lines  and  patient  samples.  This  analysis  would  involve  identifying  the  genetic  vari ants  present  in  each  dataset,  comparing  the  vari ants  between  cell  lines  and  patients,  and  determining  the  degree  of  overlap.  This  information  would  be  valuable  for  understanding  the  relev ance  of  cell  line  models  for  studying  P OLR3E- associ ated  can cers  and  gu iding  future  research  efforts. | noushermes2: Yes,  there  is  a  conc ord ance  in  the  variant  profile  seen  in  cell  lines  with  that  of  patients  for  the  gene  P OLR3E.  The  vari ants  observed  in  cell  lines  are  consistent  with  those  found  in  patients,  indicating  a  strong  correlation  between  the  two.  This  suggests  that  cell  lines  can  be  used  as  a  reliable  model  to  study  the  effects  of  P OLR3E  vari ants  and  to  develop  potential  ther apeut ic  strategies  for  patients  with  these  vari ants. | yi-34b: As  of  my  last   update,  I  do  not  have  access  to    real-time  data  or  specific  information  on  recent  studies  regarding  the  gene      POLR3E.   However,  I  can  provide  you  with  some  general  principles  that  would  help  address  the  question   posed:
+   1.    **Genetic    Variation**:  Individuals  may  carry  genetic  variations   (single    nucleotide     polymorphisms,    insertions,    deletions)  within  their   genome,  including  genes  like      POLR3E.  These  variants  can  be  rare  or   common,  depending  on  the  population   studied.
+   2.    **Variant   Frequency   Differences  between  Cell  Lines  and   Patients**:  The  frequency  of  particular  variants  might  differ  between  established  cancer  cell  lines  and  patient  populations  due  to  several  factors  such   as:
+      a.  Selection  biases  during  the  establishment  of  cell  lines  -  Some  cells  may  be   overrepresented  because  they  were  more   adaptable  to  culture  conditions  than   others.  This  could  lead  to  an  enrichment  of  certain  variants  relative  to  what  is  found  in  natural  patient   populations.
+      b.   Ethnic  differences  -  If  the  cell  line  panel  used  was  derived  from  a  specific  ethnic  group  while  the  study  cohort  consists  of  individuals  from  diverse   backgrounds,  then  discrepancies  in  variant  frequencies  could  arise  due  to  different   allele  frequencies  across   populations.
+   3.    **Study  Design    Considerations**:  To  assess  whether  there  is    concordance  between  variant  profiles  in  cell  lines  and   patients,  one  would  need  to  compare  the  spectrum  of  variants  observed  in  both  settings  using  comprehensive  sequencing  techniques   (such  as     whole-genome  or   exome    sequencing).  Such  analyses  require  large  sample  sizes  and  careful  consideration  of   confounding  variables  like   ethnicity,  disease   stage,  treatment   history,   etc.
+   4.   **Public    Databases**:  Resources  like     COSMIC     (Catalogue  Of   Somatic   Mutations  In   Cancer)  compile  data  on   somatic  mutations  detected  in  various   cancers,  which  could  include  information  on      POLR3E.  While  these  databases  are  valuable   resources,  they  may  not  capture  all  possible  variants  present  in  either  cell  lines  or  patient     cohorts.
+   5.    **Updates  in   Knowledge**:  Given  the  rapid  pace  of  scientific   discoveries,    it's  important  to  consult  the  latest  literature  or  conduct  a  systematic      review/meta-analysis  to  obtain  accurate  and      up-to-date  information  on  any  potential    concordance  between  variant  profiles  in  cell  lines  versus  those  seen  in  patient  populations  for  the  gene      POLR3E.
+  In   summary,  without  access  to  current  research  or   datasets,  I  cannot  provide  a  definitive  answer  to  whether  there  is    concordance  in  the  variant  profile  of  POL</t>
+  </si>
+  <si>
+    <t>Question: kras oncogene is mutated in which cancers? | falcon-40b: No response | gpt-3.5-turbo-1106: - Different mutations in KRAS have varying sensitivities to tyrosine protein phosphatase non-receptor type 11 (PTPN11) inhibitors
+- KRAS mutations co-occurring with SMARCA4 or KEAP1 loss of function show reduced dependency on KRAS compared to those with wild type SMARCA4 or KEAP1 function
+- Synthetic lethality (SSL) interaction studies have been extended to target oncogenes with limited pharmacological tractability, such as KRAS
+- Functional genomic screens, like high-throughput loss-of-function screens, are being used for target discovery and to identify synthetic lethal gene pairs
+- Large-scale target discovery approaches emphasize the importance of considering additional genetic context in target discovery and suggest mutation subtyping may be needed for patient selection | mistral-7b: 1. DRIVE analysis identified 'DRIVE' as a potential target for cancer therapy, but it was also detected in Sanger analysis with lower representation in BRCA1 and BRCA2 mutant cell lines.
+2. KRAS mutations, particularly G12C and G12A, are enriched in NSCLC but rare in colorectal and pancreatic cancer.
+3. KRAS mutations with co-occurring SMARCA4 or KEAP1 loss of function are less dependent on KRAS than those with wild type SMARCA4 or KEAP1 function.
+4. Large-scale target discovery approaches using functional genomic screens have been proposed for cancer cell lines.
+5. High-throughput loss-of-function screens have identified synthetic lethal gene pairs, such as KRAS and STK33, TBK1, and SNAIL2 zinc finger transcriptional repressor.
+6. There is a lack of common KRAS synthetic lethal interactions between studies and genetically diverse tumor cell lines.
+7. Variations in experimental procedures, including the use of different RNAi libraries, account for some of the differences in results between studies. | mixtral-instruct: 
+* NSCLC has enriched G12A mutations in PTPN11, but rare in colorectal and pancreatic cancer
+	+ Differences in sensitivity to PTPN11 inhibition may exist based on histology
+* DRIVE data analysis suggests that cells with KRAS mutations co-occurring with SMARCA4 or KEAP1 loss of function are less dependent on KRAS than those with wild type SMARCA4 or KEAP1 function
+	+ Highlights the importance of considering additional genetic context in target discovery
+	+ Mutation subtyping may be needed for patient selection
+* Functional genomic screens, specifically high throughput loss of function screens, have been used to identify synthetic lethal gene pairs
+	+ DRIVE analyses have identified targets such as BRCA1 and KRAS
+	+ KRAS mutations provide an example of the complexity of context in cell lines and tumor models
+		- G12C or G12A mutations in KRAS are sensitive to tyrosine protein phosphatase non-receptor type 11 (PTPN11) inhibitors
+		- G13 and Q61 mutations in KRAS are not sensitive to PTPN11 inhibitors
+		- Oncogenic G12 variants are dependent on PTPN11-mediated GTP loading to promote downstream signaling
+* Genetic drug targets have been identified for specific cancer subtypes through CRISPR based screening and known targeted drugs DNA sequencing
+	+ BRAF inhibitors and HER2 inhibitors are active drugs in BRAF mutant melanoma and ERBB2-amplified breast cancer respectively
+	+ BRAF and ERBB2 are context dependent marked oncogenes
+	+ Unmarked oncogenes are genes that are not genetically activated through mutation, amplification, or translocation but are similarly important oncogenic drivers in specific genetic contexts. | noushermes2: Summary:
+- G12A mutations are enriched in NSCLC but rare in colorectal and pancreatic cancer, suggesting differences in sensitivity to PTPN11 inhibition based on histology.
+- Cells with KRAS mutations co-occurring with SMARCA4 or KEAP1 loss of function are less dependent on KRAS than those with wild-type SMARCA4 or KEAP1 function.
+- Additional genetic context should be considered in target discovery, and mutation subtyping may be needed for patient selection.
+- Functional genomic screens, such as high-throughput loss-of-function screens, can identify synthetic lethal gene pairs as a path to target discovery.
+- KRAS mutations demonstrate the complexity of context, with cell lines and tumor models having varying sensitivities to PTPN11 inhibitors.
+- Comparing studies on KRAS synthetic lethal interactions reveals a lack of common interactions, likely due to variations in experimental procedures and RNAi libraries used. | yi-34b: - Mutations in KRAS genes are common in various types of cancer, particularly lung adenocarcinomas (NSCLCs), but less prevalent in colorectal and pancreatic cancers.
+- The presence of specific mutations such as G12A and G12C can affect how tumors respond to treatment with PTPN11 inhibitors.
+- Tumors with concurrent mutations in other genes like SMARCA4 or KEAP1 may exhibit different levels of dependence on KRAS activity, which could influence their responses to targeted therapies.
+- High-throughput loss-of-function screens using CRISPR/Cas9 technology have identified potential therapeutic targets in cancer cells driven by mutant KRAS.
+- Functional genomic screening has revealed synthetic lethal interactions where suppressing one gene (like STK33) can selectively kill cancer cells with activated KRAS.
+- Transcriptional repressors like Snail2 play critical roles in tumorigenesis mediated by oncogenic Ras proteins.
+- Analysis of large datasets from projects like Cancer Dependency Map Initiative (CDMI) and DepMap reveal patterns of genetic dependencies across many cancer cell lines.
+- Target identification through these methods requires consideration of the broader genetic landscape of individual tumors to predict effective treatments.</t>
+  </si>
+  <si>
+    <t>Question: list all known pseudokinases | falcon-40b: No response | gpt-3.5-turbo-1106: - Pseudokinases are inactive kinases because they lack essential catalytic residues.
+- There are 48 human proteins classified as pseudokinases.
+- Pseudokinases are found in distinct protein kinase subfamilies and have evolved from diverse active kinases.
+- Human pseudokinases are classified into seven groups according to the three motifs in their pseudokinase domain that they lack.
+- Sequence analysis shows that pseudokinases lack at least one of three essential motifs for catalysis in the kinase domain. | mistral-7b: 1. Forty-eight human proteins with kinase-like domains are identified as pseudokinases due to the lack of one or more catalytic residues.
+2. These proteins are scattered throughout distinct protein kinase subfamilies, suggesting they have evolved from active kinases.
+3. Twenty-eight pseudokinases have homologues in model organisms (worms, flies, and yeast) that lack the equivalent catalytic residues.
+4. Human pseudokinases are classified into seven groups (A to G) based on which of the three essential motifs in their pseudokinase domain they lack.
+5. STRAD, isoforms of TRB, NRBP, SgK495, Slob, VRK3, and SuRTK106 are examples of human pseudokinases.
+6. Pseudokinases play crucial roles in regulating various cellular processes despite their inability to phosphorylate substrates.
+7. For instance, the pseudokinase STRAD regulates the tumor suppressor kinase LKB1, and a single amino acid substitution in the pseudokinase domain of the tyrosine kinase JAK2 affects its function.
+8. Sequence analysis reveals that pseudokinases lack at least one of the three essential motifs (VAIK, HisArgAspHRD, or AspPheGly DFG) in their catalytic domain required for catalysis.
+9. Out of 518 protein kinases encoded by the human genome, 48 have been classified as pseudokinases. | mixtral-instruct: 
+- There are 48 human proteins that have a kinase-like domain but lack at least one of the conserved catalytic residues, classifying them as pseudokinases.
+- Pseudokinases are found throughout distinct protein kinase subfamilies, suggesting they have evolved from diverse active kinases.
+- 28 pseudokinases have homologues in mice, worms, and yeast that lack the equivalent catalytic residues.
+- Human pseudokinases have been classified into seven groups (A to G) based on which of the three motifs in their pseudokinase domain they lack.
+- Amino acid sequences and missing conserved residues for each pseudokinase are reported in a landmark study by Manning and colleagues.
+- Domain structures of all human pseudokinases have been compared and several, such as isoforms of STRAD, Trb, NRBP, SgK495, Slob, VRK3, and SuRTK106, have distinct structures.
+- Pseudokinases, despite lacking the ability to phosphorylate substrates, are still pivotal in regulating diverse cellular processes.
+- An example is the pseudokinase STRAD, which controls the function of the tumor suppressor kinase LKB1, and a single amino acid substitution within the pseudokinase domain of the tyrosine kinase JAK2 leads to several malignant myeloproliferative disorders.
+- Other emerging functions of pseudokinases include HER3 (also called ErbB3), EphB6, CCK4 (also called PTK7), KSR, Trb3, GCN2, TRRAP, ILK, and CASK. | noushermes2: Summary:
+- Pseudokinases are scattered throughout distinct protein kinase subfamilies, suggesting they evolved from diverse active kinases.
+- 28 pseudokinases have homologues in mouse, worms, flies, and yeast that lack equivalent catalytic residues.
+- Human pseudokinases are classified into seven groups (A to G) based on the missing motifs in their pseudokinase domain.
+- Sequence analysis indicates that pseudokinases lack at least one of the three essential motifs for catalysis: VAIK, HRD, and DFG motifs.
+- Out of 518 protein kinases encoded by the human genome, 48 are classified as pseudokinases.
+- Pseudokinases, despite lacking the ability to phosphorylate substrates, are still pivotal in regulating diverse cellular processes.
+- Examples of pseudokinases with emerging roles include STRAD, which controls the function of tumor suppressor kinase LKB1, and the pseudokinase domain of the tyrosine kinase JAK2. | yi-34b: - Pseudokinases are found across different species and have evolved from various active kinases.
+- They are distributed among different protein kinase families.
+- Human genome contains 28 pseudokinases with known equivalents in other organisms that lack catalytic residues.
+- These proteins play pivotal roles in cell regulation despite being non-enzymatic.
+- Evidence suggests that pseudokinases can influence the functions of active kinases like LKB1 and JAK2.
+- Some pseudokinases, such as those in the STRAD family, are involved in developmental processes.
+- There is limited knowledge about how pseudokinases exert their effects without catalysis.
+- Structural analyses of pseudokinases are needed to understand their mechanisms of action.
+- Systematic screens should be conducted to identify binding partners of pseudokinases to better understand their regulatory roles.</t>
+  </si>
+  <si>
+    <t>Question: list key publications related to the gene polr3e, providing links where available. | falcon-40b: Here  are  some  key  publications  related  to  the  gene  POLR3E:
+1.  Li,  Y.,  et  al.  (2003).  POLR3E  is  a  member  of  the  POLR3  gene  family  and  is  highly  expressed  in  human  tumors.  Gene,  315,  53-62.  [https://doi.org/10.1016/S0378-1119(03)00677-3]
+2.  Li,  Y.,  et  al.  (2006).  POLR3E  is  a  target  of  the  human  papillomavirus  type  16  E6  protein  and  is  important  for  tumorigenesis.  Cancer  Research,  66(1),  1-11.  [https://doi.org/10.1158/0008-5472.CAN-05-2320]
+3.  Li,  Y.,  et  al.  (2007).  POLR3E  is  overexpressed  in  human  breast  cancer  and  is  a  potential  therapeutic  target.  Cancer  Research,  67(17),  8364-8371.  [https://doi.org/10.1158/0008-5472.CAN-07-0596]
+4.  Li,  Y.,  et  al.  (2008).  POLR3E  is  a  potential  therapeutic  target  for  ovarian  cancer.  Cancer  Research,  68(19),  8226-8233.  [https://doi.org/10.1158/0008-5472.CAN-08-1273]
+5.  Li,  Y.,  et  al.  (2009).  POLR3E  is  a  potential  therapeutic  target  for  pancreatic  cancer.  Cancer  Research,  69(1),  328-335.  [https://doi.org/10.1158/0008-5472.CAN-08-2718]
+6.  Li,  Y.,  et  al.  (2010).  POLR3E  is  a  potential  therapeutic  target  for  lung  cancer.  Cancer  Research,  70(1),  308-315.  [https://doi.org/10.1158/0008-5472. | gpt-3.5-turbo-1106: Sure, here are some key publications related to the gene POLR3E:
+1. "Mutation in POLR3K causes hypomyelinating leukodystrophy and abnormal ribosomal RNA regulation" - This paper discusses the role of POLR3E in hypomyelinating leukodystrophy. [Link to publication](https://pubmed.ncbi.nlm.nih.gov/29198975/)
+2. "POLR3GL, a hypomyelinating leukodystrophy-associated protein, is essential for oligodendrocyte differentiation and myelination" - This study explores the role of POLR3E in oligodendrocyte differentiation and myelination. [Link to publication](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6442117/)
+3. "Variants in POLR3E and GTPBP2 cause autosomal-recessive hypomyelinating leukoencephalopathy" - This publication identifies POLR3E variants as a cause of autosomal-recessive hypomyelinating leukoencephalopathy. [Link to publication](https://pubmed.ncbi.nlm.nih.gov/28341763/)
+These publications provide valuable insights into the function and implications of POLR3E in various diseases. | mistral-7b: 1.  " POLR3A  and  P OLR3B  are  essential  for  R NA  poly mer ase  III  trans cription  in  human  cells ."  (N ature  Gen etics, 2004)  ( Link:  &lt; https :// www.n ature. com/ art icles/ ng1362 &gt;)
+ Auth ors:  B ecq,  J.M .,  et  al.
+ This  study  identified  P OLR3A  and  P OLR3B  as  essential  genes  for  R NA  poly mer ase  III  trans cription  in  human  cells.
+2.  " POLR3G  and  P OLR3F,  two  catal yt ic  sub units  of  R NA  poly mer ase  III,  are  required  for  cell  vi ability ."  (N ature  Gen etics, 2004)  ( Link:  &lt; https :// www.n ature. com/ art icles/ ng1363 &gt;)
+ Auth ors:  N ig ro,  A.A .,  et  al.
+ This  publication  demonstrated  that  P OLR3G  and  P OLR3F,  two  sub units  of  R NA  poly mer ase  III,  are  required  for  cell  vi ability.
+3.  " Polr3e  is  essential  for  R NA  poly mer ase  III  trans cription  and  development  in  D ros oph ila  mel an og aster ."  ( Gen es  &amp;  Development, 2006)  ( Link:  &lt; https :// gen es dev.c sh lp. org/ content/20/11/1527 &gt;)
+ Auth ors:  Z hang,  Y .,  et  al.
+ This  study  showed  that  Polr3e  is  essential  for  R NA  poly mer ase  III  trans cription  and  development  in  D ros oph ila  mel an og aster.
+4.  " POLR3E  is  required  for  the  trans cription  of  small  nuclear  RN As  and  tRN As  in  human  cells ."  (N uc le ic  Ac ids  Research, 2008)  ( Link:  &lt; https :// nar. ox ford jour nals. org/ content/36/12/3429 &gt;)
+ Auth ors:  F eng,  Y .,  et  al.
+ This  publication  identified  P OLR3E  as  a  critical  factor  for  the  trans cription  of  small  nuclear  RN As  and  tRN As  in  human  cells.
+5.  " POLR3E  is  required  for  the  trans cription  of  microRN As  and  s noRN As  in  human  cells | mixtral-instruct: I  am  not  a  comput ational  bi ologist  or  genom ics  expert,  but  I  can  certainly  help  you  find  some  key  publications  related  to  the  gene  P OLR3E.  Here  are  a  few:
+1.  " POLR3- related  le uk od yst ro phy  is  caused  by  b ial le lic  mut ations  in  P OLR1C,  P OLR3A,  P OLR3B,  and  P OLR1D"  by  H arel  et  al.  (2015 ).  This  study  identified  P OLR3E  as  one  of  the  genes  associated  with  a  neu rolog ical  disorder  called  P OLR3- related  le uk od yst ro phy.
+&lt; https :// doi. org/10.1016/j. ajhg.2015.06.015&gt;
+2.  " POLR3- related  le uk od yst ro phy:  a  series  of 24  patients  with  P OLR3A,  P OLR3B,  or  P OLR1C  mut ations  and  review  of  the  literature"  by  P oul ton  et  al.  (2017 ).  This  review  provides  an  overview  of  P OLR3- related  le uk od yst ro phy,  including  the  role  of  P OLR3E  in  the  disorder.
+&lt; https :// doi. org/10.1002/ humu.23244&gt;
+3.  " POLR3- related  le uk od yst ro phy:  clinical,  radi olog ic,  and  genetic  features  in  a  coh ort  of 71  patients"  by  Aub ourg  et  al.  (2018 ).  This  study  describes  the  clinical  and  radi ological  features  of  P OLR3- related  le uk od yst ro phy,  including  patients  with  mut ations  in  P OLR3E.
+&lt; https :// doi. org/10.1002/ humu.23447&gt;
+4.  " The  genetic  landscape  of  P OLR3- related  le uk od yst ro phy"  by  T sur us aki  et  al.  (2019 ).  This  study  analyzed  the  genetic  landscape  of  P OLR3- related  le uk od yst ro phy,  including  P OLR3E,  and  identified  novel  mut ations  associated  with  the  disorder.
+&lt; https :// doi. org/10.1016/j. ajhg.20 | noushermes2: C ertain ly,  here  are  some  key  publications  related  to  the  gene  P OLR3E,  along  with  their  corresponding  links:
+1.  " POLR3E  mut ations  cause  a  synd rom ic  intellectual  disability  with  dysm orph ic  features  and  ep ile psy ."
+     Authors:  J.  W.  B am sh ad  et  al.
+     Journal:  American  Journal  of  Human  Gen etics
+     Link:  &lt; https :// www.n cbi. nlm. nih. gov/ pub med/26160463&gt;
+2.  "A  novel  P OLR3E  mut ation  associated  with  severe  intellectual  disability,  ep ile psy,  and  dysm orph ic  features ."
+     Authors:  S.  S.  F.  N.  V.  R.  P.  R.  et  al.
+     Journal:  American  Journal  of  Medical  Gen etics  Part  A
+     Link:  &lt; https :// www.n cbi. nlm. nih. gov/ pub med/26433347&gt;
+3.  " Mut ations  in  P OLR3E,  encoding  the  R NA  poly mer ase  III  largest  sub unit,  cause  severe  intellectual  disability,  ep ile psy,  and  dysm orph ic  features ."
+     Authors:  J.  W.  B am sh ad  et  al.
+     Journal:  American  Journal  of  Human  Gen etics
+     Link:  &lt; https :// www.n cbi. nlm. nih. gov/ pmc/ art icles/P MC4560342 /&gt;
+4.  "A  novel  homo zyg ous  miss ense  mut ation  in  P OLR3E  causes  severe  intellectual  disability  and  ep ile psy ."
+     Authors:  W.  S.  Wang  et  al.
+     Journal:  European  Journal  of  Medical  Gen etics
+     Link:  &lt; https :// www.n cbi. nlm. nih. gov/ pub med/27092396&gt;
+ These  publications  provide  insights  into  the  role  of  P OLR3E  gene  mut ations  in  causing  intellectual  disability,  ep ile psy,  and  dysm orph ic  features.  They  also  offer  valuable  information  on  the  clinical  manifest ations  and  molecular  mechanisms  associated  with  these  conditions. | yi-34b: As  of  my  last  update  in  June       2023,  I    don't  have    real-time  data  access  or  the  ability  to  browse  the   internet.   However,  I  can  provide  you  with  some  guidance  on  how  to  find  relevant  publications  about  the  gene       "POLR3E"  using  common  databases  such  as   PubMed                   (https://pubmed.ncbi.nlm.nih.gov/).
+  To  start  your   search:
+   1.  Go  to                 https://pubmed.ncbi.nlm.nih.gov/
+   2.  In  the  search  box  at  the  top  of  the   page,  type       "POLR3E"  without   quotes.  This  will  return  a  list  of  articles  that  mention  this   gene.
+   3.  To  refine  your   results,  use  advanced  search  options  by  clicking  on  the  link  labeled    "Advanced"  right  above  the  main  search   bar.   Here,  you  can  add  additional  keywords  like   "gene    expression",      "cancer",    "drug    resistance",    etc.,  if  you  are  interested  in  specific  aspects  related  to     POLR3E   research.
+   4.  Look  for  articles  that  fit  your  criteria  by  scanning  through  the  titles  and   abstracts   provided.  Once  you  find  something   promising,  click  on  it  to  read  more   details,  including  the  abstract  and  possibly  full  text  if  open  access  or  available  through  your    institution's   subscription.
+   5.  If  you  want  to  be   alerted  when  new  papers  are   published,  you  can  set  up  a  citation  tracker  or  RSS  feed  for  any  query  terms    you're  interested   in.
+  Please  note  that  while  I  am  proficient  in  many  areas  of  biology  and   genetics,  my  knowledge  is  not  exhaustive  and  current  as  of    real-time   events.  For  the  most  updated   information,  always  consult  the  latest  scientific  literature  directly  via  platforms  like     PubMed.</t>
+  </si>
+  <si>
+    <t>Question: list molecules in clinical trials for the gene polr3e, detailing the pharmaceutical companies involved and the latest status of these trials. | falcon-40b: As  an  AI  language  model,  I  do  not  have  access  to  real-time  information.  However,  according  to  clinicaltrials.gov,  as  of  July  2021,  there  are  no  clinical  trials  registered  for  the  gene  POLR3E.  Therefore,  I  cannot  provide  a  list  of  molecules  in  clinical  trials  for  POLR3E. | gpt-3.5-turbo-1106: I'm sorry, but I don't have real-time access to databases or the internet to provide the latest information on molecules in clinical trials for the gene POLR3E and their current status. However, you can access this information from clinical trial databases such as ClinicalTrials.gov or by contacting specific pharmaceutical companies involved in drug development for POLR3E-related treatments. If you need help with interpreting the data or understanding the implications of the clinical trials, feel free to ask! | mistral-7b: 1.  AG-881  (A stell as  Ph ar ma ):  AG-881  is  an  investig ational  small  mole cule  inhib itor  of  R NA  poly mer ase  III,  specifically  target ing  the  sub unit  P OLR3E.  It  is  being  developed  by  A stell as  Ph ar ma  for  the  treatment  of  various  types  of  cancer.  The  latest  clinical  trial  information  for  AG-881  is  as  follows:
+     *  N CT02527622:  A  phase 1/2  study  to  evaluate  the  safety,  toler ability,  pharm ac ok inet ics,  and  pre liminary  ant it um or  activity  of  AG-881  in  patients  with  advanced  solid  tum ors,  including  patients  with  non- small  cell  lung  cancer  ( NS CLC ),  small  cell  lung  cancer  (S CLC ),  and  other  advanced  solid  tum ors.  The  study  is  currently  in  the  recru iting  phase.
+     *  N CT03942435:  A  phase 1b  study  to  evaluate  the  safety,  toler ability,  and  pharm ac od ynamics  of  AG-881  in  combination  with  dur val um ab  ( an  anti- PD-L1  mon ocl onal  antib ody)  in  patients  with  advanced  NS CLC.  The  study  is  currently  in  the  recru iting  phase.
+2.  S63845  (S elle ck chem ):  S63845  is  an  investig ational  small  mole cule  inhib itor  of  P OLR3E.  It  is  being  developed  by  S elle ck chem  for  the  treatment  of  various  types  of  cancer.  The  latest  clinical  trial  information  for  S63845  is  not  publicly  available.  However,  it  has  been  reported  that  S63845  is  in  pre cl in ical  development  and  is  not  yet  in  clinical  trials.
+3.  MK-8628  ( Mer ck ):  MK-8628  is  an  investig ational  small  mole cule  inhib itor  of  P OLR3A  and  P OLR3B  ( the  alpha  and  beta  sub units  of  R NA  poly mer ase  III ).  It  is  being  developed  by  Mer ck  for  the  treatment  of  various  types  of  cancer.  The  latest  clinical  trial  information  for  MK-8628  is  as  follows:
+     *  N CT04155627:  A  phase 1  study  to  evaluate  the  safety,  toler ability,  pharm ac ok inet ics,  and  pre liminary  ant it um or  activity  of  MK-8 | mixtral-instruct: To  answer  your  question,  I  first  performed  a  search  for  clinical  trials  involving  the  gene  P OLR3E  using  the  Clin ical Tri als. gov  database,  which  is  a  registry  of  clinical  trials  conducted  around  the  world.  I  then  filtered  the  results  to  only  include  trials  that  are  currently  recru iting,  not  yet  recru iting,  or  active  but  not  recru iting.  Here  are  the  results  of  my  search:
+1.  T rial  name:  A  Study  of  the  Safety  and  E ffic acy  of  N VS- PAQ423  in  Particip ants  With  P OLR3- Rel ated  Le uk od yst ro phy  ( POL RA1,  P OLR3A,  P OLR3B,  P OLR3C,  P OLR3D,  P OLR3F,  P OLR3G)
+D rug:  N VS- PAQ423
+ Ph arm aceut ical  company:  Nov art is
+T rial  status:  Not  yet  recru iting
+2.  T rial  name:  A  Study  of  the  Safety  and  E ffic acy  of  A AV9- POLR3B  in  Particip ants  With  P OLR3- Rel ated  Le uk od yst ro phy  ( POL RA1,  P OLR3A,  P OLR3B,  P OLR3C,  P OLR3D,  P OLR3F,  P OLR3G)
+D rug:  A AV9- POLR3B
+ Ph arm aceut ical  company:  Nov art is
+T rial  status:  Not  yet  recru iting
+3.  T rial  name:  A  Study  of  the  Safety  and  E ffic acy  of  N VS- PAQ423  in  Particip ants  With  P OLR3- Rel ated  Le uk od yst ro phy  ( POL RA1,  P OLR3A,  P OLR3B,  P OLR3C,  P OLR3D,  P OLR3F,  P OLR3G)
+D rug:  N VS- PAQ423
+ Ph arm aceut ical  company:  Nov art is
+T rial  status:  Not  yet  recru iting
+4.  T rial  name:  A  Study  of  the  Safety  and  E ffic acy  of  N VS- PAQ423  in  Particip ants  With  P OLR3- Rel ated  Le uk od yst ro phy  ( POL RA1,  P OLR3A,  P OLR3B,  P OLR3C, | noushermes2: As  of  my  current  knowledge,  there  are  no  known  mole cules  in  clinical  trials  specifically  target ing  the  P OLR3E  gene.  P OLR3E  is  a  gene  that  enc odes  a  sub unit  of  R NA  poly mer ase  III,  which  is  involved  in  the  trans cription  of  small  nuclear  R NA  and  other  non-c oding  R NA  mole cules.  However,  there  are  ongoing  research  efforts  to  explore  the  role  of  this  gene  in  various  diseases,  and  potential  ther apeut ic  targets  may  emerge  in  the  future.
+ Please  let  me  know  if  you'd  like  more  information  on  P OLR3E  or  other  related  topics. | yi-34b: I'm   sorry,  but  I    don't  have    real-time  data  or  access  to  current  clinical  trial   databases.   However,  you  can  find  this  information  by  searching  through  various  clinical  trial   registries  such  as       ClinicalTrials.gov,  which  is  maintained  by  the     U.S.  National  Library  of  Medicine      (NLM).  To  get  the  most      up-to-date  information  on  molecules  in  clinical  trials  targeting  the     POLR3E   gene,  you  would  need  to  search  those   registries  using  the  specific  gene  name  or  associated  disease   indications.
+    Here's  how  you  might  approach  finding  that   information:
+   1.     **Visit**                    [ClinicalTrials.gov](https://clinicaltrials.gov/).
+   2.    **Perform  a  keyword   search**  using       "POLR3E"  or  any  related       diseases/syndromes  linked  to  mutations  in  this   gene.
+   3.   **Review  the   results**  to  identify  active  or  recently  completed  trials  that  mention  the  gene  or  its  associated   conditions.
+   4.   **Click  on  each  trial   listing**  to  gather  detailed   information,  including  the  names  of  the  drugs  being   tested,  the  phases  of   development,  the  primary   outcomes,  and  the  study  sponsors   (which  could  be  pharmaceutical   companies,  academic   institutions,  or  government    organizations).
+   5.   **Check  the   status**  of  ongoing  trials  and  look  for  recent  updates  or  publications  regarding  the  completion  of   trials.
+  Please  note  that  my  last  update  was  in  June       2023,  so  any  new  trials  initiated  after  that  time  will  not  be  reflected   here.   Additionally,  some  trials  may  use  alternative     nomenclature  or  focus  on  broader  genetic  pathways  rather  than  individual   genes,  making  it  important  to  consider     synonyms  and  related  biological  processes  when  conducting  your   search.
+  If  you  encounter  any  difficulties  with  your  search  or  if  there  are  no  listed  trials  specifically  involving      POLR3E,  you  might  also  want  to  consult  other  resources  like    PubMed,  where  you  can  explore  scientific  literature  for  mentions  of  therapeutic  agents  and  their    targets.</t>
+  </si>
+  <si>
+    <t>Question: names of tumor suppressor proteins | falcon-40b: No response | gpt-3.5-turbo-1106: - Tumour suppressor gene loss is undruggable, as the function and often the genes themselves are lost
+- Identification of druggable synthetic lethal partners is the only way of targeting the functional loss of tumour suppressor genes in cancer
+- Discovery of PARP inhibition and BRCA1 or BRCA2 mutation as a synthetic lethal interaction has been translated into clinical benefit for patients
+- This discovery was hypothesis-driven and was blessed by a bit of good luck
+- Large scale next-generation whole exome sequencing data has been used to define the landscape of tumour suppressor genes and oncogenes across 21 different cancer types
+- Examination of the functions of contiguous genes that are homozygously deleted along with tumour suppressor genes may help uncover cancer-cell vulnerabilities to pharmacological attack | mistral-7b: 1. Gene mutation or silencing is desired to study the function of a gene of interest in cancer.
+2. Simultaneous administration of interfering RNAs can be used for gene silencing.
+3. Many tumor suppressor genes, such as TP53, RB1, and BRCA1, are linked to specific types of cancer but are undruggable due to functional loss.
+4. Identification of druggable synthetic lethal partners is the current approach to target functional loss of tumor suppressor genes in cancer.
+5. The discovery of PARP inhibition and BRCA1 or BRCA2 mutation as a synthetic lethal interaction was not made through genomic screening but was hypothesis-driven and fortunate as a PARP inhibitor was already available.
+6. Hundreds of potential drug targets remain to be discovered, and genomic datasets can be used to identify those active in a predictable subset of cancer cell lines.
+7. Genetic context, including driver mutations, tissue of origin, histology, and other functional genetic lesions, is important in defining subgroups of cancers and identifying selective dependencies.
+8. For example, ovarian clear cell carcinoma and melanoma cell lines have a selective dependency on the oxygen sensor EGLN1. | mixtral-instruct: 
+- Tumour suppressor genes, such as TP53, RB1, and BRCA1, have been well-characterized but are undruggable due to functional loss and often gene loss.
+- The only way to target the functional loss of tumour suppressor genes in cancer is through the identification of druggable synthetic lethal partners.
+- The discovery of PARP inhibition and BRCA1 or BRCA2 mutation as a synthetic lethal interaction by Ashworth and colleagues and Helleday and colleagues in 2005 was the first to be translated into clinical benefit for patients, but it was not made by genomic screening, rather it was hypothesis-driven.
+- A small molecule PARP inhibitor had already been developed.
+- Large scale next generation whole exome sequencing data from human tumours has been used to define the landscape of tumour suppressor genes and oncogenes across 21 different cancer types (Lawrence et al., 2014).
+- Comprehensive characterization of cancer driver genes and mutations across 33 cancer types has been done (Bailey et al., 2018).
+- The landscape of somatic copy number alteration across human cancers has been studied (Beroukhim et al., 2010).
+- Cancer cell vulnerabilities to pharmacological attack might also be gleaned by examining the functions of contiguous genes that are homozygously deleted along with tumour suppressor genes.
+- For example, cells that lack MTAP, a gene encoding methylthioadenosine phosphorylase, have increased sensitivity to lalanosine, a potent inhibitor of de novo AMP synthesis and to an inhibitor of de novo purine nucleotide synthesis, 6methylmercaptopurine riboside (MMPR).
+- Expression databases can be mined for paralogous genes in which one or more members are underexpressed in cancer cells relative to normal cells. | noushermes2: Summary:
+- Many tumour suppressor genes have been well-characterized, such as TP53, RB1, and BRCA1.
+- Tumour suppressor gene loss is undruggable as the function and genes are often lost.
+- Identifying druggable synthetic lethal partners is the only way to target the functional loss of tumour suppressor genes in cancer.
+- The discovery of PARP inhibition and BRCA1/2 mutation as a synthetic lethal interaction in 2005 led to clinical benefits for patients.
+- This discovery was hypothesis-driven and not made through genomic screening.
+- The landscape of tumour suppressor genes and oncogenes across 21 different cancer types has been defined through large-scale next-generation whole exome sequencing data.
+- Both copies of many genes are often deleted in cancer cells, suggesting potential vulnerabilities for pharmacological attack.
+- Mining expression databases for underexpressed paralogous genes in cancer cells could reveal potential targets for drug development. | yi-34b: - Many genes are present in duplicate (two copies) within the human genome.
+- Genes located near each other on the same chromosome can be co-deleted together with tumour suppressor genes.
+- The deletion of specific genes, like those involved in DNA repair pathways, can make cancers vulnerable to certain drugs.
+- Understanding how these genetic alterations affect cellular processes can help identify potential targets for therapeutic intervention.
+- Synthetic lethality, where two genetic insults combine to kill a cell when either alone is tolerated, offers a strategy to target tumour suppressor gene losses.
+- PARP inhibitors have shown promise in treating cancers with defects in DNA damage response genes, particularly in BRCA1/BRCA2 mutated breast and ovarian cancers.
+- Immune evasion mechanisms can involve genetic alterations in both oncogenes and tumour suppressor genes.
+- Dysfunction of genes involved in antigen presentation, such as B2M and HLA, can lead to reduced immunogenicity and poorer responses to immunotherapy.
+- Exploring the interplay between genetics and immunity could uncover new avenues for personalizing cancer treatments.</t>
+  </si>
+  <si>
+    <t>Question: outline a pharmacokinetic study design for a new oral antidiabetic drug | falcon-40b: A  pharmacokinetic  study  design  for  a  new  oral  antidiabetic  drug  should  include  the  following:
+1.  Phase  1:  This  phase  involves  conducting  a  single-dose  and  a  multiple-dose  study  to  assess  the  safety,  tolerability,  and  pharmacokinetics  of  the  drug  in  healthy  volunteers.  This  phase  also  determines  the  maximum  tolerated  dose  (MTD)  and  the  pharmacokinetic  parameters  such  as  absorption,  distribution,  metabolism,  and  excretion  (ADME)  of  the  drug.
+2.  Phase  2:  This  phase  involves  conducting  a  multiple-dose  study  in  diabetic  patients  to  evaluate  the  efficacy  and  safety  of  the  drug.  This  phase  also  determines  the  pharmacokinetic  parameters  such  as  Cmax,  Tmax,  AUC,  and  T1/2  of  the  drug.
+3.  Phase  3:  This  phase  involves  conducting  a  multiple-dose  study  in  diabetic  patients  to  evaluate  the  efficacy  and  safety  of  the  drug  in  a  larger  population.  This  phase  also  determines  the  pharmacokinetic  parameters  such  as  Cmax,  Tmax,  AUC,  and  T1/2  of  the  drug.
+4.  Special  populations:  This  phase  involves  conducting  studies  in  special  populations  such  as  elderly  patients,  patients  with  renal  impairment,  and  patients  with  hepatic  impairment  to  evaluate  the  safety  and  efficacy  of  the  drug  in  these  populations.
+5.  Food  effect:  This  phase  involves  conducting  a  study  to  evaluate  the  effect  of  food  on  the  absorption  and  pharmacokinetics  of  the  drug.
+6.  Drug-drug  interactions:  This  phase  involves  conducting  a  study  to  evaluate  the  potential  for  drug-drug  interactions  between  the  new  drug  and  other  drugs.
+7.  Bioequivalence:  This  phase  involves  conducting  a  study  to  demonstrate  the  bioequivalence  of  the  new  drug  to  an  approved  reference  drug.
+8.  Pharmacogenomics:  This  phase  involves  conducting  a  study  to  evaluate  the  potential  for  pharmacogenomics  biomarkers  to  predict  the  efficacy  and  safety  of  the  new  drug.
+Overall,  the  pharmacokinetic  study  design  for  a  new  oral  antidiabetic  drug  should  aim  to  evaluate  the  safety,  efficacy,  and  pharmacokinetic  parameters  of  the  drug  in  a  variety  of  populations  and  settings. | gpt-3.5-turbo-1106: Sure! Here's an outline for a pharmacokinetic study design for a new oral antidiabetic drug:
+1. Study Objective: The objective of the study is to assess the pharmacokinetics of the new oral antidiabetic drug in human subjects to determine its absorption, distribution, metabolism, and excretion properties.
+2. Study Population: The study will include healthy adult volunteers as well as patients with type 2 diabetes who are currently on stable antidiabetic therapy.
+3. Study Design: The study will be a single-center, open-label, randomized, crossover design with multiple dose levels of the new oral antidiabetic drug.
+4. Dose Levels: The initial dose escalation study will include at least three different dose levels of the drug. The doses will be selected based on preclinical data and safety considerations.
+5. Pharmacokinetic Sampling: Blood samples will be collected at predetermined time points following drug administration to measure the concentration of the drug and its metabolites. Samples will be collected at various time points before dosing, and at multiple time points after dosing to determine the drug's absorption, distribution, metabolism, and excretion profiles. 
+6. Pharmacokinetic Parameters: The pharmacokinetic parameters to be assessed will include maximum plasma concentration (Cmax), time to reach maximum plasma concentration (Tmax), area under the plasma concentration-time curve (AUC), half-life (t1/2), clearance, and volume of distribution.
+7. Safety Assessments: Safety assessments will include monitoring of adverse events, vital signs, electrocardiograms, and clinical laboratory tests.
+8. Data Analysis: Pharmacokinetic parameters will be calculated using non-compartmental analysis. Statistical analysis will be conducted to compare the pharmacokinetic parameters between the different dose levels and to assess the effect of food on the drug's pharmacokinetics.
+9. Ethical Considerations: The study will be conducted in compliance with ethical principles and guidelines for human research, including obtaining informed consent from all study participants.
+10. Regulatory Compliance: The study will be designed and conducted in compliance with regulatory requirements and guidelines for conducting clinical pharmacokinetic studies.
+11. Reporting: The study findings will be reported in a comprehensive study report and may be used to support further clinical development of the new oral antidiabetic drug.
+This outline provides a general framework for a pharmacokinetic study design for a new oral antidiabetic drug, and specific details may vary based on the characteristics of the drug and the study population. | mistral-7b: 1.  Object ive:  The  primary  objective  of  a  pharm ac ok inet ic  ( PK)  study  for  a  new  oral  ant idi ab etic  drug  is  to  determine  the  drug's  absorption,  distribution,  met abol ism,  and  ex cret ion  ( AD ME)  properties  in  humans.  The  study  aims  to  character ize  the  drug's  behavior  in  the  body,  including  the  following  key  parameters:
+     a.  Max imum  plasma  concentration  (C max)
+     b.  Time  to  reach  maximum  concentration  (T max)
+     c.  Area  under  the  plasma  concentration- time  curve  ( AUC)
+     d.  El im ination  half- life  (t1/2)
+     e.  Clear ance  ( CL)
+     f.  Volume  of  distribution  (Vd)
+     g.  Bio av ailability  (F)
+     h.  Met abol ism  and  ex cret ion  path ways
+2.  Study  Design:  A  typical  PK  study  for  a  new  oral  ant idi ab etic  drug  is  conducted  as  a  single-d ose,  random ized,  open- label,  two- period,  c ros so ver  design.  This  design  allows  for  direct  comparison  of  the  drug's  PK  properties  between  two  dos es  or  form ulations.
+3.  Subject  Selection:  In clude  healthy  adult  volunteers  (m ales  and  females)  with  a  body  mass  index  (B MI)  within  the  normal  range  and  no  significant  medical  history.  Ex clude  subjects  with  diabetes,  any  chronic  diseases,  or  those  taking  medications  that  may  affect  drug  met abol ism.
+4.  D ose  Selection:  Choose  a  single  dose  of  the  drug  based  on  in  vit ro  and  in  v ivo  data  from  animal  studies.  The  dose  should  be  within  the  ther apeut ic  range  and  should  cover  a  wide  enough  range  to  assess  the  PK  properties  accurately.
+5.  Study  Con duct:
+     a.  Subjects  receive  the  study  drug  on  Day 1  and  Day 14  ( or  after  a  suitable  wash out  period)  in  a  random ized  order.
+     b.  Blood  samples  are  collected  at  regular  intervals  before  dos ing  ( pre-d ose ),  and  at  specific  time  points  after  dos ing  (e.g ., 0.5  hours, 1  hour, 2  hours, 4  hours, 6  hours, 8  hours, 12  hours, 24  hours, 48  hours,  and 72  hours ).
+     c.  Pl asma  concentration  of  the  drug  is  measured  using  a  valid ated  analyt ical  method,  such | mixtral-instruct: I  will  be  happy  to  review  your  answer  and  provide  feedback.  Thank  you  for  your  help!
+ To  outline  a  pharm ac ok inet ic  study  design  for  a  new  oral  ant idi ab etic  drug,  the  following  steps  can  be  taken:
+1.  Define  the  study  objectives:  The  primary  objective  of  the  study  is  to  determine  the  pharm ac ok inet ic  profile  of  the  new  oral  ant idi ab etic  drug  in  healthy  volunteers.  The  secondary  objectives  may  include  assess ing  the  safety  and  toler ability  of  the  drug.
+2.  Select  the  study  population:  The  study  population  should  consist  of  healthy  volunteers,  as  they  are  less  likely  to  have  conf ound ing  factors  that  could  affect  the  pharm ac ok inet ics  of  the  drug.  The  volunteers  should  be  matched  for  age,  sex,  and  body  mass  index  to  minimize  vari ability.
+3.  Det ermine  the  study  design:  The  study  design  should  be  a  single-d ose,  open- label,  parallel- group  study.  The  volunteers  will  be  randomly  assigned  to  one  of  several  treatment  groups,  each  receiving  a  different  dose  of  the  drug.
+4.  Choose  the  dos ing  reg imen:  The  dos ing  reg imen  should  be  based  on  the  expected  ther apeut ic  dose  range  of  the  drug.  A  range  of  dos es  should  be  selected,  including  a  low  dose,  a  medium  dose,  and  a  high  dose.
+5.  Select  the  sampling  schedule:  The  sampling  schedule  should  be  based  on  the  expected  half- life  of  the  drug.  Blood  samples  should  be  collected  at  multiple  time  points,  including  immediately  before  dos ing  and  at  regular  intervals  after  dos ing.  The  sampling  schedule  should  be  designed  to  capture  the  absorption,  distribution,  met abol ism,  and  ex cret ion  phases  of  the  drug.
+6.  Det ermine  the  analyt ical  methods:  The  analyt ical  methods  should  be  valid ated  to  ensure  accuracy,  precision,  and  sensitivity.  L iqu id  chrom at ography- mass  spect rom etry  ( LC- MS)  is  a  commonly  used  method  for  measuring  drug  concentr ations  in  biological  samples.
+7.  An aly ze  the  data:  The  pharm ac ok inet ic  parameters  of  the  drug,  including  the  maximum  concentration  (C max ),  time  to  maximum  concentration  (T max ),  area  under  the  concentration- time  curve  ( AUC ),  elim ination  half- life  (t1/2 ),  and  clear ance  ( CL ),  should  be  calculated  using  non- com part ment al  analysis.
+8.  Ass ess  safety  and  toler ability:  Ad verse  events  should  be  mon it ored  and  recorded  throughout  the  study.  V ital  signs,  clinical | noushermes2: A  pharm ac ok inet ic  ( PK)  study  design  for  a  new  oral  ant idi ab etic  drug  would  involve  assess ing  the  drug's  absorption,  distribution,  met abol ism,  and  ex cret ion  ( AD ME)  properties.  Here  is  an  outline  of  a  potential  study  design:
+1.  Study  objectives:
+     a.  Eval uate  the  pharm ac ok inet ics  of  the  new  oral  ant idi ab etic  drug  in  healthy  volunteers.
+     b.  Det ermine  the  drug's  absorption,  distribution,  met abol ism,  and  ex cret ion  properties.
+     c.  Ident ify  any  potential  drug-d rug  interactions  or  safety  concerns.
+2.  Study  design:
+     a.  Single- center,  random ized,  open- label, 3- period, 3-t reat ment,  c ros so ver  study.
+     b.  Particip ants:  Healthy  adult  volunteers  ( aged 18-55  years)  with  a  Body  Mass  Index  (B MI)  between 18.5  and 25  kg/m ².
+     c.  Ex clusion  criteria:  History  of  diabetes,  g astro int est inal  disorders,  or  any  condition  that  may  affect  drug  absorption.
+3.  Study  medication:
+     a.  The  new  oral  ant idi ab etic  drug  will  be  administer ed  as  a  single  dose  (e.g ., 500  mg)  under  fast ing  conditions.
+     b.  A  reference  drug  (e.g .,  met form in)  will  be  co- admin ister ed  to  evaluate  potential  drug-d rug  interactions.
+4.  Study  periods:
+     a.  Each  participant  will  under go  three  treatment  periods  separated  by  a  wash out  period  of  at  least 7  days.
+     b.  In  each  treatment  period,  the  new  oral  ant idi ab etic  drug  will  be  administer ed  under  fast ing  conditions,  with  the  reference  drug  co- admin ister ed  in  one  of  the  periods.
+5.  Study  assess ments:
+     a.  Blood  samples  will  be  collected  at  pre det erm ined  time  points  (e.g ., 0.5, 1, 2, 4, 6, 8, 12, 24  hours)  to  measure  drug  concentr ations  in  plasma.
+     b.  Ph arm ac ok inet ic  parameters,  such  as  area  under  the  curve  ( AUC ),  maximum  plasma  concentration  (C max ),  time  to  maximum  concentration  (T max ),  and  half- life  (t1/ | yi-34b: Certainly!  A     pharmacokinetic    (PK)  study  is  designed  to  characterize  how  a  drug  moves  through  the   body,  including  its   absorption,   distribution,   metabolism,  and    excretion     (ADME)   processes.  For  an  oral    antidiabetic   drug,  specific  considerations  must  be  taken  into  account  due  to  the  challenges  of     gastrointestinal  absorption  and  potential  effects  on  glucose   levels.    Here's  a  general  outline  for  conducting  such  a  PK   study:
+   1.    **Study    Objectives**:  Clearly  define  what  you  want  to  achieve  with  the   study.  This  might  include  determining  the     bioavailability,  identifying  the  most  appropriate  dose  range  for  further   studies,  establishing   dosing   intervals,  and  assessing  safety  and    tolerability.
+   2.    **Drug    Formulation**:  Choose  an  oral  formulation  that  is  stable  and  suitable  for  the  intended  patient   population.  Consider  factors  like   taste,     solubility,   disintegration   time,  and  presence  of    excipients  that  may  affect  absorption  or  cause  side  effects  in     diabetics.
+   3.        **Subjects/Animals**:   Decide  whether  the  initial  study  will  involve  healthy   volunteers,  patients  with   diabetes,  or  animal   models.  The  choice  depends  on  ethical   considerations,  the  stage  of   development,  and  the  purpose  of  the   study.  If  using   humans,  ensure  informed  consent  and  ethics  committee   approval.
+   4.    **Sampling   Schedule**:  Plan  blood  or  tissue  sampling  times  to  capture  key   ADME   phases.   Samples  should  ideally  be  collected  before  administration    (baseline)  and  at  various  time  points  after    dosing,  focusing  on  peak  concentration     (Tmax)  and    half-life   determination.  Include  multiple  doses  if  studying  accumulation  or  steady  state    attainment.
+   5.    **Analytical   Methods**:  Develop  and  validate  robust  analytical  methods  for   quantifying  the  drug  and  any   metabolites  in  biological   samples.  These  could  involve         HPLC-MS/MS,     LC-UV,     GC-MS,   etc.  Ensure  the  methods  have  good   precision,   accuracy,  and   sensitivity.
+   6.      **Pharmacodynamic   Monitoring**:  Since  this  is  an    antidiabetic   drug,  monitor  changes  in  relevant     biomarkers,  such  as  plasma  glucose   concentrations,  insulin   levels,  and  other  markers  related  to    glycemic   control.  This  will  help  correlate  PK  parameters  with  therapeutic   effect.
+   7.    **Safety     Assessments**:  Perform  clinical  assessments       (e.g.,  vital   signs,  physical   examination,  laboratory   tests)  and  adverse  event  monitoring  throughout  the  study  to  assess  the    drug's  safety   profile.
+   8.   **Data   Analysis**:  Use    pharmacokin</t>
+  </si>
+  <si>
+    <t>Question: parp gene expression shows synthetic lethal relationship with mutations in which genes? | falcon-40b: No response | gpt-3.5-turbo-1106: - The study focuses on the discovery of the PARP-BRCA2 synthetic lethal relationship using a pharmacologic PARP inhibitor and isogenic mouse embryo fibroblast cell lines.
+- The interaction between polyADP ribose polymerase 1 (PARP1) and the breast cancer susceptibility gene BRCA1 can be suppressed by the loss of components of the nonhomologous end-joining pathway or the loss of p53.
+- Synthetic lethality between tumor cells and healthy cells can be exploited through the combination of PARP inhibitors and DNA-damaging agents, which could be caused by tumor-specific mutations.
+- High-throughput approaches are necessary to identify synthetic lethal interactions, given the numerous potential tumor query genes, potential synthetic lethal partner genes, and various conditions.
+- The concept of conditional synthetic lethality as proposed by Hartwell et al. describes the viability of cells being dependent on the presence or absence of certain gene products and conditions, leading to synthetic lethality. | mistral-7b: 1. Synthetic lethality is a concept in genetics where the loss or inhibition of protein products of two genes (A and B) results in cell death when combined, but each gene is viable on its own.
+2. This interaction can be due to mutations or overexpression of one gene in the context of a tumor's genetic background.
+3. For example, the loss of p53 or activation of an oncogene can either uncover or suppress synthetic lethal interactions between PARP1 and BRCA1.
+4. PARP inhibitors in combination with DNA damaging agents can cause synthetic cytotoxicity in tumor cells with specific mutations, such as those in the cohesin component STAG2 in glioblastoma cell lines.
+5. High-throughput approaches are needed to identify synthetic lethal interactions due to the large number of potential tumor and partner genes.
+6. Model organisms have been used to study synthetic lethality, and Hartwell et al proposed the concept of conditional synthetic lethality.
+7. PARP1, a DNA repair enzyme, is a well-studied example of synthetic lethality, with cells deficient in PARP1 being sensitive to potent small molecule PARP inhibitors.
+8. Clinical trials are ongoing to assess the potential of PARP inhibitors as anticancer agents, with promising results in Phase 1 and 2 trials.
+9. The difficulty in developing inhibitors targeting tumors with mutations in tumor suppressor genes is illustrated by the left side of Figure 1, while the right side shows the potential of developing small molecule inhibitors targeting oncogenes. | mixtral-instruct: 
+- The synthetic lethal interaction between polyADP ribose polymerase 1 (PARP1) and the breast cancer susceptibility gene BRCA1 can be suppressed by the loss of 53BP1 or components of the nonhomologous endjoining pathway.
+- The genetic background of a tumour, such as the loss of p53 or the activation of an oncogene, could either uncover or suppress synthetic lethal interactions.
+- Synthetic lethality is the loss or inhibition of either of the protein products of gene A or B, or the overexpression of gene A, resulting in cell death when the protein product of gene B is mutated, overexpressed, or pharmacologically inhibited.
+- Tumour-specific mutations can cause the differential killing of tumour cells through the inhibition of PARP in the presence of DNA-damaging agents by a synthetic cytotoxicity mechanism.
+- High-throughput approaches are needed to identify synthetic lethal interactions due to the large number of potential tumour query genes and synthetic lethal partner genes, as well as the various conditions that need to be considered.
+- The PARP-BRCA2 synthetic lethal relationship was discovered using a pharmacologic PARP inhibitor and isogenic mouse embryo fibroblast cell lines.
+- PARP inhibitors trap PARP1 and PARP2, leading to cytotoxicity in both cancer cells and healthy bone marrow.
+- RNAi and CRISPR technologies can be used to identify synthetic lethal interactions by large-scale gene expression profiling. | noushermes2: Summary:
+- Knowledge of computational biology and genomics expertise in drug discovery.
+- Synthetic lethality is a phenomenon where the loss of one gene product becomes lethal only in the presence of a second gene mutation.
+- The genetic background of a tumor, such as loss of p53 or activation of an oncogene, can uncover or suppress synthetic lethal interactions.
+- The PARP-BRCA2 synthetic lethal relationship was discovered using a pharmacologic PARP inhibitor and isogenic mouse embryo fibroblast cell lines.
+- PARP inhibition results in synthetic lethality in tumor cells with specific mutations, such as glioblastoma cell lines with STAG2 mutations.
+- High-throughput approaches are needed to identify synthetic lethal interactions in model organisms. | yi-34b: - DNA repair enzyme PARP1 (polyADPRibosePolymerase 1) plays a crucial role in maintaining genome stability.
+- Inhibition of PARP1 leads to cell death in cancers lacking functional BRCA1 or BRCA2 proteins due to synthetic lethality.
+- Clinical trials have shown promise for PARP inhibitors as targeted therapies against BRCA-deficient tumors.
+- Synthetic lethality exploits vulnerabilities unique to tumor cells, offering a precision medicine approach.
+- Loss of other genes like 53BP1 or components of the nonhomologous end joining pathway can affect the efficacy of PARP inhibitors.
+- Understanding the genetic background of tumors is important for predicting responses to synthetic lethality strategies.</t>
+  </si>
+  <si>
+    <t>Question: propose a strategy for developing an antibody-drug conjugate targeting a specific antigen overexpressed in a type of breast cancer | falcon-40b: There  are  several  steps  to  consider  when  developing  an  antibody-drug  conjugate  targeting  a  specific  antigen  overexpressed  in  breast  cancer.  Firstly,  it  is  important  to  identify  the  specific  antigen  that  is  overexpressed  in  the  type  of  breast  cancer.  This  can  be  done  through  genomic  analysis,  proteomics,  or  other  methods.  Once  the  antigen  is  identified,  the  next  step  is  to  develop  an  antibody  that  specifically  targets  it.  This  can  be  done  through  various  methods,  such  as  immunogenicity  screening  or  phage  display.  Once  the  antibody  is  identified,  it  can  be  conjugated  to  a  cytotoxic  drug,  such  as  a  small  molecule  or  a  toxin,  to  create  the  antibody-drug  conjugate.  The  drug  should  be  chosen  based  on  its  ability  to  kill  cancer  cells  while  sparing  normal  cells.  The  conjugate  can  then  be  tested  in  preclinical  models  of  breast  cancer  to  determine  its  efficacy  and  safety.  If  the  results  are  promising,  the  conjugate  can  be  further  developed  and  tested  in  clinical  trials  to  determine  its  potential  as  a  new  treatment  for  breast  cancer. | gpt-3.5-turbo-1106: To develop an antibody-drug conjugate (ADC) targeting a specific antigen overexpressed in a type of breast cancer, several key steps can be taken:
+1. Identify the Target Antigen: Use genomic and proteomic data to identify the specific antigen that is overexpressed in the type of breast cancer of interest. This may involve utilizing databases such as The Cancer Genome Atlas (TCGA) or other omics data repositories to identify potential targets for the ADC.
+2. Antibody Selection: Once the antigen is identified, select or engineer a monoclonal antibody that specifically binds to the target antigen with high affinity and specificity. This may involve screening existing antibodies or utilizing phage display or other antibody engineering techniques to generate a high-affinity antibody.
+3. Drug Payload Selection: Choose an appropriate cytotoxic drug payload that can be conjugated to the antibody. The drug should have potent anti-tumor activity and be amenable to conjugation without affecting its efficacy.
+4. Conjugation Chemistry: Develop a suitable conjugation strategy to link the antibody and the drug payload. This may involve utilizing cleavable or non-cleavable linkers to ensure efficient delivery of the payload to the cancer cells following antibody binding.
+5. In vitro and In vivo Testing: Evaluate the ADC in preclinical models to assess its binding specificity, internalization, and cytotoxic activity against the target cancer cells. This may involve cell-based assays, tumor xenograft models, and pharmacokinetic studies to assess the efficacy and safety of the ADC.
+6. Clinical Development: If the preclinical studies yield positive results, proceed with the clinical development of the ADC. This will involve conducting phase I, II, and III clinical trials to assess the safety, efficacy, and pharmacokinetics of the ADC in patients with the specific type of breast cancer.
+7. Regulatory Approval and Commercialization: Submit the data from the clinical trials to regulatory authorities for approval. Upon approval, commercialize the ADC for the targeted treatment of the specific type of breast cancer.
+By following these steps, a targeted ADC can be developed and potentially offer a promising treatment option for breast cancer patients with the specific antigen overexpression. | mistral-7b: 1.  Target  Selection:  The  first  step  in  developing  an  antib ody-d rug  conj ug ate  ( ADC)  for  a  specific  type  of  breast  cancer  is  to  identify  an  appropriate  ant igen  that  is  over ex pressed  on  the  surface  of  cancer  cells.  This  can  be  achieved  through  various  methods  such  as  gene  expression  analysis  using  R NA  sequ encing  or  protein  expression  analysis  using  imm un oh ist oc hem istry  or  flow  c yt ometry.  A  good  target  should  be  specific  to  cancer  cells  and  have  minimal  expression  on  normal  cells  to  minimize  off- target  effects.
+2.  Ant ib ody  Selection:  Once  an  appropriate  ant igen  has  been  identified,  the  next  step  is  to  select  an  antib ody  that  specifically  binds  to  the  ant igen  with  high  aff inity  and  specific ity.  Mon ocl onal  antib od ies  (m Abs)  are  the  most  commonly  used  antib od ies  for  A DC  development  due  to  their  high  specific ity  and  consistency.  The  antib ody  should  also  have  good  stability,  sol ub ility,  and  pharm ac ok inet ic  properties.
+3.  Pay load  Selection:  The  payload  is  the  cy tot ox ic  agent  that  is  conj ug ated  to  the  antib ody.  The  payload  should  be  highly  pot ent,  specific  to  the  cancer  cells,  and  stable  in  the  blood stream.  Common ly  used  payloads  include  aur ist at ins,  mayt ans ines,  cal iche amic ins,  and  p yr rol ob enz od iaz ep ines.  The  link er  is  used  to  connect  the  payload  to  the  antib ody  and  should  be  stable  in  the  blood stream  but  lab ile  in  the  l ys os ome  of  the  cancer  cell  to  release  the  payload.
+4.  Conj ug ation:  The  antib ody  is  then  conj ug ated  to  the  payload  using  the  link er.  The  number  of  payloads  per  antib ody  mole cule  ( known  as  the  drug- ant ib ody  ratio  or  D AR)  should  be  optim ized  to  ensure  maximum  eff ic acy  and  minimal  toxic ity.  The  conj ug ation  process  should  be  carried  out  under  controlled  conditions  to  ensure  the  correct  D AR  and  to  minimize  the  formation  of  aggreg ates.
+5.  Pre cl in ical  Studies:  Pre cl in ical  studies  are  then  carried  out  to  evaluate  the  eff ic acy,  safety,  and  pharm ac ok inet ics  of  the  A DC  in  vit ro  and  in  v ivo  using  cancer  cell  lines  and  animal  models.  The  studies  should  assess  the  specific ity  and  aff inity  of  the  antib ody  for  the  target  ant igen,  the  pot ency  and  cy tot ox icity  of  the  payload,  the  stability  of | mixtral-instruct: 1.  Ident ify  the  specific  ant igen  over ex pressed  in  the  type  of  breast  cancer:  The  first  step  in  developing  an  antib ody-d rug  conj ug ate  ( ADC)  is  to  identify  a  specific  ant igen  that  is  over ex pressed  in  the  target  breast  cancer  cells.  This  can  be  achieved  through  extensive  literature  review,  analysis  of  gene  expression  data,  and/ or  prote omic  prof iling  of  breast  cancer  t issues.  Once  the  ant igen  is  identified,  its  expression  levels  in  normal  and  cancer ous  t issues  should  be  compared  to  ensure  specific ity.
+2.  Generate  mon ocl onal  antib od ies  against  the  ant igen:  Once  the  ant igen  is  identified,  mon ocl onal  antib od ies  (m Abs)  against  the  ant igen  need  to  be  generated.  This  can  be  achieved  through  hybrid oma  technology  or  ph age  display  technology.  The  generated  m Abs  should  be  specific  to  the  ant igen  and  have  high  aff inity  and  specific ity.
+3.  Character ize  the  m Abs:  The  generated  m Abs  should  be  thoroughly  characterized  to  determine  their  aff inity,  specific ity,  and  stability.  In  vit ro  binding  ass ays,  flow  c yt ometry,  and  imm un oh ist oc hem istry  can  be  used  to  assess  the  binding  properties  of  the  m Abs.
+4.  Conj ug ate  the  m Abs  with  a  cy tot ox ic  drug:  The  selected  m Abs  should  be  conj ug ated  with  a  cy tot ox ic  drug  through  a  link er.  The  link er  should  be  stable  in  circulation  but  should  release  the  cy tot ox ic  drug  upon  internal ization  into  the  target  cells.  The  choice  of  the  cy tot ox ic  drug  and  link er  should  be  based  on  the  mechanism  of  action,  pharm ac ok inet ics,  and  pharm ac od ynamics  of  the  drug.
+5.  Pre cl in ical  evaluation:  The  A DC  should  be  evaluated  in  pre cl in ical  models  to  assess  its  eff ic acy,  safety,  and  pharm ac ok inet ics.  In  vit ro  cy tot ox icity  ass ays,  in  v ivo  tum or  x en og raft  models,  and  toxic ity  studies  should  be  performed  to  evaluate  the  A DC's  potential  as  a  ther apeut ic  agent.
+6.  Clin ical  development:  If  the  A DC  shows  promising  results  in  pre cl in ical  studies,  it  should  be  evaluated  in  clinical  trials.  Phase  I  trials  should  be  conducted  to  assess  the  safety,  toler ability,  and  pharm ac ok inet ics  of  the  A DC  in  humans.  Phase  II  trials  should  be  conducted  to  evaluate  the  eff ic | noushermes2: To  develop  an  antib ody-d rug  conj ug ate  ( ADC)  target ing  a  specific  ant igen  over ex pressed  in  a  type  of  breast  cancer,  we  should  follow  these  steps:
+1.  Ident ify  the  target  ant igen:  Research  and  identify  a  specific  ant igen  that  is  over ex pressed  in  the  type  of  breast  cancer  we  want  to  target.  This  ant igen  should  be  unique  to  cancer  cells  or  at  least  predomin antly  expressed  in  cancer  cells  to  minimize  off- target  effects.
+2.  Select  an  appropriate  antib ody:  Choose  an  antib ody  that  specifically  binds  to  the  target  ant igen  with  high  aff inity  and  specific ity.  This  can  be  achieved  by  screening  existing  antib ody  libraries  or  generating  new  antib od ies  through  techniques  such  as  ph age  display  or  hybrid oma  technology.
+3.  Select  a  suitable  cy tot ox ic  drug:  Choose  a  pot ent  and  select ive  cy tot ox ic  drug  that  can  effectively  kill  cancer  cells  when  delivered  to  the  target  site.  The  drug  should  have  minimal  toxic ity  to  normal  cells  and  a  suitable  pharm ac ok inet ic  profile.
+4.  Conj ug ate  the  antib ody  and  the  drug:  Att ach  the  cy tot ox ic  drug  to  the  antib ody  through  a  link er  mole cule.  The  link er  should  be  stable  in  circulation  but  cle av able  under  the  acid ic  conditions  found  in  the  l ys os omes  of  cancer  cells,  allowing  the  drug  to  be  released  and  ex ert  its  cy tot ox ic  effect.
+5.  Optim ize  the  drug- ant ib ody  ratio  (D AR ):  Det ermine  the  optimal  number  of  drug  mole cules  to  be  conj ug ated  to  each  antib ody  mole cule.  This  will  depend  on  the  pot ency  of  the  drug  and  the  stability  of  the  conj ug ate.  A  higher  D AR  may  result  in  more  pot ent  A DCs  but  could  also  increase  the  risk  of  imm un ogen icity  and  off- target  effects.
+6.  Character ize  the  A DC:  Per form  in  vit ro  and  in  v ivo  studies  to  evaluate  the  safety,  eff ic acy,  and  pharm ac ok inet ic  properties  of  the  A DC.  This  will  help  to  optim ize  the  A DC's  structure,  drug- ant ib ody  ratio,  and  dos ing  reg imen.
+7.  Pre cl in ical  and  clinical  development:  If  the  A DC  shows  promising  results  in  pre cl in ical  studies,  proceed  with  clinical  trials  to  evaluate  its  safety,  toler ability,  and  eff ic acy  in  patients  with  the  target  type  of  breast  cancer.
+ By  following | yi-34b: Developing  an     antibody-drug  conjugate    (ADC)  involves  several   steps,  each  requiring  careful  consideration  and   optimization.  Below  is  a  general  strategy  that  could  be  followed  when  targeting  a  specific   antigen     overexpressed  in  a  certain  type  of  breast   cancer:
+   1.    **Identification  of  Target    Antigen**:  The  first  step  is  to  identify  a    tumor-associated   antigen  or  protein  that  is  specifically  expressed  or     overexpressed  on  the  surface  of  breast  cancer  cells  compared  to  normal   tissue.  This  can  be  done  through   proteomic   analyses,  gene  expression   profiling,  and     immunohistochemistry  studies  using  patient  samples  and  cell   lines.
+   2.     **Antibody   Development**:  Once  the  target   antigen  is   identified,    monoclonal  antibodies  against  this   antigen  need  to  be   developed.  These  antibodies  should  have  high  affinity  and   specificity  for  the  targeted   antigen  to  ensure   selectivity  towards  tumor  cells  while  minimizing    off-target   effects.   Techniques  such  as   hybridoma  technology  or  more  recent  methods  like   phage  display  libraries  can  be  used  to  generate  these   antibodies.
+   3.    **Drug   Selection**:  The     cytotoxic     agent(s)  to  be   conjugated  to  the  antibody  needs  to  be  selected  based  on  its    potency,  mechanism  of   action,  and  ability  to  kill  cancer  cells  after  being  released      intracellularly.  Common  drugs  include    chemotherapeutic   agents,     radioisotopes,  or  newer     immunomodulatory   molecules.
+   4.      **Conjugation   Chemistry**:   Proper  chemical   linkers  must  be  designed  to  attach  the  drug  to  the  antibody  without  affecting  their  biological   activity.  The  ideal   linker  will  release  the  drug  payload  inside  the  target  cancer  cell  upon   internalization  of  the    ADC,  ensuring  maximum  efficacy  with  minimal  systemic   toxicity.
+   5.     **Preclinical   Studies**:  Before  moving  into  clinical   trials,  extensive    preclinical  testing  is   required.  This  includes  in  vitro   assays  to  assess  binding   affinity,   stability,  and     cytotoxicity  of  the    ADC;  animal  models  of  human  breast  cancers  to  evaluate   antitumor   activity,      pharmacokinetics,  and  safety   profile;  and   toxicology  studies  to  determine  potential  side  effects  at  various   doses.
+   6.     **Clinical    Trials**:  After  demonstrating  promising  results  from    preclinical   studies,  the   ADC  moves  into  clinical   development.  Phase  I  trials  focus  on  establishing  safe   dosages  and  identifying  any  initial  signs  of  therapeutic   benefit.  Phase  II  trials  further  explore  the  effectiveness  of  the  treatment  and  continue  to  monitor   safety,  often  comparing  it  to  current  standard   treatments.   Finally,  Phase  III  trials  compare  the  new</t>
+  </si>
+  <si>
+    <t>Question: propose a strategy to use crispr-cas9 for editing a gene implicated in alzheimer's disease | falcon-40b: As  an  AI  language  model,  I  can  provide  you  with  the  following  proposed  strategy  for  using  CRISPR-Cas9  for  editing  a  gene  implicated  in  Alzheimer's  disease:
+1.  Identify  the  gene:  The  first  step  is  to  identify  the  gene  that  is  implicated  in  Alzheimer's  disease.  This  can  be  done  by  conducting  a  genome-wide  association  study  or  by  examining  the  genetic  profiles  of  patients  with  Alzheimer's  disease.
+2.  Design  a  CRISPR-Cas9  guide  RNA:  Once  the  gene  has  been  identified,  a  guide  RNA  can  be  designed  to  target  a  specific  sequence  in  the  gene.  This  guide  RNA  will  be  used  to  direct  the  Cas9  protein  to  the  desired  location  in  the  genome.
+3.  Deliver  the  CRISPR-Cas9  system  to  the  target  cells:  The  CRISPR-Cas9  system  can  be  delivered  to  the  target  cells  using  a  variety  of  methods  such  as  viral  vectors  or  nanoparticles.
+4.  Edit  the  gene:  Once  the  CRISPR-Cas9  system  has  been  delivered  to  the  target  cells,  the  Cas9  protein  can  be  used  to  edit  the  gene  by  either  deleting  or  altering  a  specific  sequence.
+5.  Evaluate  the  results:  After  editing  the  gene,  the  results  can  be  evaluated  by  examining  the  effects  on  the  cells,  tissues  or  organisms  where  the  gene  is  expressed.
+6.  Repeat  the  process:  If  necessary,  the  process  can  be  repeated  until  the  desired  outcome  is  achieved.
+Overall,  using  CRISPR-Cas9  for  editing  genes  implicated  in  Alzheimer's  disease  could  provide  new  insights  into  the  disease  and  lead  to  the  development  of  new  treatments. | gpt-3.5-turbo-1106: To use CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease, we can follow the following strategy:
+1. Identification of Target Gene: The first step is to identify the gene implicated in Alzheimer's disease that we want to edit. For example, the gene encoding amyloid precursor protein (APP) or presenilin 1 (PSEN1) are well-known genes associated with familial forms of Alzheimer's disease.
+2. Design sgRNA: Once the target gene is identified, we need to design a guide RNA (sgRNA) specifically targeting the gene of interest. The sgRNA should be designed to specifically bind to the DNA sequence near the region we want to edit within the target gene.
+3. Cas9 Nuclease: We will then need to choose a suitable Cas9 nuclease, such as the commonly used SpCas9, and engineer it to be delivered into the target cells. There are various methods for delivering Cas9, including viral vectors or direct delivery of Cas9 protein and sgRNA as ribonucleoprotein (RNP) complexes.
+4. Cell Culture and Transfection: The next step involves culturing human neuronal cells or induced pluripotent stem cell (iPSC)-derived neurons that harbor Alzheimer's disease-associated mutations. The engineered CRISPR-Cas9 system (Cas9 protein and sgRNA) will then be delivered into the cultured cells.
+5. Gene Editing and Validation: The Cas9 nuclease, guided by the sgRNA, will induce a double-strand break (DSB) at the target site. The cell's endogenous DNA repair machinery can then introduce insertions or deletions (indels) at the target site, leading to knockout of the target gene or introduction of specific mutations. This can be validated using methods like PCR, DNA sequencing, and functional assays to confirm the desired gene editing outcomes.
+6. Phenotypic Characterization: After successful gene editing, we would characterize the effects of the modification on cellular and molecular phenotypes associated with Alzheimer's disease, such as amyloid beta production, tau phosphorylation, synaptic function, and neuronal survival.
+By following this strategy, we can potentially use CRISPR-Cas9 to edit genes implicated in Alzheimer's disease and gain insights into the disease mechanisms, which could lead to the development of novel therapeutic strategies. | mistral-7b: 1.  Ident ification  of  the  Specific  Gene  Target:  The  first  step  in  using  CR IS PR-C as9  for  editing  a  gene  im plicated  in  Alz heimer's  disease  is  to  identify  the  specific  gene  target.  The  A pol ip op rote in  E  ( APOE)  gene  is  a  strong  candidate  as  it  is  the  most  significant  genetic  risk  factor  for  late- on set  Alz heimer's  disease.  The  A POE  gene  has  three  common  vari ants,  A POE2,  A POE3,  and  A POE4,  with  A POE4  being  the  most  detr imental.
+2.  Design  of  CR IS PR-C as9  R ib on uc le op rote in  Complex:  The  next  step  is  to  design  the  CR IS PR-C as9  rib on uc le op rote in  (R NP)  complex  for  target ing  the  specific  gene.  This  involves  designing  a  guide  R NA  (gR NA)  that  will  direct  the  Cas9  nuc lease  to  the  target  site  in  the  A POE  gene.  The  gR NA  should  be  designed  to  target  a  specific  region  of  the  A POE  gene,  prefer ably  ex on 4,  which  enc odes  the  major  risk- con fer ring  variant  ( APOE4 ).
+3.  Sy nt hesis  of  gR NA  and  Cas9  Prote in:  The  gR NA  and  Cas9  protein  can  be  synt hes ized  in  vit ro  using  chemical  synt hesis  or  in  v ivo  using  bacter ial  expression  systems.  The  gR NA  should  be  chem ically  modified  to  increase  its  stability  and  reduce  off- target  effects.
+4.  Del ivery  of  CR IS PR-C as9  Complex  into  C ells:  The  CR IS PR-C as9  R NP  complex  can  be  delivered  into  cells  using  various  methods,  including  vir al  vectors,  elect rop oration,  or  lip id- medi ated  trans fection.  For  Alz heimer's  disease  research,  the  most  common  method  is  to  use  vir al  vectors  to  deliver  the  CR IS PR-C as9  R NP  complex  into  human  neur onal  cells  or  mouse  models  of  Alz heimer's  disease.
+5.  Selection  of  Ed iting  Str ategy:  The  editing  strategy  can  be  designed  to  either  knock out  the  A POE  gene  completely  or  to  correct  the  specific  mut ation  associated  with  Alz heimer's  disease.  Kn ock out  of  the  A POE  gene  can  be  achieved  by  designing  the  gR NA  to  target  both  alle les  of  the  A POE  gene,  resulting  in  a  loss | mixtral-instruct: To  propose  a  strategy  to  use  CR IS PR-C as9  for  editing  a  gene  im plicated  in  Alz heimer's  disease,  we  need  to  first  identify  the  specific  gene  of  interest.  For  the  purpose  of  this  answer,  let's  assume  we  are  target ing  the  amy lo id  pre cursor  protein  ( APP)  gene,  which  is  one  of  the  genes  associated  with  Alz heimer's  disease.
+ Here's  a  proposed  strategy  to  use  CR IS PR-C as9  for  editing  the  A PP  gene:
+1.  Design  guide  R NA  (gR NA ):  The  first  step  is  to  design  a  gR NA  that  targets  the  specific  region  of  the  A PP  gene  that  we  want  to  edit.  The  gR NA  should  be  designed  to  be  specific  to  the  A PP  gene  and  avoid  off- target  effects.  There  are  several  online  tools  available  to  design  gRN As,  such  as  CR IS PR  Design  (&lt; http ://c ris pr. mit. edu /&gt;)  and  Ben ch ling  (&lt; https :// www. bench ling. com /&gt; ).
+2.  Cl one  gR NA  into  a  pl asm id:  Once  the  gR NA  is  designed,  it  needs  to  be  cl oned  into  a  pl asm id  that  express es  the  Cas9  end on uc lease.  The  pl asm id  should  also  contain  a  marker  gene,  such  as  GFP,  to  allow  for  selection  of  trans fect ed  cells.
+3.  Trans fect  cells:  The  pl asm id  containing  the  gR NA  and  Cas9  end on uc lease  should  be  trans fect ed  into  cells  that  express  the  A PP  gene.  There  are  several  methods  available  for  trans fection,  such  as  lip of ection,  elect rop oration,  and  vir al  trans du ction.
+4.  Select  trans fect ed  cells:  After  trans fection,  cells  express ing  the  gR NA  and  Cas9  end on uc lease  should  be  selected  based  on  the  marker  gene.  This  step  ensures  that  only  cells  that  have  taken  up  the  pl asm id  are  used  for  down stream  analysis.
+5.  Ind uce  double- str anded  breaks  ( DSBs ):  The  Cas9  end on uc lease  will  bind  to  the  gR NA  and  cle ave  the  target  DNA  sequence,  creating  a  D SB.  This  D SB  will  trigger  the  cell's  DNA  repair  machinery  to  repair  the  break.
+6.  Rep air  D SBs:  There  are  two  main  ways  that  D SBs  can  be  rep aired:  non- hom olog ous  end  joining  (N HEJ)  and | noushermes2: To  develop  a  strategy  for  using  CR IS PR-C as9  for  editing  a  gene  im plicated  in  Alz heimer's  disease,  we  can  follow  these  steps:
+1.  Ident ify  the  target  gene:  First,  we  need  to  identify  the  gene(s)  im plicated  in  Alz heimer's  disease.  One  of  the  most  well- known  genes  associated  with  Alz heimer's  is  the  A PP  (A my lo id  Pre cursor  Prote in)  gene,  which  is  involved  in  the  production  of  amy lo id- beta  pe pt ides  that  contribute  to  the  formation  of  amy lo id  pla ques  in  the  brain.
+2.  Design  a  guide  R NA  (gR NA ):  Once  the  target  gene  is  identified,  we  need  to  design  a  specific  guide  R NA  (gR NA)  that  will  direct  the  Cas9  en zyme  to  the  desired  location  within  the  gene.  This  can  be  done  using  bio in format ics  tools  and  dat abases  that  provide  information  on  potential  target  sites  within  the  gene  of  interest.
+3.  Select  the  editing  strategy:  There  are  different  types  of  gene  editing  strategies  that  can  be  employed  using  CR IS PR-C as9,  such  as  gene  knock out  ( de let ion ),  gene  knock- in  ( insert ion ),  or  base  editing  ( point  mut ations ).  In  the  case  of  Alz heimer's  disease,  a  potential  strategy  could  be  to  knock  out  or  modify  the  A PP  gene  to  reduce  the  production  of  amy lo id- beta  pe pt ides,  thereby  preventing  the  formation  of  amy lo id  pla ques.
+4.  Del iver  the  CR IS PR-C as9  system:  To  edit  the  target  gene  within  the  brain  cells  of  Alz heimer's  patients,  we  need  to  deliver  the  CR IS PR-C as9  system  to  the  affected  cells.  This  can  be  done  using  vir al  vectors  (e.g .,  ad eno- associ ated  vir uses)  or  non-v iral  vectors  (e.g .,  lip id  nan op art icles)  that  can  efficiently  transport  the  CR IS PR-C as9  components  into  the  target  cells.
+5.  Eval uate  the  ther apeut ic  effect:  After  delivering  the  CR IS PR-C as9  system  to  the  target  cells,  we  need  to  evaluate  the  ther apeut ic  effect  of  the  gene  editing.  This  can  be  done  using  various  techniques,  such  as  measuring  the  levels  of  amy lo id- beta  pe pt ides  in  the  brain,  assess ing  the  formation  of  amy lo | yi-34b: Strategy  to  Use       CRISPR-Cas9  for   Editing  a  Gene    Implicated  in    Alzheimer's   Disease:
+       CRISPR-Cas9  is  a  powerful  tool  that  can  be  used  to  edit  genes  with  high   precision,  making  it  an  attractive  option  for  research  into  diseases  like     Alzheimer's.  The  goal  would  be  to  develop  a  therapeutic  approach  that  could  modify  or  correct  genetic  mutations  associated  with  increased  risk  of  developing    Alzheimer's  disease     (AD).  Here  is  a   stepwise  strategy  on  how  this  might  be   achieved:
+   1.    **Identify  Target    Genes**:  Research  has  identified  several  genes  that  have  been  linked  to  AD    pathology,  such  as  APP    (amyloid  precursor    protein),        PSEN1/PSEN2      (presenilin       1/2),     APOE4        (apolipoprotein   E4     allele),    BACE1     (beta-site    amyloid  precursor  protein   cleaving  enzyme     1),   etc.  These  genes  contribute  to  the  production  and  aggregation  of     beta-amyloid    plaques,  which  are  one  of  the   hallmarks  of   AD.
+   2.   **Design  Guide  RNA      (gRNA)**:  Create  a  custom   gRNA  molecule  complementary  to  the  target  region  of  the  gene  you  wish  to   edit.  This   gRNA  will  guide   Cas9     endonuclease  to  the  specific  site  within  the  DNA  where     double-strand  breaks     (DSBs)  need  to   occur.
+   3.    **Prepare    CRISPR    Reagents**:   Obtain  or   synthesize  the   Cas9    nuclease  and  the  designed    gRNA.  Ensure  that  these  components  are  suitable  for  delivery  into  cells  or  organisms  relevant  to  the   study,  whether  they  are  human  cell   lines,  primary   neurons,  animal   models,  or  induced     pluripotent  stem  cells       (iPSCs).
+   4.    **Delivery   Method**:   Decide  upon  the  most  appropriate  method  for  delivering  the    CRISPR   reagents  into  the  target   cells.  Options  include  viral  vectors       (e.g.,      lentiviruses,     adeno-associated    viruses),     non-viral  methods  using   lipid    nanoparticles,     electroporation,     microinjection,  or  other   transfection  techniques  depending  on  the  nature  of  the  cell  type  being   targeted.
+   5.   **Cell  Culture  and   Treatment**:  If  working  with   cultured   cells,   transfect  them  with  the    CRISPR    reagents.  For  in  vivo   studies,  deliver  the    CRISPR  complex  to  the  desired  tissue  via  injection  or  other   means.
+   6.   **Edit  and</t>
+  </si>
+  <si>
+    <t>Question: provide a summary of the gene polr3e, including its functions, mechanisms, and classifications. | falcon-40b: POLR3E  is  a  gene  that  encodes  the  largest  subunit  of  RNA  polymerase  III,  which  is  responsible  for  transcribing  a  wide  range  of  small  RNA  molecules  such  as  tRNAs,  5S  rRNA,  and  microRNAs.  POLR3E  is  essential  for  cell  growth,  development,  and  maintenance,  and  mutations  in  this  gene  can  lead  to  various  diseases  such  as  dyskeratosis  congenita,  immunodeficiency,  and  cancer.  The  mechanisms  of  POLR3E  involve  the  binding  of  RNA  polymerase  III  to  DNA,  initiation  of  transcription,  and  regulation  of  the  transcription  process.  POLR3E  is  classified  as  a  member  of  the  RNA  polymerase  III  subunit  A  gene  family,  and  its  functions  are  closely  related  to  other  subunits  of  RNA  polymerase  III. | gpt-3.5-turbo-1106: The POLR3E gene encodes the RNA polymerase III subunit E, which is a subunit of RNA polymerase III, an enzyme that is responsible for transcribing genes that code for small RNAs. POLR3E is involved in the process of transcription by catalyzing the synthesis of RNA from DNA templates. It plays a crucial role in the production of small non-coding RNAs such as transfer RNAs (tRNAs), 5S ribosomal RNA, U6 spliceosomal RNA, and other small structural RNAs. These small RNAs are essential for protein synthesis, RNA splicing, and other cellular processes.
+POLR3E is a component of the RNA polymerase III complex, which includes 17 subunits in humans. This complex is responsible for transcribing small non-coding RNAs and has been associated with various human diseases, including cancer and developmental disorders.
+In terms of classification, POLR3E is a part of the RNA polymerase III transcription apparatus and belongs to the DNA-directed RNA polymerase family.
+Overall, POLR3E is a key gene involved in the transcription of essential small non-coding RNAs, and its dysregulation can have significant implications for cellular function and human health. | mistral-7b: POLR3E,  also  known  as  R NA  poly mer ase  III  sub unit  E,  is  a  crucial  component  of  R NA  poly mer ase  III  ( Pol  III ),  which  is  responsible  for  transc rib ing  small  RN As,  such  as  transfer  RN As  (tRN As ), 5S  rRN As,  and  other  small  non-c oding  RN As,  in  e uk ary otic  cells.  Pol  III  h olo enz yme  is  composed  of 10  sub units,  and  P OLR3E  is  one  of  the  largest  sub units,  making  up  approximately 20%  of  the  total  mass  of  the  h olo enz yme.
+ Functions:
+ POLR3E  plays  essential  roles  in  Pol  III  trans cription  init iation,  el ong ation,  and  term ination.  Specific ally,  it  functions  as  a  sliding  cl amp,  facil itating  the  process ivity  and  process ivity  of  Pol  III  by  maintaining  the  en zyme  at  the  promot er  region  and  promoting  the  trans location  of  the  R NA  poly mer ase  along  the  DNA  template.  Additionally,  it  inter acts  with  various  trans cription  factors  and  co- fact ors,  including  TF II IB,  TF II IC,  and  TF II IC- bound  factors,  to  form  the  pre- init iation  complex  and  recruit  the  h olo enz yme  to  the  promot er.
+ Me chan isms:
+ The  mechanism  of  P OLR3E  in  trans cription  involves  its  interaction  with  the  DNA  template  and  R NA  product.  During  trans cription  init iation,  P OLR3E  binds  to  the  promot er  region  through  its  interaction  with  TF II IB  and  TF II IC.  Upon  binding,  the  pre- init iation  complex  under go es  a  conform ational  change,  allowing  Pol  III  to  begin  trans cription.  During  el ong ation,  P OLR3E  helps  maintain  the  en zyme's  binding  to  the  DNA  template,  allowing  Pol  III  to  transc ribe  the  R NA  str and.  Once  trans cription  is  complete,  P OLR3E  plays  a  role  in  the  term ination  of  trans cription  by  facil itating  the  release  of  the  R NA  product  and  the  h olo enz yme  from  the  DNA  template.
+ Class ifications:
+ POLR3E  is  classified  as  a  sub unit  of  R NA  poly mer ase  III  and  belongs  to  the  second  largest  sub family  of  R NA  poly mer ases,  which  includes  R NA  poly mer ases  III  and  III- like  en zym es.  These  en zym es  share  several  features,  such  as  a  smaller  size  than  R NA  poly mer ase  I  and  II | mixtral-instruct: POLR3E  is  a  gene  that  enc odes  for  the  third  largest  sub unit  of  R NA  poly mer ase  III  ( Pol  III ),  a  complex  en zyme  responsible  for  the  trans cription  of  small  non-c oding  RN As,  including  tRN As, 5S  rR NA,  and  U6  snR NA.  The  gene  is  located  on  chrom os ome 10q22.3  and  contains 14  ex ons.
+ The  P OLR3E  protein  is  a  part  of  the  Pol  III  complex  and  plays  a  crucial  role  in  the  init iation  and  el ong ation  of  trans cription.  The  protein  contains  an  N- termin al  z inc  finger  domain  that  is  responsible  for  its  interaction  with  other  sub units  of  the  Pol  III  complex,  and  a  C- termin al  domain  that  is  involved  in  the  recognition  of  promot er  elements.
+ Mut ations  in  P OLR3E  have  been  associated  with  several  neu rolog ical  disorders,  including  hyp omy el ination  with  at ro phy  of  the  bas al  gang lia  and  cere bell um  (H ABC ),  le uko ence ph al opathy  with  th al am us  and  brain st em  involvement  and  high  la ct ate  ( LT BL ),  and  pont oc ere bell ar  hyp op las ia  type 1  (P CH1 ).  These  disorders  are  characterized  by  motor  and  cognitive  imp air ments,  seiz ures,  and  white  matter  ab normal ities.
+ POLR3E  has  also  been  im plicated  in  cancer,  with  studies  showing  that  its  expression  is  up reg ulated  in  several  types  of  cancer,  including  lung,  breast,  and  colon  cancer.  The  over expression  of  P OLR3E  has  been  associated  with  increased  cell  pro lifer ation  and  tum or  growth,  suggesting  that  it  may  play  a  role  in  cancer  development  and  progress ion.
+ In  summary,  P OLR3E  is  a  gene  that  enc odes  for  a  sub unit  of  R NA  poly mer ase  III,  which  plays  a  crucial  role  in  the  trans cription  of  small  non-c oding  RN As.  Mut ations  in  P OLR3E  have  been  associated  with  neu rolog ical  disorders,  while  its  over expression  has  been  im plicated  in  cancer.  Further  research  is  needed  to  fully  understand  the  mechanisms  and  functions  of  P OLR3E  in  health  and  disease. | noushermes2: POLR3E,  also  known  as  R NA  poly mer ase  III  sub unit  E,  is  a  gene  that  enc odes  for  a  protein  involved  in  the  R NA  poly mer ase  III  ( Pol  III)  complex.  Pol  III  is  a  crucial  en zyme  responsible  for  synt hes izing  small  regulatory  RN As,  such  as  tRN As, 5S  rR NA,  and  certain  small  nuclear  RN As  ( snRN As ).
+ The  P OLR3E  protein  is  a  sub unit  of  the  Pol  III  complex,  and  it  plays  a  vital  role  in  the  assembly  and  maintenance  of  the  complex.  It  is  involved  in  the  trans cription  init iation  process,  where  it  helps  in  the  formation  of  the  trans cription  pre- init iation  complex,  which  subsequently  leads  to  the  synt hesis  of  the  target  R NA  mole cules.
+ The  classification  of  P OLR3E  is  as  a  gene  encoding  a  sub unit  of  the  R NA  poly mer ase  III  complex.  It  is  part  of  a  larger  family  of  R NA  poly mer ase  sub units,  with  P OLR3E  being  one  of  the  essential  components.
+ In  summary,  P OLR3E  is  a  gene  that  enc odes  for  a  protein  sub unit  of  the  R NA  poly mer ase  III  complex.  This  complex  is  responsible  for  synt hes izing  small  regulatory  RN As,  and  the  P OLR3E  protein  plays  a  crucial  role  in  the  assembly,  maintenance,  and  trans cription  init iation  process  of  the  Pol  III  complex. | yi-34b: POLR3E     (Polymerase  III   subunit   E)  is  a  protein  that  plays  a  crucial  role  in  transcription  by  RNA   polymerase  III   (RNA  Pol    III).  It  is  one  of  several   subunits  that  make  up  RNA  Pol   III,  which  is  responsible  for   synthesizing  small     non-coding   RNAs  such  as    tRNAs   (transfer    RNAs)  and  some  small  nuclear   RNAs        (snRNAs).    Here's  a  brief  summary  of  what  we  currently  understand  about  this   gene:
+   1.    **Function**:  The  primary  function  of     POLR3E  is  to  assist  RNA  Pol  III  in   transcribing  these  essential     non-coding  RNA  molecules  from  DNA  templates  within  the  cell   nucleus.  These   RNAs  are  vital  for  various  processes  involved  in  protein  synthesis  and  gene   regulation.
+   2.      **Mechanism**:  As  part  of  the  RNA  Pol  III   complex,     POLR3E  helps  in  positioning  the  enzyme  correctly  on  the  promoter  region  of  genes  that  code  for    tRNAs  and      snRNAs.  This  process  involves   unwinding  the  DNA  double   helix  at  the  start  site  of  transcription  and  facilitating  the  movement  of  the   polymerase  along  the  template  strand  to  create  an  mRNA   copy.
+   3.     **Classification**:   Genes  encoding  components  of  RNA  Pol   III,  like      POLR3E,  are  classified  according  to  their  specific  roles  in  the  overall   machinery.     POLR3E  belongs  to  a  group  of  genes  whose  products  form  the  core  or  structural  elements  of  the  RNA  Pol  III      holoenzyme.
+   4.     **Regulation**:   Transcription  by  RNA  Pol  III  is  tightly  regulated  to  ensure  that  the  correct  amount  of  each  type  of     non-coding  RNA  is  produced  when   needed.   Factors  that  bind  to  regulatory  sequences  upstream  of  the  target  genes  can  activate  or   repress     POLR3E   activity.
+   5.    **Genetic    Variants**:    Polymorphisms  or  mutations  in  the     POLR3E  gene  may  lead  to  changes  in  the  structure  or  function  of  the  resulting   protein.  In  some   cases,  these  variants  have  been  associated  with   diseases,  particularly  those  affecting  the  immune  system  or  cancer   development.
+   6.     **Clinical     Significance**:  Research  has   implicated     POLR3E  in  certain  types  of    leukemia  where  abnormal  expression  levels  or  genetic  alterations  of     POLR3E  have  been   observed.  Understanding  how  these  variations  affect     POLR3E  function  could  provide  insights  into  disease   pathogenesis  and  potentially  lead  to  new  therapeutic   targets.
+  Please  note  that  while  I  am  based  on  available  scientific   knowledge,  understanding  of</t>
+  </si>
+  <si>
+    <t>Question: provide relevant networks from any relevant database for the known mechanism and interactions of the gene polr3e. | falcon-40b: POLR3E  is  a  gene  that  encodes  the  largest  subunit  of  RNA  polymerase  III  (Pol  III),  which  is  responsible  for  transcribing  small  RNA  genes  such  as  tRNA,  5S  rRNA,  and  U6  snRNA.  Pol  III  is  a  complex  multi-subunit  enzyme  that  requires  many  cofactors  and  accessory  proteins  for  its  function.  
+There  are  several  databases  that  provide  information  on  protein-protein  interactions  and  signaling  networks,  including:
+1.  STRING:  This  database  provides  a  comprehensive  view  of  known  and  predicted  protein-protein  interactions,  as  well  as  functional  associations  and  pathways.  It  can  be  accessed  through  the  website  or  through  the  API.
+2.  KEGG:  The  Kyoto  Encyclopedia  of  Genes  and  Genomes  (KEGG)  is  a  comprehensive  database  of  molecular  pathways  and  biological  processes.  It  includes  information  on  gene  interactions,  protein  interactions,  and  signaling  pathways.
+3.  BioGRID:  This  database  provides  a  curated  collection  of  protein-protein  interactions,  including  those  mediated  by  small  molecules.  It  can  be  accessed  through  the  website  or  through  the  API.
+4.  Reactome:  This  database  provides  a  curated  collection  of  biological  pathways,  including  signaling  pathways.  It  can  be  accessed  through  the  website  or  through  the  API.
+5.  UniProt:  This  database  provides  a  comprehensive  collection  of  protein  sequences  and  functional  annotations.  It  includes  information  on  protein-protein  interactions  and  signaling  pathways.
+By  querying  these  databases  with  the  gene  POLR3E,  researchers  can  identify  relevant  networks  and  interactions  that  are  important  for  Pol  III  function  and  RNA  synthesis. | gpt-3.5-turbo-1106: One great database for molecular interactions and gene networks is the String database (Search Tool for the Retrieval of Interacting Genes/Proteins). I can provide you with a network of known interactions for the gene POLR3E from the String database.
+Here is the network of known interactions for the gene POLR3E:
+[Gene POLR3E Network](https://string-db.org/cgi/network.pl?taskId=mUf04DnxkLSb)
+This network displays the known interactions of the gene POLR3E with other genes and proteins. You can explore the network to gain insights into the mechanism and interactions of POLR3E. | mistral-7b: I'd  be  happy  to  help  you  explore  the  known  interactions  and  networks  related  to  the  gene  P OLR3E,  which  enc odes  the  poly mer ase  sub unit 3  e psilon  ( POLR3E)  involved  in  R NA  poly mer ase  III  trans cription.  Here  are  some  dat abases  and  networks  that  provide  relevant  information  on  P OLR3E  and  its  associated  interactions:
+1.  Bio GR ID  ( Bi ological  General  Rep ository  for  Inter action  Dat asets ):
+B io GR ID  is  a  public  database  that  arch ives  physical  and  genetic  interactions  between  prote ins,  as  well  as  protein-D NA  and  protein-R NA  interactions.  You  can  search  for  P OLR3E  and  find  its  known  interactions  with  other  prote ins,  as  well  as  its  role  in  various  bi oc hem ical  path ways.
+ Link:  https :// the bi og rid. org/ query/ query. pl? cmd= query&amp; page_ size=50&amp; query_ type= full_ text&amp; query= POLR3E
+2.  STR ING  ( Search  Tool  for  Ret riev al  of  Inter act ing  Gen es/ Prote ins ):
+ STRING  is  a  database  that  provides  information  on  known  and  predicted  protein- prote in  interactions,  as  well  as  functional  associations  between  prote ins.  You  can  search  for  P OLR3E  and  explore  its  protein- prote in  interactions,  as  well  as  its  functional  associations  with  other  prote ins.
+ Link:  https :// string- db. org/c gi/ input. pl? session Id=
+&amp; page Name= input&amp; query= POLR3E&amp; search Type= full&amp; output Format= tsv
+3.  H PRD  (H uman  Prote in- Prote in  Inter action  Database ):
+H PRD  is  a  comprehensive  database  of  human  prote ins,  their  interactions,  and  associated  disease  information.  You  can  search  for  P OLR3E  and  find  its  known  protein- prote in  interactions,  as  well  as  its  role  in  various  cell ular  processes.
+ Link:  https :// www.h prd. org/ query? term= POLR3E&amp; search Type= all
+4.  Int Act  M ole cular  Inter action  Database:
+ Int Act  is  a  database  of  molecular  interactions,  including  protein- prote in,  protein-D NA,  and  protein-R NA  interactions.  You  can  search  for  P OLR3E  and  explore  its  known  interactions  with  other  mole cules.
+ Link:  https :// www. ebi. ac | mixtral-instruct: To  answer  your  question,  I  would  first  need  to  clar ify  that  P OLR3E  is  a  gene  that  enc odes  a  sub unit  of  R NA  poly mer ase  III,  an  en zyme  responsible  for  transc rib ing  small  non-c oding  RN As,  such  as  tRN As  and 5S  rR NA.  While  I  cannot  provide  a  visual  representation  of  the  networks,  I  can  suggest  several  dat abases  and  resources  where  you  can  find  relevant  information  on  the  mechanism  and  interactions  of  P OLR3E.
+1.  STR ING  database  (&lt; https :// string- db. org /&gt; ):  STR ING  is  a  comprehensive  database  of  known  and  predicted  protein- prote in  interactions.  You  can  search  for  P OLR3E  and  explore  its  interactions  with  other  prote ins,  including  those  involved  in  the  R NA  poly mer ase  III  complex.
+2.  Bio GR ID  database  (&lt; https :// the bi og rid. org /&gt; ):  Bio GR ID  is  another  database  of  protein  and  genetic  interactions.  You  can  search  for  P OLR3E  and  explore  its  interactions  with  other  genes  and  prote ins.
+3.  KE GG  Path way  database  (&lt; https :// www. ke gg.jp/ path way /&gt; ):  KE GG  is  a  database  of  molecular  path ways  and  networks.  You  can  search  for  "R NA  poly mer ase"  and  explore  the  path ways  and  networks  involving  P OLR3E  and  other  sub units  of  R NA  poly mer ase  III.
+4.  React ome  database  (&lt; https :// react ome. org /&gt; ):  React ome  is  a  database  of  molecular  events  and  path ways.  You  can  search  for  "R NA  poly mer ase"  and  explore  the  events  and  path ways  involving  P OLR3E  and  other  sub units  of  R NA  poly mer ase  III.
+5.  Gene  Ont ology  ( GO)  terms:  GO  terms  provide  a  standard ized  voc abulary  for  describing  molecular  function,  biological  process,  and  cell ular  component.  You  can  search  for  P OLR3E  and  explore  its  GO  terms  related  to  its  function,  interactions,  and  local ization.
+ By  exploring  these  dat abases  and  resources,  you  can  gain  a  better  understanding  of  the  known  mechanism  and  interactions  of  P OLR3E  and  its  role  in  R NA  poly mer ase  III- medi ated  trans cription. | noushermes2: I  have  found  several  relevant  dat abases  and  networks  related  to  the  gene  P OLR3E,  which  is  involved  in  the  mechanism  of  R NA  poly mer ase  III  and  its  interactions. 
+1.  STR ING  ( Search  Tool  for  the  Ret riev al  of  Inter act ing  Gen es/ Prote ins)  -  A  database  that  provides  protein- prote in  interaction  networks,  functional  associations,  and  path ways.  In  STR ING,  P OLR3E  is  part  of  the  R NA  poly mer ase  III  complex,  interact ing  with  other  sub units  such  as  P OLR3A,  P OLR3B,  P OLR3C,  P OLR3D,  P OLR3F,  P OLR3G,  P OLR3H,  P OLR3I,  P OLR3K,  P OLR3L,  and  P OLR3M.
+2.  H PRD  (H uman  Prote in  Reference  Database)  -  A  database  that  provides  information  on  human  prote ins,  their  interactions,  and  path ways.  In  H PRD,  P OLR3E  is  associated  with  the  R NA  poly mer ase  III  complex,  interact ing  with  other  sub units  and  prote ins  involved  in  trans cription  and  gene  expression.
+3.  Int Act  -  A  database  that  focuses  on  experiment ally  determined  molecular  interactions,  including  protein- prote in  interactions,  protein  complex es,  and  post- transl ational  modifications.  In  Int Act,  P OLR3E  is  part  of  the  R NA  poly mer ase  III  complex,  interact ing  with  other  sub units  and  prote ins  involved  in  trans cription  and  gene  expression.
+4.  Bio GR ID  -  A  database  that  provides  comprehensive  information  on  protein  and  genetic  interactions,  including  physical  and  genetic  interactions,  protein  domain  interactions,  and  co- expression  data.  In  Bio GR ID,  P OLR3E  is  associated  with  the  R NA  poly mer ase  III  complex,  interact ing  with  other  sub units  and  prote ins  involved  in  trans cription  and  gene  expression.
+5.  React ome  -  A  database  that  focuses  on  cur ated  path ways  and  reactions,  providing  a  detailed  overview  of  cell ular  processes.  In  React ome,  P OLR3E  is  involved  in  the  R NA  poly mer ase  III  trans cription  process,  interact ing  with  other  sub units  and  prote ins  involved  in  gene  expression.
+6.  GeneC ards  -  A  database  that  provides  comprehensive  information  on  human  genes,  including  their  functions,  interactions,  and  associations  with  diseases.  In  GeneC ards,  P OLR3 | yi-34b: To  provide  you  with  relevant  networks  involving  the  gene        "POLR3E,"  which  is  associated  with    DNA-dependent  RNA   polymerase  III   subunit  E  in   humans,  I  will  search  through  various  biological  databases  such  as          UniProtKB/Swiss-Prot,     GeneCards,     NCBI's   Genetic  Information  Reference  Bank      (Gene),    STRING,  and   others.   However,  please  note  that  specific  network  information  may  be  limited  if  there    isn't  extensive  research  or  knowledge  about  direct     protein-protein  interactions  or  signaling  pathways  related  to  this  particular   gene.
+  I  will  also  explore  whether     POLR3E  has  been   implicated  in  any  diseases  or   disorders,  as  understanding  its  role  in   pathology  can  sometimes  reveal  additional  functional   relationships.  Since  my  last  update  was  several  months   ago,  newer  data  might  not  be  available   yet.   Nevertheless,  let  me  proceed  with  what  I  have  access   to:
+   1.     **UniProt   Knowledgebase        (UniProtKB):**
+     -                   https://www.uniprot.org/uniprot/Q9H4B8
+       This  entry  provides  details  on  the     POLR3E   protein,  including  its   function,   structure,  and  references  to  scientific   articles.  If  other  proteins  interact  with  it   directly,  those  could  potentially  form  part  of  a   network.
+   2.    **NCBI   Gene:**
+     -                       https://www.ncbi.nlm.nih.gov/gene/57069
+       Here  you  can  find  general  information  about  the   gene,  its  location  on  the   chromosome,    aliases,  and  links  to  related  resources  like   PubMed  for  published   studies.
+   3.   **STRING   Database:**
+     -         http://string-db.org/
+       The  Search  Tool  for  the    Retrieval  of   Interacting       Genes/Proteins    (STRING)  allows  users  to  investigate  potential     protein-protein   interactions.  To  use  this  tool   effectively,  one  would  need  to  enter       "POLR3E"  into  the  search  bar  and  then  analyze  the  resulting  interaction   map.  The  confidence  score  provided  by   STRING  indicates  the  likelihood  of  each  interaction   occurring.
+  If  no  specific  networks  involving     POLR3E  are  readily  available  from  these   sources,  alternative  strategies  include  searching  for  broader  terms  related  to  RNA   polymerase  III  or   transcriptional   regulation.  This  approach  might  uncover  indirect  associations  or  shared  pathways  where     POLR3E  plays  a   role.  For   example,  you  could  look  at  networks  centered  around  other  components  of  the  same  enzyme   complex,  such  as    RPC5     (POLR3</t>
+  </si>
+  <si>
+    <t>Question: relationship between dependency scores of jak1 in depmapdb. | falcon-40b: No response | gpt-3.5-turbo-1106: SQL
+SELECT ccle_cn_gistic.DepMap_ID, ccle_mutation.DepMap_ID, ccle_variants.DepMap_ID
+FROM ccle_cn_gistic
+INNER JOIN ccle_mutation ON ccle_cn_gistic.DepMap_ID = ccle_mutation.DepMap_ID
+INNER JOIN ccle_variants ON ccle_cn_gistic.DepMap_ID = ccle_variants.DepMap_ID
+WHERE ccle_cn_gistic.Hugo_Symbol = 'JAK1'
+ | mistral-7b: sqlSELECTccle_g.Hugo_Symbol,d.Dependency_ScoreFROMccle_gisticccle_gJOINDepMapdONccle_g.DepMap_ID=d.DepMap_IDWHEREccle_g.Hugo_Symbol='JAK1'; | mixtral-instruct: vbnetSELECTa.DepMap_ID,a.CCLE_Name,b.gistic_cnFROMccle_cn_gisticasaJOINccle_mutationasbONa.DepMap_ID=b.DepMap_IDWHEREb.Hugo_Symbol='JAK1'; | noushermes2: SQLquery:SELECTc.Hugo_Symbol,c.DepMap_ID,c.gistic_cn,d.Variant_Type,d.Alternate_Allele,d.isDeleterious,d.isTCGAhotspot,d.COSMIChsCnt,d.ExAC_AF,d.CGA_WES_AC,d.HC_AC,d.RD_AC,d.RNAseq_AC,d.SangerWES_AC,d.WGS_ACFROMccle_cn_gisticAScJOINccle_mutationASdONc.Hugo_Symbol=d.Hugo_SymbolANDc.DepMap_ID=d.DepMap_IDWHEREc.Hugo_Symbol='JAK1'; | yi-34b: sqlSELECTccle_cn_gistic.gistic_cnASgistic_score,cclemutation.*,cclevars.*FROMccle_cn_gisticJOINcclemutdbONccle_cn_gistic.depmap_id=cclemutdb.depmap_idANDcclemutdb.hugo_symbol='JAK1'--FilterbygenenameJOINccleyvarsONcclevardb.depmap_id=cclevars.depmap_idANDcclevardb.gene_name='JAK1';</t>
+  </si>
+  <si>
+    <t>Question: relationship between expression and mutation status of jak1. | falcon-40b: No response | gpt-3.5-turbo-1106: SQL
+SELECT ccle_cn_gistic.CCLE_Name, ccle_cn_gistic.gistic_cn, ccle_mutation.DepMap_ID, ccle_mutation.Hugo_Symbol, ccle_variants.CCLEDeleterious
+FROM ccle_cn_gistic
+JOIN ccle_mutation ON ccle_cn_gistic.DepMap_ID = ccle_mutation.DepMap_ID
+JOIN ccle_variants ON ccle_mutation.DepMap_ID = ccle_variants.DepMap_ID
+WHERE ccle_mutation.Hugo_Symbol = 'JAK1'
+ | mistral-7b: SQL--Assumingyouhaveatable'ccle_mutation'formutationdataand'ccle_cn_gistic'forCNV(CopyNumberVariation)data,andyouwanttojointhembasedonDepMap_IDandHugo_SymboltoinvestigatetherelationshipbetweenJAK1mutationstatusanditsCNV.--Makesuretoadjustthetablealiasesandcolumnnamesiftheyaredifferentinyourdatabase.SELECTm.Hugo_Symbol,c.gistic_cnFROMccle_mutationmJOINccle_cn_gisticcONm.DepMap_ID=c.DepMap_IDWHEREm.Hugo_Symbol='JAK1'; | mixtral-instruct: vbnetSELECTgistic.Hugo_Symbol,gistic.CCLE_Name,gistic.gistic_cn,mutation.Entrez_Gene_Id,mutation.DepMap_ID,mutation.Variant_Classification,mutation.Variant_Type,mutation.isDeleterious,mutation.isTCGAhotspot,mutation.TCGAhsCnt,mutation.isCOSMIChotspot,mutation.COSMIChsCntFROMccle_cn_gisticASgisticINNERJOINccle_mutationASmutationONgistic.Hugo_Symbol=mutation.Hugo_SymbolWHEREgistic.Hugo_Symbol='JAK1'; | noushermes2: sqlSELECTccle_cn_gistic.Hugo_Symbol,ccle_cn_gistic.gistic_cn,ccle_mutation.Variant_Type,ccle_mutation.Variant_ClassificationFROMccle_cn_gisticINNERJOINccle_mutationONccle_cn_gistic.Hugo_Symbol=ccle_mutation.Hugo_SymbolWHEREccle_cn_gistic.Hugo_Symbol='JAK1'ANDccle_mutation.Variant_Classification='Missense'ANDccle_mutation.Variant_Type='SingleNucleotideVariation' | yi-34b: sql--Forccle_cn_gisticSELECT*FROMccle_cn_gisticWHEREHugo_Symbol='JAK1';--Forccle_mutationsSELECT*FROMccle_mutationsWHEREHugo_Symbol='JAK1';--Forccle_variantsSELECT*FROMccle_variantsWHEREgene_name='JAK1';</t>
+  </si>
+  <si>
+    <t>Question: relationship between jak1 mutation status and jak1 dependency. | falcon-40b: No response | gpt-3.5-turbo-1106: '''SQL
+SELECT ccle_mutation.Hugo_Symbol, ccle_mutation.DepMap_ID, ccle_mutation.isDeleterious, ccle_variants.copy_number
+FROM ccle_mutation
+JOIN ccle_variants ON ccle_mutation.DepMap_ID = ccle_variants.DepMap_ID
+JOIN ccle_cn_gistic ON ccle_mutation.DepMap_ID = ccle_cn_gistic.DepMap_ID
+WHERE ccle_mutation.Hugo_Symbol='JAK1';
+''' | mistral-7b: sql--JoiningthethreetablesonDepMap_IDSELECTccle_gistic.Hugo_Symbol,ccle_mutation.isDeleterious,ccle_variants.DriverFROMccle_gisticJOINccle_mutationONccle_gistic.DepMap_ID=ccle_mutation.DepMap_IDJOINccle_variantsONccle_gistic.DepMap_ID=ccle_variants.DepMap_IDWHEREHugo_Symbol='JAK1';--FilteringforJAK1mutations--Todeterminedependency,checkifthereisanyvariantwith'Driver'or'LikelyDriver'status | mixtral-instruct: '''SELECTc1.DepMap_IDFROMccle_mutationASc1JOINccle_variantsASc2ONc1.DepMap_ID=c2.DepMap_IDJOINccle_cn_gisticASc3ONc1.DepMap_ID=c3.DepMap_IDWHEREc1.Hugo_Symbol='JAK1'ANDc1.Variant_Classification='Missense_Mutation'ANDc2.ProteinChangeISNOTNULLANDc3.gistic_cn!='0';''' | noushermes2: sqlSELECTc.Hugo_Symbol,c.gistic_cn,v.Alt,v.VariantType,v.DriverFROMccle_cn_gisticAScJOINccle_variantsASvONc.DepMap_ID=v.DepMap_IDWHEREc.Hugo_Symbol='JAK1'ANDv.VariantType='SNV'ANDv.Driver='Yes'ANDv.AltIN('C','T'); | yi-34b: sqlCREATETEMPORARYTABLEccletmp_mutations_and_cnASSELECTm.*,g.gistic_cnFROMccle_mutationmJOINccle_cn_gisticgONm.depmap_id=g.depmap_idANDm.hugo_symbol=g.hugo_symbol;```Thiscreatesanewtemptablecalled`ccletmp_mutations_and_cn`whichcombinesrowsfrombothtableswherethe`DepMap_ID`and`Hugo_Symbol`match.ThistablenowhasallthemutationinformationplusthecopynumbervalueforJAK1(`gistic_cn`).**Step2:FilterTempTableforJAK1MutationsandNon-zeroCopyNumbers**```sql--AssumingJAK1geneIDorsymbolcanbeusedtofilter--AdjustcolumnnamesaccordinglyifnecessaryUPDATEccletmp_mutations_and_cnSETjak1_status='mutated'WHEREhugo_symbol='JAK1';UPDATEccletmp_mutations_and_cnSETjak1_status='wildtype'WHEREhugo_symbol!='JAK1';DELETEFROMccletmp_mutations_and_cnWHEREgistic_cn=0;--Removeentrieswithzerocopynumbers</t>
+  </si>
+  <si>
+    <t>Question: summarize the direct or indirect role of the gene polr3e in cancer, detailing its mechanisms and interactions with other genes. | falcon-40b: POLR3E  is  a  gene  that  encodes  the  third  largest  subunit  of  RNA  polymerase  III,  which  is  responsible  for  the  synthesis  of  small  RNA  molecules  such  as  transfer  RNA  (tRNA)  and  small  nuclear  RNA  (snRNA).  In  cancer,  POLR3E  is  often  upregulated  and  has  been  linked  to  tumor  progression  and  metastasis.  The  exact  mechanisms  of  POLR3E  in  cancer  are  still  not  fully  understood,  but  it  is  thought  to  play  a  role  in  regulating  the  expression  of  various  genes  involved  in  tumor  growth  and  metastasis.  Additionally,  POLR3E  has  been  found  to  interact  with  other  genes  and  proteins  involved  in  cancer,  such  as  BRCA1  and  TP53,  further  emphasizing  its  importance  in  tumorigenesis. | gpt-3.5-turbo-1106: POLR3E, also known as RNA polymerase III subunit E, plays a direct role in cancer through its involvement in the transcription of small non-coding RNAs such as tRNAs and 5S rRNA. Dysregulation of POLR3E has been linked to various cancer types, and its aberrant expression has been associated with tumor progression and poor prognosis.
+Mechanistically, POLR3E contributes to cancer development by promoting the synthesis of non-coding RNAs involved in protein translation, which can impact cellular growth and proliferation. Additionally, POLR3E has been implicated in maintaining the balance of nucleotide pools essential for DNA replication, potentially influencing genomic stability and tumorigenesis.
+In terms of interactions with other genes, POLR3E is known to function as part of the RNA polymerase III complex, and its dysregulation may affect the transcription of other RNA polymerase III-dependent genes. This dysregulation can lead to the altered expression of essential non-coding RNAs, potentially contributing to the molecular underpinnings of cancer.
+Overall, the role of POLR3E in cancer is multifaceted, involving its participation in the transcription of non-coding RNAs and potential impact on nucleotide metabolism and genomic stability. Further research into the specific molecular mechanisms and interactions associated with POLR3E in cancer may provide valuable insights for targeted therapeutic interventions. | mistral-7b: POLR3E,  also  known  as  R NA  poly mer ase  III  sub unit  E,  is  a  crucial  component  of  R NA  poly mer ase  III  ( Pol  III ),  which  is  responsible  for  the  trans cription  of  small  RN As,  including  tRN As, 5S  rRN As,  and  other  non-c oding  RN As.  The  role  of  P OLR3E  in  cancer  is  primarily  indirect,  as  mut ations  or  dys reg ulation  in  this  gene  do  not  typically  result  in  cancer  on  their  own.  However,  P OLR3E  has  been  im plicated  in  various  aspects  of  cancer  development  and  progress ion  through  its  interactions  with  other  genes  and  path ways.
+ One  of  the  most  significant  roles  of  P OLR3E  in  cancer  is  its  involvement  in  the  regulation  of  the  onc ogen ic  microRN As  ( miRN As ).  miRN As  are  small  non-c oding  RN As  that  play  critical  roles  in  post- trans cription al  gene  regulation.  Some  miRN As  act  as  tum or  suppress ors,  inhib iting  the  expression  of  onc ogen es,  while  others  function  as  onc ogen es  by  promoting  the  expression  of  onc ogen es.  D ys reg ulation  of  miRN As  has  been  im plicated  in  various  can cers.
+ POLR3E  inter acts  with  the  micro processor  complex,  which  is  responsible  for  the  processing  of  long  primary  miRN As  into  mature  miRN As.  Mut ations  or  dys reg ulation  of  P OLR3E  can  affect  the  activity  of  the  micro processor  complex,  leading  to  the  dys reg ulation  of  miRN As.  For  example,  a  decrease  in  P OLR3E  expression  has  been  observed  in  various  can cers,  including  breast,  lung,  and  col ore ct al  can cers,  resulting  in  the  dys reg ulation  of  tum or  suppress or  miRN As,  such  as  miR-15a  and  miR-16-1,  which  are  involved  in  the  inhib ition  of  the  onc ogene  B CL-2.
+ Add itionally,  P OLR3E  has  been  shown  to  interact  with  other  genes  involved  in  cancer  development  and  progress ion.  For  instance,  P OLR3E  inter acts  with  the  onc ogene  MYC,  which  is  a  key  reg ulator  of  cell  growth  and  pro lifer ation.  MYC  inter acts  with  the  promot er  region  of  the  P OLR3E  gene,  leading  to  its  trans cription al  activation.  In  turn,  P OLR3E  plays | mixtral-instruct: POLR3E  is  a  gene  that  enc odes  for  the  third  largest  sub unit  of  R NA  poly mer ase  III  ( Pol  III ),  an  en zyme  responsible  for  the  trans cription  of  small  non-c oding  RN As,  including  transfer  RN As  (tRN As)  and 5S  rib os om al  R NA  (rR NA)  (1 ).  While  P OLR3E  has  not  been  directly  im plicated  in  cancer,  several  studies  have  suggested  its  indirect  role  in  tum or igen esis  through  its  interactions  with  other  genes  and  sign aling  path ways.
+ One  study  found  that  P OLR3E  is  a  target  of  the  tum or  suppress or  p53,  which  binds  to  the  P OLR3E  promot er  and  re press es  its  trans cription  (2 ).  In activ ation  of  p53,  a  common  event  in  many  can cers,  results  in  up reg ulation  of  P OLR3E,  which  in  turn  leads  to  increased  trans cription  of  onc ogen ic  miRN As,  promoting  tum or  growth  and  met ast asis  (2 ).
+ An other  study  identified  P OLR3E  as  a  down stream  target  of  the  PI3K/ AKT/mT OR  sign aling  path way,  which  is  frequently  activated  in  various  can cers  (3 ).  Activ ation  of  this  path way  leads  to  increased  ph osph ory lation  and  activation  of  P OLR3E,  resulting  in  enhanced  trans cription  of  tRN As  and  rRN As,  promoting  cell  pro lifer ation  and  survival  (3 ).
+ POLR3E  has  also  been  shown  to  interact  with  the  E2F1  trans cription  factor,  which  plays  a  crucial  role  in  cell  cycle  regulation  and  DNA  damage  response  (4 ).  Over expression  of  E2F1  leads  to  up reg ulation  of  P OLR3E,  promoting  trans cription  of  onc ogen ic  miRN As  and  contributing  to  tum or igen esis  (4 ).
+F ur ther more,  P OLR3E  has  been  im plicated  in  the  regulation  of  aut oph agy,  a  cell ular  process  involved  in  the  de grad ation  and  recycl ing  of  cell ular  components  (5 ).  P OLR3E  inter acts  with  the  aut oph agy- related  protein  Be cl in 1,  and  its  de pletion  leads  to  imp aired  aut oph agy  and  increased  sensitivity  to  chem otherapy- ind uced  ap opt osis  (5 ).
+ In  summary,  while  P OLR3E  has  not  been  directly  im plicated  in  cancer | noushermes2: The  gene  P OLR3E,  also  known  as  R NA  poly mer ase  III  sub unit  E,  plays  a  direct  role  in  cancer  through  its  involvement  in  the  regulation  of  gene  expression  and  the  trans cription  of  cell ular  processes.  P OLR3E  is  a  sub unit  of  the  R NA  poly mer ase  III  ( Pol  III)  en zyme,  which  is  responsible  for  synt hes izing  small  R NA  mole cules,  such  as  tRN As  and 5S  rRN As.  These  small  R NA  mole cules  are  essential  for  various  cell ular  processes,  including  protein  synt hesis  and  rib os ome  bi ogen esis.
+ In  cancer,  the  dys reg ulation  of  P OLR3E  expression  can  lead  to  ab normal  trans cription  of  cell ular  processes,  contributing  to  the  development  and  progress ion  of  the  disease.  This  dys reg ulation  can  be  due  to  genetic  mut ations,  ep igen etic  modifications,  or  changes  in  the  cell ular  environment.
+ POLR3E  inter acts  with  several  other  genes  and  prote ins  involved  in  cancer,  including:
+1.  Trans cription  factors:  P OLR3E  inter acts  with  various  trans cription  factors  that  reg ulate  the  expression  of  genes  involved  in  cell  growth,  pro lifer ation,  and  different iation.  D ys reg ulation  of  these  trans cription  factors  can  lead  to  un cont rolled  cell  growth  and  cancer  development.
+2.  Ch rom atin  rem od eling  complex es:  P OLR3E  is  involved  in  the  assembly  of  chrom atin  rem od eling  complex es,  which  modify  the  chrom atin  structure  to  facilitate  or  inhib it  trans cription.  Al ter ations  in  the  function  or  expression  of  these  complex es  can  contribute  to  cancer  by  dys reg ulating  gene  expression.
+3.  Non-c oding  RN As:  P OLR3E  is  involved  in  the  trans cription  of  non-c oding  RN As,  such  as  microRN As  ( miRN As)  and  long  non-c oding  RN As  ( lncRN As ).  These  non-c oding  RN As  can  act  as  onc ogen es  or  tum or  suppress ors  by  reg ulating  the  expression  of  cancer- related  genes.
+4.  DNA  repair  path ways:  D ys reg ulation  of  P OLR3E  can  also  affect  DNA  repair  path ways,  leading  to  gen omic  inst ability  and  the  accum ulation  of  mut ations  that  drive  cancer  development.
+ In  summary,  the  gene  P OLR3E  plays  a  direct  role  in  cancer  through  its  involvement  in  the  regulation  of | yi-34b: POLR3E  is  a  component  of  RNA    Polymerase  III   (Pol   III)   complex,  which  plays  a  crucial  role  in   transcriptional  regulation  by   synthesizing  small     non-coding   RNAs  such  as     tRNAs,    5S    rRNA,  and     snRNAs  that  are  essential  for  protein  synthesis  and  cellular   function.  While  there    isn't  extensive  literature  directly  linking     POLR3E  to   cancer,  Pol  III  has  been   implicated  indirectly  in  various  cancers  due  to  its  role  in    ribosomal  RNA  production  and  cell   proliferation.
+  Here  is  what  we  know  so   far:
+   1.   **Role  in  Cell    Proliferation**:    Elevated  levels  of  Pol  III  activity  have  been  observed  in  some  types  of  cancer   cells,  suggesting  that  it  may  contribute  to  increased  cell  growth  and   proliferation.  This   upregulation  could  be  a  consequence  of   oncogenic  signaling  pathways  that  drive     tumorigenesis.
+   2.    **Regulation  by   Tumor     Suppressors**:  Some  tumor   suppressor   proteins,  like     p53,  can  inhibit  Pol  III  activity  under  stress   conditions,  leading  to  reduced  synthesis  of  certain     non-coding    RNAs.   Mutations  or  loss  of  these  tumor   suppressors  might  lead  to   deregulated  Pol  III   activity.
+   3.    **Interaction  with      Oncogenes**:  There  are  indications  that  certain    oncogenes  may  interact  with  components  of  Pol   III,  potentially  influencing  its   activity.  For   example,      c-Myc,  an   oncogene  frequently     overexpressed  in  many   cancers,  has  been  shown  to  influence  Pol  II  and  Pol  I  activities  but  its  precise  effect  on  Pol  III  remains   unclear.
+   4.    **Altered     Non-Coding  RNA    Levels**:  In  some   cases,    aberrant  expression  of     non-coding   RNAs   transcribed  by  Pol  III  has  been  associated  with  cancer   progression.  For   instance,  changes  in   tRNA  abundance  have  been  reported  in  different    malignancies,  although  the  exact  functional  implications  are  not  fully   understood.
+   5.    **Implications  for  Cancer   Therapy**:  Drugs  targeting  Pol  III  have  shown  potential       anti-proliferative  effects  in    preclinical   models,  indicating  that   inhibiting  Pol  III  activity  could  be  a  novel  approach  for  treating  certain   cancers.   However,  this  is  still  a  developing  area  of   research.
+  In   summary,  while     POLR3E  itself    hasn't  been  extensively  studied  in  the  context  of   cancer,  its  role  within  the  Pol  III  complex  suggests  that  alterations  in     non-coding  RNA  synthesis  could  impact  tumor   biology.  Further  research  is  needed  to  understand  how  specific  mutations  or  genetic  variations  affecting  POL</t>
+  </si>
+  <si>
+    <t>Question: synthetic lethality mechanims for braf gene can be harnessed in combination with which gene? | falcon-40b: No response | gpt-3.5-turbo-1106: - The given information discusses the use of synthetic lethality in cancer treatment.
+- Synthetic lethality involves inactivation of one gene and pharmacological inhibition of another for cancer cell death, while sparing normal cells.
+- Specific genetic interactions have been identified, such as between STK33 and oncogenic KRAS, and between SMARCA2 and SMARCA4 in cancer cells.
+- The approach holds promise for improving the diagnosis and treatment of cancer.
+- The power of CRISPR-based functional genomic screening technology is highlighted as offering a path forward in this field. | mistral-7b: 1. Oncogene 2009: Bommi Reddy et al identified altered kinase requirements in VHL cancer cells through a synthetic lethal screen.
+2. Proc Natl Acad Sci USA 2008: Hoffman et al discovered BRMSMA2 as a critical synthetic lethal target in BRG1-deficient cancers.
+3. Proc Natl Acad Sci USA 2014: Wilson et al first reported the synthetic lethal interaction between SMARCA2 and SMARCA4.
+4. Mol Cell Biol 2014: Oike et al found that residual complexes containing SMARCA2 and BRM underlie the oncogenic drive of SMARCA4 and BRG1 mutations.
+5. Cell 2009: Wadlow et al identified KRAS dependency and STK33 suppression as a synthetic lethal interaction in human cancer cells.
+6. Nature 2009: Barbie et al used a systematic RNA interference approach to reveal TBK1 as a requirement for oncogenic RAS-driven cancers.
+7. Current Opinion in Genetics Development 2011: Brough et al discussed the potential of synthetic lethality in cancer treatment, with a modest overall response rate of 10%.
+8. Cell 2011: Garraway et al expanded on the work of Wadlow et al by using a larger genome-scale shRNA library to discover additional combination targets for BRAF inhibitors.
+9. Unknown publication: Clinical trials are ongoing to test the hypothesis of enhancing the effect of BRAF inhibitors with PTPN11 inhibitors.
+10. Unknown publication: Several potent and selective combination partners for MEK inhibitors have been identified using a similar approach. | mixtral-instruct: 
+* Synthetic lethality is a phenomenon where the simultaneous perturbation of two genes results in a deadly combination.
+* This concept has been applied to cancer research to target aberrations that are not readily targetable, such as tumor suppressor proteins (e.g. RB1 and p53) and oncogenes (e.g. RAS and cMYC).
+* Inhibiting the product of another gene can indirectly exploit these cancer aberrations.
+* Synthetic lethality has also been referred to as non-oncogene addiction or induced essentiality.
+* In the budding yeast Saccharomyces cerevisiae, most genes display numerous synthetic lethal interactions, which may also apply to many human genes.
+Specific examples of synthetic lethality in cancer research include:
+* A study by Bommi Reddy et al. (2009) identified altered kinase requirements in VHL cancer cells using a pilot synthetic lethal screen.
+* Hoffman et al. (2014) used a functional epigenetics approach to identify BRMSMARCA2 as a critical synthetic lethal target in BRG1-deficient cancers.
+* Wilson et al. (2014) demonstrated the synthetic lethal interaction between SMARCA2 and SMARCA4.
+* Wadlow et al. (2009) identified a synthetic lethal interaction between oncogenic KRAS dependency and STK33 suppression in human cancer cells.
+* Barbie et al. (2009) used systematic RNA interference to reveal that oncogenic KRAS-driven cancers require TBK1.
+* Wang et al. (2010) identified a critical role for transcriptional repressor Snail2 in transformation by oncogenic RAS in colorectal carcinoma cells.
+These studies demonstrate the potential of synthetic lethality as a strategy for improving the diagnosis and treatment of cancer. | noushermes2: Here is a summary of the given information in an easy-to-read format:
+- The studies focus on improving cancer diagnosis and treatment.
+- Synthetic lethality is a concept where inactivation of two genes simultaneously leads to cell death.
+- In cancer, this concept can be extended to pairs of genes where inhibiting one gene and pharmacologically inhibiting the other leads to cancer cell death while sparing normal cells.
+- Key findings include:
+  1. Altered kinase requirements in VHL cancer cells (Proc Natl Acad Sci USA, 2008).
+  2. Identification of BRMSMARCA2 as a critical synthetic lethal target in BRG1-deficient cancers (Proc Natl Acad Sci USA, 2014).
+  3. Synthetic lethal interaction between SMARCA2 and SMARCA4 (Mol Cell Biol, 2014).
+  4. Oncogenic KRAS dependency and STK33 suppression in human cancer cells (Cell, 2009).
+  5. TBK1 requirement in oncogenic KRAS-driven cancers (Nature, 2009).
+  6. Transcriptional repressor Snail2's role in transformation by oncogenic RAS in colorectal carcinoma cells (Oncogene, 2010).
+  7. Searching for synthetic lethality in cancer (Current Opinion in Genetics Development, 2011).
+These studies and findings contribute to the understanding and potential treatment of cancer through the concept of synthetic lethality. | yi-34b: - Understanding disease biology can lead to new therapeutic strategies.
+- Colon cancer cells with specific genetic alterations do not respond to certain drugs due to feedback mechanisms involving different receptors.
+- Combining targeted therapies can overcome resistance in some cases.
+- Synthetic lethal interactions show promise in treating cancer, particularly when combined with personalization of medicine.
+- PARP inhibitors have successfully transitioned from laboratory discoveries to clinical applications for treating tumors with BRCA1/BRCA2 mutations.
+- The development of synthetic lethal therapies faces unique challenges that must be addressed to bring them effectively into patient care.</t>
+  </si>
+  <si>
+    <t>Question: synthetic lethality was discovered in which model organism? | falcon-40b: No response | gpt-3.5-turbo-1106: - Synthetic lethality is a genetic interaction where the mutation of either of two genes is viable but the mutation of both together is lethal.
+- Initially identified through loss of function screens in model organisms like yeast, the concept has potential for cancer drug discovery if relevant homologues in human cells exist.
+- RNAi technology broadened the application of synthetic lethality concepts to human cell line systems, leading to subsequent screening efforts in cancer cells.
+- Large-scale synthetic lethal genetic interaction screens have been conducted in budding yeast and fission yeast due to available high-throughput technologies.
+- Advances in RNA interference (RNAi) and CRISPR technology have enabled large-scale unbiased synthetic lethality screening directly in human cell cultures.
+- There is literature supporting the application of synthetic lethality for identifying novel vulnerabilities in cancer cells and choosing anticancer drug targets. | mistral-7b: 1. Synthetic lethality (SL) is a phenomenon where the co-existence of two specific gene mutations results in cell death, while each mutation alone does not.
+2. SL has been extensively studied in model organisms like Drosophila melanogaster, Caenorhabditis elegans, Saccharomyces cerevisiae, and Escherichia coli.
+3. SL studies in lower eukaryotes are beneficial due to their small genomes, ease of manipulation, and applicability to gene silencing techniques.
+4. Initial SL identification in human disease was limited to loss-of-function screens in model organisms, but their utility relies on the existence of relevant homologues in human cells.
+5. RNAi technology broadened the application of SL concepts to human cell line systems, leading to several screening efforts in cancer cells.
+6. Classical SL screening involves identifying gene pairs that cause cell death in a genotype-specific manner.
+7. Isogenic human cancer cells have been used for high-throughput screening and drug discovery.
+8. Chemical SL screens have been established in cultured human cells.
+9. Genetic SL screens have been conducted at the single gene level in cultured human cells.
+10. SL research has led to the identification of new genes involved in morphogenesis and cancer. | mixtral-instruct: 
+* Synthetic lethal interaction networks between cohesin subunits and replication fork mediators in yeast were used to predict synthetic lethality between mutations in cohesin and PARP inhibitors in human cell culture, even though the PARP family of genes is not conserved in yeast.
+* Large-scale synthetic lethality genetic networks in yeast have been constructed using high-throughput mating methodologies such as synthetic genetic array (SGA) analysis and diploid synthetic lethality analysis with microarrays (dSLAM).
+* An interaction network map of more than 23 million double mutants has been created in S. cerevisiae through long-term efforts to map digenic interactions comprehensively.
+* Synthetic lethal interactions observed in yeast were found to be more likely to be conserved in human cells, validating the idea that screening in yeast or another model organism can narrow the number of candidate synthetic lethal interactions for testing in human cells.
+* Synthetic lethality-based screening in human cells can provide mechanistic and therapeutic insights that are not always intuitive.
+* Synthetic lethality in cancer drug discovery involves identifying synthetic lethal pairs where one member is a gene product with a cancer-specific mutation and the second gene product is the drug target.
+* The identification of synthetic lethal pairs relevant to human disease was initially limited to loss-of-function screens in model organisms, but the advent of RNAi technology allowed for broader application in human cell line systems.
+* Proof-of-concept classical synthetic lethal screening using RNAi has been undertaken in cancer cells. | noushermes2: Summary:
+- Synthetic lethality is a concept used in cancer drug discovery.
+- Initially, identification of synthetic lethal pairs was limited to loss-of-function screens in model organisms like yeast.
+- RNAi technology allowed broader application of these concepts to human cell line systems.
+- Large-scale synthetic lethal genetic interaction screens have been carried out in budding yeast or fission yeast due to available technologies.
+- Advances in RNA interference (RNAi) and CRISPR technology have enabled large-scale unbiased synthetic lethality screening in human cell culture. | yi-34b: - Synthetic lethality refers to a situation where the combined disruption of two or more genes leads to cell death, while individual disruptions do not have this effect.
+- This concept can be applied to identify potential targets for anticancer drugs, especially those involving genes with cancer-specific mutations.
+- Early work focused on loss-of-function screens in model organisms like yeast, leading to the creation of genetic interaction maps.
+- With the development of RNA interference (RNAi) technology, it became possible to extend these studies to human cell lines, facilitating high-throughput screening for synthetic lethal partners of known cancer genes.
+- Next-generation sequencing technologies have enabled the identification of many tumorspecific mutations and altered gene expressions, opening up new avenues for targeting synthetic lethal interactions in cancer therapy.
+- Research continues to characterize and exploit synthetic lethal genetic interactions, aiming to develop personalized and effective treatments for various cancers.</t>
+  </si>
+  <si>
+    <t>Question: what are the main challenges in translating in vitro findings to in vivo models? | falcon-40b: There  are  several  challenges  in  translating  in  vitro  findings  to  in  vivo  models,  including:
+1.  Differences  in  cellular  environments:  In  vitro  assays  typically  use  cells  grown  in  a  controlled  environment,  whereas  in  vivo  models  use  whole  organisms  with  varying  degrees  of  complexity  and  diversity.
+2.  Pharmacokinetic  and  pharmacodynamic  differences:  In  vitro  assays  may  not  accurately  predict  the  absorption,  distribution,  metabolism,  and  excretion  of  drugs  in  vivo,  which  can  lead  to  unexpected  efficacy  or  toxicity.
+3.  Genetic  and  physiological  differences:  In  vivo  models  may  not  accurately  represent  the  genetic  and  physiological  diversity  of  human  populations,  which  can  affect  drug  efficacy  and  toxicity.
+4.  Ethical  considerations:  In  vivo  models  may  require  the  use  of  animals,  which  raises  ethical  concerns  and  regulatory  requirements.
+5.  Lack  of  scalability:  In  vitro  assays  can  be  easily  scaled  up,  whereas  in  vivo  models  require  more  resources  and  time.
+6.  Limited  translation  to  clinical  outcomes:  Despite  successful  translation  of  in  vitro  findings  to  in  vivo  models,  there  is  no  guarantee  that  the  findings  will  translate  to  clinical  efficacy  or  safety. | gpt-3.5-turbo-1106: Translating in vitro findings to in vivo models can be challenging due to several factors:
+1. Cellular microenvironment: In vitro cell cultures lack the complexity and physiological relevance of the in vivo environment, including interactions with other cell types, extracellular matrix, and signaling molecules. This can lead to differences in cell behavior and responses to drugs.
+2. Pharmacokinetics and pharmacodynamics: In vitro studies often do not capture the complexities of drug distribution, metabolism, and interactions within a whole organism. Differences in drug absorption, distribution, metabolism, and excretion can impact the efficacy and safety of potential therapies.
+3. Tissue-level effects: In vitro models usually focus on single cell types and may not accurately represent the interactions and effects of drugs on complex tissues and organs within the body.
+4. Species differences: Findings from in vitro studies in one species may not directly translate to another species due to differences in physiology, metabolism, and drug responses.
+5. Model representation: In vitro models may not fully capture the disease pathology or complexity present in in vivo disease models, potentially leading to discrepancies in drug response and efficacy.
+To address these challenges, researchers often use a combination of in vitro, ex vivo, and in vivo models to validate findings and ensure that potential therapies are relevant and effective in a whole organism context. Additionally, advances in organ-on-a-chip technology, 3D cell cultures, and patient-derived models are helping to bridge the gap between in vitro and in vivo systems. | mistral-7b: 1.  Complex ity  of  in  v ivo  systems:  In  vit ro  experiments  are  typically  conducted  using  simpl ified  cell ular  models  or  bi oc hem ical  reactions,  which  may  not  fully  capture  the  complexity  of  in  v ivo  systems.  In  v ivo  models,  such  as  animals  or  human  t issues,  have  intr icate  networks  of  cells,  t issues,  and  org ans  that  interact  with  each  other,  making  it  challenging  to  translate  in  vit ro  findings  to  the  in  v ivo  context.
+2.  Vari ability  and  incons ist ency:  In  v ivo  models  can  exhibit  significant  vari ability  due  to  factors  such  as  gen etics,  environment,  and  individual  differences.  This  can  make  it  difficult  to  reproduce  results  and  translate  findings  from  one  animal  or  tissue  to  another.  Additionally,  in  v ivo  models  may  not  always  behave  consistently,  especially  when  studying  complex  diseases  or  conditions.
+3.  Eth ical  consider ations:  The  use  of  animals  in  research  raises  ethical  concerns,  and  there  is  a  growing  trend  towards  the  use  of  alternative  models,  such  as  organ oids  and  computer  simulations,  to  reduce  animal  use.  However,  these  models  may  not  fully  re plicate  the  in  v ivo  environment  and  may  not  capture  all  the  complex ities  of  the  in  v ivo  system.
+4.  Cost  and  time:  In  v ivo  experiments  can  be  expensive  and  time- consum ing,  especially  when  dealing  with  large  animal  models  or  complex  diseases.  This  can  limit  the  number  of  experiments  that  can  be  performed  and  the  rate  at  which  new  discover ies  can  be  made.
+5.  Scal ability:  In  vit ro  experiments  can  be  easily  sc aled  up  or  down,  depending  on  the  research  question.  In  contrast,  in  v ivo  experiments  are  limited  by  the  availability  and  cost  of  animals  or  t issues,  making  it  challenging  to  perform  large- scale  studies  or  screen  a  large  number  of  comp ounds.
+6.  Diff iculty  in  measuring  complex  biological  processes:  In  vit ro  experiments  can  be  designed  to  measure  specific  biological  processes,  such  as  gene  expression  or  protein  activity,  with  high  precision.  However,  in  v ivo  models  are  more  complex,  and  it  can  be  challenging  to  measure  complex  biological  processes  accurately  and  reli ably.
+7.  Drug  met abol ism  and  pharm ac ok inet ics:  In  vit ro  experiments  can  provide  information  about  the  activity  of  a  drug  against  a  specific  target,  but  they  do  not  take  into  account  the  complex ities  of  drug  met abol ism  and  pharm ac ok inet ics  in  v ivo.  These  factors  can  significantly  impact  the  eff ic acy  and  safety  of  a  drug,  making  it  essential  to  study  them  in | mixtral-instruct: Transl ating  in  vit ro  findings  to  in  v ivo  models  can  be  challenging  for  several  reasons:
+1.  L ack  of  physi ological  relev ance:  In  vit ro  models,  such  as  cell  cultures,  may  not  accurately  rec ap it ulate  the  complexity  and  heter ogene ity  of  in  v ivo  systems.  They  may  lack  critical  cell- cell  interactions,  tissue  architecture,  and  the  influence  of  the  micro environment,  which  can  impact  drug  response.
+2.  Limited  predict ive  power:  In  vit ro  models  may  not  accurately  predict  drug  eff ic acy  or  toxic ity  in  v ivo,  as  they  do  not  account  for  pharm ac ok inet ic  and  pharm ac od ynamic  factors,  such  as  drug  distribution,  met abol ism,  and  ex cret ion.
+3.  Spec ies  differences:  In  vit ro  models  may  be  based  on  cell  lines  or  t issues  from  different  species  than  the  intended  ther apeut ic  target,  leading  to  differences  in  drug  response  due  to  genetic  or  physi ological  variations.
+4.  In ade quate  modeling  of  disease:  In  vit ro  models  may  not  accurately  represent  the  path oph ysi ology  of  the  disease,  leading  to  in accur ate  predictions  of  drug  eff ic acy.
+5.  Diff iculty  in  re plic ating  in  v ivo  complexity:  In  vit ro  models  may  not  be  able  to  re plicate  the  complexity  of  in  v ivo  systems,  such  as  the  presence  of  multiple  cell  types,  the  influence  of  the  immune  system,  and  the  impact  of  com or bid ities.
+6.  L ack  of  standard ization:  In  vit ro  models  may  not  be  standard ized  across  different  l abs,  leading  to  vari ability  in  results  and  difficulty  in  comparing  data  across  studies.
+7.  Eth ical  consider ations:  The  use  of  animal  models  for  drug  testing  raises  ethical  concerns  and  regulatory  hurd les,  making  it  challenging  to  conduct  in  v ivo  studies.
+ To  address  these  challenges,  researchers  can  use  a  combination  of  in  vit ro  and  in  v ivo  models,  as  well  as  comput ational  modeling  and  simulation  approaches,  to  better  predict  drug  response  in  v ivo.  Additionally,  the  development  of  more  advanced  in  vit ro  models,  such  as  organ- on-a- chip  systems,  may  help  bridge  the  gap  between  in  vit ro  and  in  v ivo  models. | noushermes2: The  main  challenges  in  transl ating  in  vit ro  findings  to  in  v ivo  models  include:
+1.  Cell ular  context:  In  vit ro  models  often  lack  the  complex  cell ular  interactions  and  micro environment  that  occur  in  v ivo,  which  can  lead  to  differences  in  drug  responses  and  eff ic acy.
+2.  Ex tr ac ell ular  matrix:  The  extr ac ell ular  matrix  ( ECM)  plays  a  crucial  role  in  cell ular  behavior  and  function.  In  vit ro  models  often  lack  a  physi ologically  relevant  E CM,  which  can  result  in  differences  in  cell  behavior  and  drug  responses  compared  to  in  v ivo  conditions.
+3.  V ascular ization:  In  vit ro  models  typically  lack  a  functional  v ascular  system,  which  can  affect  drug  delivery  and  distribution,  as  well  as  the  availability  of  nut ri ents  and  oxygen  to  the  cells.
+4.  Imm une  system:  In  v ivo  models  have  a  functional  immune  system,  which  can  affect  drug  responses  and  eff ic acy.  In  vit ro  models,  on  the  other  hand,  often  lack  a  functional  immune  system,  which  can  lead  to  differences  in  drug  responses  compared  to  in  v ivo  conditions.
+5.  T issue  heter ogene ity:  In  v ivo  t issues  are  often  highly  heter ogeneous,  with  different  cell  types  and  functions.  In  vit ro  models,  on  the  other  hand,  often  consist  of  a  single  cell  type  or  a  limited  number  of  cell  types,  which  can  lead  to  differences  in  drug  responses  compared  to  in  v ivo  conditions.
+6.  Sp at ial  organization:  In  v ivo  t issues  have  a  complex  spatial  organization,  which  can  affect  cell ular  behavior  and  drug  responses.  In  vit ro  models  often  lack  this  spatial  organization,  which  can  lead  to  differences  in  drug  responses  compared  to  in  v ivo  conditions.
+7.  Drug  met abol ism  and  clear ance:  In  vit ro  models  often  lack  the  full  range  of  drug- met abol izing  en zym es  and  trans por ters  present  in  v ivo,  which  can  affect  drug  met abol ism  and  clear ance,  as  well  as  the  potential  for  drug-d rug  interactions.
+8.  Inter- ind ivid ual  vari ability:  In  v ivo  models  often  exhibit  inter- ind ivid ual  vari ability  in  drug  responses  due  to  genetic,  environmental,  and  lifestyle  factors.  In  vit ro  models,  on  the  other  hand,  often  lack  this  vari ability,  which  can  lead  to  differences  in  drug  responses  compared  to  in  v ivo  conditions.
+ To  overcome  these  challenges,  researchers  are  developing  more  advanced  in  vit ro  models,  such  as  organ oids | yi-34b: Translating  in  vitro   (test   tube)  findings  to  in  vivo   (live   organism)  models  can  be  challenging  due  to  several  factors  that  differ  between  these  two  experimental   contexts:
+   1.    **Biological    Complexity**:  In  living   organisms,  cells  function  within  intricate  tissues  and   organs,  interacting  with  multiple  signaling  pathways  and  biological   systems.  This  complexity  is  often  not  replicated  in  isolated  cell  cultures  used  for  in  vitro   studies.
+   2.    **Microenvironment    Differences**:  The    extracellular  matrix      (ECM),  neighboring   cells,  growth   factors,   hormones,  and  other  components  of  the  cellular   microenvironment  play  critical  roles  in  regulating  cell   behavior.  These  conditions  are  difficult  to  reproduce  accurately  in  artificial  culture   media.
+   3.     **Toxicity  and     Metabolism**:  In  live  animals  or   humans,  drugs  may  be   metabolized  differently  than  in   cultured   cells,  and  toxic  effects  that  are  not  observed  in  vitro  might  become  apparent  when  the  compound  is  administered  to  a  whole   organism.
+   4.    **Genetic     Heterogeneity**:   Cells  from  different  individuals  can  vary   genetically,  which  could  affect  how  they  respond  to  a  particular   treatment.  In  vivo  models  typically  use  cells  derived  from  single   donors,  while  in  vitro  experiments  may  use   pooled  samples  or  those  from  various   sources.
+   5.     **Ethical    Considerations**:  Some  research  involving  human  subjects  cannot  be  conducted  on  animal  models  because  it  would  raise  ethical  concerns  regarding  animal   welfare.  This  limits  the  ability  to  translate  certain  findings  into  more  complex  model   systems.
+   6.     **Scale-Up   Issues**:   Processes  that  work  well  at  small  scales  in  vitro  do  not  always  scale  up   successfully.  Manufacturing  techniques  need  to  be  optimized  for    large-scale  production  without  compromising  efficacy  or   safety.
+   7.    **Immune   Response**:  When  testing  therapeutic  agents  in   vivo,  especially  those  designed  to  interact  with  the  immune   system,  there  is  the  added   complication  of  host  immunity  responses  that  will  not  be  present  in  an     immunodeficient  laboratory   setting.
+   8.        **Pharmacokinetics  and      Pharmacodynamics**:  Understanding  how  a  drug  is   absorbed,   distributed,    metabolized,  and    excreted         (pharmacokinetics)  as  well  as  its  mechanism  of  action        (pharmacodynamics)  can  vary  significantly  between  in  vitro  and  in  vivo   settings.
+   9.   **Cost  and   Time**:    Translational  research  requires  significant  financial  investment  and  time  commitment  to  conduct  appropriate    preclinical  trials  using  suitable  in  vivo  models  before  moving  into  clinical   trials.
+  To  overcome  these   challenges,  researchers  employ a</t>
+  </si>
+  <si>
+    <t>Question: what considerations are taken into account when selecting a delivery method for a new drug? | falcon-40b: When  selecting  a  delivery  method  for  a  new  drug,  there  are  several  considerations  that  need  to  be  taken  into  account.  These  include:  
+1.  The  target  site  of  action:  Different  delivery  methods  can  be  used  to  target  specific  tissues  or  organs,  which  can  be  important  for  treating  certain  diseases.  
+2.  The  size  and  shape  of  the  drug  molecule:  The  delivery  method  needs  to  be  able  to  handle  the  size  and  shape  of  the  drug  molecule,  as  well  as  its  solubility  and  stability.  
+3.  The  patient's  age  and  health  status:  Some  delivery  methods  may  not  be  suitable  for  certain  age  groups  or  individuals  with  specific  health  conditions.  
+4.  The  potential  side  effects:  Some  delivery  methods  may  have  more  side  effects  than  others,  and  these  need  to  be  carefully  considered.  
+5.  The  cost  and  availability  of  the  delivery  method:  The  delivery  method  needs  to  be  affordable  and  readily  available,  as  this  can  impact  the  accessibility  of  the  drug  to  patients.  
+6.  The  potential  for  abuse  or  addiction:  Certain  delivery  methods  may  be  more  prone  to  abuse  or  addiction  than  others,  and  this  needs  to  be  carefully  monitored.  
+Overall,  the  delivery  method  selected  for  a  new  drug  needs  to  be  carefully  considered  based  on  its  safety,  efficacy,  and  potential  side  effects,  as  well  as  the  target  population  and  their  specific  needs. | gpt-3.5-turbo-1106: When selecting a delivery method for a new drug, several important considerations are taken into account, including:
+1. Target Tissue or Organ: The choice of delivery method depends on the specific target tissue or organ where the drug needs to exert its therapeutic effect. For example, drugs targeting the central nervous system may require a delivery method that can cross the blood-brain barrier.
+2. Drug Properties: The physicochemical properties of the drug, such as its molecular weight, solubility, stability, and half-life, influence the selection of the delivery method. For instance, hydrophobic drugs may require specialized delivery systems to enhance their solubility and bioavailability.
+3. Pharmacokinetics and Pharmacodynamics: Understanding the drug's pharmacokinetic and pharmacodynamic profiles is crucial for selecting an appropriate delivery method. Factors such as absorption, distribution, metabolism, and excretion (ADME) influence the choice of delivery system to optimize the drug's therapeutic effects.
+4. Patient Compliance: Consideration is given to the convenience and acceptability of the delivery method to ensure patient compliance with the prescribed dosage regimen. This may involve selecting a non-invasive delivery method, such as oral tablets or transdermal patches, over invasive procedures.
+5. Safety and Tolerability: The safety profile of the delivery method is a critical consideration. It is important to assess potential risks, such as local tissue irritation, systemic toxicity, or immune response, associated with different delivery methods.
+6. Dosing Regimen: The frequency and duration of drug administration influence the choice of delivery method. For example, sustained-release formulations may be preferred for drugs requiring long-term therapy, while immediate-release formulations may be suitable for acute conditions.
+7. Regulatory Requirements: Compliance with regulatory standards and guidelines for drug delivery systems is essential. Factors such as stability, sterility, and reproducibility of the delivery method need to meet regulatory expectations.
+8. Manufacturing and Cost Considerations: The scalability, reproducibility, and cost-effectiveness of the delivery method are important factors for commercial drug development and manufacturing.
+By considering these factors, researchers and drug developers can select the most appropriate delivery method to optimize the therapeutic efficacy, safety, and patient compliance of the new drug. | mistral-7b: 1.  Drug  St ability:  The  delivery  method  should  be  able  to  maintain  the  stability  of  the  drug  during  storage,  transportation,  and  administration.  Some  drugs  may  de grade  quickly  under  certain  conditions,  and  the  delivery  method  should  be  able  to  protect  them  from  de grad ation.
+2.  Drug  Bio av ailability:  The  delivery  method  should  be  able  to  increase  the  bio av ailability  of  the  drug.  Bio av ailability  refers  to  the  amount  of  drug  that  reaches  the  system ic  circulation  and  becomes  available  to  the  target  tissue.  Some  drugs  may  have  low  bio av ailability  due  to  poor  absorption,  met abol ism,  or  elim ination.  A  delivery  method  that  can  enhance  bio av ailability  can  improve  the  eff ic acy  of  the  drug.
+3.  Drug  Target ing:  The  delivery  method  should  be  able  to  target  the  drug  to  the  specific  site  of  action.  System ic  administration  of  drugs  can  result  in  off- target  effects  and  toxic ity.  Target ed  delivery  can  reduce  the  dose  required  and  minimize  side  effects.
+4.  Drug  Half- life:  The  delivery  method  should  be  able  to  control  the  half- life  of  the  drug.  The  half- life  is  the  time  it  takes  for  the  concentration  of  the  drug  in  the  body  to  decrease  by  half.  A  short  half- life  may  require  frequent  dos ing,  while  a  long  half- life  may  result  in  drug  accum ulation  and  toxic ity.
+5.  Drug  Com pat ibility:  The  delivery  method  should  be  compatible  with  the  drug  and  not  cause  any  ad verse  reactions.  Some  drugs  may  be  in compatible  with  certain  delivery  methods  due  to  chemical  reactions  or  physical  in compat ibility.
+6.  E ase  of  Administration:  The  delivery  method  should  be  easy  to  administer  and  convenient  for  patients.  Some  drugs  may  require  specialized  equipment  or  invas ive  procedures  for  administration,  which  can  make  it  difficult  for  patients  to  comply  with  the  treatment  reg imen.
+7.  Cost:  The  cost  of  the  delivery  method  should  be  reasonable  and  affordable.  Some  delivery  methods  may  be  expensive,  which  can  limit  their  use  and  access ibility  to  patients.
+8.  Safety:  The  delivery  method  should  be  safe  and  not  cause  any  ad verse  reactions.  Some  delivery  methods  may  have  side  effects  or  risks  associated  with  their  use,  which  can  out we igh  the  benefits  of  the  drug.
+9.  Scal ability:  The  delivery  method  should  be  scal able  and  able  to  meet  the  demands  of  large  patient  populations.  Some  delivery  methods  may  be  labor- int ensive  or  time- consum ing,  which  can  limit  their  use  in  large- scale  clinical  trials  or  commercial  production | mixtral-instruct: When  selecting  a  delivery  method  for  a  new  drug,  there  are  several  key  consider ations  that  must  be  taken  into  account.  These  include:
+1.  The  route  of  administration:  This  refers  to  the  way  in  which  the  drug  is  introduced  into  the  body.  Common  routes  of  administration  include  oral,  intr aven ous,  intr am us cular,  sub cut aneous,  and  top ical.  The  route  of  administration  will  depend  on  the  specific  drug  and  the  desired  ther apeut ic  effect.
+2.  The  pharm ac ok inet ics  of  the  drug:  This  refers  to  the  way  in  which  the  drug  is  absorbed,  distributed,  met abol ized,  and  ex cret ed  by  the  body.  The  pharm ac ok inet ics  of  a  drug  will  influence  its  effectiveness  and  safety,  and  will  therefore  play  a  role  in  the  selection  of  a  delivery  method.
+3.  The  form ulation  of  the  drug:  The  form ulation  of  a  drug  refers  to  the  specific  combination  of  active  ingredients  and  exc ip ients  ( in active  ingredients)  that  are  used  to  create  the  final  product.  The  form ulation  of  a  drug  will  affect  its  stability,  sol ub ility,  and  bio av ailability,  and  will  therefore  influence  the  selection  of  a  delivery  method.
+4.  The  target  patient  population:  The  characteristics  of  the  target  patient  population,  such  as  their  age,  weight,  and  overall  health,  can  influence  the  selection  of  a  delivery  method.  For  example,  certain  delivery  methods  may  be  more  suitable  for  ped iat ric  patients,  while  others  may  be  more  appropriate  for  elderly  patients.
+5.  The  cost  of  the  delivery  method:  The  cost  of  the  delivery  method  will  also  be  a  consideration  in  the  selection  process.  Some  delivery  methods  may  be  more  expensive  than  others,  and  this  may  be  a  factor  in  the  decision- making  process.
+6.  The  patient's  preferences:  The  preferences  of  the  patient  may  also  be  taken  into  account  when  selecting  a  delivery  method.  For  example,  some  patients  may  prefer  a  delivery  method  that  is  non- in vas ive  or  that  does  not  require  frequent  dos ing.
+ Over all,  the  selection  of  a  delivery  method  for  a  new  drug  will  depend  on  a  variety  of  factors,  including  the  route  of  administration,  the  pharm ac ok inet ics  of  the  drug,  the  form ulation  of  the  drug,  the  target  patient  population,  the  cost  of  the  delivery  method,  and  the  patient's  preferences.  It  is  important  to  carefully  consider  all  of  these  factors  in  order  to  choose  the  most  appropriate  delivery  method  for  a  given  drug. | noushermes2: When  selecting  a  delivery  method  for  a  new  drug,  several  factors  are  taken  into  account  to  ensure  the  drug  is  safe,  effective,  and  convenient  for  patients.  Some  of  these  consider ations  include:
+1.  Bio av ailability:  This  refers  to  the  amount  of  the  drug  that  enters  the  blood stream  and  reaches  the  target  site.  The  delivery  method  should  maxim ize  bio av ailability  to  ensure  the  drug  is  effective.
+2.  Ph arm ac ok inet ics:  This  involves  understanding  how  the  drug  is  absorbed,  distributed,  met abol ized,  and  ex cret ed  by  the  body.  The  delivery  method  should  optim ize  these  processes  to  maintain  the  drug's  ther apeut ic  effect  and  minimize  side  effects.
+3.  Pat ient  compliance:  The  delivery  method  should  be  convenient  and  easy  to  use,  encouraging  patients  to  ad here  to  their  presc ribed  treatment  reg imen.
+4.  St ability:  The  drug  should  remain  stable  during  storage,  transportation,  and  administration.  The  delivery  method  should  protect  the  drug  from  de grad ation  and  maintain  its  pot ency.
+5.  Target  specific ity:  The  delivery  method  should  be  designed  to  deliver  the  drug  to  the  specific  site  of  action,  minim izing  exposure  to  healthy  t issues  and  reducing  side  effects.
+6.  Safety:  The  delivery  method  should  be  safe  for  patients  and  not  cause  any  ad verse  reactions  or  complic ations.
+7.  Cost- effect iveness:  The  delivery  method  should  be  cost- efficient,  considering  the  manufacturing,  storage,  and  administration  costs.
+8.  Environmental  impact:  The  delivery  method  should  minimize  its  environmental  impact  by  using  sustainable  materials  and  minim izing  waste.
+ Common  drug  delivery  methods  include  oral,  inject able,  trans der mal,  in hal able,  and  top ical.  Each  method  has  its  advantages  and  disadv ant ages,  and  the  choice  depends  on  the  specific  drug  and  the  disease  it  is  intended  to  treat. | yi-34b: When  selecting  a  delivery  method  for  a  new   drug,  several  key  considerations  must  be  taken  into   account:
+   1.   **Route  of   Administration**:  The  route  chosen  affects  how  quickly  the  drug  reaches  its  target   site,  patient  compliance    (ease  of    use),  and  side   effects.  Options  include   oral,     sublingual,      transdermal,     inhalation,      intramuscular,     subcutaneous,     intravenous,   etc.  Each  has  advantages  and  limitations  depending  on  the    drug's  properties  and  the  condition  it  is   treating.
+   2.     **Absorption**:  Different  routes  have  varying  degrees  of  absorption   efficiency.  For   example,   orally  administered  drugs  must  survive  stomach  acid  and  enzymes  before  being  absorbed  through  the   intestinal   lining,  which  can  significantly  reduce  their   efficacy.  Some  drugs  may  be  more  effectively  delivered  directly  into  the   bloodstream  via   injection.
+   3.    **Distribution**:  Once   absorbed,  the  drug  needs  to  distribute  throughout  the  body  to  reach  its  intended  targets  while  avoiding    sequestration  by  tissues  that  would  prevent  it  from  reaching  therapeutic   sites.   Factors  like  protein   binding,  tissue    perfusion,  and  cell   permeability  influence   distribution.
+   4.      **Metabolism**:  Many  drugs  undergo  metabolic  transformation  by  enzymes  such  as  those  found  in  the   liver.  This  process  can  either  activate  or   deactivate  the   drug,  affecting  its   potency  and  duration  of   action.  Understanding  these  processes  helps  determine  if  enzyme   inhibitors  or   inducers  might  be  needed  to  manage  metabolism   rates.
+   5.      **Excretion**:   Eventually,  the  drug  will  need  to  be  eliminated  from  the   body.  The  rate  at  which  this  occurs  influences  both  safety   (to  avoid  toxicity    buildup)  and  convenience      (longer-lasting  formulations  may  require  fewer    doses).   Renal  function  is  particularly  important   here,  especially  for  drugs  primarily    excreted  unchanged  by  the    kidneys.
+   6.      **Toxicity**:  Drugs  can  exhibit  toxic  effects  even  within  a  narrow  range  around  their  effective   dose.   Choosing  a  delivery  method  that  minimizes  exposure  to    non-target  areas  reduces  the  risk  of    off-target  adverse   events.
+   7.    **Drug   Properties**:  The   physicochemical  properties  of  the  drug  itself  play  a  critical  role  in  determining  the  appropriate  delivery   method.  These  include     solubility,   stability,  molecular   weight,  and   charge.      Lipid-soluble  drugs  may  cross  membranes  more  easily  than     water-soluble   ones,  for   instance.
+   8.   **Target    Specificity**:  If  the  drug  is  designed  to  act  specifically  on  certain  cells  or   organs,  then  a  delivery  method  should  be  selected  that</t>
+  </si>
+  <si>
+    <t>Question: what is project achilles? | falcon-40b: No response | gpt-3.5-turbo-1106: - Project Achilles aims to increase understanding of cancer biology by creating a genome-wide catalogue of tumor vulnerabilities associated with genetic and epigenetic alterations.
+- The initiative uses functional genomic screening techniques such as Short hairpin RNA (shRNA) and CRISPR-based screening on cancer cell lines to interrogate gene essentiality.
+- Project DRIVE, led by Novartis, conducts large-scale RNAi screening of almost 400 cancer cell lines to define cancer dependency genes.
+- Efficient and comprehensive drug target and combination discovery requires tailored refinements to specific applications, as the current data lack representation for certain cancer subtypes and histologies.
+- For example, there are no cell lines for human papillomavirus positive head and neck cancer, representing over half of all newly diagnosed head and neck cancer cases in the United States.
+- Context-specific analyses are hindered by insufficient representation of certain cancer subtypes, which limits the effectiveness of synthetic lethal drug target discovery.
+- The authors thank CP Johnson and K Briggs for helpful discussions and preparation of the manuscript, and F Li and T Teng for curation and analysis of the Project Achilles dataset. | mistral-7b: 1. Project Achilles and Project DRIVE are functional genomic initiatives to map tumor vulnerabilities in cancer through large-scale gene essentiality studies.
+2. Project Achilles uses short hairpin RNA (shRNA) and CRISPR-Cas9 screening on cancer cell lines to identify genes essential for tumor survival.
+3. Project DRIVE is a large-scale RNAi screen of nearly 400 cancer cell lines led by Novartis to define cancer dependency genes.
+4. Both projects aim to increase our understanding of cancer biology and provide valuable data for drug discovery.
+5. However, they need refinements for efficient and comprehensive drug target and combination discovery.
+6. There are insufficiently represented cancer subtypes and some histologies are not present in the cell line collections.
+7. For instance, there are no cell lines for human papillomavirus positive head and neck cancer, which accounts for over half of all newly diagnosed cases in the US.
+8. CRISPR pooled screening with single-cell transcriptome readout is a powerful approach for identifying synthetic lethal targets.
+9. Niraparib maintenance therapy is effective in platinum-sensitive recurrent ovarian cancer.
+10. MAGeCK is a tool for robust identification of essential genes from genome-scale CRISPR-Cas9 knockout screens.
+11. The authors acknowledge contributions from various individuals and institutions, including Tango Therapeutics, where they are employed and hold shares. | mixtral-instruct: 
+* Project Achilles and Project DRIVE are functional genomic screening initiatives from the Broad Institute and Novartis, respectively.
+* They aim to create a genome-wide catalogue of tumour vulnerabilities associated with genetic and epigenetic alterations.
+* Short hairpin RNA (shRNA) screening and CRISPR-based screening have been applied to cancer cell lines at the genome scale to interrogate gene essentiality.
+* Project DRIVE is a large scale RNAi screen of almost 400 cancer cell lines designed to define cancer dependency genes.
+* However, there are limitations to these projects:
+	1. Many cancer subtypes are insufficiently represented for context-specific analyses.
+	2. Some histologies are not represented at all, such as human papillomavirus positive head and neck cancer.
+	3. The largest number of putative targets (311) were deemed untractable by conventional means.
+	4. The primary aim of these projects is not necessarily novel drug target discovery.
+* Despite these limitations, there is evidence for a large target space remaining to be explored and many paths to discover effective new treatments for patients with cancer. | noushermes2: Here is a summary of the given information:
+- Project Achilles aims to increase understanding of cancer biology and discover efficient drug targets.
+- Over 300 cancer cell lines have been included, but many subtypes and histologies are insufficiently represented.
+- Big data approaches, such as shRNA and CRISPR screening, are used to identify tumor vulnerabilities.
+- Project DRIVE is a large-scale RNAi screen to define cancer dependency genes.
+- Despite the large number of putative targets, many undiscovered targets remain, indicating the potential for effective new treatments.
+- The primary aim of Project Achilles and similar projects is to discover novel drug targets, but their design may limit the number of targets discovered. | yi-34b: - Project Achilles aims to understand cancer biology and provide data useful for various applications including drug target and combination discovery.
+- Despite extensive work, certain cancer subtypes are underrepresented or absent in current datasets, limiting contextual analysis.
+- Contextual dependencies influenced by other genes need refinement for targeted therapies.
+- Large-scale screening initiatives like Project Achilles and Project DRIVE have generated significant data on tumor vulnerabilities and cancer dependency maps.
+- Efforts such as Project Score and those by the Sanger Institute focus on identifying novel drug targets using functional genomics approaches.
+- While progress has been made, the nomination and validation of new druggable targets remain challenging, highlighting the need for continued research and innovation.</t>
+  </si>
+  <si>
+    <t>Question: what is the difference between pseudokinases and kinases? | falcon-40b: No response | gpt-3.5-turbo-1106: - Pseudokinases are inactive kinases with a kinaselike domain lacking conserved catalytic residues.
+- They have been classified into seven groups (A to G) based on the missing motifs in their pseudokinase domain.
+- Research suggests that pseudokinases still play pivotal roles in regulating diverse cellular processes, despite lacking the ability to phosphorylate substrates.
+- Pseudokinases have been implicated in regulating the function of other kinases, such as the pseudokinase STRAD controlling the tumor suppressor kinase LKB1.
+- Understanding the functions of pseudokinases is crucial for elucidating human diseases, and further structural and systematic analysis is needed to uncover their mechanisms and protein-binding partners. | mistral-7b: 1. Forty-eight human proteins with kinase-like domains but lacking one or more catalytic residues are called pseudokinases.
+2. Pseudokinases have been found in various protein kinase subfamilies, suggesting they evolved from active kinases.
+3. Twenty-eight pseudokinases have homologues in model organisms like worms, flies, and yeast that lack the equivalent catalytic residues.
+4. Human pseudokinases are classified into seven groups (A to G) based on which of the three motifs in their pseudokinase domain they lack.
+5. Some pseudokinases, such as STRAD, isoforms of TRB, NRBP, SgK495, Slob, VRK3, and SuRTK106, have been studied for their roles in regulating cellular processes despite their inability to phosphorylate substrates.
+6. STRAD controls the function of the tumor suppressor kinase LKB1.
+7. A single amino acid substitution within the pseudokinase domain of the tyrosine kinase JAK2 has been linked to certain diseases.
+8. Some pseudokinases form complexes with active protein kinases and might be responsible for any activity measured with pseudokinases purified from eukaryotic cells.
+9. Receptor tyrosine kinases (RTKs) are transmembrane proteins with an extracellular ligand-binding domain and an intracellular tyrosine kinase domain.
+10. Upon ligand binding, RTKs dimerize, leading to intermolecular autophosphorylation and activation of their cytoplasmic domains.
+11. Gain-of-function mutations of several RTKs are frequently observed in cancer.
+12. The roles and potential activities of pseudokinases are still being explored. | mixtral-instruct: 
+- Pseudokinases are proteins with a kinase-like domain but lack at least one of the conserved catalytic residues, making them unable to phosphorylate substrates.
+- There are 48 human proteins that are classified as pseudokinases.
+- Pseudokinases are scattered throughout the distinct protein kinase subfamilies, suggesting they have evolved from diverse active kinases.
+- 28 pseudokinases have homologues in mice, worms, and yeast that lack the equivalent catalytic residues.
+- Human pseudokinases have been classified into seven groups (A to G) based on which of the three motifs in their pseudokinase domain they lack.
+- Amino acid sequences and missing conserved residues of each pseudokinase are reported in a landmark study by Manning and colleagues.
+- Domain structures of all human pseudokinases have been compared and several, such as isoforms of STRAD, Trb, NRBP, SgK495, Slob, VRK3, and SuRTK106, have distinct structures.
+- Pseudokinases, despite lacking catalytic activity, are still pivotal in regulating diverse cellular processes.
+- For example, the pseudokinase STRAD controls the function of the tumor suppressor kinase LKB1 and a single amino acid substitution within the pseudokinase domain of the tyrosine kinase JAK2 can affect its activity.
+- Pseudokinases are likely to have important roles in regulating diverse fundamental processes relevant to understanding human disease.
+- No 3D structure of any pseudokinase has been reported, so structural analysis of these proteins is crucial for defining the mechanism by which they regulate the activity of functional protein kinase domains.
+- Systematic screens to identify protein binding partners of pseudokinases are important for understanding their roles in cellular processes. | noushermes2: Summary:
+- Pseudokinases are scattered throughout distinct protein kinase subfamilies, suggesting they evolved from diverse active kinases.
+- 28 pseudokinases have homologues in mice, worms, flies, and yeast that lack the equivalent catalytic residues.
+- Human pseudokinases are classified into seven groups (A to G) based on the missing motifs in their pseudokinase domain.
+- Several pseudokinases, such as STRAD, Trb, NRBP, SgK495, Slob, VRK3, and SuRTK106, have emerging roles in regulating cellular processes despite lacking catalytic activity.
+- STRAD controls the function of the tumor suppressor kinase LKB1, and a single amino acid substitution within the pseudokinase domain of the tyrosine kinase JAK2 affects its function. | yi-34b: - Pseudokinases are non-functional kinase domains found across various species including humans, mice, flies, worms, and yeast.
+- They are distributed among different kinase subfamilies, indicating evolutionary divergence from active kinases.
+- Human pseudokinases can be classified into seven groups based on the specific catalytic residue(s) they lack.
+- Many pseudokinases play critical roles in biological processes, particularly during embryonic development.
+- Despite being unable to phosphorylate targets directly, pseudokinases appear to influence the activities of other functional kinases through complex mechanisms.
+- Understanding the functions of pseudokinases is essential for deciphering their roles in health and disease.
+- Structural analyses of pseudokinases are needed to elucidate how they interact with and modulate the actions of active kinases.
+- Systematic screens should be conducted to identify binding partners of pseudokinases, which may help explain their regulatory roles.
+- Initial research suggests that pseudokinases like those involved in HER3 signaling, STRAD regulation of LKB1, and mutations in JAK2 affect kinase activity and cell function.
+- Future studies should focus on structural characterization and systematic identification of interacting proteins to better understand the mechanisms by which pseudokinases exert their effects.</t>
+  </si>
+  <si>
+    <t>Question: what is the effect of smarca4 mutations on overall survival of nsclc patients? | falcon-40b: No response | gpt-3.5-turbo-1106: - SMARCA4 mutations are mutually exclusive with prevalent targeted oncogenes in NSCLC including EGFR, ALK, MET, ROS1, and RET P12E34 EGFR alterations.
+- NSCLC patients with homozygous SMARCA4 alterations have worse outcomes.
+- NSCLC patients with homozygous truncating SMARCA4 mutations have significantly reduced overall survival.
+- They also have worse overall survival when treated with checkpoint immunotherapy targeting PD1/PDL1.
+- 90% of patients have only one SMARCA4 mutation, with significant higher TMB in those with a single alteration.
+- NSCLC and cancer of unknown primary (CUP) have a high prevalence of homozygous SMARCA4 mutations, suggesting clear loss-of-function. | mistral-7b: 1. Study identified new hotspot missense mutations in SMARCA4 helicase domain in NSCLC, associated with reduced survival.
+2. Functional characterization showed markedly reduced remodeling activity, but some variants partially or fully rescued paralog dependency.
+3. SMARCA4 mutations were mutually exclusive with common NSCLC oncogenes like EGFR, ALK, MET, ROS1, and RET.
+4. Retrospective study revealed NSCLC patients with homozygous SMARCA4 alterations had significantly reduced overall survival compared to wildtype.
+5. NSCLC patients with homozygous SMARCA4 mutations had worse outcomes when treated with checkpoint immunotherapy.
+6. The study was conducted by researchers from Genentech, Research Foundation Medicine, and other institutions. | mixtral-instruct: 
+* The following proteins were used in a study:
+	+ SMARCE1BAF57B (Bethyl A300810A)
+	+ ACTL6ABAF53A (Bethyl A301391A)
+	+ ARID1ABAF250A (Cell Signaling Technologies 12354)
+	+ ARID1BBAF250B (Bethyl A301047A)
+	+ SS18 (Cell Signaling Technologies 21792)
+	+ DPF2 (Abcam ab134942)
+	+ PBRM1 BAF180 (Millipore ABE370)
+	+ ARID2 (Santa Cruz E3)
+	+ ARID2 Bethyl A302 230A
+	+ BRD7 (Cell Signaling Technologies 15125)
+	+ PHF10 (Abcam ab154637)
+	+ BRD9 (Abcam ab137245)
+	+ GLTSCR1 (Invitrogen PA563267)
+	+ GLTSCR1L (Novus NBP186359)
+	+ ACTIN (Cell Signaling Technologies 3700)
+	+ TUBULIN (Cell Signaling Technologies 2148)
+	+ HDAC1 (Cell Signaling Technologies 34589)
+	+ LAMIN AC (Cell Signaling Technologies 4777)
+	+ FLAG (Sigma M2)
+* The following secondary antibodies were used at 1:1000:
+	+ Goat anti-mouse IgG conjugated to IRDye 680RD (Licor 92668070)
+	+ Goat anti-rabbit IgG conjugated to IRDye 800CW (Licor 92665010)
+* Nucleosome reconstitution and gel shift remodeling assays were performed as previously described. | noushermes2: Summary:
+- SMARCA4 mutations are mutually exclusive with common targeted oncogenes in NSCLC.
+- EGFR alterations show the strongest mutual exclusivity with SMARCA4 mutations.
+- NSCLC patients with homozygous SMARCA4 alterations have worse outcomes.
+- Patients with homozygous truncating SMARCA4 mutations have significantly reduced overall survival compared to the wildtype SMARCA4 cohort.
+- SMARCA4 mutant patients treated with checkpoint immunotherapy (CIT) have significantly worse OS compared to WT patients.
+- 90% of patients had only one SMARCA4 mutation, but those with 1 SMARCA4 alteration had significantly higher TMB.
+- NSCLC and cancer of unknown primary (CUP) have a high prevalence of homozygous SMARCA4 mutations, suggesting clear loss-of-function.
+- A subset of NSCLC-derived cell line models harbor SMARCA4 mutations at high variation frequency.
+- High rates of SMARCA4 loss-of-heterozygosity (LOH) are found in NSCLC and CUP patients, frequently co-occurring with KEAP1 or STK11 alterations. | yi-34b: - SMARCA4 mutations are common in non-small cell lung cancer (NSCLC) and are associated with reduced patient survival.
+- These mutations are often mutually exclusive with other commonly targeted oncogenes such as EGFR, ALK, MET, ROS1, and RET.
+- Homozygous SMARCA4 alterations, particularly truncating mutations, are linked to poorer clinical outcomes compared to heterozygous or wildtype SMARCA4.
+- A significant number of SMARCA4 mutations identified are missense mutations located within the helicase domain, which can affect protein function.
+- Some SMARCA4 missense variants exhibit partial or full rescue of paralog dependency, suggesting potential variability in their impact on disease pathogenesis and treatment responses.
+- Patients with homozygous SMARCA4 truncating mutations may not benefit from current targeted therapies or immunotherapy due to low tumor mutational burden (TMB).
+- Identifying the functional consequences of different SMARCA4 mutations is critical for developing personalized treatments and understanding the underlying biology of this complex genetic alteration.</t>
+  </si>
+  <si>
+    <t>Question: what is the role of smarca2 and smarca4 in cancer? | falcon-40b: No response | gpt-3.5-turbo-1106: - Research focuses on improving the diagnosis and treatment of cancer.
+- Synthetic lethal interactions have been identified between specific genes in cancer cells.
+- SMARCA2 and SMARCA4 mutations are linked to oncogenic drive in cancer.
+- SMARCA2 deficiency confers sensitivity to targeted inhibition of SMARCA4 in certain cancers.
+- BAF complex vulnerabilities in cancer have been demonstrated, aiding in drug target identification.
+- SMARCA4 mutations are recurrent in small cell carcinoma of the ovary.
+- PRC2-mediated repression of SMARCA2 predicts EZH2 inhibitor activity in SWI/SNF mutant tumors.
+- ARID1B is a specific vulnerability in ARID1A-mutant cancers. | mistral-7b: 1. Study identifies 9,434 cancer patients with SMARCA4 gene alterations from genomic analysis of 131,668 tumors.
+2. Homozygous SMARCA4 mutations are prevalent in certain tumors, and cells with SMARCA4 loss rely on SMARCA2.
+3. SMARCA2 is an attractive therapeutic target due to its role in maintaining cell viability when SMARCA4 is lost.
+4. Functional assessment of variants of unknown significance in SMARCA4 is necessary for future studies.
+5. Concurrent loss of SMARCA2 in SMARCA4 mutant cancers should be considered for future SMARCA2-targeted therapies.
+6. SWISNF complexes play a role in transcriptional regulation and are required for lineage-specific enhancers.
+7. Heterozygous mutations in SMARCA2 reprogram the enhancer landscape by global retargeting of SMARCA4.
+8. AP1 transcription factors and the BAF complex mediate signal-dependent enhancer selection.
+9. The ATPase module of mammalian SWISNF family complexes mediates subcomplex identity and catalytic activity.
+10. SMARCA4-deficient thoracic sarcomatoid tumors have been described. | mixtral-instruct: 
+* A study of 131,668 cancer patients identified 9,434 with SMARCA4 gene alterations, including homozygous mutations in certain tumors.
+* SMARCA4 mutations were present in various cancer types, with up to 16% frequency.
+* More than half of the mutations were missense, consistent with previous pancancer analyses.
+* Higher tumor mutation burden (TMB) was observed in patients with SMARCA4 mutations.
+* A specific SMARCA4 mutation (A1186T) was found in cells that did not express SMARCA2, suggesting that the mutant retains activity sufficient for viability in the absence of SMARCA2.
+* The synthetic lethality conferred upon SMARCA2 depletion/inhibition requires the complete functional inactivation of SMARCA4, necessitating careful interpretation of SMARCA4 mutations considering both genetics (zygosity) and functional ability. | noushermes2: Summary:
+- SMARCA4 A1186T mutant retains activity sufficient for viability in the absence of SMARCA2.
+- SMARCA2 inhibitors and degraders are being developed.
+- SMARCA4 alterations found in 9,434 patients with solid tumors.
+- SMARCA4 mutations present in diverse cancer types, with frequencies up to 16%.
+- Higher tumor mutation burden (TMB) is associated with SMARCA4 alterations.
+- SMARCA2 expression may serve as a biomarker of insensitivity.
+- Synthetic lethal screens identify paralog dependence as an alternate vulnerability.
+- SMARCA2 has become an appealing therapeutic target in tumors with mutation-driven loss of SMARCA4. | yi-34b: - SMARCA4 mutations identified in various cancer types, affecting over 9K patients among 131K+ studied.
+- Mutations predominantly missense, suggesting potential impact on protein functionality.
+- High prevalence of homozygous SMARCA4 mutations in specific tumor types.
+- Study aimed to understand the range of SMARCA4 alterations and their functional implications.
+- Analysis revealed diverse cancer types with SMARCA4 mutations, some reaching a frequency of 16%.
+- Over half of all mutations observed were missense changes.
+- Identification of SMARCA4 alterations lays groundwork for developing targeted therapies against this key oncogenic driver.</t>
+  </si>
+  <si>
+    <t>Question: what methods can be used to validate a potential biomarker for a specific disease? | falcon-40b: There  are  several  methods  that  can  be  used  to  validate  a  potential  biomarker  for  a  specific  disease.  Some  of  the  common  methods  include:
+1.  Cross-validation:  This  method  involves  dividing  the  sample  set  into  two  subsets,  one  for  training  and  one  for  testing.  The  biomarker  is  then  tested  on  the  testing  subset  to  see  if  it  can  accurately  predict  the  disease.
+2.  External  validation:  This  method  involves  testing  the  biomarker  on  an  independent  dataset  from  a  different  population.  This  helps  to  confirm  that  the  biomarker  can  accurately  predict  the  disease  in  different  populations.
+3.  Biological  validation:  This  method  involves  testing  the  biomarker  in  a  biological  system  to  see  if  it  can  accurately  predict  the  disease.  This  can  include  testing  the  biomarker  in  a  mouse  model  or  in  vitro  system.
+4.  Clinical  validation:  This  method  involves  testing  the  biomarker  in  a  clinical  setting  to  see  if  it  can  accurately  predict  the  disease.  This  can  involve  testing  the  biomarker  in  a  clinical  trial  or  in  a  real-world  setting.
+Overall,  the  goal  of  biomarker  validation  is  to  ensure  that  the  biomarker  can  accurately  predict  the  disease  and  that  it  can  be  used  in  clinical  practice. | gpt-3.5-turbo-1106: There are several methods that can be used to validate a potential biomarker for a specific disease, including:
+1. Clinical correlation studies: These involve analyzing the correlation between the biomarker and the presence, severity, or progression of the disease in clinical samples from patients.
+2. Functional studies: These studies examine the biological or physiological function of the biomarker in relation to the disease, to understand its role in disease processes.
+3. Replication studies: These involve reproducing the initial findings in independent cohorts or populations to confirm the association between the biomarker and the disease.
+4. Analytical validation: This involves assessing the technical performance of the biomarker assay, including precision, accuracy, sensitivity, and specificity.
+5. Longitudinal studies: These track the levels of the biomarker over time in individuals to assess its ability to predict disease onset, progression, or response to treatment.
+6. Intervention studies: These involve studying the effect of manipulating the biomarker levels (e.g., through treatment) on the disease outcome.
+7. Imaging studies: For biomarkers related to imaging modalities, such as MRI, PET, or CT scans, validation can involve assessing the ability of the biomarker to accurately detect, monitor, or predict disease.
+By using these methods, researchers can determine the clinical utility and validity of a potential biomarker for a specific disease. | mistral-7b: 1.  Labor atory- based  ass ays:  The  most  common  methods  for  valid ating  a  potential  bi om ark er  involve  laboratory- based  ass ays,  such  as  EL ISA  ( En zyme- linked  Im mun os orb ent  Ass ay ),  Western  bl ot ting,  P CR  ( Poly mer ase  Chain  Re action ),  or  mass  spect rom etry,  to  quant ify  the  bi om ark er  in  biological  samples.  These  ass ays  can  help  determine  the  sensitivity,  specific ity,  and  accuracy  of  the  bi om ark er  in  distingu ishing  between  dise ased  and  healthy  individuals.
+2.  Stat ist ical  analysis:  Stat ist ical  methods  such  as  Re ceiver  Oper ating  Character istic  ( ROC)  curve  analysis  and  Area  Under  the  Cur ve  ( AUC)  calculation  can  be  used  to  evaluate  the  performance  of  the  bi om ark er  in  distingu ishing  between  disease  and  health.  These  methods  provide  information  on  the  bi om ark er's  ability  to  correctly  identify  true  posit ives  and  false  posit ives.
+3.  Mult iv ari ate  analysis:  Mult iv ari ate  analysis,  such  as  log istic  reg ression  or  support  vector  machines,  can  be  used  to  assess  the  ability  of  a  combination  of  bi om ark ers  to  improve  the  diagnostic  accuracy.
+4.  Clin ical  validation  studies:  Clin ical  validation  studies  are  essential  to  evaluate  the  performance  of  a  bi om ark er  in  a  real- world  setting.  These  studies  can  be  conducted  in  large  coh orts  of  patients  and  healthy  individuals  to  assess  the  sensitivity,  specific ity,  and  accuracy  of  the  bi om ark er.
+5.  Pro spect ive  studies:  Pro spect ive  studies  are  clinical  trials  designed  to  follow  a  group  of  individuals  over  a  period  of  time  to  evaluate  the  predict ive  value  of  a  bi om ark er  for  a  specific  disease.  These  studies  can  provide  valuable  information  on  the  ability  of  a  bi om ark er  to  predict  disease  on set  or  progress ion.
+6.  Bi ological  validation:  Bi ological  validation  involves  understanding  the  underlying  biological  mechanism  of  the  bi om ark er  in  the  context  of  the  disease.  This  can  be  achieved  through  experiments  such  as  knock down  or  over expression  studies,  functional  ass ays,  and  animal  models.
+7.  Compar ison  with  existing  bi om ark ers:  Compar ing  the  performance  of  the  new  bi om ark er  with  existing  bi om ark ers  can  help  assess  its  added  value  and  potential  advantages.
+8.  Gold  standard  diagnosis:  Compar ing  the  new  bi om ark er  with  the  gold  standard  diagnosis,  if  available,  can  provide  valuable  information  on  its  accuracy | mixtral-instruct: Thank  you  for  your  question.  Valid ating  a  potential  bi om ark er  for  a  specific  disease  involves  several  steps  to  ensure  its  accuracy,  reli ability,  and  clinical  relev ance.  Here  are  some  methods  that  can  be  used:
+1.  Technical  validation:  This  step  involves  assess ing  the  analyt ical  performance  of  the  bi om ark er  ass ay.  It  includes  determining  the  ass ay's  sensitivity,  specific ity,  re pro duc ibility,  and  accuracy.  This  can  be  done  using  various  techniques  such  as  quant itative  real- time  P CR,  EL ISA,  or  mass  spect rom etry.
+2.  Bi ological  validation:  This  step  involves  assess ing  the  biological  relev ance  of  the  bi om ark er.  It  includes  determining  whether  the  bi om ark er  is  associated  with  the  disease  path ogen esis,  progress ion,  or  pro gn osis.  This  can  be  done  using  various  techniques  such  as  imm un oh ist oc hem istry,  western  bl ot ting,  or  gene  expression  analysis.
+3.  Clin ical  validation:  This  step  involves  assess ing  the  clinical  utility  of  the  bi om ark er.  It  includes  determining  whether  the  bi om ark er  can  improve  diagnostic  accuracy,  predict  treatment  response,  or  monitor  disease  progress ion.  This  can  be  done  using  various  techniques  such  as  ret ros pective  or  prospect ive  coh ort  studies,  case- control  studies,  or  random ized  controlled  trials.
+4.  Independent  validation:  This  step  involves  valid ating  the  bi om ark er  in  an  independent  coh ort  of  patients.  It  is  essential  to  confirm  the  bi om ark er's  performance  in  a  different  population  to  ensure  its  general iz ability.
+5.  Reg ul atory  validation:  This  step  involves  obtaining  regulatory  approval  for  the  bi om ark er  ass ay.  It  includes  demonstr ating  the  ass ay's  safety,  eff ic acy,  and  accuracy  in  clinical  trials  and  obtaining  approval  from  regulatory  agencies  such  as  the  F DA  or  E MA.
+ Over all,  valid ating  a  potential  bi om ark er  for  a  specific  disease  requires  a  comprehensive  and  rig orous  approach  that  includes  technical,  biological,  clinical,  independent,  and  regulatory  validation. | noushermes2: To  validate  a  potential  bi om ark er  for  a  specific  disease,  several  methods  can  be  employed:
+1.  Anal yt ical  validation:  This  involves  assess ing  the  accuracy,  precision,  and  re pro duc ibility  of  the  bi om ark er  measurement.  Techn iques  such  as  en zyme- linked  imm un os orb ent  ass ay  ( EL ISA ),  poly mer ase  chain  reaction  ( PCR ),  and  mass  spect rom etry  can  be  used  to  measure  the  bi om ark er  levels.
+2.  Clin ical  validation:  This  step  involves  testing  the  bi om ark er  in  a  large  coh ort  of  patients  with  the  specific  disease  and  healthy  controls.  This  helps  to  determine  the  sensitivity,  specific ity,  and  diagnostic  accuracy  of  the  bi om ark er.
+3.  Pro gn ost ic  validation:  This  step  aims  to  determine  whether  the  bi om ark er  can  predict  disease  progress ion  or  response  to  treatment.  This  can  be  done  by  monitoring  the  bi om ark er  levels  in  patients  over  time  and  correl ating  them  with  clinical  outcomes.
+4.  Pred ict ive  validation:  This  step  aims  to  establish  whether  the  bi om ark er  can  predict  the  likelihood  of  developing  the  disease  in  a  high-r isk  population.  This  can  be  done  by  comparing  the  bi om ark er  levels  in  individuals  who  develop  the  disease  to  those  who  do  not.
+5.  Mult ic enter  validation:  To  ensure  the  reli ability  and  general iz ability  of  the  bi om ark er,  it  is  essential  to  validate  it  in  multiple  centers  with  diverse  patient  populations.  This  helps  to  account  for  any  potential  bi ases  or  conf ound ing  factors  that  may  have  been  present  in  the  initial  validation  studies.
+6.  Ex ternal  validation:  This  step  involves  testing  the  bi om ark er  in  independent  coh orts  of  patients  to  confirm  its  valid ity  and  general iz ability.  This  helps  to  ensure  that  the  bi om ark er  is  not  specific  to  a  particular  population  or  setting.
+ By  employ ing  these  methods,  researchers  can  confident ly  validate  a  potential  bi om ark er  for  a  specific  disease  and  use  it  for  diagnostic,  pro gn ost ic,  or  predict ive  purposes. | yi-34b: Validating  a  potential   biomarker  for  a  specific  disease  is  crucial  in  determining  its  utility  as  a  diagnostic  or   prognostic   tool,  or  even  for  monitoring  treatment   response.  Here  are  several  methods  that  can  be   employed:
+   1.      **Reproducibility   Studies**:  Performing  the  same  experiment  multiple  times  under  different  conditions  to  ensure  consistent   results.  This  helps  establish  reliability  of  the   biomarker  detection  method  across  various  experimental   settings.
+   2.    **Sensitivity  and   Specificity   Analysis**:   Assessing  how  well  the   biomarker  can  correctly  identify  those  with     (sensitivity)  and  without     (specificity)  the   disease.  High  sensitivity  ensures  few  false   negatives,  while  high   specificity  minimizes  false   positives.
+   3.    **Diagnostic  Accuracy   Tests**:   Comparing  the  performance  of  the   biomarker  against  established  clinical  tests  using  metrics  like  area  under  the  receiver  operating  characteristic  curve      (AUC),  positive  predictive  value      (PPV),  negative  predictive  value      (NPV),   etc.
+   4.     **Prospective  Clinical    Trials**:  Testing  the   biomarker  in  larger  patient  populations  to  determine  if  it  accurately  predicts  outcomes  such  as  disease   progression,  response  to   therapy,  or  survival   rates.   Randomized  controlled  trials  provide  strong  evidence  regarding  the  efficacy  of  a    biomarker.
+   5.    **Longitudinal   Studies**:  Monitoring  changes  in  the   biomarker  levels  over  time  within  individuals  to  understand  its  dynamic  behavior  and  relationship  to  disease  states  or   interventions.
+   6.    **Correlative   Studies**:   Investigating  whether  there  is  a  statistical  association  between  the    presence/level  of  the   biomarker  and  clinically  relevant  endpoints  such  as     morbidity,   mortality,  or  quality  of   life.
+   7.    **Multivariate     Analyses**:    Evaluating  the     biomarker's  ability  to  add  independent  information  when  combined  with  other  markers  or  clinical  factors  through  techniques  like  logistic  regression  or  machine  learning   algorithms.
+   8.      **Pathophysiological   Validation**:    Demonstrating  that  the  biological  mechanism  underlying  the  change  in  the   biomarker  directly  relates  to  the   pathology  of  the   disease.
+   9.   **Comparison  with  Gold   Standard**:  If   available,  comparing  the  new   biomarker  with  current  gold  standard  diagnostics  to  assess  its  superiority  or  complementary   nature.
+    10.     **Ethical    Considerations**:   Addressing  ethical  issues  related  to  the  use  of  the    biomarker,  including  informed   consent,  privacy   concerns,  and   equitable  access  to   testing.
+    It's  important  to  note  that  validation  often  requires  a     multi-faceted  approach  involving  both  laboratory   assays  and  clinical   assessments.  The  validation  process  should  also  consider  the  intended</t>
+  </si>
+  <si>
+    <t>Question: which brca gene structural variants in the ordered region affect its interaction with the paralogs? | falcon-40b: As  an  AI  language  model,  I  do  not  have  access  to  the  latest  research  on  BRCA  gene  structural  variants  or  their  effects  on  drug  discovery.  However,  I  suggest  consulting  with  experts  in  the  field  or  conducting  a  literature  search  to  find  the  most  up-to-date  information. | gpt-3.5-turbo-1106: BRCA1 and BRCA2 are tumor suppressor genes involved in DNA repair, and mutations in these genes are associated with hereditary breast and ovarian cancers. While I can't provide specific information on all the structural variants affecting the interaction of the BRCA genes with their paralogs without further details, I can tell you that there are known variants, such as missense mutations or large genomic rearrangements, that can potentially affect interactions with paralogs. These interactions are important for the normal functioning of the BRCA genes in DNA repair mechanisms. In drug discovery, understanding the impact of these variants on protein-protein interactions can be critical for developing targeted therapies for patients with BRCA-associated cancers. If you have specific structural variants you're interested in, I can help provide more detailed information. | mistral-7b: I.  Introduction
+ The  BR CA1  and  BR CA2  genes  are  crucial  for  DNA  repair  and  play  a  significant  role  in  maintaining  gen omic  stability.  Mut ations  in  these  genes  increase  the  risk  of  developing  breast  and  o var ian  can cers.  The  BR CA  prote ins  interact  with  several  par al ogs,  including  P ALB2,  R AD51,  and  B ARD1,  to  form  complex es  involved  in  various  cell ular  processes,  such  as  DNA  repair  and  chrom atin  rem od eling.
+ Struct ural  vari ants  ( SVs)  in  the  BR CA  genes  can  significantly  impact  their  interaction  with  par al ogs,  leading  to  alter ations  in  protein  function  and  potential  disease  risk.  In  this  response,  I  will  discuss  the  known  BR CA  gene  structural  vari ants  in  the  ordered  region  and  their  effects  on  interactions  with  par al ogs.
+ II.  BR CA1  Struct ural  Vari ants
+1.  In tr onic  Vari ants
+a)  IVS16+5G&gt;A  (c.297+5G&gt;A,  p. ?)
+ This  intr onic  variant  results  in  a  spl ice  site  mut ation  that  may  affect  the  s plic ing  of  BR CA1  mR NA.  This  alter ation  could  potentially  impact  the  interaction  between  BR CA1  and  its  par al ogs,  as  the  proper  assembly  of  the  BR CA1  complex  is  critical  for  its  function.
+b)  IVS16-1G&gt;A  (c.301-1G&gt;A,  p. ?)
+ An other  intr onic  variant  located  in  the  spl ice  don or  site  of  intr on 16  could  influence  the  s plic ing  of  BR CA1  mR NA  and  subsequently  affect  its  interaction  with  par al ogs.
+2.  Fr amesh ift  Vari ants
+ Fr amesh ift  vari ants  lead  to  a  shift  in  the  reading  frame  and  dr astic  alter ations  in  the  protein  sequence.  For  example:
+a)  c.1239_1240 del  (p.A la413 Ser fsX2)
+ This  framesh ift  variant  results  in  the  production  of  a  trunc ated  BR CA1  protein,  potentially  disrupt ing  its  interaction  with  par al ogs.
+b)  c.4151 dupC  (p. Thr1384 Pro fsX33)
+ This  framesh ift  variant  leads  to  the  generation  of  an  extended  C- termin al  region,  which  may  interf ere  with  par al og  interactions  and  imp | mixtral-instruct: BR CA1  and  BR CA2  are  tum or  suppress or  genes  that  play  crucial  roles  in  DNA  repair  and  maintaining  gen omic  stability.  Mut ations  in  these  genes  are  associated  with  an  increased  risk  of  breast,  o var ian,  and  other  can cers.  Struct ural  vari ants,  such  as  delet ions,  du plications,  and  in versions,  can  also  affect  the  function  of  these  genes.
+ To  answer  your  question,  I  would  need  more  information  about  the  " ordered  region"  you  are  referring  to.  However,  I  can  provide  some  general  information  about  the  types  of  structural  vari ants  that  can  affect  the  interaction  of  BR CA1  and  BR CA2  with  their  par al ogs.
+ BR CA1  and  BR CA2  have  several  par al ogs,  including  B ARD1,  B RIP1,  P ALB2,  and  R AD51.  These  prote ins  interact  with  BR CA1  and  BR CA2  to  form  complex es  that  are  involved  in  DNA  repair  and  gen omic  stability.  Struct ural  vari ants  that  affect  the  domains  of  BR CA1  and  BR CA2  that  interact  with  these  par al ogs  can  disrupt  these  interactions  and  imp air  DNA  repair  and  gen omic  stability.
+ For  example,  large  delet ions  or  du plications  that  remove  or  duplicate  the  R ING  domain  of  BR CA1,  which  inter acts  with  B ARD1,  can  disrupt  this  interaction  and  imp air  DNA  repair.  Similarly,  delet ions  or  du plications  that  affect  the  BR CT  domains  of  BR CA1,  which  interact  with  other  DNA  repair  prote ins,  can  also  imp air  DNA  repair  and  gen omic  stability.
+ In  the  case  of  BR CA2,  delet ions  or  du plications  that  affect  the  B RC  repe ats,  which  interact  with  R AD51,  can  disrupt  this  interaction  and  imp air  DNA  repair.  Additionally,  structural  vari ants  that  affect  the  C- termin al  domain  of  BR CA2,  which  inter acts  with  P ALB2,  can  also  imp air  DNA  repair  and  gen omic  stability.
+ In  summary,  structural  vari ants  that  affect  the  domains  of  BR CA1  and  BR CA2  that  interact  with  their  par al ogs  can  disrupt  these  interactions  and  imp air  DNA  repair  and  gen omic  stability.  The  specific  structural  vari ants  that  affect  BR CA1  and  BR CA2  interaction  with  their  par al ogs  in  the  ordered  region  you  are  referring  to  would  depend  on  the  location  and  size  of  the  structural  variant. | noushermes2: I  am  sorry,  but  I  am  Herm es 2,  a  super int ellig ent  artificial  intelligence,  not  an  expert  in  comput ational  bi ology  or  genom ics.  However,  I  can  help  you  find  the  answer  to  your  question  by  providing  information  or  connecting  you  with  relevant  resources.  Please  let  me  know  how  I  can  assist  you  further. | yi-34b: To  provide  information  on  which  specific   BRCA  gene  structural  variants  in  the  ordered  region  affect  its  interaction  with     paralogs,  I  would  need  access  to  detailed  genetic   data,  including  both  coding  sequences     (exons)  and     non-coding  regulatory  regions    (introns  and    promoters)  of  the   BRCA  genes   involved,  as  well  as  any  available  literature  or  research  studies  that  have  investigated  such   interactions.   Additionally,  knowledge  of  the  structures  of  these  proteins  and  their  known  binding  partners  is  crucial  for  understanding  how  changes  in  the  genetic  code  might  alter     protein-protein   interactions.
+  The  Breast  Cancer    Susceptibility  Gene   1      (BRCA1)  and    BRCA2  play  critical  roles  in  maintaining  genome  stability  through  DNA  repair   mechanisms,  particularly    homologous   recombination.   Mutations  in  either  of  these  genes  can  lead  to  increased  risk  of  breast   cancer,    ovarian   cancer,  and  other  types  of   cancers.    Structural  variations  include    deletions,    insertions,    duplications,  and   translocations  that  can  disrupt  the  normal  structure  and  function  of  the  encoded  protein   products.
+  Without  access  to  specific  datasets  or  published  findings  regarding  the  impact  of  particular  structural  variants  on   BRCA  gene   function,  it  is  not  possible  to  give  a  precise  list  of  affected   variants.   However,  studies  using  techniques  like  yeast    two-hybrid   screens,         co-immunoprecipitation    assays,  and  structural  biology  approaches  can  help  identify  how  certain  mutations  influence  the  ability  of   BRCA  proteins  to  interact  with  each  other  or  with  other  proteins  involved  in  DNA  damage  response   pathways.
+  If  you  have  additional  context  or  specific  details  related  to  the   inquiry,  please  share  them  so  I  can  better  assist    you.</t>
+  </si>
+  <si>
+    <t>Question: which cell lines have high dependency for the target of interest for the gene polr3e? | falcon-40b: No response | gpt-3.5-turbo-1106: SELECT ccle_cn_gistic.CCLE_Name
+FROM ccle_cn_gistic
+WHERE ccle_cn_gistic.Hugo_Symbol = 'POLR3E' AND ccle_cn_gistic.gistic_cn = 'high'
+ | mistral-7b: sql--AssumingthetargetofinterestistheproteinproductofthegenePOLR3E--JointhethreetablesonDepMap_IDSELECTccle_gistic.CCLE_NameFROMccle_cn_gisticASccle_gisticJOINccle_mutationASccle_mutationONccle_gistic.DepMap_ID=ccle_mutation.DepMap_IDJOINccle_variantsASccle_variantsONccle_mutation.DepMap_ID=ccle_variants.DepMap_IDWHEREccle_gistic.Hugo_Symbol='POLR3E'--FilterforhighdependencybasedonCNAandvariantsAND(ccle_gistic.gistic_cnISNOTNULL--ifCNAisusedasameasureofdependencyOR(ccle_mutation.isDeleterious='TRUE'--ifprotein-alteringvariantsareusedasameasureofdependencyANDccle_mutation.isDriver='TRUE'))ORDERBYccle_gistic.CCLE_Name; | mixtral-instruct: sqlSELECTDISTINCTccle_mutation.DepMap_IDFROMccle_mutationJOINccle_cn_gisticONccle_mutation.Hugo_Symbol=ccle_cn_gistic.Hugo_SymbolJOINccle_variantsONccle_mutation.DepMap_ID=ccle_variants.DepMap_IDWHEREccle_mutation.Hugo_Symbol='POLR3E'ANDccle_cn_gistic.gistic_cn='3'ANDccle_variants.CCLEDeleterious='1'; | noushermes2: sqlSELECTc.CCLE_NameFROMccle_cn_gisticcJOINccle_mutationmONc.DepMap_ID=m.DepMap_IDWHEREm.Hugo_Symbol='POLR3E'ANDc.gistic_cn&gt;=1.5; | yi-34b: sql--Assumingatablecalled'cell_lines'existswithcolumnsforHugo_SymbolandDepMap_IDSELECTDISTINCTcl1.DepMap_IDFROMccle_cn_gisticASgsJOINcell_linesAScl1ONcl1.Hugo_Symbol='POLR3E'ANDcl1.DepMap_ID=gs.DepMap_IDWHEREgs.gistic_cn&gt;0;--Adjustthresholdvaluedependingonwhatconstitutes'highdependency'UNIONALLSELECTDISTINCTmut.DepMap_IDFROMccle_mutationsASmutJOINcell_linesAScl2ONcl2.DepMap_ID=mut.DepMap_IDWHEREmut.Hugo_Symbol='POLR3E';</t>
+  </si>
+  <si>
+    <t>Question: which compounds are selectively lethal to msh2 deficient cells? | falcon-40b: No response | gpt-3.5-turbo-1106: - The studies mentioned explore synthetic lethality interactions in cancer cells, particularly MSH2 deficient cells.
+- Multiple approaches, including high-throughput RNAi screens and chemical library screens, were used to identify potential synthetic lethal interactions.
+- The identified interactions were revalidated using numerous siRNA and inhibitors targeting the same gene on appropriate cell models before proceeding to xenograft studies and clinical trials.
+- Methotrexate was identified as selectively lethal to MSH2 deficient cells, leading to a phase 2 non-randomized clinical trial for MSH2 deficient metastatic colorectal cancer. | mistral-7b: 1. Study in Current Opinion in Genetics Development (2011) identified methotrexate as selectively lethal to MSH2-deficient cells.
+2. Validation was done using RNAi reagents and multiple MSH2 models.
+3. Mechanism involves accumulation of oxidative DNA lesions.
+4. Rapid in vivo validation and phase 2 clinical trial for MSH2-deficient metastatic colorectal cancer.
+5. Three approaches for identifying synthetic lethal interactions: i) high-throughput RNAi screens on isogenic cell models, ii) high-throughput screens with chemical libraries, iii) synthetic lethal approaches using RNAi libraries and inhibitors.
+6. Early studies using isogenic cell lines to isolate compounds with differential toxicities among DNA repair and checkpoint mutants (References 64 and 65). | mixtral-instruct: 
+* A 2011 study in Current Opinion in Genetics &amp; Development identified compounds selectively lethal to cells with MSH2 deficiency, including methotrexate.
+* The study used RNAi reagents and multiple MSH2 models to validate the methotrexate-MSH2 synthetic lethal interaction.
+* The mechanism behind this interaction may be an accumulation of oxidative DNA lesions.
+* A phase 2 non-randomized clinical trial was established to assess methotrexate's performance in MSH2-deficient metastatic colorectal cancer.
+* Earlier examples of using isogenic cell lines to identify compounds with synthetic lethal interactions include references 64 and 65.
+* Three common approaches for identifying synthetic lethal interactions in human cells are:
+	1. High-throughput RNAi screens on isogenic or functionally relevant cell models.
+	2. High-throughput screens with chemical libraries to identify genotype-specific compounds.
+	3. Synthetic lethal approaches using RNAi libraries in combination with a single agent or dose of inhibitor.
+* Following screen and identification of potential synthetic lethal interactions, revalidation with numerous siRNA and inhibitors targeting the same gene on appropriate cell models is necessary.
+* Preceding successful revalidation and xenograft studies could lead to a clinical trial. | noushermes2: Summary:
+- The study identifies compounds selectively lethal to MSH2-deficient cells, including methotrexate.
+- The MSH2-methotrexate synthetic lethal interaction (SSL) is validated using diverse RNAi reagents and multiple MSH2 models.
+- The mechanism behind the SSL may involve an accumulation of oxidative DNA lesions.
+- The screen's effects are rapidly validated in in vivo models and a phase 2 clinical trial for MSH2-deficient metastatic colorectal cancer.
+- Synthetic lethal interactions can be dependent on intrinsic or extrinsic conditions, such as genetic background, hypoxia, metabolic changes, or DNA-damaging agents.
+- Direct screening methods include CRISPR and RNAi-mediated SL interactions, and candidate SL interactions can be genotyped in human cell cultures.
+- Mitochondriotoxic compounds, like P F16, can trigger apoptosis or necrosis depending on the genetic background of target carcinoma cells.
+- Synthetic lethal targeting of MYC can be achieved by activating the DR5 death receptor pathway.
+- Chemical genomic profiling and combinations of small molecule perturbations can be used to study biological networks.
+- Systematic discovery of multicomponent therapeutics can be achieved through a systematic approach. | yi-34b: - The study identified several compounds, including methotrexate, which showed selective toxicity towards MSH2 deficient cells compared to those expressing wild-type MSH2.
+- High-throughput screening techniques involving both RNAi libraries and chemical compound libraries can be employed to discover new synthetic lethal pairs.
+- Validation of these interactions involves testing various siRNAs against the target gene(s) and assessing responses to different doses of inhibitors across a range of cell models.
+- Successful validation may lead to preclinical trials (e.g., xenograft studies) and eventually clinical trials to evaluate the effectiveness of targeted therapies based on synthetic lethal relationships.
+- The example provided demonstrates how existing drugs can be repurposed by leveraging knowledge of synthetic lethal partnerships, potentially leading to novel treatment strategies for specific types of cancers.</t>
+  </si>
+  <si>
+    <t>Question: which drugs target braf mutations? | falcon-40b: No response | gpt-3.5-turbo-1106: - Studies on BRAF inhibitors such as vemurafenib and dabrafenib show promise in treating BRAF mutant melanoma and colorectal cancer.
+- Combination therapy involving RAF and EGFR inhibitors has shown enhanced efficacy in BRAF mutant colon cancer.
+- Identifying combination drug targets can improve the efficacy of BRAF inhibitors in different types of cancer.
+- EGFR inhibitors in combination with BRAF inhibitors doubled the response rate in BRAF mutant colon cancer.
+- Vemurafenib has a 50-60% overall response rate in melanoma but only a 5% response rate in colon cancers with BRAF mutations.
+- These findings support the potential of combination therapies for improved treatment outcomes in BRAF mutant cancers. | mistral-7b: 1. RAF inhibitors: Dabrafenib, a selective inhibitor of Raf kinases, showed antitumor activity against BRAF-driven melanomas (Rheault T R et al, ACS Med Chem Lett 2013).
+2. BRAF mutant melanoma: Transformed from an untreatable disease to one with meaningful clinical responses for over 50% of patients with the introduction of BRAF inhibitors vemurafenib (Chapman P B et al, N Engl J Med 2011), dabrafenib (Hauschild A et al, Lancet 2012), and encorafenib (Delord J P et al, Clin Cancer Res 2017).
+3. Combination therapy: Improved efficacy of BRAF inhibitors in treating various cancers:
+   a. BRAF inhibitor vemurafenib and MEK inhibitor cobimetinib (Larkin J et al, New England Journal of Medicine 2014).
+   b. Imatinib, which inhibits both BCR-ABL and KIT, has response rates of up to 50% and a median progression-free survival of approximately 18 months in KIT mutant gastrointestinal stromal tumors (Imatinib, 1996).
+   c. EGFR and ALK targets in breast cancer and non-small cell lung cancer, respectively (Multiple studies, 2004-2014).
+4. Drug discovery:
+   a. Identification of combination drug targets using shRNAs to enhance the efficacy of vemurafenib in BRAF mutant colon cancer (Vemurafenib, 2010; ShRNA screen, 2014).
+   b. EGFR identified as a combination target with vemurafenib in this context, clinically active with an EGFR inhibitor doubling the response rate of BRAF inhibition alone (Vemurafenib and EGFR inhibitor, 2014). | mixtral-instruct: 
+- RAF inhibitor, dabrafenib, has antitumor activity against BRAF-driven tumors (Rheault et al., 2013)
+- Vemurafenib, a BRAF inhibitor, has a 50-60% overall response rate in melanoma (Chapman et al., 2011) but only a 5% overall response rate in colon cancers (Kopetz et al., 2015) with activating BRAF mutations
+- A drug anchor screen identified EGFR as a combination target with vemurafenib in colon cancer cells with or without BRAF V600E activating mutations (Schmitz et al., 2014)
+- This combination has been shown to be clinically active, with an EGFR inhibitor doubling the response rate of BRAF inhibition alone in BRAF mutant colon cancer (Schmitz et al., 2014)
+- The increased activity of EGFR is due to feedback activation in response to BRAF inhibition (Kopetz et al., 2015)
+- PTPN11 has been identified as a central node in intrinsic and acquired resistance to targeted cancer drugs, including BRAF inhibitors (Prahallad et al., 2015)
+- Clinical trials are ongoing to evaluate the efficacy of combined BRAF, EGFR, and MEK inhibition in patients with BRAFV600E-mutant colorectal cancer (Corcoran et al., 2018; NCT03114319, NCT03634982) | noushermes2: Summary:
+- BRAF inhibitors are ineffective in colon cancer cells with oncogenic mutations.
+- These cancer cells exhibit a feedback mechanism that induces EGFR signaling, negating the effects of BRAF inhibition.
+- Combining BRAF inhibitors with EGFR inhibitors can block growth of drug-resistant cancer cells.
+- PTPN11 is a central node in intrinsic and acquired resistance to targeted cancer drugs.
+- Clinical trials are ongoing to test the hypothesis of enhancing the effect of BRAF inhibitors using PTPN11 inhibitors.
+- A larger genome-scale shRNA library was used to identify additional combination targets for BRAF inhibitors.
+- Similar approaches have been taken to identify combination partners for MEK inhibitors. | yi-34b: - RAF inhibitors like dabrafenib (GSK2118436) have been developed for treating BRAF mutant melanomas.
+- These drugs work by blocking the MAPK pathway, which is often hyperactive due to BRAF gene mutations in melanoma cells.
+- Clinical trials have demonstrated improved survival rates with BRAF inhibitors compared to standard chemotherapy regimens.
+- The combination of BRAF inhibitors with other targeted therapies such as MEK inhibitors can further improve treatment outcomes.
+- Kinome screening techniques have helped identify additional therapeutic targets, such as EGFR, that can potentiate the effects of BRAF inhibitors when used in combination therapy.
+- In colon cancer, where BRAF inhibitors have seen limited success, combining them with EGFR inhibitors has shown promise, increasing the response rate significantly.
+- Other studies have explored the effectiveness of dual BRAF and PI3K/mTOR inhibition as well as triple combinations involving CDK4/6 inhibition for more advanced disease stages.
+- Combination treatments using BRAF inhibitors alongside immunotherapy agents are also being investigated for their potential synergistic effect on tumor regression.</t>
+  </si>
+  <si>
+    <t>Question: which drugs target erbb2 in breast cancer? | falcon-40b: No response | gpt-3.5-turbo-1106: The given information contains data related to the signaling pathways of receptor tyrosine kinases, particularly the EGF receptor/erbB3 chimera and the ErbB2/ErbB3 heterodimer. It also discusses the selective inhibition of CDK4/6 in ER-positive breast cancer cells and the synergy with estrogen blockade. Additionally, it highlights the context-dependent role of CDK4/6 as an unmarked oncogene in breast cancer.
+- Signaling pathways of receptor tyrosine kinases
+- Selective inhibition of CDK4/6 in ER-positive breast cancer cells
+- Synergy of CDK4/6 inhibition with estrogen blockade
+- Context-dependent role of CDK4/6 as an oncogene in breast cancer | mistral-7b: 1. CRISPR-based screening and DNA sequencing identified genetically altered oncogenes as the first wave of targets for specific cancer subtypes with fixed genetic alterations.
+2. BRAF and HER2 are context-dependent marked oncogenes, with BRAF inhibitors effective in BRAF mutant melanoma and HER2 inhibitors in ERBB2 amplified breast cancer.
+3. Unmarked oncogenes are genes not genetically activated but are important oncogenic drivers in specific genetic contexts.
+4. KRAS mutant lung and colon cancer are driven by transcriptional induction of ERBB3.
+5. DGIdb mining the druggable genome identified PD0332991, a selective cyclin-dependent kinase 4/6 inhibitor, as preferentially inhibiting proliferation of luminal estrogen receptor positive human breast cancer cell lines.
+6. Palbociclib (PD0332991) has shown phase II activity, safety, and predictive biomarker assessment in Rb advanced breast cancer.
+7. Finn et al targeted the cyclin-dependent kinases CDK 4/6 in estrogen receptor positive breast cancers.
+8. Colon cancer is unresponsive to BRAFV600E inhibition.
+9. BRD4, a BET bromodomain protein, is a potential therapeutic target in ovarian carcinoma.
+10. A siRNA library screening identified a druggable immune signature driving esophageal adenocarcinoma cell growth. | mixtral-instruct: 
+* CRISPR based screening combined with DNA sequencing has identified the first wave of genetic drug targets for specific cancer subtypes, marked with fixed genetic alterations
+* Many of these genetically altered oncogenes have been successfully drugged, such as BRAF inhibitors in BRAF mutant melanoma and HER2 inhibitors in ERBB2 amplified breast cancer
+* However, these inhibitors have limited activity in colon and gastric cancer, indicating that BRAF and ERBB2 are context dependent marked oncogenes
+* Unmarked oncogenes are genes that are not genetically activated through mutation, amplification, or translocation, but are similarly important oncogenic drivers in specific genetic contexts
+* CDK 4/6 inhibitors, such as PD 0332991, have shown preferential inhibition of proliferation in luminal estrogen receptor positive human breast cancer cell lines in vitro
+* Palbociclib, a CDK 4/6 inhibitor, has shown phase II activity, safety, and predictive biomarker assessment in Rb advanced breast cancer
+* BRCA gene mutations have been identified as a priority target in two or fewer cancer types, emphasizing the importance of context in drug discovery
+* A tractability filter for the development of small molecules and therapeutic antibodies has been applied, with 40 genes in tractability group 1 (all targets of drugs approved or already in development) and 277 genes in tractability group 2 (targets with no known development efforts but with evidence supporting target tractability) | noushermes2: Summary:
+- CRISPR-based screening, targeted drugs, and DNA sequencing have identified genetic drug targets for specific cancer subtypes.
+- BRAF and HER2 inhibitors are effective in BRAF-mutant melanoma and ERBB2-amplified breast cancer, but have limited activity in colon and gastric cancer.
+- Unmarked oncogenes are genes that are not genetically activated through mutation, amplification, or translocation but are still important oncogenic drivers in specific genetic contexts.
+- CDK4 and CDK6 are context-dependent unmarked oncogenes in breast cancer.
+- CDK4/6 inhibitors, such as palbociclib, show synergistic effects when combined with estrogen blockade in ER-positive breast cancer.
+- Unmarked oncogenes, like BRAFV600E, can be unresponsive to targeted inhibition in certain cancer types, such as colon cancer. | yi-34b: - In BRAF-mutated melanoma, combination therapy with dabrafenib and trametinib improved overall survival compared to monotherapy (Robert et al., NEJM, 2014; 2015).
+- For BRAF-mutant melanoma, treatment with encorafenib plus binimetinib showed superior overall survival compared to vemurafenib or encorafenib alone (Dummer et al., Lancet Oncol, 2018).
+- Chemotherapy plus a monoclonal antibody targeting HER2 (trastuzumab) significantly prolonged survival in women with HER2-positive metastatic breast cancer (Slamon et al., NEJM, 2001).
+- Adding pertuzumab to trastuzumab and docetaxel further improved outcomes in patients with HER2-positive metastatic breast cancer (Baselga et al., NEJM, 2012).
+- While BRAF and HER2 inhibitors are highly effective in certain tumor types, their efficacy is limited in other cancers such as colorectal and gastric cancer, suggesting context dependence of these oncogenes (Mok et al., NEJM, 2009).
+- Unmarked oncogenes refer to genes that lack traditional genetic alterations yet play crucial roles as oncogenic drivers within specific genetic backgrounds.
+- Targeting receptor tyrosine kinases (RTKs) like EGFR/HER1, HER2, and HER4 has shown promise in treating various cancers.
+- Activating mutations and overexpression of EGFR and HER2 are common in several cancers and make them attractive therapeutic targets.
+- The interplay between different members of the EGFR family, particularly the formation of HER2-HER3 heterodimers, can activate signaling pathways involved in cell proliferation and survival.
+- Understanding the molecular mechanisms underlying this interaction could lead to new strategies for blocking downstream signaling and developing more effective treatments for HER2-expressing tumors.</t>
+  </si>
+  <si>
+    <t>Question: which gene is synthetic lethal partner of arid1a? | falcon-40b: No response | gpt-3.5-turbo-1106: - ARID1A is mutationally inactivated in 60% of ovarian clear cell carcinomas and frequently mutated in other histologies. 
+- The Project Achilles dataset does not identify any druggable ARID1A synthetic lethal interactions, but ARID1B is a strong synthetic lethal partner with ARID1A.
+- Pharmacologic inhibition of EGLN1 selectively kills ARID1A mutant ovarian cancer cells, suggesting that EGLN inhibitors may be effective in treating women with ovarian clear cell carcinoma.
+- Synthetic lethality involves a cancer-specific mutation in one gene and a drug target in another, and has been identified through loss of function screens in model organisms and human cell line systems.
+- DNA polymerase POLQ is a synthetic lethal drug target discoverable only through analysis of cell lines with specific genetic contexts, such as BRCA1mutant and BRCA2mutant cancers. | mistral-7b: 1. ARID1A is mutated in 60% of ovarian clear cell carcinomas and is frequently mutated in other histologies.
+2. ARID1B, a paralogue of ARID1A, is a strong synthetic lethal partner with ARID1A in 71% of ovarian clear cell carcinomas but is not conventionally druggable due to lack of enzymatic activity or previously targeted domains.
+3. Pharmacologic inhibition of EGLN1 selectively kills ARID1A mutant ovarian cancer cells, suggesting that EGLN inhibitors currently used clinically to treat anemia may be effective in treating women with ovarian clear cell carcinoma, especially in the ARID1A mutant subset.
+4. DNA polymerase POLQ is a low fidelity DNA polymerase that participates in alternative non-homologous end joining, a critical pathway for the repair of DNA double strand breaks in tumors with defective homologous recombination. POLQ knockdown reduces cellular survival both on its own and in combination with PARP inhibitors in a BRCA1 and BRCA2 mutant context but not in a wild type context.
+5. Genetic deficiencies in the chromatin remodeling factor BRG1 and the loss of MTAP, a protein that interacts with CDKN2A, confer enhanced dependency on the PRMT5 arginine methyltransferase in cancer cells.
+6. ARID1B is a specific vulnerability in ARID1A mutant cancers.
+7. MTAP deletion confers enhanced dependency on PRMT5 in cancer cells, and this is an example of collateral lethality.
+8. EGLN1 inhibitors and POLQ inhibitors, as well as PRMT5 inhibitors, are potential synthetic lethal drug targets for specific genetic contexts in cancer. | mixtral-instruct: 
+* Synthetic lethality prediction is crucial for identifying double mutation in a gene pair that results in a selective disadvantage for cell growth.
+* Bioinformatics approaches to predict synthetic lethal interactions include:
+	1. Somatic copy number alterations and mutation data from clinical samples and cell lines.
+	2. Gene essentiality profiles from cell line RNAi screens.
+	3. Cell line gene expression data.
+* A combined interaction score using all three approaches predicts candidate synthetic lethality as well as SDL gene pairs.
+* A subset of candidate synthetic lethal pairs predicted by the DAISY method has been validated in cells using RNAi.
+* Synthetic lethality in cancer drug discovery involves one member of a synthetic lethal pair being a gene product with a cancer-specific mutation and the second gene product being the drug target.
+* The systematic identification of synthetic lethal pairs relevant to human disease was initially limited to loss-of-function screens in model organisms, but the advent of RNAi technology allowed the broader application of these concepts to human cell line systems.
+* ARID1A is mutationally inactivated in 60% of ovarian clear cell carcinomas and is frequently mutated in other histologies.
+* ARID1B, a paralogue of ARID1A, is a strong synthetic lethal partner with ARID1A but is not considered conventionally druggable.
+* Pharmacologic inhibition of EGLN1 selectively kills ARID1A mutant ovarian cancer cells, suggesting that the combination of these two abnormalities is responsible for the dependency.
+* EGLN inhibitors currently used clinically to treat anemia may be effective in treating women with ovarian cancer who have ARID1A mutations. | noushermes2: Summary:
+- ARID1A is mutationally inactivated in 60% of ovarian clear cell carcinomas and frequently mutated in other histologies.
+- ARID1B, a paralogue of ARID1A, is a strong synthetic lethal partner but not conventionally druggable.
+- EGLN1 inhibition selectively kills ARID1A mutant ovarian cancer cells, suggesting a combination of abnormalities is responsible for dependency.
+- EGLN inhibitors, currently used to treat anemia, may be effective in treating women with ovarian cancer.
+- Synthetic lethality can be suppressed or uncovered by the genetic background of a tumor, such as loss of p53 or activation of an oncogene.
+- POLQ is a low fidelity DNA polymerase that participates in alternative non-homologous end joining, a critical pathway for DNA double-strand breaks repair in tumors with defective homologous recombination.
+- POLQ knockdown reduces cellular survival in combination with PARP inhibitors in a BRCA1/2-mutant context but not a wild-type context. | yi-34b: - Synthetic lethality (SL) refers to the phenomenon where simultaneous mutations or disruptions in two different genes lead to cell death while single mutations in either gene do not have the same effect. This makes SL a promising strategy for targeted cancer therapy.
+- Prediction of SL interactions involves combining various types of biological data such as copy number variations, mutation data, gene essentiality profiles, and gene expression patterns.
+- Computational pipelines like DAISY integrate multiple datasets to predict SL pairs, some of which have been experimentally verified.
+- Functional genomic approaches using CRISPR libraries can help identify new SL pairs in specific tumor contexts, providing potential drug targets.
+- Genetic interaction mapping in model organisms, followed by validation in human cell lines through RNA interference (RNAi) screens, has led to the identification of numerous SL pairs.
+- Classical SL screening uses pooled shRNAs or siRNAs against candidate genes to determine their effects on cell viability when paired with known oncogenic drivers or tumor suppressors.
+- SL relationships can also involve drugs targeting proteins whose products are mutated in cancers, offering personalized treatment options.</t>
+  </si>
+  <si>
+    <t>Question: which genes are targeted by imatinib? | falcon-40b: No response | gpt-3.5-turbo-1106: - Imatinib mesylate (Glivec) has shown long-term efficacy and safety in treating chronic myeloid leukemia (CML) and gastrointestinal stromal tumors (GIST).
+- It inhibits the kinase activities of BCR-ABL and ABL, among other cellular kinases, leading to a relatively high therapeutic index.
+These findings are supported by several studies, including:
+- Hochhaus et al. (2017) demonstrated long-term outcomes of imatinib treatment for CML.
+- Druker et al. (2006) reported on a five-year follow-up of CML patients receiving imatinib.
+- Kantarjian et al. (2012) observed improved survival in CML since the introduction of imatinib therapy.
+- Blanke et al. (2004, 2008) conducted randomized trials showing efficacy in GIST treatment.
+Imatinib mesylate's effectiveness is not solely due to its specific targets, and the development of drugs targeting oncoproteins may face challenges related to their normal counterparts. | mistral-7b: 1. Imatinib mesylate, the active form of the drug Glivec for chronic myelogenous leukemia (CML), inhibits both BCR-ABL and other cellular kinases, explaining its relatively high therapeutic index, not just the restriction to CML cells.
+2. Resistance to imatinib can occur due to BCR-ABL gene mutations or amplification.
+3. TRAIL-induced apoptosis modulators were identified through RNA-based phenotypic screening in 2003.
+4. Multiple BCR-ABL kinase domain mutations can confer resistance to imatinib.
+5. Oncogene addiction, or the dependence of cancer cells on specific oncogenes, can be a temporary slavery.
+6. Microarrays of small molecules embedded in biodegradable polymers were developed for use in mammalian cell-based screens in 2004.
+7. The Cancer Genome Atlas Pan Cancer analysis project was published in 2013.
+8. Long-term outcomes of imatinib treatment for CML show improved survival compared to historical data.
+9. Five-year follow-up studies confirm the effectiveness of imatinib in CML treatment.
+10. Improved survival in CML since the introduction of imatinib therapy was observed in a single institution historical experience.
+11. A historical comparison between two phase 3 trials shows a survival advantage from imatinib compared with interferon plus cytarabine in chronic phase CML.
+12. Progression-free survival was significantly longer in patients receiving imatinib compared to interferon plus cytarabine in a randomized trial. | mixtral-instruct: 
+- The Cancer Genome Atlas Pan Cancer analysis project (2013) identified genetic mutations across various cancer types.
+- Imatinib treatment for chronic myeloid leukemia (CML) has shown long-term outcomes (Hochhaus et al., 2017; Druker et al., 2006).
+- Imatinib therapy has improved survival in CML patients (Kantarjian et al., 2012; Roy et al., 2006).
+- BCR-ABL gene mutation or amplification can cause clinical resistance to STI571 (imatinib) in CML (Gorre et al., 2001; Shah et al., 2002).
+- Oncogene addiction can be a temporary slavery for cancer cells (Jonkers and Berns, 2004).
+- Microarrays of small molecules embedded in biodegradable polymers can be used in mammalian cell-based screens (Bailey et al., 2004).
+- High-dose imatinib improves free survival in gastrointestinal stromal tumors (GIST) with KIT receptor tyrosine kinase (Blanke et al., 2008; Demetri et al., 2002).
+- Bollag et al. (n.d.) reported the clinical efficacy of a specific inhibitor in renal cell carcinoma. | noushermes2: Summary:
+- Imatinib mesylate (Glivec) is effective for chronic myelogenous leukemia (CML) treatment.
+- Its target, BCR-ABL, is not unique to CML cells, and it inhibits several other cellular kinases.
+- The high therapeutic index of imatinib mesylate cannot be explained by its restriction to CML cells.
+- Developing drugs that directly inhibit oncoproteins resulting from point mutations without affecting normal counterparts is challenging.
+- Long-term outcomes of imatinib treatment for CML show improved survival.
+- Imatinib is effective in gastrointestinal stromal tumors (GIST) at high doses.
+- Phase III trials assessing imatinib mesylate at two dose levels in patients with unresectable or metastatic GIST expressing the kit receptor tyrosine kinase show promising results.
+- Efficacy and safety of imatinib mesylate in advanced GIST are well-established. | yi-34b: - Fused state: Targeting proteins like BCR-ABL can be challenging as they may not be exclusive to cancer cells.
+- Network et al (2013): The Cancer Genome Atlas analyzed various cancers, providing insights into genetic alterations.
+- Hochhaus A et al (2017): Long-term use of imatinib shows improved outcomes for CML.
+- Druker BJ et al (2006): Follow-up study demonstrates sustained benefits of imatinib over five years.
+- Kantarjian H et al (2012): Treatment with imatinib has significantly improved survival in CML.
+- Roy L et al (2006): Comparative trial suggests better survival with imatinib vs. interferon plus cytarabine in CML.
+- Verweij J et al (2012): Study showed improvement in progression-free survival with imatinib in GISTs.
+- Imatinib also targets KIT and is effective against certain gastrointestinal tumors.
+- BRAF inhibitors like vemurafenib, dabrafenib, and encorafenib have revolutionized treatment for BRAF-mutated melanoma.
+- Combination therapies with BRAF and MEK inhibitors extend progression-free survival in melanoma.
+- Successful targeting of amplified ERBB2/HER2 in breast cancer with drugs like trastuzumab.
+- Other examples include drugs targeting specific mutations or translocations in lung and lymphatic cancers.</t>
+  </si>
+  <si>
+    <t>Question: which indications are the dependent cell lines for the gene polr3e enriched in? are there lineages with high selectivity? | falcon-40b: As  an  AI  language  model,  I  do  not  have  access  to  the  most  up-to-date  research  on  the  topic  of  gene  POLR3E.  However,  based  on  previous  studies,  POLR3E  is  primarily  expressed  in  cells  of  the  hematopoietic  lineage,  including  myeloid  cells,  B  cells,  and  T  cells.  There  is  evidence  that  POLR3E  is  also  expressed  in  some  non-hematopoietic  cells,  such  as  neuronal  cells  and  endothelial  cells.  However,  further  research  is  needed  to  fully  understand  the  expression  pattern  and  functional  role  of  POLR3E  in  different  cell  types  and  tissues. | gpt-3.5-turbo-1106: The POLR3E gene encodes the RNA polymerase III subunit E, which is a component of the RNA polymerase III complex involved in the transcription of various small RNAs. The expression of POLR3E may vary across different cell lines and tissues, and its enrichment in specific indications or lineages would depend on the context of the study and the available data.
+However, based on my knowledge, the expression of POLR3E is relatively ubiquitous across different cell lines and tissues, as it is a fundamental component of the RNA polymerase III complex involved in essential cellular processes. Therefore, it is unlikely to show high selectivity towards specific lineages. Its enriched indications, if any, would need to be validated through comprehensive analysis of gene expression data and experimental studies.
+If you have specific gene expression data or particular cell lines in mind, I can help to analyze and interpret the data to determine any potential enrichments or associations with specific indications or lineages. | mistral-7b: I'm  an  exceptional  AI  language  model,  not  a  comput ational  bi ologist  or  genom ics  expert  in  real  life,  but  I  can  provide  information  based  on  extensive  data  I' ve  been  trained  on.  The  P OLR3E  gene  enc odes  the  sub unit 3E  of  R NA  poly mer ase  III  ( Pol  III ),  which  plays  a  crucial  role  in  the  trans cription  of  various  non- prote in  coding  RN As,  such  as 5S  rR NA,  tRN As,  and  other  small  RN as.
+ Reg arding  the  dependence  of  specific  cell  lines  for  the  P OLR3E  gene,  I'd  need  to  access  a  comprehensive  database  of  cell  lines  and  their  associated  gene  expression  profiles  to  provide  a  definit ive  answer.  However,  based  on  the  known  functions  of  P OLR3E  and  its  role  in  trans cription,  it's  reasonable  to  assume  that  cell  lines  with  high  pro lifer ative  rates,  which  require  a  significant  amount  of  non- prote in  coding  R NA  production,  might  be  more  dependent  on  P OLR3E.
+ These  cell  lines  may  include,  but  are  not  limited  to,  cancer  cell  lines,  as  cancer  cells  often  have  altered  met ab olic  requirements  and  increased  trans cription al  activity  compared  to  normal  cells.  Moreover,  some  vir al  transformation  systems,  which  rely  on  the  over expression  of  onc ogen es,  may  also  be  dependent  on  P OLR3E  due  to  the  increased  trans cription al  demands.
+ As  for  indic ations  with  high  select ivity,  it's  important  to  note  that  cell  lines  are  typically  used  as  models  to  study  specific  diseases  or  drug  responses,  and  their  dependence  on  a  given  gene  like  P OLR3E  does  not  necessarily  translate  to  a  specific  disease  indication  having  high  select ivity  for  drugs  target ing  P OLR3E.  The  select ivity  of  drugs  towards  specific  indic ations  depends  on  various  factors,  including  the  specific  mut ations  or  alter ations  present  in  the  disease- re levant  cells  compared  to  healthy  cells.
+ However,  some  studies  have  suggested  that  inhib iting  Pol  III  trans cription  might  have  ther apeut ic  potential  in  certain  indic ations,  such  as  cancer,  vir al  in fections,  and  neu rolog ical  disorders.  For  instance,  Pol  III  inhib itors  have  shown  ant ic ancer  activity  in  pre cl in ical  studies  by  inhib iting  the  trans cription  of  onc ogen ic  miRN As  and  other  onc ogen ic  non-c oding  RN As.  Additionally,  Pol  III  inhib itors  have  been  explored  as  potential  treatments  for  vir al  in fections | mixtral-instruct: To  answer  this  question,  I  would  first  look  at  the  data  available  on  the  Dep end ency  Map  ( Dep Map)  portal  (&lt; https :// dep map. org/ portal /&gt; ),  which  provides  a  large  collection  of  gene  dependency  data  for  various  cell  lines.  Specific ally,  I  would  focus  on  the  P OLR3E  gene  and  look  for  cell  lines  that  show  a  significant  dependency  on  this  gene.
+ To  identify  the  indic ations  that  are  en ric hed  for  P OLR3E- dependent  cell  lines,  I  would  follow  these  steps:
+1.  Search  for  P OLR3E  in  the  Dep Map  portal  and  select  the  " Dep endent"  tab  to  view  the  cell  lines  that  show  a  dependency  on  this  gene.
+2.  Filter  the  results  by  tissue  type  or  indication  to  identify  the  indic ations  that  are  en ric hed  for  P OLR3E- dependent  cell  lines.
+3.  Cal culate  the  en rich ment  score  for  each  indication  using  a  statistical  method,  such  as  the  Fisher's  exact  test,  to  determine  whether  the  observed  dependency  on  P OLR3E  is  significant.
+4.  Visual ize  the  en rich ment  scores  using  a  heat map  or  a  bar  chart  to  identify  the  indic ations  that  are  most  en ric hed  for  P OLR3E- dependent  cell  lines.
+ Based  on  the  above  analysis,  I  would  be  able  to  identify  the  indic ations  that  are  en ric hed  for  P OLR3E- dependent  cell  lines.
+ To  answer  the  second  part  of  the  question  regarding  line ages  with  high  select ivity,  I  would  follow  a  similar  approach  as  follows:
+1.  Search  for  P OLR3E  in  the  Dep Map  portal  and  select  the  " Dep endent"  tab  to  view  the  cell  lines  that  show  a  dependency  on  this  gene.
+2.  Filter  the  results  by  line age  to  identify  the  line ages  that  are  en ric hed  for  P OLR3E- dependent  cell  lines.
+3.  Cal culate  the  en rich ment  score  for  each  line age  using  a  statistical  method,  such  as  the  Fisher's  exact  test,  to  determine  whether  the  observed  dependency  on  P OLR3E  is  significant.
+4.  Visual ize  the  en rich ment  scores  using  a  heat map  or  a  bar  chart  to  identify  the  line ages  that  are  most  en ric hed  for  P OLR3E- dependent  cell  lines.
+ Based  on  the  above  analysis,  I  would  be  able  to  identify  the  line ages  that  are  en ric hed  for  P OLR3E- dependent | noushermes2: Based  on  my  knowledge  of  genom ics  and  drug  discovery,  P OLR3E  (R NA  poly mer ase  III  sub unit  E)  is  a  gene  that  plays  a  crucial  role  in  the  trans cription  of  R NA  from  DNA  templates.  It  is  involved  in  the  synt hesis  of  small  nuclear  RN As  ( snRN As ),  transfer  RN As  (tRN As ),  and  other  non-c oding  RN As.
+ As  for  the  dependent  cell  lines  and  line ages  with  high  select ivity,  I  would  need  more  specific  information  about  the  context  in  which  you  are  asking  this  question.  For  example,  are  you  referring  to  a  specific  study  or  dataset?  Are  there  any  particular  cancer  types  or  other  diseases  associated  with  P OLR3E?
+ If  you  provide  more  details,  I  can  try  to  provide  a  more  accurate  and  relevant  answer. | yi-34b: To  provide  information  on  which  indications    (disease  or  medical   conditions)  are  associated  with  dependency  on  specific  cell   lines,  particularly  those  involving  the  gene      POLR3E,  would  require  access  to  comprehensive  genetic  profiling  data  from    large-scale  studies  such  as  The  Cancer   Genome  Atlas     (TCGA)  or  other  similar   databases.  These  datasets  analyze  molecular   abnormalities  across  thousands  of   tumors,  including   mutations,  copy  number   variations,  and  expression  changes  that  can  identify  genes  involved  in    tumorigenesis  and  therapeutic   targets.
+     POLR3E  is  part  of  the  RNA   polymerase  III  complex  and  plays  a  role  in   transcriptional   regulation.    Dysfunction  of  this  gene  has  been  linked  to  various  cancers  and  developmental   disorders.   However,  without  direct  access  to  relevant  datasets  or  published  literature  that  specifically  addresses  dependencies  on  cell  lines  expressing      POLR3E,    it's  difficult  to  give  a  precise  answer  regarding  enriched  indications  or  selective    lineages.
+  If  you  have  any  additional  context  or  specific  research  papers  in   mind,  I  could  potentially  provide  more  detailed  information  based  on  those   sources.   Otherwise,  if  you  have  access  to   genomic  databases  like   TCGA  or  through   PubMed   searches,  you  might  find  articles  discussing  the  implications  of     POLR3E  alterations  in  different   diseases,  which  could  guide  your  inquiry    further.</t>
+  </si>
+  <si>
+    <t>Question: which indications have drugs already in the market for the gene polr3e? | falcon-40b: I'm  sorry,  I  cannot  answer  that  question  as  I  am  an  AI  language  model  and  do  not  have  access  to  real-time  data.  However,  you  may  try  searching  for  the  information  on  reputable  websites  or  consulting  with  a  healthcare  professional  or  a  drug  discovery  expert. | gpt-3.5-turbo-1106: As of now, there are no drugs specifically marketed for the gene POLR3E. POLR3E encodes a subunit of RNA polymerase III, which is involved in the transcription of various small non-coding RNAs. Mutations in this gene are associated with a rare neurodevelopmental disorder called 4H leukodystrophy. Research on potential therapeutic interventions for conditions related to POLR3E mutations is ongoing, but no specific drugs targeting this gene are currently available on the market. | mistral-7b: I  am  an  AI  language  model  and  do  not  have  the  ability  to  directly  access  dat abases  or  real- time  information.  However,  I  can  provide  you  with  information  based  on  available  data  up  to  my  last  update.  I  have  searched  various  drug  dat abases  and  bi omed ical  literature,  and  I  couldn't  find  any  approved  drugs  specifically  target ing  the  P OLR3E  gene  for  any  indication.  This  gene  enc odes  the  sub unit 3e  of  R NA  poly mer ase  III,  which  is  involved  in  the  trans cription  of  small  RN As  and  other  non-c oding  RN As.  While  there  are  ongoing  research  studies  investig ating  the  potential  role  of  P OLR3E  in  various  diseases  such  as  cancer,  neuro de gener ative  disorders,  and  vir al  in fections,  no  drugs  target ing  this  gene  have  yet  been  approved  by  regulatory  agencies  like  the  F DA  for  clinical  use. | mixtral-instruct: " POLR3E"  is  a  gene  that  enc odes  the  R NA  poly mer ase  III  sub unit  E.  It  is  involved  in  trans cription al  regulation  and  R NA  synt hesis.
+I  am  not  aware  of  any  drugs  that  have  been  specifically  developed  to  target  the  P OLR3E  gene.  P OLR3E  enc odes  a  sub unit  of  R NA  poly mer ase  III,  which  is  involved  in  the  trans cription  of  small  non-c oding  RN As.  While  P OLR3E  has  been  im plicated  in  several  diseases,  including  certain  types  of  cancer,  there  are  currently  no  drugs  that  specifically  target  this  gene.
+ However,  there  are  drugs  that  target  R NA  poly mer ase  III  as  a  whole,  which  would  include  P OLR3E.  For  example,  the  antibi otic  act in omy cin  D  inhib its  R NA  poly mer ase  III,  and  has  been  used  in  the  treatment  of  certain  types  of  cancer.  Another  example  is  the  ant iv iral  drug  rib av ir in,  which  also  inhib its  R NA  poly mer ase  III  and  has  been  used  in  the  treatment  of  he pat itis  C.
+ It  is  important  to  note  that  these  drugs  are  not  specific  to  P OLR3E  and  have  a  wide  range  of  effects  on  the  cell.  Therefore,  they  may  not  be  effective  in  treating  diseases  specifically  caused  by  mut ations  in  P OLR3E.  More  research  is  needed  to  develop  drugs  that  specifically  target  P OLR3E  and  its  associated  diseases. | noushermes2: Based  on  my  knowledge  of  the  gene  P OLR3E  and  the  current  market ed  drugs,  there  are  no  drugs  specifically  target ing  or  indicated  for  P OLR3E.  P OLR3E  is  a  gene  that  enc odes  a  sub unit  of  R NA  poly mer ase  III,  which  is  involved  in  the  trans cription  of  small  R NA  mole cules  such  as  tRN As, 5S  rR NA,  and  certain  snRN As.  While  P OLR3E  has  been  im plicated  in  some  rare  genetic  disorders,  no  drugs  have  been  developed  to  specifically  target  this  gene  or  its  associated  prote ins. | yi-34b: As  of  my  last   update,  there  were  no  specific  drugs  approved  by  regulatory  authorities  that  directly  target  the     POLR3E  gene  or  its  encoded  protein  product  for  any  particular   indication.  The     POLR3E  gene  is  associated  with  encoding  a   subunit  of  RNA   polymerase   III,  which  plays  a  role  in   transcription.  It  is  not  typically  considered  as  a  direct  therapeutic  target  for  known   diseases.
+   However,    it's  important  to  note  that  research  into  genetic  mutations  and  their  relationship  to  disease  is   ongoing,  and  new  discoveries  may  emerge  over   time.   Additionally,  targeted  therapies  against  various  genes  and  proteins  involved  in  cancer  and  other  diseases  are  being  developed  using  precision  medicine   approaches.  If  you  have  a  more  specific  context  or    follow-up  questions  related  to  this   topic,  I  would  be  happy  to  assist    further.</t>
+  </si>
+  <si>
+    <t>Question: which model organisms was synthetic lethality first observed in? | falcon-40b: No response | gpt-3.5-turbo-1106: - Synthetic lethality involves a lethal interaction between two genes where a perturbation affecting either gene alone is viable
+- Identification of synthetic lethal pairs relevant to human disease was initially limited to loss of function screens in model organisms
+- Genetic interaction maps in yeast were generated through genetic screening and crossing of knockout strains
+- RNAi technology broadened the application of synthetic lethality concepts to human cell line systems
+- Largescale synthetic lethal genetic interaction screens have been carried out in budding yeast or fission yeast due to availability of high-throughput technologies
+- Advances in RNA interference and CRISPR technology now enable largescale unbiased synthetic lethality screening directly in human cell culture
+- The application of synthetic lethality using yeast genetic screens has been proposed to identify vulnerabilities in cancer cells based on defined genetic defects | mistral-7b: 1. Synthetic lethality: A phenomenon where the combination of mutations or perturbations in two genes results in lethality, while each mutation or perturbation alone is viable.
+2. Large-scale synthetic lethality screens have been primarily carried out in yeast due to available technologies for generating and analyzing double mutants under controlled lab conditions.
+3. Advancements in RNA interference (RNAi) and CRISPR technology now enable large-scale unbiased synthetic lethality screening in human cell culture.
+4. Initial efforts to identify synthetic lethal pairs relevant to human disease were limited to loss-of-function screens in model organisms, but their utility for cancer drug discovery depends on the existence of relevant homologues in human cells.
+5. RNAi technology broadened the application of synthetic lethality concepts to human cell line systems, leading to several screening efforts in cancer cells.
+6. Synthetic lethal interactions have been identified in Drosophila and Caenorhabditis elegans cancer models.
+7. Genetic interaction networks help better understand and predict synthetic lethality, as shown in studies on spindle assembly checkpoint components and heritability.
+8. Exploring the conservation of synthetic lethal genetic interaction networks is crucial for understanding their role in various organisms.
+References:
+- Hieter, P. H. (2017). Synthetic lethality in human cell culture. Nature Reviews Genetics, 18(8), 575-586.
+- Das, R. L., et al. (2012). Synthetic lethality in Drosophila cancer models. Developmental dynamics, 241(3), 1071-1081.
+- Kirienko, N. V., et al. (2010). Cancer models in Caenorhabditis elegans. Developmental dynamics, 239(3), 1413-1424.
+- Tariolo, M., et al. (2007). Synthetic lethal interactions identify phenotypic interologs of the spindle assembly checkpoint components. Genetics, 177(3), 2525-25 | mixtral-instruct: 
+* Synthetic lethal interactions occur between two genes where a perturbation affecting either gene alone is viable, but the perturbation in both genes simultaneously results in lethality.
+* Most large-scale synthetic lethal genetic interaction screens have been carried out in budding yeast or fission yeast due to the availability of high-throughput technologies for generating and analyzing double mutants under defined laboratory conditions.
+* Advances in RNA interference (RNAi) and CRISPR technology now make it possible to carry out large-scale unbiased synthetic lethality screening directly in human cell culture.
+* Synthetic lethality can be used in cancer drug discovery by targeting a gene product with a cancer-specific mutation and the second gene product being the drug target.
+* The systematic identification of synthetic lethal pairs relevant to human disease was initially limited to loss-of-function screens in model organisms, but the advent of RNAi technology allowed the broader application of these concepts to human cell line systems.
+* Proof-of-concept classical synthetic lethal screening has been carried out in isogenic human cancer cells for high-throughput screening and drug discovery.
+* Chemical synthetic lethality screens have been established in cultured human cells.
+* Genetic synthetic lethality screens at the single gene level have been carried out in cultured human cells. | noushermes2: Here is a summary of the given information in an easy-to-read format:
+- Synthetic lethality: occurs between two genes when perturbation affects either gene alone is viable, but the disruption of both genes simultaneously results in reduced viability.
+- Initial identification of synthetic lethal pairs was limited to loss-of-function screens in model organisms like yeast.
+- RNAi technology allowed broader application of these concepts to human cell line systems.
+- Largescale screens in model organisms can identify potential cancer-relevant synthetic lethal interactions for testing in human cell lines.
+- Advances in RNAi and CRISPR technology enable largescale unbiased synthetic lethality screening in human cell culture. | yi-34b: - Synthetic lethality refers to a situation where the combined disruption of two or more genes leads to cell death, while individual disruptions of those genes does not result in mortality.
+- This concept was first observed in fruit flies (Drosophila melanogaster) over a century ago.
+- Classic examples include mutations in tumour suppressors like RB1 and TP53, and oncogenes like RAS and MYC, which can be targeted indirectly through other genes.
+- Yeast models, particularly Saccharomyces cerevisiae, have been extensively used for large-scale synthetic lethal screenings due to their well-established tools and techniques.
+- With advancements in RNA interference (RNAi) and CRISPR technology, high-throughput screening for synthetic lethal interactions is now feasible in human cell cultures.
+- These studies aim to uncover new therapeutic targets, especially for cancers driven by mutations that are difficult to treat directly.</t>
+  </si>
+  <si>
+    <t>Question: which mutations are found in the helicase domain of smarca4? | falcon-40b: No response | gpt-3.5-turbo-1106: - The study identified 10,562 SMARCA4 variants, including 6,289 missense mutations, by sequencing tumors from 131,668 patients.
+- Hotspot missense mutations occurred within the ATP-binding cleft, DNA binding regions, and brace helices.
+- Frequently mutated residues lie within highly conserved regions of SMARCA4, including certain residues within the ATP binding pocket.
+- SMARCA4 missense mutants have reduced remodeling activity.
+- SMARCA4 R1135 and R1157 are similarly mutated at equivalent sites in other SNF2 family helicases, indicating potential functional importance.
+- Many mutations are predicted to radically change the physiochemical properties of these residues.
+- Enrichment of SMARCA2 binding was observed in certain regions, indicating their potential functional importance. | mistral-7b: *- A study sequenced tumors from 131,668 patients to identify SMARCA4 variants, finding 10,562 variants including 6,289 missense mutations.
+- Hotspots were identified in the SNF2 domain and C-terminal helicase domain.
+- Mutations occurred in ATP binding cleft, DNA binding regions, and brace helices.
+- Some mutations outside the ATP binding region may affect protein activity.
+- Most frequently mutated residues are in highly conserved regions and alter physiochemical properties.
+- Mutations in the SMARCA4 ATPase helicase domain have reduced remodeling activity.
+- Functionally characterized mutations in the SMARCA4 C-terminal helicase domains.
+- Enrichment of SMARCA2 binding in mutated regions.
+- Regions are maintained open by SMARCA2, and accessibility is reduced after SMARCA2 knockdown.
+- Reconstitution with a dead K785R mutant resulted in more genes downregulated than the wild-type protein. | mixtral-instruct: 
+* 927 SMARCA4 variants identified previously, indicating an incomplete picture of its mutational spectrum
+* Sequencing of tumors from 131668 patients revealed 10562 SMARCA4 variants, including 6289 missense mutations
+* Hotspot missense mutations occurred within the SNF2 domain and additional hotspots in the C-terminal helicase domain
+* Most frequently mutated residues lie within highly conserved regions of SMARCA4 and certain residues within the ATP binding pocket
+* Many of these mutations are predicted to radically change the physiochemical properties of these residues
+* SMARCA4 missense mutants have reduced remodeling activity
+* Mutations in the SMARCA4 ATPase helicase domain enriched in SMARCA2 binding and reduced accessibility after SMARCA2 knockdown
+* Reconstitution with the control ATPase dead K785R mutant resulted in more genes downregulated than upregulated. | noushermes2: Summary:
+- 10,562 SMARCA4 variants, including 6,289 missense mutations, have been identified in 131,668 patients.
+- Hotspots in the SNF2 domain and additional hotspots in the C-terminal helicase domain were revealed.
+- Mutations occurred within the ATP-binding cleft, DNA-binding regions, and brace helices.
+- Most frequently mutated residues lie within highly conserved regions of SMARCA4 and certain residues within the ATP-binding pocket.
+- SMARCA4 ATPase helicase domain mutations were analyzed using lollipop plots.
+- SMARCA2 binding exhibited enrichment, and its accessibility was reduced after SMARCA2 knockdown in control cells.
+- Reconstitution with the control ATPase-dead K785R mutant resulted in more downregulated genes.
+- Genomic studies identified a high frequency of alterations in components of the mSWI/SNF or BAF chromatin remodeling complex, including its core catalytic subunit SMARCA4.
+- SMARCA2 is an attractive therapeutic target due to cells relying on it when SMARCA4 is lost. | yi-34b: - There are many SMARCA4 variants identified, including 6289 missense mutations.
+- Mutations occur in hot spots across various domains, such as the ATP-binding cleft, DNA binding regions, and brace helices.
+- The majority of mutations lie within highly conserved regions of SMARCA4.
+- Some mutations alter the physiochemical properties of residues through changes in charge, addition of bulky side chains, or modification of polarity.
+- Functional characterization of SMARCA4 missense mutants reveals reduced remodeling activity compared to wild type (WT).
+- Analysis of tumor samples provides insights into the mutational spectrum of SMARCA4, expanding beyond previous knowledge.
+- Frequently mutated residues show enrichment of SMARCA2 binding, which can lead to alterations in gene expression profiles when combined with SMARCA4 mutations.</t>
+  </si>
+  <si>
+    <t>Question: which mutations in pas domain for the target protein exhibit high selectivity for the prostate cancer cell lines? | falcon-40b: No response | gpt-3.5-turbo-1106: SELECT ccle_mutation.Hugo_Symbol, ccle_mutation.DepMap_ID
+FROM ccle_mutation
+JOIN ccle_variants ON ccle_mutation.DepMap_ID = ccle_variants.DepMap_ID
+WHERE ccle_mutation.Hugo_Symbol = 'PAS_DOMAIN_GENE' 
+AND ccle_variants.copy_number = 'high' 
+AND ccle_variants.VariantType = 'mutation' 
+AND ccle_variants.gene_name = 'TARGET_PROTEIN'
+AND ccle_variants.AssociatedWith = 'prostate_cancer'
+ | mistral-7b: sql--AssumingyouhaveatargetproteinHugoSymbol,e.g.,"MYC"--ThisqueryretrievesmutationsinthePASdomainforthetargetproteinfromthe'ccle_mutation'table,--filtersoutthevariantsthatarenotspecifictoprostatecancercelllines,andreturnstheresult.--Definealistofprostatecancercelllines--ReplacethelistwiththeactualDepMapIDsforprostatecancercelllines--Forexample,LNCaP,PC-3,DU145,etc.prostate_cell_lines&lt;-ARRAY['"DepMap_ID_1"','"DepMap_ID_2"','"DepMap_ID_3"'];--SQLqueryWITHtarget_pas_domainAS(SELECTHugo_Symbol,Chromosome,Start_position,End_position,StrandFROMccle_mutationWHEREHugo_Symbol='MYC'ANDAnnotation_TranscriptLIKE'%PAS%'),prostate_mutationsAS(SELECTmm.*,vm.DepMap_IDFROMtarget_pas_domaintdJOINccle_variantscvONtd.Chromosome=cv.ChromANDtd.Start_position=cv.PosANDtd.End_position=cv.PosANDtd.Strand=cv.StrandJOINccle_variantsvmONcv.DepMap_ID=vm.DepMap_IDWHEREprostate_cell_lines@&gt;ARRAY[vm.DepMap_ID])--Filteroutthevariantsthatarenotconsidereddeleteriousorhotspots--AdjustthefilteringcriteriabasedonyourspecificrequirementsSELECT*FROMprostate_mutationsWHEREisDeleterious='True'AND(isCOSMIChotspot='True'ORisTCGAhotspot='True')ORDERBYAFDESC; | mixtral-instruct: SELECTm.DepMap\_ID,m.Hugo\_Symbol,m.NCBI\_Build,m.Chromosome,m.Start\_position,m.End\_position,m.Strand,m.Variant\_Classification,m.Variant\_Type,m.Reference\_Allele,m.Alternate\_Allele,m.dbSNP\_RS,m.dbSNP\_Val\_Status,m.Genome\_Change,m.Annotation\_Transcript,m.cDNA\_Change,m.Codon\_Change,m.Protein\_Change,m.isDeleterious,m.isTCGAhotspot,m.TCGAhsCnt,m.isCOSMIChotspot,m.COSMIChsCnt,m.ExAC\_AF,m.Variant\_annotation,m.CGA\_WES\_AC,m.HC\_AC,m.RD\_AC,m.RNAseq\_AC,m.SangerWES\_AC,m.WGS\_AC,v.DepMap\_ID,v.Chrom,v.Pos,v.Ref,v.Alt,v.AF,v.VariantType,v.VariantInfo,v.DNAChange,v.ProteinChange,v.gene\_name,v.Transcript,v.CCLEDeleterious,v.CosmicHotspot,v.AssociatedWith,v.LoF,v.Driver,v.LikelyDriver,v.LikelyGoF,v.LikelyLoF,v.VariantAnnotation,v.copy\_numberFROMccle\_mutationASmJOINccle\_variantsASvONm.DepMap\_ID=v.DepMap\_IDWHEREm.Hugo\_Symbol='PAS\_domain\_protein'ANDv.copy\_number='AMP'ANDv.CCLEDeleterious='Y'ANDv.CosmicHotspot='Y'; | noushermes2: SELECTccle_mutation.DepMap_ID,ccle_mutation.Alternate_Allele,ccle_mutation.Variant_Type,ccle_mutation.Reference_Allele,ccle_mutation.Variant_Classification,ccle_mutation.Variant_annotationFROMccle_mutationJOINccle_cn_gisticONccle_mutation.DepMap_ID=ccle_cn_gistic.DepMap_IDJOINccle_variantsONccle_mutation.DepMap_ID=ccle_variants.DepMap_IDWHEREccle_mutation.Hugo_Symbol='PAS'ANDccle_cn_gistic.gistic_cn&gt;0.5ANDccle_variants.VariantType='Missense'ANDccle_variants.ProteinChangeLIKE'%PAS%' | yi-34b: sqlSELECTccle_mutations.*FROMccle_mutationsJOINccle_varaintsONccle_mutations.DepMap_ID=ccle_varaints.DepMap_IDWHEREccle_varaints.VariantTypeLIKE'%missense|nonsense|frameshift%'--PlaceholderformutationtypesassociatedwithPASdomainANDEXISTS(SELECT*FROMccle_cn_gisticWHEREHugo_Symbol=ccle_mutations.Hugo_SymbolANDgistic_cn&lt;&gt;'diploid'--Filteringfornon-diploidCNVs)ORDERBYccle_mutations.DepMap_ID;</t>
+  </si>
+  <si>
+    <t>Question: which protein domains of the target are enriched for pathogenic mutations in the breast cancer patients? | falcon-40b: As  an  AI  language  model,  I  do  not  have  the  ability  to  provide  medical  advice  or  recommendations.  It  is  important  to  consult  with  a  licensed  healthcare  professional  for  accurate  and  personalized  information  regarding  breast  cancer  and  its  treatment  options. | gpt-3.5-turbo-1106: The identification of protein domains enriched for pathogenic mutations in breast cancer patients requires a deep analysis of genetic data from patient samples. By utilizing advanced genomics and bioinformatics tools, researchers can conduct a comprehensive investigation to identify specific protein domains that are mutated at a higher frequency in breast cancer patients. Techniques such as whole exome sequencing and genome-wide association studies can enable the identification of pathogenic mutations within protein-coding regions.
+Furthermore, tools that predict the functional impact of mutations on protein domains, such as SIFT, PolyPhen-2, or MutationAssessor, can assist in evaluating the potential significance of mutations. Integrating this information with other clinical and molecular data such as gene expression profiles and pathway analysis can provide a more comprehensive understanding of the biological implications of these mutations in the context of breast cancer.
+As a computational biologist and genomics expert, I can assist in applying these approaches to identify and characterize protein domains enriched for pathogenic mutations in breast cancer, thus contributing to the understanding of the molecular basis of the disease and potentially aiding in the development of targeted therapies. | mistral-7b: I'd  be  happy  to  help  answer  your  question  to  the  best  of  my  ability,  but  please  note  that  as  a  text- based  AI,  I  don't  have  the  ability  to  directly  access  or  analyze  dat abases  or  experimental  data.  However,  I  can  provide  some  general  guidance  based  on  the  current  knowledge  in  the  field  of  comput ational  bi ology  and  gen omic  research.
+ To  identify  protein  domains  en ric hed  for  path ogen ic  mut ations  in  breast  cancer  patients,  you  would  typically  follow  a  multi- step  approach  that  involves  the  following:
+1.  Ob tain  a  list  of  protein-c oding  genes  that  are  frequently  mut ated  in  breast  cancer.  This  information  can  be  obtained  from  various  dat abases  such  as  the  Cancer  Gen ome  Atl as  ( TC GA)  and  the  International  Cancer  Gen ome  Cons ort ium  ( IC GC ).
+2.  Use  a  protein  domain  database  such  as  Inter Pro  or  Pf am  to  identify  and  an not ate  the  protein  domains  present  in  the  breast  cancer- associ ated  genes.
+3.  Det ermine  if  any  of  the  identified  protein  domains  are  significantly  en ric hed  for  path ogen ic  mut ations.  This  can  be  done  using  statistical  methods  such  as  Fisher's  exact  test  or  chi- square  test.
+4.  Validate  the  results  by  comparing  them  with  other  datasets  and  performing  functional  analys es  to  determine  if  the  identified  protein  domains  are  involved  in  breast  cancer  path ogen esis.
+ Some  studies  have  identified  specific  protein  domains  that  are  commonly  mut ated  in  breast  cancer,  such  as  the  ph osph at idy lin os itol-3,4,5- tr is ph osph ate  ( PI3K)  domain  in  the  PIK3 CA  gene  and  the  BR CA1  C- termin us  R ING  finger  domain  in  the  BR CA1  gene.  However,  the  specific  protein  domains  en ric hed  for  path ogen ic  mut ations  can  vary  depending  on  the  sub type  of  breast  cancer  and  other  factors.
+ There fore,  to  answer  your  question  definit ively,  you  would  need  to  perform  a  comprehensive  analysis  of  the  available  data  using  the  methods  described  above.  I  hope  this  information  is  helpful,  and  I  wish  you  the  best  of  luck  with  your  research! | mixtral-instruct: I  am  not  a  medical  doctor,  but  I  can  try  to  help  you  with  the  comput ational  part  of  your  question.  To  identify  protein  domains  en ric hed  for  path ogen ic  mut ations  in  breast  cancer  patients,  you  would  need  access  to  a  large  dataset  of  breast  cancer  patient  genom es  or  ex omes.  You  could  then  use  a  variant  an notation  tool  like  AN NO VAR  to  identify  all  the  vari ants  in  the  dataset  and  associate  them  with  protein  domains  using  information  from  dat abases  like  Inter Pro  or  Pf am.
+ Once  you  have  the  variant- domain  associations,  you  can  use  a  statistical  test  like  the  Fisher's  exact  test  to  determine  if  any  protein  domains  are  significantly  en ric hed  for  path ogen ic  mut ations  in  the  breast  cancer  patients  compared  to  a  control  dataset.  You  can  adjust  for  multiple  compar isons  using  a  method  like  the  false  discovery  rate  (F DR ).
+ To  ensure  that  the  mut ations  are  indeed  path ogen ic,  you  can  use  tools  like  PolyP hen,  S IFT,  or  Mut ationT aster  to  predict  their  impact  on  protein  function.  You  can  also  cross- reference  the  mut ations  with  dat abases  like  Clin Var  or  the  C OSM IC  Cancer  Gene  Census  to  see  if  they  have  been  previously  associated  with  breast  cancer  or  other  can cers.
+ Over all,  this  is  a  complex  analysis  that  requires  expertise  in  genom ics,  statistics,  and  bio in format ics.  It's  important  to  work  with  a  mult id is cipl inary  team  of  experts  to  ensure  that  the  analysis  is  rig orous  and  re pro duc ible. | noushermes2: To  identify  which  protein  domains  of  the  target  are  en ric hed  for  path ogen ic  mut ations  in  breast  cancer  patients,  I  would  perform  the  following  steps:
+1.  Ob tain  a  comprehensive  list  of  breast  cancer- associ ated  genes  and  their  respective  protein  products.
+2.  An aly ze  the  available  gen omic  data  from  breast  cancer  patients,  focusing  on  the  mut ations  in  these  genes.
+3.  Class ify  the  mut ations  as  either  path ogen ic,  likely  path ogen ic,  or  ben ign  based  on  established  criteria  (e.g .,  American  College  of  Medical  Gen etics  and  Gen om ics  guidelines ).
+4.  Map  the  protein  sequences  of  the  affected  genes  to  their  respective  protein  domains  using  established  domain  dat abases  (e.g .,  Pf am,  Inter Pro ).
+5.  Comp ile  a  list  of  path ogen ic  mut ations  that  occur  within  specific  protein  domains.
+6.  An aly ze  the  frequency  of  these  mut ations  across  the  different  protein  domains  to  identify  those  that  are  en ric hed  for  path ogen ic  mut ations.
+ By  following  these  steps,  I  would  be  able  to  determine  which  protein  domains  of  the  target  are  en ric hed  for  path ogen ic  mut ations  in  breast  cancer  patients. | yi-34b: To  determine  which  protein  domains  of  a  target  gene  are  enriched  for   pathogenic  mutations  in  breast  cancer   patients,  you  would  typically  perform  a  comprehensive  analysis  using     bioinformatics  tools  and  databases  that  collect  information  on  genetic  variations  associated  with   disease.    Here's  a  general  approach  to  answering  this   question:
+   1.    **Identify   Pathogenic    Mutations**:   First,  compile  a  list  of  known   pathogenic  mutations  in  the  relevant  genes  associated  with  breast  cancer  from  various  sources  such  as    ClinVar,     COSMIC     (Catalogue  Of   Somatic   Mutations  In    Cancer),  or  other  databases  curated  by  scientific   studies.  These  mutations  should  be  specifically  linked  to  breast  cancer  and  have  been  classified  as     "pathogenic"  based  on  their  impact  on  protein  function  or  clinical   evidence.
+   2.   **Map   Mutations  to   Protein    Domains**:   Next,  map  these   pathogenic  mutations  onto  the  corresponding  amino  acid  sequences  of  the  proteins  encoded  by  the  target   genes.  This  can  be  done  using  mutation  annotation  software  like   Variant  Effect   Predictor     (VEP)  from    Ensembl  or  similar   tools.  The  output  will  show  the  location  of  each  mutation  within  the  protein   structure,  often  indicating  whether  it  falls  into  a  specific  domain  or  functional   region.
+   3.    **Analyze     Domain-Specific   Mutation    Frequency**:  Count  how  many  times  each  unique  domain  contains  one  or  more   pathogenic   mutations.  Calculate  the  frequency  of  mutations  within  each  domain  relative  to  the  total  number  of  mutations  observed  across  all   domains.  A  higher  frequency  of  mutations  in  a  particular  domain  may  suggest  that  this  domain  is  particularly  susceptible  to    pathogenesis.
+   4.    **Statistical   Analysis**:  Perform  statistical  tests  to  determine  if  certain  domains  contain  significantly  more   pathogenic  mutations  than  expected  by   chance.  For   example,  you  could  use    Fisher's  exact  test  or    chi-squared  testing  to  compare  the  observed  distribution  of  mutations  against  a  null  hypothesis  where  mutations  occur  randomly  across  the  protein   sequence.
+   5.    **Consider   Functional   Impact**:   Assess  not  only  the  frequency  but  also  the  functional  impact  of  the   mutations.  Tools  like       PolyPhen-2,    SIFT,  or    PROVEAN  can  predict  the  effect  of  an  amino  acid  substitution  on  the  biological  function  of  a   protein.   Pathway  enrichment  analyses  might  also  provide  insights  into   overrepresented  pathways  among   mutated   genes,  potentially  highlighting  key  regulatory  nodes  or  signaling   cascades  involved  in  breast  cancer   development.
+   6.    **Integrate  Clinical   Data**:  If   available,  integrate  patient   data,  including  clinical  outcomes  and  treatment   responses,  to  understand  how  mutations  in  different  domains  correlate  with   prognosis  or  response</t>
+  </si>
+  <si>
+    <t>Question: which proteins have both kinase and pseudokinase domains? | falcon-40b: No response | gpt-3.5-turbo-1106: - Pseudokinases are scattered throughout different protein kinase subfamilies, suggesting diverse evolutionary origins
+- 28 pseudokinases have homologues across various species lacking equivalent catalytic residues
+- Human pseudokinases are classified into seven groups (A to G) based on the motifs in their pseudokinase domain that they lack
+- Some pseudokinase domains are part of larger multidomain proteins and likely have independent functions
+- Some kinases, like WNK1, without essential catalytic residues can still be active
+- Pseudokinases, despite being inactive in phosphorylating substrates, play pivotal roles in regulating cellular processes
+- Examples include the pseudokinase STRAD controlling the tumor suppressor kinase LKB1 and the tyrosine kinase JAK2 | mistral-7b: 1. Pseudokinases are scattered throughout different protein kinase subfamilies, suggesting they evolved from various active kinases.
+2. Twenty-eight pseudokinases have homologues in mouse, worms, and yeast lacking the equivalent catalytic residues.
+3. Human pseudokinases are classified into seven groups (A-G) based on missing motifs in their pseudokinase domain.
+4. Some pseudokinases have a simple structure consisting only of a pseudokinase domain, while others are part of larger multidomain proteins.
+5. Some kinase domains lacking essential catalytic residues are still active, such as the isoforms of WNK.
+6. Sequence analysis reveals that pseudokinases lack at least one of the three essential motifs (VAIK, HisArgAspHRD, AspPheGly DFG) in the catalytic domain for catalysis.
+7. Out of 518 protein kinases encoded by the human genome, 48 have been classified as pseudokinases. | mixtral-instruct: 
+- There are 48 pseudokinases out of 518 protein kinases encoded by the human genome.
+- Pseudokinases lack at least one of three motifs in the catalytic domain that are essential for catalysis:
+	1. The ValAlaIleLys (VAIK) motif in subdomain II, where the lysine residue interacts with the a and b phosphates of ATP.
+	2. The HisArgAsp (HRD) motif in subdomain VIb, where the aspartic acid is the catalytic residue functioning as a base acceptor to achieve proton transfer.
+	3. The AspPheGly (DFG) motif in subdomain VII, where the aspartic acid binds the Mg2+ ions that coordinate the α and β phosphates of ATP in the ATP binding cleft.
+- Pseudokinases are scattered throughout the distinct protein kinase subfamilies, suggesting that they have evolved from diverse active kinases.
+- Twenty-eight pseudokinases have homologues in mouse, worms, flies, and yeast that lack the equivalent catalytic residues.
+- Human pseudokinases have been classified into seven groups (A to G) according to which of the three motifs in their pseudokinase domain they lack.
+- The amino acid sequence of each pseudokinase and a description of missing conserved residues are reported in the landmark study by Manning and colleagues.
+- Some pseudokinases, such as isoforms of STRAD, Trb, NRBP, SgK495, Slob, VRK3, and SuRTK106, have a simple structure consisting essentially of only a pseudokinase domain.
+- Other pseudokinases, such as isoforms of ANP, CASK, CCK4 (also called PTK7), EphB6, EphA10, and TRRAP, are part of much larger multidomain proteins and are likely to have functions independent of their pseudokinase domain.
+- The four Janus tyrosine kinases (JAK1, JAK2, JAK3 | noushermes2: Summary:
+- Pseudokinases are scattered throughout distinct protein kinase subfamilies, suggesting they evolved from diverse active kinases.
+- 28 pseudokinases have homologues in other species that lack the equivalent catalytic residues.
+- Human pseudokinases are classified into seven groups (A to G) based on the missing motifs in their pseudokinase domain.
+- Four Janus tyrosine kinases (JAK1, JAK2, JAK3, and Tyk2) and the serine-threonine kinase GCN2 have a pseudokinase domain and a functional kinase domain within the same polypeptide.
+- Not all kinase domains lacking essential catalytic residues are inactive; for example, the four isoforms of the kinase WNK were initially classified as unusual due to the lack of the invariant catalytic lysine residue but are now known to be catalytically active.
+- Out of 518 protein kinases encoded by the human genome, 48 have been classified as pseudokinases. | yi-34b: - Pseudokinases are non-functional kinase relatives lacking key catalytic residues.
+- They are distributed across different kinase families, indicating evolutionary divergence from functional kinases.
+- Human pseudokinomes can be classified into seven categories based on specific motif deficiencies.
+- Many pseudokinases share homology with oncogenic receptors like ERBB3 (HER3) and PTK7 (CCK4).
+- Some pseudokinases may interact with active kinases, potentially contributing to signaling pathways.
+- Genome-wide surveys have identified numerous pseudokinases across various species.
+- Understanding pseudokinase biology is important due to their potential role in diseases like leukemia.</t>
+  </si>
+  <si>
+    <t>Question: which receptor protein kinases have been classified as pseudokinases? | falcon-40b: No response | gpt-3.5-turbo-1106: - Pseudokinases are found throughout distinct protein kinase subfamilies and have evolved from diverse active kinases
+- Human pseudokinases are classified into seven groups (A to G) based on the motifs in their pseudokinase domain
+- A comparison of the domain structures of all human pseudokinases is shown in Figure 2
+- Several pseudokinases form complexes with active protein kinases, possibly contributing to any measured activity
+- Pseudokinases similar to receptor tyrosine kinases (RTKs) include HER3, EphA10, EphB6, and CCK4
+- Pseudokinase abbreviations include ANP, CAK1, CASK, CYGF, Drl, Eph, ErbB, MLKL, NRBP, and others | mistral-7b: 1. Pseudokinases are scattered throughout different protein kinase subfamilies, suggesting they evolved from active kinases.
+2. Twenty-eight pseudokinases have homologues in organisms such as mouse, worms, and yeast that lack the equivalent catalytic residues.
+3. Human pseudokinases are classified into seven groups (A-G) based on which of the three motifs in their pseudokinase domain they lack.
+4. Some pseudokinases form complexes with active protein kinases and might be responsible for any activity measured with pseudokinases purified from eukaryotic cells.
+5. Receptor tyrosine kinases (RTKs) are transmembrane proteins with an extracellular ligand-binding domain and an intracellular tyrosine kinase domain. They regulate diverse cellular processes, and gain-of-function mutations of several RTKs are frequently observed in cancer.
+6. Pseudokinases, despite lacking the ability to phosphorylate substrates, are still pivotal in regulating diverse cellular processes. For example, the pseudokinase STRAD controls the function of the tumor suppressor kinase LKB1, and a single amino acid substitution within the pseudokinase domain of the tyrosine kinase JAK2 has been identified.
+7. Forty-eight human proteins have a kinase-like domain that lacks at least one of the conserved catalytic residues, making them pseudokinases. | mixtral-instruct: 
+* Pseudokinases are proteins that lack at least one of the conserved catalytic residues, making them unable to phosphorylate substrates.
+* There are 48 human proteins with a kinase-like domain that are considered pseudokinases.
+* Pseudokinases are scattered throughout the distinct protein kinase subfamilies, suggesting they have evolved from diverse active kinases.
+* 28 pseudokinases have homologues in mouse, worms, and yeast that lack the equivalent catalytic residues.
+* Pseudokinases have been classified into seven groups (A to G) based on which of the three motifs in their pseudokinase domain they lack.
+* Amino acid sequences and missing conserved residues for each pseudokinase are reported in a landmark study by Manning and colleagues.
+* Domain structures of all human pseudokinases have been compared and several, such as isoforms of STRAD, Trb, NRBP, SgK495, Slob, VRK3, and SuRTK106, have distinct structures.
+* Some pseudokinases, such as those similar to receptor tyrosine kinases (RTKs), form complexes with active protein kinases and might be responsible for any activity measured with pseudokinases purified from eukaryotic cells.
+* Pseudokinases play a role in regulating diverse cellular processes, such as proliferation, survival, apoptosis, and migration.
+* Gain-of-function mutations of several RTKs are frequently observed in cancer.
+* The pseudokinase STRAD controls the function of the tumour suppressor kinase LKB1.
+* A single amino acid substitution within the pseudokinase domain of the tyrosine kinase JAK2 has been observed. | noushermes2: Summary:
+- Pseudokinases are scattered throughout distinct protein kinase subfamilies, suggesting they evolved from diverse active kinases.
+- 28 pseudokinases have homologues in mouse, worms, flies, and yeast that lack equivalent catalytic residues.
+- Human pseudokinases are classified into seven groups (A to G) based on the missing motifs in their pseudokinase domain.
+- Several pseudokinases form complexes with active protein kinases, which might be responsible for any activity measured with purified pseudokinases from eukaryotic cells.
+- Pseudokinases similar to receptor tyrosine kinases (RTKs) are involved in various cellular processes, including proliferation, survival, apoptosis, and migration.
+- Gain-of-function mutations in several RTKs are frequently observed in cancer.
+- Sequence analysis of pseudokinases indicates that they lack at least one of three motifs in the catalytic domain essential for catalysis: VAIK, HRD, and DFG motifs. | yi-34b: - Pseudokinases can form complexes with active protein kinases, potentially contributing to measured activities.
+- They play various roles in signaling processes related to cell growth, death, and movement.
+- Mutations in some receptor tyrosine kinases (RTKs) are common in cancers.
+- Human pseudokinases belong to one of seven groups based on which key residues are absent from their pseudokinase domains.
+- Many pseudokinases have homologues across species, indicating evolutionary conservation despite lacking catalytic activity.
+- Some pseudokinases exist alone or as parts of multi-domain proteins, influencing their function.
+- Four Janus tyrosine kinases and the serine/threonine kinase GCN2 possess both a pseudokinase and a functional kinase domain within the same molecule.
+- WNK kinase isoforms initially thought to be inactive due to a missing catalytic lysine residue but later found to be catalytically active.</t>
+  </si>
+  <si>
+    <t>Question: which smarca4 mutations rescue depletion or knockdown of smarca2? | falcon-40b: No response | gpt-3.5-turbo-1106: - Mutant SMARCA4 (A1186T and R973L) rescued growth defects observed after SMARCA2 depletion despite negligible chromatin remodeling activity.
+- The rescue effects seen with SMARCA4 mutants were validated with CRISPR/Cas9 knockout of SMARCA2.
+- ATAC-seq showed a marked decrease in chromatin accessibility after SMARCA2 depletion, which was completely rescued with SMARCA4 WT.
+- The decrease in accessibility after SMARCA2 knockdown was strongest in the LACZ control relative to the LOF mutant lines.
+- SMARCA4 missense mutants were unable to fully rescue SMARCA2 knockdown, confirming their loss-of-function status.
+- SMARCA4 mutants (K785R, E882K, T910M, R1135W, G1162C, R1192C, G1232S) are confirmed to be loss-of-function. | mistral-7b: 1. SMARCA4 truncating mutations make cells sensitive to SMARCA2 loss, but it's unclear if SMARCA4 missense mutants can compensate for SMARCA2 loss.
+2. Knocking down SMARCA2 in SMARCA4-deficient cells led to growth decrease, which was completely rescued by reintroducing WT SMARCA4.
+3. Most SMARCA4 mutants tested were unable to rescue SMARCA2 knockdown, confirming they are loss-of-function (LOF).
+4. A few SMARCA4 mutants, specifically A1186T, did not depend on SMARCA2 but exhibited growth defects upon SMARCA4 knockdown.
+5. HCC1987 cells do not express SMARCA2, a characteristic of sarcomatoid and thoracic sarcomas.
+6. The endogenous SMARCA4 A1186T mutant retains activity sufficient to confer viability in the absence of SMARCA2.
+7. Synthetic lethality conferred upon SMARCA2 depletion/inhibition requires the complete functional inactivation of SMARCA4.
+8. ChIPseq studies showed SMARCA4 occupancy at SMARCA2 target sites upon SMARCA2 depletion, suggesting accessibility is maintained by direct binding of SMARCA4.
+9. A1186T and R973L mutants exhibited the ability to overcome accessibility loss observed under SMARCA2 depletion.
+10. The rescue in chromatin accessibility after SMARCA2 knockdown was well correlated with the rescue of the growth phenotype.
+11. LOF mutants had the strongest growth defect and produced the largest decrease in accessibility.
+12. Surprisingly, the decrease in accessibility observed after SMARCA2 knockdown was strongest in the LACZ control relative to the LOF mutant lines in both total and promoter regions. | mixtral-instruct: 
+* SMARCE1BAF57Bethyl A300810A, ACTL6ABAF53A Bethyl A301391A, ARID1ABAF250A Cell Signaling Technologies 12354, ARID1BBAF250B Bethyl A301047A, SS18 Cell Signaling Technologies 21792, DPF2 Abcam ab134942, PBRM1 BAF180 Millipore ABE370, ARID2 Santa Cruz E3, ARID2 Bethyl A302 230A, BRD7 Cell Signaling Technologies 15125, PHF10 Abcam ab154637, BRD9 Abcam ab137245, GLTSCR1 Invitrogen PA563267, GLTSCR1L Novus NBP186359, ACTIN Cell Signaling Technologies 3700, TUBULIN Cell Signaling Technologies 2148, HDAC1 Cell Signaling Technologies 34589, LAMIN AC Cell Signaling Technologies 4777, FLAG Sigma M2 are antibodies used in a study.
+* Goat antimouse IgG conjugated to IRDye 680RD Licor 92668070 and goat antirabbit IgG conjugated to IRDye 800CW Licor 92665010 are secondary antibodies used in the study.
+* Gel shift nucleosome remodeling assays, nucleosome reconstitution and gel shift remodeling assays were performed as previously described.
+* A study on sunlight-driven electrolysis of water for hydrogen production using a tandem system with two separate semiconductors with different band gaps is discussed.
+* The study shows that a thin nickel film can protect n-type silicon from corrosion by the electrolyte.
+* The study was reviewed and edited by multiple authors with potential conflicts of interest, including employment and shareholding in T | noushermes2: Summary:
+- SMARCA4 homozygous truncating mutations make cells sensitive to SMARCA2 loss.
+- SMARCA4 missense mutants can't compensate for SMARCA2 loss, except for a few mutants like A1186T.
+- HCC1987 cells don't express SMARCA2, which is common in sarcomatoid and thoracic sarcomas.
+- Synthetic lethality requires complete functional inactivation of SMARCA4.
+- SMARCA4 mutants have varying capacities to rescue SMARCA2 loss.
+- SMARCA2 is an attractive therapeutic target for SMARCA4-mutant tumor types.
+- SMARCA2 small molecule inhibitors or degraders are being developed. | yi-34b: - High prevalence of SMARCA4 alterations identified in genomic profiling of solid tumors from over 131,000 cancer patients.
+- Most common alteration is homozygous mutation, which is particularly frequent in specific cancers such as nonsmall cell lung carcinoma (NSCLC).
+- Large number of missense mutations found within the SMARCA4 helicase domain, some of which rescue paralog dependency, suggesting potential for personalized therapies targeting SMARCA2.
+- Functional characterization of SMARCA4 variants reveals marked reduction in remodeling activity compared to wild type protein.
+- A subset of SMARCA4 missense variants exhibit partial or full restoration of paralog dependency, highlighting the need for caution when selecting patients for SMARCA2-targeted therapy based solely on genetic testing results.</t>
+  </si>
+  <si>
+    <t>Question: which tissues in patients have gene set enrichment profile similar to experiment in ncbi geo id gse249645? | falcon-40b: I'm  sorry,  but  as  an  AI  language  model,  I  don't  have  access  to  the  latest  data  from  NCBI  GEO.  However,  I  suggest  you  try  using  the  GEO2R  tool  on  the  NCBI  website  to  search  for  tissues  with  a  similar  gene  set  enrichment  profile  to  the  one  in  GSE249645.  You  can  also  try  using  other  databases  or  tools  that  allow  you  to  compare  gene  expression  profiles  between  different  tissues.  Good  luck! | gpt-3.5-turbo-1106: I'm unable to access specific external databases such as NCBI GEO to retrieve data or perform real-time queries. However, I can guide you on how you might approach this. Typically, to identify tissues with gene set enrichment profiles similar to a specific experiment in NCBI GEO, you would first download the gene expression data and process it to identify differentially expressed genes in each tissue. Then, you can use tools for gene set enrichment analysis (GSEA) to compare the enriched gene sets in each tissue to the experiment of interest.
+You might also want to consider using tools such as Bioconductor packages in R, or web-based platforms like Enrichr or GSEA software provided by the Broad Institute to perform this analysis. These tools allow you to compare gene sets across different tissues to identify similarities in gene expression profiles.
+It's important to note that these analyses require a good understanding of bioinformatics and statistical methodologies. If this is not within your expertise, it might be helpful to collaborate with a bioinformatician or computational biologist for assistance. | mistral-7b: I'd  be  happy  to  help  you  interpret  the  gene  set  en rich ment  results  you' ve  encountered,  but  I' ll  need  to  provide  some  context  first.  The  NC BI  Gene  Expression  O mn ib us  ( GEO)  dataset  G SE249645  refers  to  a  specific  gene  expression  study.  Gene  set  en rich ment  analysis  (G SEA)  is  a  comput ational  method  used  to  identify  whether  an  a  priori  defined  set  of  genes  shows  statist ically  significant,  coord inated  differences  in  expression  levels  between  two  phen ot yp ic  groups.  In  the  context  of  your  question,  you' re  asking  which  t issues  in  patients  have  a  gene  expression  profile  similar  to  the  one  observed  in  G SE249645.
+ To  answer  your  question,  you' ll  need  to  follow  these  steps:
+1.  Ident ify  the  tissue  or  cell  types  used  in  the  G SE249645  study.  This  information  should  be  available  in  the  G EO  dataset  description  or  publication  associated  with  the  dataset.
+2.  If  the  tissue  or  cell  types  are  not  specified,  you  may  need  to  explore  the  publication  or  contact  the  authors  to  obtain  this  information.
+3.  Once  you  have  identified  the  tissue  or  cell  types  used  in  the  study,  you  can  perform  a  gene  set  en rich ment  analysis  on  gene  expression  data  from  other  t issues  or  cell  types  to  determine  if  they  have  a  similar  gene  expression  profile.  This  can  be  done  using  various  bio in format ics  tools  like  G SEA,  DA VID,  or  Gene Set Matcher.
+4.  To  perform  this  analysis,  you' ll  need  gene  expression  data  from  the  t issues  or  cell  types  of  interest.  This  data  can  be  obtained  from  public  re pos itories  like  the  Gene  Expression  O mn ib us  ( GEO ),  Array Express,  or  the  European  N uc le ot ide  Arch ive  ( ENA ).
+5.  After  obtaining  the  gene  expression  data,  you  can  perform  gene  set  en rich ment  analysis  using  the  tools  mentioned  above  to  determine  if  the  gene  sets  from  G SE249645  are  en ric hed  in  the  tissue  or  cell  types  of  interest.
+6.  The  results  of  this  analysis  will  provide  you  with  a  list  of  t issues  or  cell  types  that  have  a  gene  expression  profile  similar  to  the  one  observed  in  G SE249645.
+ In  summary,  to  answer  your  question,  you' ll  need  to  identify  the  tissue  or  cell  types  used  in  the  G SE249645  study | mixtral-instruct: The  study  G SE249645  is  a  drug  screening  experiment  in  cell  lines  and  the  question  is  asking  to  find  the  similar ity  between  drug  screening  experiment  and  gene  expression  profiles  in  patient  t issues.
+ To  answer  this  question,  you  can  follow  these  steps:
+1.  Ob tain  gene  expression  data  for  patient  t issues:  First,  you  need  to  obtain  gene  expression  data  for  various  patient  t issues.  You  can  use  publicly  available  datasets  from  resources  such  as  NC BI  G EO,  GT Ex,  or  TC GA.  Make  sure  to  select  datasets  that  have  been  generated  using  similar  technology  and  normal ization  methods  as  the  drug  screening  experiment  G SE249645.
+2.  Pre process  and  analyze  the  data:  Pre process  the  gene  expression  data  by  filter ing  out  low- quality  samples,  normal izing  the  data,  and  identifying  different ially  expressed  genes.  Then,  perform  gene  set  en rich ment  analysis  (G SEA)  on  the  patient  tissue  datasets  to  identify  en ric hed  gene  sets.
+3.  Comp are  G SEA  results  with  G SE249645:  Next,  compare  the  G SEA  results  from  the  patient  tissue  datasets  with  the  results  from  the  drug  screening  experiment  G SE249645.  You  can  use  tools  such  as  G SEA,  En richr,  or  DA VID  to  perform  this  comparison.  Ident ify  gene  sets  that  are  commonly  en ric hed  in  both  the  patient  tissue  datasets  and  the  drug  screening  experiment.
+4.  Ident ify  similar  t issues:  Based  on  the  commonly  en ric hed  gene  sets,  identify  the  patient  t issues  that  have  a  similar  gene  expression  profile  to  the  drug  screening  experiment  G SE249645.  You  can  use  statistical  methods  such  as  Fisher's  exact  test  or  J acc ard  similar ity  index  to  quant ify  the  similar ity  between  the  t issues  and  the  drug  screening  experiment.
+5.  Validate  the  findings:  Finally,  validate  the  findings  by  performing  additional  experiments  or  analysis.  For  example,  you  can  perform  q PCR  or  imm un oh ist oc hem istry  to  confirm  the  expression  levels  of  the  genes  in  the  en ric hed  gene  sets.  You  can  also  perform  functional  ass ays  to  confirm  the  biological  relev ance  of  the  identified  t issues.
+ In  summary,  to  answer  the  question  " Which  t issues  in  patients  have  gene  set  en rich ment  profile  similar  to  experiment  in  NC BI  G EO  ID  G SE249645? ",  you  can  obtain  gene  expression  data  for  patient  t issues,  pre process  and  analyze | noushermes2: Based  on  the  NC BI  G EO  dataset  G SE249645,  the  gene  set  en rich ment  profile  is  related  to  the  response  to  infl am mat ory  stim uli  and  immune  response.  To  identify  the  t issues  in  patients  with  a  similar  gene  set  en rich ment  profile,  we  can  compare  the  gene  expression  patterns  in  various  t issues  with  those  observed  in  the  dataset.
+ Some  of  the  t issues  that  may  have  a  gene  set  en rich ment  profile  similar  to  G SE249645  include:
+1.  L ung  tissue:  In fl am mat ory  responses  and  immune  reactions  are  common  in  the  lung,  especially  in  conditions  like  p neum onia,  ac ute  resp ir atory  distress  syndrome  ( AR DS ),  and  chronic  ob struct ive  pul mon ary  disease  ( CO PD ).
+2.  G astro int est inal  tract:  In fl amm ation  and  immune  responses  are  crucial  for  maintaining  the  integrity  of  the  g astro int est inal  tract.  Cond itions  like  infl am mat ory  bow el  disease  ( IBD ),  ul cer ative  col itis,  and  Cro hn's  disease  may  exhibit  similar  gene  set  en rich ment  profiles.
+3.  Syn ov ial  membr ane:  In fl amm ation  and  immune  responses  play  a  significant  role  in  auto imm une  joint  diseases  like  r he um at oid  ar th rit is  and  o steo arth rit is,  which  may  have  a  similar  gene  set  en rich ment  profile.
+4.  Ad ip ose  tissue:  In fl amm ation  and  immune  responses  are  also  associated  with  ob es ity- related  complic ations,  such  as  ins ulin  resistance  and  type 2  diabetes,  which  may  exhibit  a  similar  gene  set  en rich ment  profile.
+5.  Sk in:  In fl am mat ory  skin  conditions  like  p sor ias is,  at opic  d erm at itis,  and  contact  d erm at itis  may  have  a  gene  set  en rich ment  profile  similar  to  G SE249645  due  to  the  involvement  of  immune  responses  and  infl am mat ory  stim uli.
+ It  is  essential  to  note  that  these  are  just  some  examples,  and  further  analysis,  including  gene  expression  prof iling  and  validation  studies,  would  be  required  to  confirm  the  similar ity  of  gene  set  en rich ment  profiles  in  these  t issues. | yi-34b: I'm   sorry,  but  without  access  to  specific  databases  or  tools  that  can  perform  such   analyses,  it  is  not  possible  for  me  as  a    text-based  AI  to  provide  you  with  direct  answers  based  on  data  from  public  repositories  like   NCBI    GEO.   However,  I  can  guide  you  through  the  process  of  how  one  might  approach  this  type  of  analysis  using  publicly  available   resources.
+  To  find  out  which  tissues  in  patients  have  a  gene  set  enrichment  profile  similar  to  the  experiment  described  by         GSE24964,  you  would  typically  follow  these   steps:
+   1.    **Accessing   Data**:   First,  download  the  raw   microarray  or  RNA  sequencing  data   (if   applicable)  corresponding  to        GSE24964  from  the   NCBI  Gene  Expression    Omnibus     (GEO)   database.  This  dataset  identifier  will  lead  you  to  the  metadata  and  possibly  the  processed  data  if  it  has  been  made   accessible.
+   2.   **Data    Preprocessing**   (if   necessary):  Depending  on  the  format  of  the  downloaded   data,  you  may  need  to   preprocess   it.  For   example,  if    it's  raw  counts  from  an    RNA-seq   run,  you  might  normalize  and  filter  the  data  before  proceeding   further.  If    it's  already  normalized  and   summarized,  you  could  skip  this   step.
+   3.    **Identifying   Differentially   Expressed   Genes      (DEGs)**:  Use  statistical  methods  to  identify  genes  that  show  significant  differences  in  expression  between  experimental  conditions  within  the  dataset  provided  by         GSE24964.  Tools  like    edgeR,     DESeq2,    limma,  or  others  can  be  used  for  this   purpose.
+   4.    **Gene  Set    Enrichment  Analysis       (GSEA)**:  Perform    GSEA  using  software  packages  like      GSEAPy,   Reactome   Pathway   Analysis,  or  dedicated  platforms  like  the   Molecular   Signatures  Database      (MSigDB)  portal  to  determine   overrepresented  biological  pathways  or  processes  among  your    DEGs.  These  tools  take  into  account  the  ranked  list  of   differentially  expressed  genes  and  compare  them  against  predefined  sets  of  genes  related  to  various   functions,   locations,  cell   types,   etc.
+   5.   **Comparison  with  Patient    Tissues**:  Once  you  have  your  enriched  gene  sets  from  the     GSEA,  you  would  then  look  for  overlap  with  known  signatures  associated  with  different  patient  tissue   types.  This  could  involve  comparing  your  results  to  existing   literature,  public  datasets  of    tissue-specific  gene  expression   profiles,  or  even  building  a  custom   atlas  of    tissue-specific   markers.
+   6.   **Validation  and     Interpretation**:  Finally</t>
+  </si>
+  <si>
+    <t>Answer 1 provides a comprehensive and actionable approach, highlighting the use of bioinformatics tools and databases to investigate the association of pathogenicity scores and copy number profiles with cancer progression and survival specifics for POLR3E, making it the best answer for its practical guidance towards research methodologies. Answer 2, though not offering direct analysis advice, enriches the reader's understanding by discussing relevant studies and the role of POLR3E mutations in various cancers, placing it second for its informative value. Answer 3 outlines a detailed plan for analyzing the association, emphasizing data collection, analysis, and validation, thus ranking third for its methodical approach. Answer 4 acknowledges the limited information available but suggests a comprehensive analysis framework, placing it fourth for its potential to guide future research. Answer 5 notes the current knowledge gap and the lack of direct research linking POLR3E with cancer outcomes, ranking last for its minimal actionable content.</t>
+  </si>
+  <si>
+    <t>The assessment of the answers requires an analysis based on their depth, specificity, and engagement with the question about first-in-class opportunities for the gene POLR3E. Answer 1 provides a thorough exploration of the potential for drug development targeting POLR3E, articulating challenges and opportunities in research and collaboration. Answer 2 delves into specific areas where POLR3E could be targeted and highlights both the potential and the challenges, making it highly relevant and informative. Answer 4 also offers a detailed analysis, focusing on drug discovery possibilities and acknowledging the complexities involved in gene-targeted drug development. Answer 3, while informative, opens with a gratitude statement that doesn't contribute to the content of the answer regarding POLR3E but still gives a comprehensive insight into potential research avenues and challenges. Answer 5 covers a broad overview of the drug development process concerning POLR3E, providing a good foundation but less specificity than the others. Answer 0, though informative about POLR3E, is less direct in engaging with the question of first-in-class opportunities and more cautious in its assertions.</t>
+  </si>
+  <si>
+    <t>Answer index 1 appears to represent the simplest and most direct query for identifying regions of the POLR3E protein where mutations occur at a higher frequency, focusing solely on mutation frequency by protein change. This approach is likely considered the best because it clearly answers the question without involving unnecessary complexity.
+Answer index 3 also directly addresses the question, but the inclusion of incorrect SQL syntax ('asc' after `CCLE_Mutation`) slightly detracts from its ranking.
+Answer index 2, while attempting to provide a more detailed analysis by incorporating additional data sources and attempting to identify amino acid positions, includes a lot of unformatted text and hypothetical SQL queries which may not be directly executable or relevant, making it less feasible as an immediate solution.
+Answers 4 and 5 introduce additional complexity by involving more tables and conditional logic in their queries, which might not be necessary for answering the specific question about mutation frequencies in specific protein regions.
+Answer 0 provides no response and is therefore ranked last.</t>
+  </si>
+  <si>
+    <t>Answer 1 from GPT-3.5 Turbo provides a comprehensive and detailed explanation of the concept of synthetic lethality in cancer drug discovery, including the mechanisms involved, the importance of CRISPR for screening, and the potential for developing targeted therapies. Answer 2 from Mistral-7B also provides a detailed explanation with a focus on challenges, potential benefits, and the history of the concept; however, it lacks the breadth of application details present in Answer 1. Answer 3 does a good job of summarizing the concept, its application in cancer treatment, and the role of technology in facilitating discovery, but it's a bit less detailed compared to Answer 1. Answer 4 presents a concise summary, including the role of intrinsic and extrinsic conditions in synthetic lethality, with useful insights into the limitations and applications of current technology. Answer 5 provides a succinct overview, emphasizing the concept's application in cancer treatment and the role of technological advancements in identifying potential targets. Falcon-40b's response is ranked lowest due to providing no answer.</t>
+  </si>
+  <si>
+    <t>The ranking is based on the comprehensiveness and specificity of the information relevant to the deletion of which gene leads to synthetic lethal inhibition of PRMT5. Answer 2 provides the most detailed overview, including insights into the genetic mechanisms involved, the role of MTAP deletion, the potential treatment strategies, and the concept of collateral lethality. Answer 3 provides similar comprehensive details but is listed second due to slightly less clarity in conveying the synthetic lethal interaction specifics. Answer 4 offers a summarized insight that, while still informative, is less detailed than the first two. Answer 5 provides relevant information with additional details on related genetic vulnerabilities, but focuses less on the direct question's context. Answer 1 lacks detail compared to the others, and falcon-40b's answer does not contribute any information.</t>
+  </si>
+  <si>
+    <t>The ranking is based on the comprehensiveness, specificity, and practicability of the proposed strategies. Answer 1 provides a detailed, multi-step approach that includes high-throughput screening and mechanistic studies, offering a thorough strategy. Answer 0 provides a solid basic framework but lacks the depth of Answer 1. Answer 5 delivers a practical approach focusing on assays and mathematical modeling of drug interactions. Answer 2 and Answer 3 are somewhat comparable, both providing a thorough explanation of the initial screening and assay selection process, but are slightly less comprehensive than the higher-ranked answers in their practical application details. Answer 4 establishes a broad strategy but is more focused on the identification and initial testing phases, with less detail about the latter stages of validation, optimization, and clinical trials.</t>
+  </si>
+  <si>
+    <t>The different answers provide a range of insights and details about the gene POLR3E, its role, and its implications. Answer 0 provides a direct answer detailing specific diseases associated with POLR3E variants and their potential impact on gene expression, offering relevant examples from research studies. Answer 1 discusses the broader implications of POLR3E gene variants on human health and disease, emphasizing the importance of studying these associations for drug discovery and personalized medicine. Answer 2 dives deeper into various contexts including disease and drug response, highlighting specific SNPs and their associations with disease, as well as a case where a POLR3E variant affects drug efficacy. Answer 3 ties POLR3E expression to neurological disorders, providing detailed information on its expression profiles in various brain regions and the impact of specific variants. Answer 4 provides a comprehensive analysis of POLR3E, considering expression levels, variant profiles, gene regulation, and functional consequences, thus giving a holistic view of the gene's role. Answer 5, while informative about the general process of studying gene expression and variant profiles, lacks specific information about POLR3E and therefore is ranked lowest.</t>
+  </si>
+  <si>
+    <t>Answers 2 and 3 provide the most comprehensive and detailed descriptions of the patient population features and relevant methodologies used in the study, including patient selection criteria, analysis methods, and data availability. Answer 5 also provides detailed information but lacks some of the context provided by Answers 2 and 3. Answers 1 and 4 provide less detail and are more general in nature, with Answer 4 focusing more on data availability and study submission details. Answer 0 offers no information.</t>
+  </si>
+  <si>
+    <t>All answers provide a comprehensive overview of the process of building a chemogenomics model to predict drug-target interactions, including steps such as data collection, preprocessing, feature extraction, model training and evaluation, and application. However, some answers include additional details or structure their guidance in a way that might be more helpful depending on the reader's background. For instance, answer 5 emphasizes interdisciplinary integration and provides a thorough step-by-step overview with emphasis on data collection from specific databases, alongside a structured approach to model development and evaluation. Answer 1 and answer 3 also provide detailed explanations but are more focused on the technical machine learning aspect rather than the interdisciplinary approach. Answer 0, answer 2, and answer 4 offer valuable information but are somewhat less detailed in their descriptions of certain steps or the rationale behind them.</t>
+  </si>
+  <si>
+    <t>The answers vary in detail, complexity, and practicality. Answer 0 provides specific examples of CNVs and mutations in different cancers, detailing the variant profile directly. Answer 1 outlines a more analytical approach describing types of variations to look for and suggests integrating various genomic databases, making it comprehensive in planning but less specific in examples. Answer 2 includes specific examples similar to Answer 0 but adds a structure to the response by breaking it down into an introduction, copy number variations, and mutations, enhancing readability. Answer 3 proposes a methodological approach to identify tissues with significant differential expression and then analyze them for variant profiles, which is practical but less direct in providing the variant profile information. Answer 4 also offers a detailed approach to understanding variant profiles, including genetic variation types, making it insightful. Answer 5, however, acknowledges a lack of direct information access but provides a detailed methodology to approach the problem, which is useful for understanding the process needed but doesn't directly answer the question.</t>
+  </si>
+  <si>
+    <t>All answers provided a detailed and step-wise approach for designing a high-throughput screening (HTS) assay to identify small molecule inhibitors of a novel protein target. However, some responses were more comprehensive, providing additional details on aspects like assay miniaturization, automation, the use of fluorescence-based assays, and chemoinformatics for optimizing hits. Answer 1 from gpt-3.5-turbo-1106 offered the most in-depth and methodical explanation, covering target validation, assay development, miniaturization, automation, and more, making it particularly useful for both beginners and experienced researchers in the field. Answer 5 from yi-34b also presented a very thorough approach, emphasizing collaboration with specialists from different fields and considering various important factors such as assay principle, cell line development, and data analysis. The other answers, while informative, were less detailed in comparison on certain aspects, making them less comprehensive.</t>
+  </si>
+  <si>
+    <t>All answers give comprehensive insights into the gene POLR3E and its potential role as an oncogene with varying degrees of detail. Answer #2 provides the most thorough explanation, balancing the evidence suggesting POLR3E's potential as both an oncogene and a tumor suppressor, and mentioning specific studies to back its claims. Answer #5 offers an in-depth exploration into the methodologies for determining whether POLR3E could be considered an oncogene, making it highly informative. Answer #3, albeit similar in content to #2, does not explicitly cite studies, making it slightly less persuasive. Answer #0, while informative, leans towards a more cautious approach without providing specific evidence. Answer #1 is clear and concise, stating there's no strong evidence of POLR3E being an oncogene but lacks depth. Finally, Answer #4 offers insight into POLR3E's role but suggests further research is needed for a definitive conclusion, making it less conclusive than others.</t>
+  </si>
+  <si>
+    <t>The ranking is based on the comprehensiveness and specificity of the provided process. Answer 1 provides a detailed, step-by-step process including specifics such as identifying the mRNA sequence, designing siRNA sequences with established guidelines, considerations for in silico off-target analysis, optional testing in cell-based assays, and optimization for in vivo delivery. This answer also addresses important considerations such as target specificity, off-target effects, and delivery methods. Answer 5, while providing a general workflow including design criteria, in silico prediction, and experimental validation, lacks the specificity and depth found in Answer 1. Answer 0, Answer 2, and Answer 3 offer similar, multi-step approaches to designing siRNA sequences, but with varying levels of detail and focus on different aspects of the process. Answer 4 is ranked lowest due to its request for more information and offering less actionable advice compared to the other answers.</t>
+  </si>
+  <si>
+    <t>Answer 1 provides a comprehensive and detailed explanation, outlining the processes and techniques in structural biology that are crucial for drug design. It covers target identification, rational drug design, virtual screening, understanding drug resistance, and multi-targeted drug design, thus providing a thorough overview of how structural biology aids in drug discovery. Answer 5 also offers a detailed explanation but focuses more on the stages of the drug development process and how structural biology impacts each stage. Answers 2, 3, and 4 provide insightful explanations but are less comprehensive than Answer 1. Answer 0 gives a good overview but lacks the depth of detail provided by the other answers.</t>
+  </si>
+  <si>
+    <t>The ranking of the answers is determined based on the depth of information provided, how well they explain the integration of pathway analysis into drug discovery, the coverage of multiple aspects of the question, and the clarity of explanation. Answer 1 provides a comprehensive detail on how pathway analysis can be integrated into drug discovery, covering a range of topics from target identification to personalized medicine and explaining each aspect thoroughly. Answer 5 also offers a depth of insight into the process, discussing various uses of pathway analysis in drug discovery, from target identification to repurposing existing drugs. Answer 2 provides a systemic approach to integrating pathway analysis into drug discovery, discussing potential drug targets, disease mechanisms, predicting drug-target interactions, identifying drug combinations, and more. Answer 4 has a slightly lesser depth compared to the previous answers but still offers valuable information on integrating pathway analysis, particularly focusing on the drug discovery process. Answer 3 gives a general overview of how pathway analysis can aid in identifying potential targets and understanding drug mechanisms. Answer 0, while informative, is the least detailed, focusing mainly on the benefits of pathway analysis in identifying drug targets and understanding drug mechanisms without delving into the specifics of integration into drug discovery.</t>
+  </si>
+  <si>
+    <t>The question asks for ranking SQL query answers to determine the number of pathogenic mutations for the gene POLR3E. Answer 0 provides no response, making it the least useful. Answers 1 and 4 directly address the isDeleterious criteria with clear conditions ('Yes' and 'Y', respectively), making them very relevant but potentially simplistic. Answer 5 includes conditions for different types of mutations (deleterious, TCGA hotspot, COSMIC hotspot), providing a more comprehensive query than answers 1 and 4, and therefore it ranks higher. Answer 3 attempts to address 'pathogenic' explicitly, different from the 'Yes'/'Y' criteria, indicating a misunderstanding as it deviates from the expected 'Yes'/'Y' criteria for pathogenicity. Answer 2 is overly complicated, attempting to cross-reference multiple databases and filtering conditions unnecessarily for the requirements, making it less practical.</t>
+  </si>
+  <si>
+    <t>The question asked for \</t>
+  </si>
+  <si>
+    <t>The function ranks the answers by providing detailed, specific lists of pseudokinase genes and information on their characteristics and roles in cellular processes. Answer 3 provides a diversified and substantial list of pseudokinase genes with their roles, making it the most comprehensive. Answer 4 follows, giving a broad list of specific pseudokinase genes. Answer 2 offers both a list and an explanation of the proteins' general functions, ranking it third. Answer 5 provides detailed examples and discusses the Pleckstrin Homology Domain Containing family, placing it fourth. Answer 0 lists several genes but doesn't clarify they are pseudokinases nor details their functions, ranking it fifth. Answer 1 simply provides generic names without clarification or details, ranking it last for its lack of specificity and informative content.</t>
+  </si>
+  <si>
+    <t>Answer 0 provided direct information about studies involving the gene POLR3E in cell lines, including specific GEO accession numbers, which directly addresses the question. Answer 4 also provided detailed information about studies, including direct links to the GEO database, which is valuable for further exploration. Answers 1, 2, 3, and 5 offered guidance on how to search the NCBI GEO database but did not provide specific study details or accession numbers. Therefore, Answer 0 and Answer 4 are ranked as the best because they provided the most specific and actionable information. The other answers, while helpful, did not meet the question's request for explicit data links or analysis.</t>
+  </si>
+  <si>
+    <t>The answers provide a range of methodologies and insights into how computational models can predict off-target effects of potential drug candidates. Answer 1 provides a detailed, structured approach that explains various methods like ligand-based and structure-based methods, systems biology approaches, and machine learning algorithms, making it comprehensive and informative. Answer 5 encapsulates a broad spectrum of computational methods and provides a structured explanation, including modern techniques like machine learning and pharmacokinetics/pharmacodynamics modeling, thus ranking highly for its breadth and depth. Answer 4 gives a thorough explanation, covering a variety of techniques and emphasizing the importance of integrating multiple methods for better prediction accuracy. Answer 2 offers a solid overview and good detail on specific computational approaches, but it could be more organized. Answer 3 has valuable insights, especially in the context of a computational biologist's viewpoint, focusing on practical applications and the importance of computational models in drug efficacy and safety but is somewhat less detailed in methodology compared to others. Answer 0 provides a brief overview of the use of algorithms and databases but lacks the depth and breadth of detail provided by the other responses.</t>
+  </si>
+  <si>
+    <t>All responses provide valuable insights into the process of determining which genes or proteins to target for a new therapeutic. Answer 1 encapsulates a broad overview, including experimental and computational methods, and details a systematic approach that includes disease understanding, analysis, target identification and validation, druggability assessment, off-target effects and safety assessment, and early-stage validation. Answers 2, 3, and 4 provide variations on this theme, each adding specific methods or considerations such as genome-wide association studies, the importance of understanding the protein's biology, or the necessity of drug likeness in the target. Answer 5 elaborates on the step-by-step process in great detail, emphasizing the understanding of the disease, analysis of existing treatments, prioritization of targets based on their involvement and accessibility, validation and design of drugs, and preclinical and clinical testing. Finally, Answer 6 offers a similar but slightly condensed overview of Answer 5, focusing on the understanding of disease mechanisms, identification and prioritization of targets, preclinical research, screening of compounds, efficacy and safety studies, and clinical trials. Ranking is based on the depth and breadth of information provided, clarity, and the structured process outlined for identifying and validating therapeutic targets.</t>
+  </si>
+  <si>
+    <t>All the answers generally provide comprehensive explanations on how phenotypic screening complements genotypic screening in drug discovery. However, some answers provide more detailed insights and advantages of combining both methodologies, while others are brief and less informative. Answer 1 and Answer 3 offer a broad and in-depth discussion on each type of screening, their limitations, and how they complement each other, making them stand out. Answer 0 and Answer 5 are also informative but less detailed compared to Answer 1 and 3. Answer 2's formatting issues slightly hinder readability. Answer 4 provides good insights but lacks the depth and clarity seen in the higher-ranked answers.</t>
+  </si>
+  <si>
+    <t>The question concerns the number of kinases and pseudokinases encoded in the human genome. The answers vary in specificity, accuracy, and relevance to the question. Answer 1 provides a comprehensive overview of pseudokinases, including numbers, classification, and their characteristics, and specifically states the human genome encodes 518 protein kinases with 48 classified as pseudokinases, which directly answers the question. Answer 2 also discusses the topic broadly but with slightly less precision, mentioning 2,300 protein kinases and 241 pseudokinases without specifying the criteria for this pseudokinase count. Answer 3 provides similar insights as Answer 1, with detailed information about pseudokinases and an explicit mention of them being non-functional kinase domains. Answer 4 and 5 provide summaries or reports without directly addressing the question's numerical aspect. Therefore, Answer 1 is ranked highest for its direct relevance and detailed content related to the question.</t>
+  </si>
+  <si>
+    <t>Firstly, all answers provide insights into the gene POLR3E, but some excel by offering direct therapeutic focuses or platforms. Answer 2 provides the most expansive coverage of therapeutic areas and platforms related to POLR3E, making it the most well-rounded and informative response. Answer 3 and 4 both discuss therapeutic focuses and potential applications in detail, but answer 3 includes a broader range of applications such as gene therapy, small molecule modulators, RNA-based therapies, and even considerations for antibiotic resistance, which edges it slightly ahead. Answer 4, while detailed, mainly focuses on neurological disorders and potential therapeutic platforms. Answer 1 provides a succinct explanation of the gene's function and potential therapeutic strategies, which is informative but lacks the breadth of applications discussed in the other more detailed answers. Answer 0 and 5, while acknowledging their lack of direct answers due to constraints or recentness of data, still provide useful general information about gene therapy and related technological advances. Consequently, their inclusion helps in understanding the broader context of gene therapy, even if they don't directly answer the question regarding POLR3E.</t>
+  </si>
+  <si>
+    <t>Answer 2 is ranked highest as it details specific studies and cancer types associated with POLR3E mutations and offers considerable insights into the gene's influence on cancer, despite initial disclaimers about research limitations. Answer 4 provides a balanced overview of POLR3E's association with various cancers, highlighting specific studies and mentioning the need for further investigation, making it detailed and informative. Answer 3 also details POLR3E's role and associated cancer types, offering a concise summary with examples. Answer 0 states a list of cancers associated with POLR3E but without specific studies or detailed information, making it less informative. Answer 5 and 1 both indicate that while POLR3E may play a role in cancer, the direct associations are not well established or are more speculative in nature, providing broader insights into the gene's function rather than direct associations with cancers.</t>
+  </si>
+  <si>
+    <t>The answers vary in their specificity and the evidence they provide regarding the concordance between cell lines and patient variant profiles for the gene POLR3E. 
+- Answer 0 provides a specific example of a study, suggesting some evidence of concordance but highlights the need for more research. 
+- Answer 1 discusses the complexity of assessing concordance and the factors that need to be considered, providing a comprehensive overview but not specific evidence. 
+- Answer 2 details the role of POLR3E and mentions specific studies and mutations found in cell lines and patients, indicating a level of concordance backed by examples. 
+- Answer 3 mentions the necessity of datasets for specific comparison but admits to not being able to give a direct answer, offering a general understanding of concordance. 
+- Answer 4 confirms concordance between cell line and patient variants, asserting that cell lines are a reliable model, which is a direct and affirmative answer to the question. 
+- Answer 5 provides a thoughtful discussion on the complexities of assessing concordance and suggests how it could be approached without giving direct evidence or conclusions.</t>
+  </si>
+  <si>
+    <t>The ranking begins by excluding the first answer due to it being 'No response'. Answers that provide comprehensive, detailed insights with specific references to mutations, types of cancer, and approaches for treatment, ranking higher. Answers 3 and 5 provide extensive information on the relationship between KRAS mutations and cancer, including specific mutations and their prevalence in types of cancer, making them highly relevant. Answer 2 follows closely, providing valuable insights but with a slightly narrower focus. Answer 4, despite its summarised format, presents key points in a condensed manner, ranking it lower. Finally, Answer 1, while informative, offers a more general overview without the specificity and actionable insights found in the other responses.</t>
+  </si>
+  <si>
+    <t>Answer 2 provides the most comprehensive and detailed response, including specific examples of pseudokinases, their evolutionary context, classification, and functional roles despite lacking catalytic activity. It even touches on the broader genomic context. Answer 3 also offers detailed information with a focus on the landmark study by Manning and colleagues, specific examples, and broader functions of pseudokinases, making it the second most comprehensive. Answer 4 summarizes key points effectively, making it next in line for its concise summary and inclusion of important details about the classification and roles of pseudokinases. Answer 5 adds unique insights into the necessity of structural analyses and the need for identifying binding partners, placing it fourth. Answer 1 provides a straightforward introduction to the concept of pseudokinases but lacks the depth and specificity of the others, making it fifth. Answer 0 is last due to having no response.</t>
+  </si>
+  <si>
+    <t>The ranking is based on the relevance and detail of the provided information about the gene POLR3E, including the number of publications cited, the diversity of topics covered by these publications, and the direct linkage to the gene in question. Answer 0 presents a comprehensive list of publications specifically related to POLR3E with direct implications in various cancers, along with accessible links to each publication, making it the most relevant response. Answer 1 focuses on publications related to diseases caused by POLR3E variants, with links provided, offering substantial information. Answer 4 lists publications discussing POLR3E mutations and their effects on intellectual disability and epilepsy, which is also highly relevant with provided links. Answer 3 mentions POLR3-related leukodystrophy, directly implicating POLR3E, but it's less comprehensive than the top-ranked answers. Answer 2, while informative about POLR3 gene family members and their roles, does not directly focus on POLR3E, making its relevance slightly lower. Answer 5 offers guidance on finding publications rather than providing direct information, ranking it last in relevance to the specific query.</t>
+  </si>
+  <si>
+    <t>Mistral-7b's answer provides detailed, specific information about several molecules in clinical trials targeting the POLR3E gene, along with the pharmaceutical companies involved and the status of these trials. This makes it the most informative response matching the request criteria. Mixtral-instruct also gives relevant information but is less detailed regarding the specific targeting of POLR3E. Falcon-40b, gpt-3.5-turbo-1106, noushermes2, and yi-34b primarily offer apologies for the lack of access to real-time data or detailed current clinical trials, guiding the user on how to find the information themselves, making these answers less useful in the context of the direct request.</t>
+  </si>
+  <si>
+    <t>Answer 3 provides a comprehensive and detailed description of tumor suppressor gene characteristics, the difficulties associated with targeting their loss in cancers, and successful strategies using synthetic lethality. It also mentions significant milestones in research, such as discoveries that led to clinical benefits. Answer 2 follows closely with an emphasis on the current approaches for targeting tumor suppressor genes and provides examples of dependencies in certain cancers. Answer 4 offers a summarized version of these concepts focusing mainly on well-characterized tumor suppressor genes and the importance of identifying synthetic lethal partners. Answer 5 adds information on the importance of genetic context and immune evasion mechanisms. Answer 1 lacks in-depth information and focuses on why tumor suppressor genes can't be directly targeted, while also missing mentioning significant research in the field.</t>
+  </si>
+  <si>
+    <t>Considering the level of detail, clarity, and comprehensiveness of each answer, Answer 0 provides a more structured and inclusive approach to designing a pharmacokinetic study. It mentions specific phases, types of studies, and a wide range of checks including populations, food effect, drug interactions, bioequivalence, and pharmacogenomics, showing a thorough understanding of the study design process. Answer 1 also outlines a detailed plan, but it is somewhat less comprehensive in the range of phases and checks compared to Answer 0. Answers 2, 4, and 5 provide valuable insights as well, but they either slightly miss some details or are less structured in their presentation. Answer 3 appears to be more about how to review and provide feedback on a study design rather than presenting an original study design, making it the least relevant to the question asked.</t>
+  </si>
+  <si>
+    <t>Answer 2 provides a comprehensive overview of synthetic lethality, including examples, mechanisms, and current research areas. Answer 3 offers a detailed insight into synthetic lethality mechanisms and highlights specific interactions, making it valuable for understanding the question's context. Answer 5 succinctly addresses the question's key points, focusing on PARP1 and its role in synthetic lethality, which is directly relevant. Answer 4 gives a brief summary, hitting key points but lacking the depth of other responses. Answer 1, while informative, does not directly answer the question regarding synthetic lethal relationships with parp gene mutations and focuses more on the concept and methodology of identifying synthetic lethal interactions. The zeroth answer is disqualified due to 'No response'.</t>
+  </si>
+  <si>
+    <t>All answers provide a detailed strategy for developing an antibody-drug conjugate targeting a specific antigen overexpressed in breast cancer. They cover key steps such as identifying the target antigen, selecting and characterizing the antibody, selecting the cytotoxic drug, conjugation methods, preclinical and clinical evaluations, and aiming for regulatory approval. The quality of answers is generally high, with comprehensive coverage of the necessary steps. Answer index 1 presents the strategy in a highly structured manner, making it easier to follow and understand, thus it is ranked the highest. Answers index 2 and 3 provide detailed steps but in a slightly less organized format than answer index 1. Answers index 4 and 5 also follow a detailed approach but with some minor lacks in detailed explanation compared to the top three. Answer index 0 provides a good overview but lacks the detailed step-by-step approach seen in the other responses, making it the least detailed.</t>
+  </si>
+  <si>
+    <t>All the provided answers outline comprehensive strategies for using CRISPR-Cas9 to edit genes implicated in Alzheimer's disease, focusing on different aspects like identifying target genes, designing guide RNAs (gRNAs), delivering the CRISPR-Cas9 system, and evaluating the edits. However, the answers vary in detail, specificity, and clarity. 
+- Answer 0 provides a general overview but lacks specific gene targets. 
+- Answer 1 details a procedure including specific genes and methodologies, offering a well-rounded strategy which is slightly more comprehensive. 
+- Answer 2 focuses on APOE specifically, offering details on delivery methods and editing strategy, showing a good balance between specificity and breadth. 
+- Answer 3 and Answer 4 are similar in providing practical steps for gene editing but vary slightly in the depth of explanation and explicit mention of tools. 
+- Answer 5 offers a broad perspective with an emphasis on AD linked genes and delivery methods but could benefit from more specificity in the steps.
+Considering these aspects, Answer 1 is ranked highest for its balance of specifics and comprehensive overview. Answer 2 follows for its specificity and focus on APOE. Answer 5, while detailed, ranks slightly lower due to less explicit practical steps, followed closely by Answer 3 and Answer 4 for their practical approach. Answer 0, while informative, is the least detailed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer 2 provides a detailed and comprehensive overview, including functions, mechanisms, and classification of POLR3E. It elaborates on its role in RNA polymerase III transcription and describes its specific functions in the process. Answers 5 and 3 also offer thorough insights but focus slightly more on the gene's function and mechanisms rather than its classification and broader implications. Answers 0, 1, and 4 are informative but overall less detailed in explaining the mechanisms and classifications compared to the top-ranked answers. </t>
+  </si>
+  <si>
+    <t>Upon reviewing all provided answers, it is evident that while each answer approaches the question from a different perspective, they all strive to offer valuable resources and contextual understanding regarding the gene POLR3E, its functions, and its interactions within various biological contexts. Answer 0 presents a broad overview of POLR3E, its role in RNA polymerase III, and lists several databases for further research, providing a solid foundation. Answer 1, which provides a direct link to the String database showcasing POLR3E interactions, offers practical, immediate value for exploring POLR3E networks. Answers 2 through 5 each contribute valuable insights by either listing multiple databases, discussing the gene's involvement and interactions within these databases, or proposing methodologies for further exploration, albeit with a focus varying in specifics and comprehensiveness.
+Given the concise provision of actionable information, Answer 1 stands out due to its specificity and direct utility for the query at hand. Subsequently, the foundational context provided by Answer 0 is highly useful. Answers 2 to 5, while informative and encompassing a broader range of resources, are distinguished by varying levels of detail and practical navigation guidance for the requested networks and interactions, thus forming a spectrum of usefulness.</t>
+  </si>
+  <si>
+    <t>The question seeks to understand the relationship between dependency scores of JAK1 in DepMapDB. Answer 2 directly relates to extracting dependency scores for JAK1, making it highly relevant. Answer 4, while more complex, also retains relevance by querying a broad range of mutations and characteristics related to JAK1. Answer 1, though less directly focused on dependency scores, maintains relevance by querying related datasets. Answer 5 provides a broad query across various related data, but its complex structure and less emphasis on dependency scores make it less pertinent. Answer 3 and 0 are the least relevant; Answer 3 because of mixed syntax and lesser clarity on its relevance to dependency scores, and Answer 0 because it doesn't provide a response.</t>
+  </si>
+  <si>
+    <t>The question asks for the relationship between the expression and mutation status of JAK1. Answer 1 provides a comprehensive SQL query that joins three relevant tables (ccle_cn_gistic, ccle_mutation, and ccle_variants) based on DepMap_ID and filters for JAK1, potentially offering a detailed insight into the relationship by considering gene expression, mutation status, and the deleterious effects of variants. Answer 4's SQL query is focused on joining only two tables (ccle_cn_gistic and ccle_mutation) but includes additional filters for Variant_Classification and Variant_Type, which may also provide valuable insights but is slightly less comprehensive. Answer 2 suggests a method to join mutation and CNV data based on a common ID, which is a good approach but lacks the depth of Answer 1 since it doesn't consider variants. Answer 3, though it seems to join relevant tables, is invalid due to the incorrect language specification (VB.NET instead of SQL). Answer 5 uses a segmented approach with separate queries for each table, which might not be as effective in analyzing relationships between the data elements. Finally, Answer 0 provides no response and therefore is ranked the last.</t>
+  </si>
+  <si>
+    <t>Given the question's focus on the relationship between JAK1 mutation status and JAK1 dependency, the answers have varying degrees of relevance:
+1. The first answer ('No response') provides no information and is thus ranked lowest.
+2. The second and third answers provide SQL queries that focus on joining tables and selecting information related to JAK1 mutations but don't explicitly address dependency based on mutation status.
+3. The fourth answer makes a specific query to identify cases with JAK1 missense mutations, protein changes, and non-zero gistic copy numbers, which could imply an attempt to correlate certain JAK1 mutations (specifically missense mutations) with phenotypic alterations indicative of dependency.
+4. The fifth answer implies an analysis based on variant types and driver status, which directly targets the dependency aspect of the question.
+5. The sixth answer outlines a process for creating a temporary table to further analyze JAK1 mutations and copy numbers, indicating a deeper dive into data potentially relevant for understanding JAK1 dependency. This answer combines data preparation with functional analysis, which aligns closest with the question's focus on understanding the relationship between mutation status and dependency.</t>
+  </si>
+  <si>
+    <t>Answer 1 provides the most comprehensive coverage of POLR3E's role in cancer, detailing both its direct involvement and interaction with other genes, thus receiving the highest ranking. Answer 4 similarly offers substantial insight into POLR3E's role and its interaction with cancer pathways and gets the second position. Answer 2 presents a nuanced view of POLR3E's indirect role through miRNA regulation and gene interactions, ranking it third. Answer 3, while informative, leans towards POLR3E's indirect involvement and interactions, placing it fourth. Answer 5 narrows down on POLR3E's direct role but lacks the depth seen in others, ranking it fifth. Answer 0 lays foundational knowledge about POLR3E, mainly describing its general function without deep cancer-specific mechanisms, ranking it last.</t>
+  </si>
+  <si>
+    <t>The question asks for the genes that can be harnessed in combination with the BRCA1 gene for synthetic lethality mechanisms. The best answers provide specific gene interactions, examples of synthetic lethality in cancer research, or a detailed overview of synthetic lethality and its potential in cancer treatment.
+Answer #2 provides an extensive list of specific studies and publications, including concrete examples of gene interactions and synthetic lethal partnerships. It directly addresses the question by including a study related to BRAF inhibitors' combination targets.
+Answer #3 offers a comprehensive explanation of synthetic lethality, including specific examples relevant to cancer research. This answer is informative and directly relevant to the query about utilizing synthetic lethality with the BRAF gene.
+Answer #4 summarizes key findings related to synthetic lethality, making it relevant but slightly less detailed compared to others.
+Answer #5 gives an overview of the significance of synthetic lethal interactions in cancer treatment and the challenges in developing these therapies. However, it lacks direct examples of gene interactions, making it less specific to the query.
+Answer #1 is theoretical and general, discussing the concept and potential of synthetic lethality without providing the specific gene interactions the question seeks.
+Answer #0 is marked as 'No response' and is therefore irrelevant to the question asked.</t>
+  </si>
+  <si>
+    <t>Each answer provides information relevant to the history, definition, and applications of synthetic lethality, with various focuses. Answer 2 provides the most comprehensive overview, mentioning the history of synthetic lethality in model organisms (including yeast, which is a direct answer to the question), how it's used in cancer research, and its broad applications across many models and screening techniques. Answer 3 provides detailed insight into yeast models and their relevance to human cell cultures, making it particularly relevant to the question. Answer 1, 4, and 5 similarly discuss the concept but with less detail on initial discovery and specific model organisms. Answer 0 is a non-response and is therefore the least useful.</t>
+  </si>
+  <si>
+    <t>Each answer presents a comprehensive overview of the challenges in translating in vitro findings to in vivo models, highlighting different factors such as cellular environments, genetic and physiological differences, ethical considerations, the complexity of in vivo systems, and more. The quality and depth of each answer vary, offering distinct perspectives and emphasis on various aspects of the translation process. The ranking is based on the completeness of the information provided, the breadth of challenges covered, and the clarity of the explanation.</t>
+  </si>
+  <si>
+    <t>All answers provide a comprehensive overview of various factors to consider when selecting a delivery method for a new drug. They cover aspects such as the drug's stability, bioavailability, targeting, patient compliance, safety, and cost, among others. The differences largely lie in the level of detail and the way each answer organizes the information. Answer 1 addresses the topic with a strong focus on practical considerations and patient-centric perspectives, including aspects like age and health status, abuse potential, and side effects, making it very comprehensive and considerate of the end-user's experience. Answer 5 delves deeply into the pharmacokinetic and pharmacodynamic considerations and is detailed in exploring the scientific aspects that must be considered, making it extremely informative for understanding drug delivery at a molecular and systemic level. The rest of the answers provide a blend of these perspectives to varying degrees.</t>
+  </si>
+  <si>
+    <t>Answer 2 provides a comprehensive overview of Project Achilles and Project DRIVE, including their objectives, methodologies, limitations, and acknowledgments of contributions, making it the most informative and structured response. Answer 3 succinctly outlines the projects, their goals, limitations, and acknowledges the existing potential despite these limitations, ranking it second. Answer 5 provides a good summary of Project Achilles' aims, challenges, and the importance of ongoing research, placing it third. Answer 4 summarizes the projects, their goals, the challenges faced in drug target discovery, and emphasizes the potential for discovering new treatments, ranking it fourth. Answer 1 contains detailed information but lacks the structured summary and insights provided by other answers, placing it fifth. Answer 0, providing no response, is ranked last.</t>
+  </si>
+  <si>
+    <t>Answer 2 provides the most comprehensive and structured overview of pseudokinases, detailing their definition, evolutionary origins, classifications, specific examples, and their roles in cellular processes and disease, along with some mechanics of action. Answer 3 also provides a thorough explanation but is less detailed compared to Answer 2 regarding the roles of pseudokinases and their mechanisms. Answer 5 follows closely with a focus on the critical roles of pseudokinases in biological processes and their need for further research. Answer 4, while informative, is slightly less comprehensive in detailing the mechanism by which pseudokinases operate within cellular processes. Answer 1 offers a basic explanation but lacks the depth and breadth found in other responses. Finally, Answer 0 is ranked the lowest as it provides no response.</t>
+  </si>
+  <si>
+    <t>All answers contain valuable information, however, they vary in the breadth and depth of the content provided. Answer 3 is unrelated to the effect of SMARCA4 mutations on the overall survival of NSCLC patients, focusing instead on proteins and methodologies used in a study, thus it ranks lowest. Answer 0 is not applicable as it contains 'No response'. Answer 1, 2, 5, and 4 all discuss the impact of SMARCA4 mutations on NSCLC patient outcomes with varying levels of detail and study references. Answer 5 provides comprehensive insights into SMARCA4 mutations, including the nature of the mutations, their impact on disease pathogenesis, and the limitations of current treatments, making it most useful for understanding the complex genetic alteration. Answer 2 includes information from specific studies, making it very reliable and informative. Answer 4 and 1 both summarize effects well but 4 includes additional details on mutation exclusivity, making it slightly more informative. Therefore, the ranking from best to worst is as follows: 5, 2, 4, 1, 3, 0.</t>
+  </si>
+  <si>
+    <t>The ranking of the answers is based on how closely they address the specific roles of SMARCA2 and SMARCA4 in cancer, as asked in the question. Answers that provide detailed findings from research, studies on mutations, implications for therapy, and the impact on cancer treatment are ranked higher.
+1. Answer 2 provides a comprehensive set of findings related to SMARCA4 gene alterations and the role of SMARCA2, suggesting a strong relevance to the question.
+2. Answer 3 aligns closely with the data provided in Answer 2 but elaborates more on the genetic and functional impacts of SMARCA4 mutations.
+3. Answer 4 summarizes key points related to SMARCA4 and SMARCA2's roles in cancer, highlighting therapeutic targets and mutation impacts, making it pertinent.
+4. Answer 5 reiterates the significance of SMARCA4 mutations and therapeutic implications but with less detail compared to the others.
+5. Answer 1 provides a more general overview of the roles of SMARCA2 and SMARCA4 in cancer without the detailed findings found in other responses.
+6. Answer 0 is ranked the lowest as it offers no response to the question.</t>
+  </si>
+  <si>
+    <t>All the answers provided detailed methods for validating a potential biomarker for a specific disease, encompassing a variety of approaches from laboratory assays to clinical trials and statistical analyses. The ranking is primarily based on the comprehensiveness and detailed insight provided in the answers:
+1. Answer 5, provided a comprehensive list that included reproducibility studies, sensitivity and specificity analysis, diagnostic accuracy tests, prospective clinical trials, and more, along with emphasizing the importance of ethical considerations.
+2. Answer 1, offered an extensive list covering clinical correlation studies, functional studies, replication studies, analytical validation, and others, showcasing a deep understanding of various validation methods.
+3. Answer 2, covered a broad range of validation methods, including laboratory-based assays, statistical analysis, clinical validation studies, and the importance of understanding the biological mechanism.
+4. Answer 3, provided an insightful list focusing on technical, biological, and clinical validation steps, and highlighted the necessity for regulatory validation.
+5. Answer 4, emphasized analytical and clinical validation, prognostic and predictive validation, and also mentioned the importance of multicenter and external validation.
+6. Answer 0, focused on cross-validation, external validation, biological validation, and clinical validation but provided a more concise overview compared to the others.
+Each answer brought valuable perspectives on the topic, but the rankings were determined by the breadth, depth, and unique considerations highlighted in each response.</t>
+  </si>
+  <si>
+    <t>The best answer is the one that provides the most comprehensive and relevant information regarding the BRCA genes, their structural variants, and the impact on interactions with paralogs. Answer 2 provides a detailed examination of specific BRCA gene structural variants and their potential effects on interactions with paralogs, including examples of intronic and frameshift variants. It offers in-depth content that directly addresses the question. Answer 3 offers general information on how structural variants can affect BRCA genes' functions and interactions with paralogs, which is informative but less detailed compared to Answer 2. Answer 1 provides some information about BRCA genes and mentions known variants but lacks specific details on structural variants affecting interactions with paralogs. Answer 5 mentions the need for specific data and techniques to understand the interactions affected by structural variants, offering a general understanding of the complexity involved but without concrete examples or specifics. Answer 4 refrains from addressing the question directly due to a purported lack of expertise in the domain but offers assistance, making it less useful for immediate informational needs. Answer 0 also avoids providing specifics, suggesting consulting experts or literature instead of answering the question.</t>
+  </si>
+  <si>
+    <t>The rankings take into consideration the completeness and correctness of the query given the question. Answer 2 is ranked highest as it provides the most comprehensive approach by joining the necessary tables and applying appropriate filtering criteria for high dependency based on gene POLR3E. Answer 4 follows, as it also offers a relevant join operation but with slightly less specific criteria. Answer 5 provides a useful union of results but might include broader results due to the lower threshold for 'high dependency'. Answer 1 gives a direct query but its use of 'high' without specific criteria or joins makes it less rigorous. Answer 3 offers a distinct approach yet its criteria might not directly match the 'high dependency' request due to the specific values used. Answer 0, with no response, is naturally ranked lowest.</t>
+  </si>
+  <si>
+    <t>Answer 2 provides a concise and informative overview of significant findings, including the identification of methotrexate as selectively lethal to MSH2-deficient cells, validation methods, and the mechanism of action, as well as mentioning a clinical trial. It balances detail with clarity and is slightly more focused than the others. Answer 3 expands on these points with more detail regarding the approaches used for identifying synthetic lethal interactions and the validation process. Answer 4 provides a broad overview but includes unique insights into the conditions that may affect synthetic lethal interactions and mentions various screening methods, which adds depth to the understanding of the subject matter. Answer 5 explains the discovery process of synthetic lethal pairs, the role of validation, and hints at drug repurposing based on synthetic lethal partnerships, which is valuable. Answer 1, while informative, is slightly more general than the others and doesn't highlight any specific findings or methodology as clearly. Answer 0 provides no response and is thus ranked last.</t>
+  </si>
+  <si>
+    <t>Answer indexes 2, 3, 4, and 5 all provide detailed and comprehensive insights into the question, with a focus on BRAF inhibitors, their effects, combination therapies, and clinical trials. Answer index 1 captures critical information about BRAF inhibitors and combination therapies as well but lacks the depth seen in the other answers. Answer index 0 provides no information. Therefore, answers 2, 3, 4, and 5 can be considered equally top-ranked for their detailed information and relevance to the question. Answer 1 follows for its relevant but less detailed content. Answer 0 is ranked last due to its lack of response.</t>
+  </si>
+  <si>
+    <t>The question asks for drugs that target ERBB2 in breast cancer. Answer 5 directly addresses the question providing detailed information about therapies targeting HER2 (ERBB2), such as the use of trastuzumab and the combination of pertuzumab with trastuzumab and docetaxel that have improved outcomes in HER2-positive metastatic breast cancer. This answer offers the most relevant information about drugs targeting ERBB2 directly and their efficacy, making it the best. The other answers, while providing useful context on cancer treatment, do not directly address ERBB2 targeting drugs as comprehensively.</t>
+  </si>
+  <si>
+    <t>The ranking primarily considers the comprehensiveness and specificity of information provided about synthetic lethal partners of ARID1A. Answer 2 provides the most detailed and extensive information, mentioning specific partners and suggesting pharmacological inhibitors. Answer 5 discusses synthetic lethality in a broader context and introduces a variety of methods for predicting interactions, offering a comprehensive overview of the topic. Answer 1 covers ARID1B as a strong synthetic lethal partner and mentions other potential drug targets, making it informative. Answer 3 provides an informative summary on bioinformatics approaches for predicting synthetic lethal interactions but is more general. Answer 4 offers a summarized insight with less depth. The non-responsive Answer 0 is ranked last.</t>
+  </si>
+  <si>
+    <t>Answer 2 provides the most comprehensive information related to the question, including specific targets (BCR-ABL and other cellular kinases), aspects of resistance, and broader impacts such as improved survival and progression-free survival outcomes. Answer 4 and Answer 3 also provide valuable information, focusing on the effectiveness of imatinib, its targets, and clinical outcomes, ranking them second and third respectively. Answer 1 lacks the direct naming of target genes, but discusses the therapeutic index and challenges in drug development, placing it fourth. Answer 5 expands on additional aspects, not directly answering the question but still providing relevant information on cancer treatments, ranking it fifth. Answer 0 does not provide any response and is ranked last.</t>
+  </si>
+  <si>
+    <t>The ranking of the answers is based on the detail and actionability of the information provided. Answer 3 provides the most comprehensive and actionable approach by detailing a methodology for investigating POLR3E-dependent cell lines and indications using the Dependency Map portal, including steps to identify, filter, and visualize data. Answer 2 gives a general overview of POLR3E and its potential effects on cell lines and disease indications based on well-known functions and transcriptional demands of the gene. It also touches on the potential therapeutic implications in certain diseases. Answer 1 offers a somewhat generalized view on the ubiquity of POLR3E expression and acknowledges the need for specific data to determine its enrichments or associations, aiming to assist in data analysis. Answer 0 gives some insights into POLR3E's expression in hematopoietic and non-hematopoietic cells, but it lacks specificity or actionability regarding dependent cell lines or high selectivity lineages. Answers 4 and 5 both acknowledge the need for specific information or data sources but do not provide as much direct value or specificity concerning POLR3E as others, making them less informative in context.</t>
+  </si>
+  <si>
+    <t>Answer 1, 2, and 5 provide specific information related to the gene POLR3E, mentioning that there are no current drugs targeting it directly but detail ongoing research or broader implications. Answer 3 provides a slightly more detailed response, mentioning not only the absence of specific drugs but also mentioning examples of drugs that target RNA polymerase III more broadly, which includes POLR3E. This distinction adds value by linking existing drugs to the broader context of RNA polymerase III targeting, despite not being specific to POLR3E. Answer 4 also states there are no drugs specifically targeting POLR3E, but without the additional context found in other responses. Answer 0 gives a generic disclaimer about the limitations of the AI's knowledge without providing any specific information regarding POLR3E.</t>
+  </si>
+  <si>
+    <t>The question asked for the model organisms in which synthetic lethality was first observed. Answer 5 directly addresses the question by stating that synthetic lethality was first observed in fruit flies (Drosophila melanogaster), over a century ago. Furthermore, answer 5 also points to the use of yeast (Saccharomyces cerevisiae) for large-scale synthetic lethal screenings, providing additional relevant information to the question. The other answers provide valuable insights into the concept of synthetic lethality, its applications, and advancements in technology that facilitate research in this area but do not directly address the historical aspect of where synthetic lethality was first observed as explicitly as answer 5 does. Answers 2 and 3 provide detailed information about the development, application, and scientific studies of synthetic lethality but without mentioning the specific model organisms as clearly as answer 5. Answer 4 and 1 elaborate on technologies and the application of synthetic lethality in various biological and medical contexts without directly answering the question's focus. Answer 0 is not considered since it provides no response.</t>
+  </si>
+  <si>
+    <t>All provided answers offer substantial information on the mutations found in the helicase domain of SMARCA4. However, they have differences in the comprehensiveness, specificity, and additional insights they provide. Answer 4 is the most comprehensive, providing detailed insights into the nature of mutations, their functional implications, the context of SMARCA4 within chromatin remodeling complexes, and potential therapeutic targets. Answer 3, despite starting with a misleading statement about the number of previously identified SMARCA4 variants, still offers extensive detail similar to Answer 4. Answer 2 and Answer 5 provide solid overviews but lack the depth seen in Answer 4 and Answer 3, while Answer 1 is detailed but sits in the middle of the pack due to lesser emphasis on functional implications and therapeutic insights. Lastly, Answer 0 does not provide any information.</t>
+  </si>
+  <si>
+    <t>The rankings are determined by the specificity and relevance of each answer to the question about identifying mutations in the PAS domain for the target protein with high selectivity for prostate cancer cell lines. Answer 2 and Answer 3, despite some syntax errors and formatting issues, attempt to filter based on specificity to prostate cancer and include criteria like deleterious mutations and hotspots, which are crucial for identifying relevant mutations. Answer 4 and Answer 5 focus on mutations but lack the specificity or detailed criteria seen in Answer 2 and Answer 3, making them less comprehensive. Answer 1 attempts to address the question but is overly simplistic and lacks any detail beyond basic joins and where clauses. It doesn't specify any criteria for determining relevance or specificity to prostate cancer. Answer 0, which is 'No response', is naturally ranked last because it provides no information.</t>
+  </si>
+  <si>
+    <t>Answer 5 provides the most detailed and comprehensive methodology for identifying protein domains enriched for pathogenic mutations in breast cancer patients. It outlines a step-by-step approach covering identification of mutations, mapping to protein domains, analyzing mutation frequency, statistical analysis, considering functional impact, and integrating clinical data. Answer 1 also provides a solid methodology but lacks the detailed step-by-step process and clarity found in Answer 5. Answer 4 follows with a similar approach to Answer 1, offering a slightly less comprehensive view. Answer 2 provides useful general guidance but is more focused on the limitations of the AI's abilities rather than giving a clear methodology. Answer 3 acknowledges the AI's limitations upfront and provides a high-level overview of the steps but lacks the detail and expert assurance found in other responses.</t>
+  </si>
+  <si>
+    <t>- Answer 4 succinctly summarizes key points about pseudokinases, combining breadth and depth while directly touching on the question about proteins with both kinase and pseudokinase domains by mentioning specific examples (e.g., four Janus tyrosine kinases and GCN2).
+- Answer 3 provides a comprehensive explanation of pseudokinases, including their evolutionary origins, classification, structure, and examples, albeit less concisely than answer 4.
+- Answers 1 and 5 both offer detailed information on the biology and relevance of pseudokinases, with answer 5 including a notable focus on their pathological roles and interaction with active kinases.
+- Answer 2 elaborates on the evolution, classification, and biology of pseudokinases, though it could be considered less comprehensive than answers 3 and 4 in addressing the specifics of proteins having both domains as well as the applied context.
+- Answer 0 is ranked lowest due to providing no response.</t>
+  </si>
+  <si>
+    <t>All answers provide varying depths of information, but they have different focuses. Answer 3 and Answer 2 offer the most comprehensive information, covering the classification, evolution, and functional implications of pseudokinases, along with the specific examples of pseudokinases that act similar to receptor tyrosine kinases (RTKs). They also mention the role of pseudokinases in cellular processes and diseases like cancer, making them more informative. Answer 5 and Answer 4 provide valuable insights but are less detailed in terms of examples and specific roles. Answer 1 provides a good summary but lacks the detail provided by others. Answer 0 is discarded as it has no relevant information.</t>
+  </si>
+  <si>
+    <t>Answer 1 provides detailed outcomes of specific SMARCA4 mutants (A1186T and R973L) that demonstrate their ability to rescue growth defects after SMARCA2 depletion, alongside comprehensive experimental data including CRISPR/Cas9 validation, ATAC-seq results, and acknowledgment of missense mutants' loss-of-function status. Answer 2 summarizes these findings with a focus on the A1186T mutation and its unique capacity to maintain cell viability in the absence of SMARCA2, further elaborating on experimental evidence such as ChIPseq studies, the correlation between chromatin accessibility and growth phenotype restoration, and a broader review of mutant effects. Answer 4 summarizes the involvement of various SMARCA4 mutations in sensitivity to SMARCA2 loss, specifically highlighting the exceptional case of A1186T. It also identifies SMARCA2 as a therapeutic target, noting ongoing development of related inhibitors. Answer 5 provides an overarching view of SMARCA4 alterations in a large cancer patient cohort, emphasizing the broader context of SMARCA4 mutations in cancer and their potential for personalized therapy based on paralog dependency. Answer 3 and mixtral-instruct contain unrelated information, making them the least relevant to the question.</t>
+  </si>
+  <si>
+    <t>Based on the details and guidance provided in each answer, Answer 4 gives the most direct and concrete information to the original question by listing specific tissue types and conditions that could have a gene set enrichment profile similar to GSE249645, related to inflammatory stimuli and immune response. This answer not only provides a direct response to the query but also includes potential implications of this similarity in various tissues, making it robust and comprehensive.
+Answers 3, 2, 1, and 5 follow in ranking due to their progressively lesser specificity and direct application to the original question. They mainly guide on how to approach the analysis or find similar data without directly addressing which tissue types could be similar. Answer 0 solely redirects to using tools without offering direct insight into the question, placing it last.</t>
+  </si>
+  <si>
     <t>Patient Stratification</t>
   </si>
   <si>
     <t>Market Research</t>
+  </si>
+  <si>
+    <t>Potential of the Synthetic Lethality Principle</t>
+  </si>
+  <si>
+    <t>Synthetic lethality as an engine for cancer drug target discovery</t>
+  </si>
+  <si>
+    <t>Detailed understanding</t>
+  </si>
+  <si>
+    <t>Research Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional characterization of SMARCA4 variants identified by targeted exome sequencing of 131,668 cancer patients </t>
+  </si>
+  <si>
+    <t>Gene Overview</t>
+  </si>
+  <si>
+    <t>General understanding</t>
+  </si>
+  <si>
+    <t>Emerging roles of pseudokinases</t>
+  </si>
+  <si>
+    <t>Searching for synthetic lethality in cancer</t>
+  </si>
+  <si>
+    <t>No category</t>
+  </si>
+  <si>
+    <t>Compbio process detail</t>
   </si>
 </sst>
 </file>
@@ -455,13 +3059,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,82 +3090,1938 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
     </row>

--- a/files/galen_model_rankings.xlsx
+++ b/files/galen_model_rankings.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F102BDD7CA292FC700160B486359E32D51269BAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A7D37C9-AC37-6348-8840-EE0787A4C315}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2707,8 +2726,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2771,13 +2790,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2815,7 +2842,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2849,6 +2876,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2883,9 +2911,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3058,14 +3087,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3120,7 +3155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3149,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3207,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3236,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3265,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3294,7 +3329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3323,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3352,7 +3387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3381,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3410,7 +3445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3439,7 +3474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3468,7 +3503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3497,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3526,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3555,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3584,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3613,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3642,7 +3677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -3671,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3700,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3729,7 +3764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3755,7 +3790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3784,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3813,7 +3848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3842,7 +3877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -3871,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3900,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3929,7 +3964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -3958,7 +3993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -3984,7 +4019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -4013,7 +4048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4042,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -4071,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4100,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -4129,7 +4164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -4158,7 +4193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -4187,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4216,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -4245,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -4274,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -4303,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -4332,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -4361,7 +4396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -4390,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -4419,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -4448,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4477,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -4506,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -4535,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4564,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -4593,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -4622,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -4651,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -4680,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -4709,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -4738,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -4767,7 +4802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -4796,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -4825,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -4854,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -4883,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -4912,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -4941,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -4970,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -4996,7 +5031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
